--- a/docs/IK and trajectory algorithms.xlsx
+++ b/docs/IK and trajectory algorithms.xlsx
@@ -1223,6 +1223,117 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1259,12 +1370,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1297,111 +1402,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,67 +1528,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-14.668890498750928</c:v>
+                  <c:v>-23.82813296867765</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-15.262125378436776</c:v>
+                  <c:v>-23.519433521775909</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-15.842792873173584</c:v>
+                  <c:v>-23.19375952853526</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-16.410583064121127</c:v>
+                  <c:v>-22.851284810475221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-16.965192905424296</c:v>
+                  <c:v>-22.492192156142416</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-17.506326385957379</c:v>
+                  <c:v>-22.116673223551054</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-18.033694687313591</c:v>
+                  <c:v>-21.724928437889609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-18.547016337955782</c:v>
+                  <c:v>-21.317166884548143</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-19.046017363445763</c:v>
+                  <c:v>-20.893606197523482</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-19.53043143267238</c:v>
+                  <c:v>-20.454472443261693</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-20.454472443261693</c:v>
+                  <c:v>-19.53043143267238</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-20.893606197523482</c:v>
+                  <c:v>-19.046017363445763</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-21.317166884548143</c:v>
+                  <c:v>-18.547016337955782</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-21.724928437889609</c:v>
+                  <c:v>-18.033694687313591</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-22.116673223551054</c:v>
+                  <c:v>-17.506326385957379</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-22.492192156142416</c:v>
+                  <c:v>-16.965192905424296</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-22.851284810475221</c:v>
+                  <c:v>-16.410583064121127</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-23.19375952853526</c:v>
+                  <c:v>-15.842792873173584</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-23.519433521775909</c:v>
+                  <c:v>-15.262125378436776</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-23.82813296867765</c:v>
+                  <c:v>-14.668890498750928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1600,67 +1600,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>25.945180011944267</c:v>
+                  <c:v>12.992055089910252</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.408014600434004</c:v>
+                  <c:v>13.730417435430004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.857288205247652</c:v>
+                  <c:v>14.461451464682787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.293294764804742</c:v>
+                  <c:v>15.184767003910704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.716335298526101</c:v>
+                  <c:v>15.899977998934611</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.126717746171163</c:v>
+                  <c:v>16.606702721202282</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.524756803481743</c:v>
+                  <c:v>17.304563971527834</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.910773754219893</c:v>
+                  <c:v>17.993189281413734</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.285096298689638</c:v>
+                  <c:v>18.67221111184783</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.648058378833856</c:v>
+                  <c:v>19.341267049469508</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>20.000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.341267049469508</c:v>
+                  <c:v>20.648058378833856</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.67221111184783</c:v>
+                  <c:v>21.285096298689638</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.993189281413734</c:v>
+                  <c:v>21.910773754219893</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.304563971527834</c:v>
+                  <c:v>22.524756803481743</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.606702721202282</c:v>
+                  <c:v>23.126717746171163</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.899977998934611</c:v>
+                  <c:v>23.716335298526101</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.184767003910704</c:v>
+                  <c:v>24.293294764804742</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.461451464682787</c:v>
+                  <c:v>24.857288205247652</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.730417435430004</c:v>
+                  <c:v>25.408014600434004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.992055089910252</c:v>
+                  <c:v>25.945180011944267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1680,7 +1680,7 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-33.849974896909728</c:v>
+                  <c:v>-33.849974896909735</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-34.067691463555342</c:v>
@@ -1692,13 +1692,13 @@
                   <c:v>-34.435207100566458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-34.584810017331115</c:v>
+                  <c:v>-34.584810017331122</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-34.711532480019251</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-34.815306853230183</c:v>
+                  <c:v>-34.81530685323019</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-34.896077749614562</c:v>
@@ -1728,7 +1728,7 @@
                   <c:v>-34.711532480019251</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-34.584810017331122</c:v>
+                  <c:v>-34.584810017331115</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-34.435207100566458</c:v>
@@ -1740,7 +1740,7 @@
                   <c:v>-34.067691463555342</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-33.849974896909735</c:v>
+                  <c:v>-33.849974896909728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1752,67 +1752,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>9.9112783872395323</c:v>
+                  <c:v>-9.9112783872395216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9352891362541804</c:v>
+                  <c:v>-8.9352891362541698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9545308660430658</c:v>
+                  <c:v>-7.9545308660430551</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9695270353298122</c:v>
+                  <c:v>-6.9695270353298016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9808033688150415</c:v>
+                  <c:v>-5.9808033688150299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9888875765820719</c:v>
+                  <c:v>-4.9888875765820613</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9943090724429657</c:v>
+                  <c:v>-3.9943090724429551</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9975986913752215</c:v>
+                  <c:v>-2.9975986913752113</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9992884062000542</c:v>
+                  <c:v>-1.9992884062000433</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99991104365317329</c:v>
+                  <c:v>-0.99991104365316275</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5.3029658040673552E-15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.99991104365316275</c:v>
+                  <c:v>0.99991104365317329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.9992884062000433</c:v>
+                  <c:v>1.9992884062000542</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.9975986913752113</c:v>
+                  <c:v>2.9975986913752215</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.994309072442936</c:v>
+                  <c:v>3.9943090724429466</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4.9888875765820613</c:v>
+                  <c:v>4.9888875765820719</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-5.9808033688150299</c:v>
+                  <c:v>5.9808033688150415</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.9695270353298016</c:v>
+                  <c:v>6.9695270353298122</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7.9545308660430551</c:v>
+                  <c:v>7.9545308660430658</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-8.9352891362541698</c:v>
+                  <c:v>8.9352891362541804</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-9.9112783872395216</c:v>
+                  <c:v>9.9112783872395323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1832,67 +1832,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-23.82813296867765</c:v>
+                  <c:v>-14.668890498750928</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-23.519433521775909</c:v>
+                  <c:v>-15.262125378436776</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-23.19375952853526</c:v>
+                  <c:v>-15.842792873173584</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-22.851284810475221</c:v>
+                  <c:v>-16.410583064121127</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-22.492192156142416</c:v>
+                  <c:v>-16.965192905424296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-22.116673223551054</c:v>
+                  <c:v>-17.506326385957379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-21.724928437889609</c:v>
+                  <c:v>-18.033694687313591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-21.317166884548143</c:v>
+                  <c:v>-18.547016337955782</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-20.893606197523482</c:v>
+                  <c:v>-19.046017363445763</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-20.454472443261693</c:v>
+                  <c:v>-19.53043143267238</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-19.53043143267238</c:v>
+                  <c:v>-20.454472443261693</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-19.046017363445763</c:v>
+                  <c:v>-20.893606197523482</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-18.547016337955782</c:v>
+                  <c:v>-21.317166884548143</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-18.033694687313591</c:v>
+                  <c:v>-21.724928437889609</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-17.506326385957379</c:v>
+                  <c:v>-22.116673223551054</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-16.965192905424296</c:v>
+                  <c:v>-22.492192156142416</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-16.410583064121127</c:v>
+                  <c:v>-22.851284810475221</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-15.842792873173584</c:v>
+                  <c:v>-23.19375952853526</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-15.262125378436776</c:v>
+                  <c:v>-23.519433521775909</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-14.668890498750928</c:v>
+                  <c:v>-23.82813296867765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1904,67 +1904,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-12.992055089910252</c:v>
+                  <c:v>-25.945180011944267</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-13.730417435430004</c:v>
+                  <c:v>-25.408014600434004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-14.461451464682787</c:v>
+                  <c:v>-24.857288205247652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-15.184767003910704</c:v>
+                  <c:v>-24.293294764804742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-15.899977998934611</c:v>
+                  <c:v>-23.716335298526101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-16.606702721202282</c:v>
+                  <c:v>-23.126717746171163</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-17.304563971527834</c:v>
+                  <c:v>-22.524756803481743</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-17.993189281413734</c:v>
+                  <c:v>-21.910773754219893</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-18.67221111184783</c:v>
+                  <c:v>-21.285096298689638</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-19.341267049469508</c:v>
+                  <c:v>-20.648058378833856</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-20.000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-20.648058378833856</c:v>
+                  <c:v>-19.341267049469508</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-21.285096298689638</c:v>
+                  <c:v>-18.67221111184783</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-21.910773754219893</c:v>
+                  <c:v>-17.993189281413734</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-22.524756803481743</c:v>
+                  <c:v>-17.304563971527834</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-23.126717746171163</c:v>
+                  <c:v>-16.606702721202282</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-23.716335298526101</c:v>
+                  <c:v>-15.899977998934611</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-24.293294764804742</c:v>
+                  <c:v>-15.184767003910704</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-24.857288205247652</c:v>
+                  <c:v>-14.461451464682787</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-25.408014600434004</c:v>
+                  <c:v>-13.730417435430004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-25.945180011944267</c:v>
+                  <c:v>-12.992055089910252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1984,67 +1984,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>15.109102133176851</c:v>
+                  <c:v>24.268344603103579</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.618998514088089</c:v>
+                  <c:v>23.876306657427222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.124980141395174</c:v>
+                  <c:v>23.475946796756844</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.626776958240217</c:v>
+                  <c:v>23.067478704594315</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.124121141318291</c:v>
+                  <c:v>22.6511203920364</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.616747243822388</c:v>
+                  <c:v>22.227094081416055</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.104392337119965</c:v>
+                  <c:v>21.795626087695972</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.586796151085473</c:v>
+                  <c:v>21.356946697677845</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.063701213013974</c:v>
+                  <c:v>20.911290047091697</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.53485298504166</c:v>
+                  <c:v>20.458893995630973</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.458893995630973</c:v>
+                  <c:v>19.53485298504166</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.911290047091697</c:v>
+                  <c:v>19.063701213013974</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.356946697677845</c:v>
+                  <c:v>18.586796151085473</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.795626087695972</c:v>
+                  <c:v>18.104392337119965</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.227094081416055</c:v>
+                  <c:v>17.616747243822388</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.651120392036404</c:v>
+                  <c:v>17.124121141318291</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.067478704594315</c:v>
+                  <c:v>16.626776958240217</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.475946796756844</c:v>
+                  <c:v>16.124980141395174</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23.876306657427222</c:v>
+                  <c:v>15.618998514088089</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.268344603103579</c:v>
+                  <c:v>15.109102133176851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2056,67 +2056,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-22.151297559836966</c:v>
+                  <c:v>-16.785937542017532</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-21.98772557876913</c:v>
+                  <c:v>-17.150706457094863</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-21.812418120044455</c:v>
+                  <c:v>-17.506321549885975</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-21.625468750264794</c:v>
+                  <c:v>-17.852593018450641</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-21.426977249652715</c:v>
+                  <c:v>-18.189336047807984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-21.217049558795946</c:v>
+                  <c:v>-18.516370908577485</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-20.995797722103841</c:v>
+                  <c:v>-18.833523052905722</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-20.763339828006092</c:v>
+                  <c:v>-19.140623207627524</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-20.519799945925545</c:v>
+                  <c:v>-19.437507464611908</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-20.265308060058818</c:v>
+                  <c:v>-19.724017368244535</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-19.724017368244535</c:v>
+                  <c:v>-20.265308060058818</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-19.437507464611908</c:v>
+                  <c:v>-20.519799945925545</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-19.140623207627524</c:v>
+                  <c:v>-20.763339828006092</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-18.833523052905722</c:v>
+                  <c:v>-20.995797722103841</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-18.516370908577485</c:v>
+                  <c:v>-21.217049558795946</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-18.189336047807981</c:v>
+                  <c:v>-21.426977249652715</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-17.852593018450641</c:v>
+                  <c:v>-21.625468750264794</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-17.506321549885975</c:v>
+                  <c:v>-21.812418120044455</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-17.150706457094863</c:v>
+                  <c:v>-21.98772557876913</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-16.785937542017532</c:v>
+                  <c:v>-22.151297559836966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2208,67 +2208,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-6.1173959351322393</c:v>
+                  <c:v>6.1173959351322393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.5150001145893084</c:v>
+                  <c:v>5.5150001145893084</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.909660780839868</c:v>
+                  <c:v>4.909660780839868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.3017010207898609</c:v>
+                  <c:v>4.3017010207898609</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.6914453199416575</c:v>
+                  <c:v>3.6914453199416575</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.0792193892068549</c:v>
+                  <c:v>3.0792193892068549</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.4653499910650627</c:v>
+                  <c:v>2.4653499910650627</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.8501647651614226</c:v>
+                  <c:v>1.8501647651614226</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.2339920534359656</c:v>
+                  <c:v>1.2339920534359656</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.61716072487813445</c:v>
+                  <c:v>0.61716072487813445</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61716072487813523</c:v>
+                  <c:v>-0.61716072487813523</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2339920534359656</c:v>
+                  <c:v>-1.2339920534359656</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.8501647651614226</c:v>
+                  <c:v>-1.8501647651614226</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4653499910650618</c:v>
+                  <c:v>-2.4653499910650618</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0792193892068549</c:v>
+                  <c:v>-3.0792193892068549</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.6914453199416584</c:v>
+                  <c:v>-3.6914453199416584</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.3017010207898609</c:v>
+                  <c:v>-4.3017010207898609</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.909660780839868</c:v>
+                  <c:v>-4.909660780839868</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.5150001145893075</c:v>
+                  <c:v>-5.5150001145893075</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.1173959351322393</c:v>
+                  <c:v>-6.1173959351322393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2288,67 +2288,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>24.268344603103579</c:v>
+                  <c:v>15.109102133176851</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.876306657427222</c:v>
+                  <c:v>15.618998514088089</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.475946796756844</c:v>
+                  <c:v>16.124980141395174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.067478704594315</c:v>
+                  <c:v>16.626776958240217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.6511203920364</c:v>
+                  <c:v>17.124121141318291</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.227094081416055</c:v>
+                  <c:v>17.616747243822388</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.795626087695972</c:v>
+                  <c:v>18.104392337119965</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.356946697677845</c:v>
+                  <c:v>18.586796151085473</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.911290047091697</c:v>
+                  <c:v>19.063701213013974</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.458893995630973</c:v>
+                  <c:v>19.53485298504166</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.53485298504166</c:v>
+                  <c:v>20.458893995630973</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.063701213013974</c:v>
+                  <c:v>20.911290047091697</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.586796151085473</c:v>
+                  <c:v>21.356946697677845</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.104392337119965</c:v>
+                  <c:v>21.795626087695972</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.616747243822388</c:v>
+                  <c:v>22.227094081416055</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.124121141318291</c:v>
+                  <c:v>22.651120392036404</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.626776958240217</c:v>
+                  <c:v>23.067478704594315</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.124980141395174</c:v>
+                  <c:v>23.475946796756844</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.618998514088089</c:v>
+                  <c:v>23.876306657427222</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.109102133176851</c:v>
+                  <c:v>24.268344603103579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2360,67 +2360,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>16.785937542017532</c:v>
+                  <c:v>22.151297559836966</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.150706457094863</c:v>
+                  <c:v>21.98772557876913</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.506321549885975</c:v>
+                  <c:v>21.812418120044455</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.852593018450641</c:v>
+                  <c:v>21.625468750264794</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.189336047807984</c:v>
+                  <c:v>21.426977249652715</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.516370908577485</c:v>
+                  <c:v>21.217049558795946</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.833523052905722</c:v>
+                  <c:v>20.995797722103841</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.140623207627524</c:v>
+                  <c:v>20.763339828006092</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.437507464611908</c:v>
+                  <c:v>20.519799945925545</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.724017368244535</c:v>
+                  <c:v>20.265308060058818</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.265308060058818</c:v>
+                  <c:v>19.724017368244535</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.519799945925545</c:v>
+                  <c:v>19.437507464611908</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.763339828006092</c:v>
+                  <c:v>19.140623207627524</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.995797722103841</c:v>
+                  <c:v>18.833523052905722</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.217049558795946</c:v>
+                  <c:v>18.516370908577485</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.426977249652715</c:v>
+                  <c:v>18.189336047807981</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.625468750264794</c:v>
+                  <c:v>17.852593018450641</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.812418120044455</c:v>
+                  <c:v>17.506321549885975</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21.98772557876913</c:v>
+                  <c:v>17.150706457094863</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22.151297559836966</c:v>
+                  <c:v>16.785937542017532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2575,11 +2575,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165170560"/>
-        <c:axId val="165188736"/>
+        <c:axId val="204717056"/>
+        <c:axId val="205456128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165170560"/>
+        <c:axId val="204717056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -2610,13 +2610,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165188736"/>
+        <c:crossAx val="205456128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165188736"/>
+        <c:axId val="205456128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -2656,7 +2656,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165170560"/>
+        <c:crossAx val="204717056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -2840,11 +2840,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165192832"/>
-        <c:axId val="165194368"/>
+        <c:axId val="177076864"/>
+        <c:axId val="205464704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165192832"/>
+        <c:axId val="177076864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2853,12 +2853,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165194368"/>
+        <c:crossAx val="205464704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165194368"/>
+        <c:axId val="205464704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2869,7 +2869,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165192832"/>
+        <c:crossAx val="177076864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3560,7 +3560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3596,14 +3598,14 @@
       <c r="AB1" s="59"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="149">
+      <c r="C2" s="104"/>
+      <c r="D2" s="107">
         <v>1.5</v>
       </c>
-      <c r="E2" s="150"/>
+      <c r="E2" s="108"/>
       <c r="O2" s="59"/>
       <c r="P2" s="59"/>
       <c r="Q2" s="59"/>
@@ -3620,14 +3622,14 @@
       <c r="AB2" s="59"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="151">
-        <v>20</v>
-      </c>
-      <c r="E3" s="152"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="109">
+        <v>-20</v>
+      </c>
+      <c r="E3" s="110"/>
       <c r="O3" s="59"/>
       <c r="P3" s="59"/>
       <c r="Q3" s="59"/>
@@ -3660,20 +3662,20 @@
       <c r="AB4" s="59"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="158"/>
-      <c r="K5" s="158"/>
-      <c r="L5" s="158"/>
-      <c r="M5" s="159"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="117"/>
       <c r="N5" s="54"/>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
@@ -3691,30 +3693,30 @@
       <c r="AB5" s="59"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="142"/>
-      <c r="D6" s="141" t="s">
+      <c r="C6" s="122"/>
+      <c r="D6" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="142"/>
-      <c r="F6" s="141" t="s">
+      <c r="E6" s="122"/>
+      <c r="F6" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="142"/>
-      <c r="H6" s="141" t="s">
+      <c r="G6" s="122"/>
+      <c r="H6" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="142"/>
-      <c r="J6" s="141" t="s">
+      <c r="I6" s="122"/>
+      <c r="J6" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="142"/>
-      <c r="L6" s="141" t="s">
+      <c r="K6" s="122"/>
+      <c r="L6" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="142"/>
+      <c r="M6" s="122"/>
       <c r="O6" s="59"/>
       <c r="P6" s="59"/>
       <c r="Q6" s="59"/>
@@ -3904,20 +3906,20 @@
       <c r="AB10" s="59"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="162"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="120"/>
       <c r="O11" s="59"/>
       <c r="P11" s="59"/>
       <c r="Q11" s="59"/>
@@ -3934,25 +3936,25 @@
       <c r="AB11" s="59"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B12" s="153" t="s">
+      <c r="B12" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="155">
-        <f>TAN((2 - D2) * PI() / 4) * D3</f>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113">
+        <f>TAN((2 - D2) * PI() / 4) * ABS(D3)</f>
         <v>8.2842712474619002</v>
       </c>
-      <c r="F12" s="156"/>
-      <c r="G12" s="128" t="s">
+      <c r="F12" s="114"/>
+      <c r="G12" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="130"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="129"/>
       <c r="O12" s="59"/>
       <c r="P12" s="59"/>
       <c r="Q12" s="59"/>
@@ -3969,25 +3971,25 @@
       <c r="AB12" s="59"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="139">
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="138">
         <f>SQRT((E12-C7)^2+C9^2)</f>
         <v>34.641016151377549</v>
       </c>
-      <c r="F13" s="140"/>
-      <c r="G13" s="136" t="s">
+      <c r="F13" s="139"/>
+      <c r="G13" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="138"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="137"/>
       <c r="O13" s="59"/>
       <c r="P13" s="59"/>
       <c r="Q13" s="59"/>
@@ -4004,23 +4006,23 @@
       <c r="AB13" s="59"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="139">
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="138">
         <f>SQRT((E12-E7)^2+E9^2)</f>
         <v>43.284271247461902</v>
       </c>
-      <c r="F14" s="140"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="138"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="137"/>
       <c r="O14" s="59"/>
       <c r="P14" s="59"/>
       <c r="Q14" s="59"/>
@@ -4037,23 +4039,23 @@
       <c r="AB14" s="59"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="139">
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="138">
         <f>SQRT((E12-G7)^2+G9^2)</f>
         <v>34.641016151377549</v>
       </c>
-      <c r="F15" s="140"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="138"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="137"/>
       <c r="O15" s="59"/>
       <c r="P15" s="59"/>
       <c r="Q15" s="59"/>
@@ -4070,68 +4072,68 @@
       <c r="AB15" s="59"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="139">
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="138">
         <f>SQRT((E12-I7)^2+I9^2)</f>
         <v>23.178833020733549</v>
       </c>
-      <c r="F16" s="140"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="138"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="137"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="139">
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="138">
         <f>SQRT((E12-K7)^2+K9^2)</f>
         <v>26.715728752538098</v>
       </c>
-      <c r="F17" s="140"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="138"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="137"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="139">
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="138">
         <f>SQRT((E12-M7)^2+M9^2)</f>
         <v>23.178833020733549</v>
       </c>
-      <c r="F18" s="140"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="138"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="137"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
       <c r="E19" s="48">
         <f>ATAN2(-(E12-C7), C9)</f>
         <v>2.5261129449194057</v>
@@ -4140,22 +4142,22 @@
         <f t="shared" ref="F19:F24" si="0">DEGREES(E19)</f>
         <v>144.73561031724535</v>
       </c>
-      <c r="G19" s="105" t="s">
+      <c r="G19" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="107"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="144"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
       <c r="E20" s="48">
         <f>ATAN2(-(E12-E7), E9)</f>
         <v>3.1415926535897931</v>
@@ -4164,20 +4166,20 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="G20" s="108"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="110"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="147"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
       <c r="E21" s="48">
         <f>ATAN2(-(E12-G7), G9)</f>
         <v>-2.5261129449194057</v>
@@ -4186,20 +4188,20 @@
         <f t="shared" si="0"/>
         <v>-144.73561031724535</v>
       </c>
-      <c r="G21" s="108"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="110"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="147"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="48">
         <f>ATAN2(-(E12-I7), I9)</f>
         <v>-1.04089353704597</v>
@@ -4208,20 +4210,20 @@
         <f t="shared" si="0"/>
         <v>-59.638806595178281</v>
       </c>
-      <c r="G22" s="108"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="110"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="147"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="115" t="s">
+      <c r="B23" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
       <c r="E23" s="48">
         <f>ATAN2(-(E12-K7), K9)</f>
         <v>0</v>
@@ -4230,20 +4232,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="110"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="147"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
       <c r="E24" s="48">
         <f>ATAN2(-(E12-M7), M9)</f>
         <v>1.04089353704597</v>
@@ -4252,117 +4254,117 @@
         <f t="shared" si="0"/>
         <v>59.638806595178281</v>
       </c>
-      <c r="G24" s="111"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="112"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="113"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="149"/>
+      <c r="K24" s="149"/>
+      <c r="L24" s="149"/>
+      <c r="M24" s="150"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="143" t="s">
+      <c r="B25" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="123">
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="158">
         <f>MAX(E13:F18)</f>
         <v>43.284271247461902</v>
       </c>
-      <c r="F25" s="124"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="127"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="161"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="162"/>
     </row>
     <row r="26" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="131" t="s">
+      <c r="B26" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="131"/>
       <c r="E26" s="74">
         <f>SIGN(E12) * D3 / E25</f>
-        <v>0.46206160860737044</v>
+        <v>-0.46206160860737044</v>
       </c>
       <c r="F26" s="75">
         <f>ABS(E26)</f>
         <v>0.46206160860737044</v>
       </c>
-      <c r="G26" s="133" t="s">
+      <c r="G26" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="135"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="134"/>
     </row>
     <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="114" t="s">
+      <c r="B29" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="114"/>
-      <c r="R29" s="114"/>
-      <c r="S29" s="114"/>
-      <c r="T29" s="114"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="151"/>
+      <c r="N29" s="151"/>
+      <c r="O29" s="151"/>
+      <c r="P29" s="151"/>
+      <c r="Q29" s="151"/>
+      <c r="R29" s="151"/>
+      <c r="S29" s="151"/>
+      <c r="T29" s="151"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="120" t="s">
+      <c r="C30" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="121"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="117" t="s">
+      <c r="D30" s="156"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="118"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="120" t="s">
+      <c r="G30" s="153"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="J30" s="121"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="117" t="s">
+      <c r="J30" s="156"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="M30" s="118"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="120" t="s">
+      <c r="M30" s="153"/>
+      <c r="N30" s="154"/>
+      <c r="O30" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="117" t="s">
+      <c r="P30" s="156"/>
+      <c r="Q30" s="157"/>
+      <c r="R30" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="S30" s="118"/>
-      <c r="T30" s="119"/>
+      <c r="S30" s="153"/>
+      <c r="T30" s="154"/>
     </row>
     <row r="31" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="104"/>
+      <c r="B31" s="141"/>
       <c r="C31" s="62" t="s">
         <v>60</v>
       </c>
@@ -4424,55 +4426,55 @@
       </c>
       <c r="C32" s="81">
         <f>($B32-0.5) * $E$26 + $E$19</f>
-        <v>2.2950821406157207</v>
+        <v>2.7571437492230908</v>
       </c>
       <c r="D32" s="82">
         <f>$E$12+$E$13*COS(C32)</f>
-        <v>-14.668890498750928</v>
+        <v>-23.82813296867765</v>
       </c>
       <c r="E32" s="83">
         <f>$E$13*SIN(C32)</f>
-        <v>25.945180011944267</v>
+        <v>12.992055089910252</v>
       </c>
       <c r="F32" s="84">
         <f>($B32 - 0.5) * $E$26 + $E$20</f>
-        <v>2.9105618492861081</v>
+        <v>3.3726234578934782</v>
       </c>
       <c r="G32" s="85">
         <f>$E$12+$E$14*COS(F32)</f>
-        <v>-33.849974896909728</v>
+        <v>-33.849974896909735</v>
       </c>
       <c r="H32" s="86">
         <f>$E$14*SIN(F32)</f>
-        <v>9.9112783872395323</v>
+        <v>-9.9112783872395216</v>
       </c>
       <c r="I32" s="81">
         <f>($B32 - 0.5) * $E$26 + $E$21</f>
-        <v>-2.7571437492230908</v>
+        <v>-2.2950821406157207</v>
       </c>
       <c r="J32" s="82">
         <f>$E$12+$E$15*COS(I32)</f>
-        <v>-23.82813296867765</v>
+        <v>-14.668890498750928</v>
       </c>
       <c r="K32" s="83">
         <f>$E$15*SIN(I32)</f>
-        <v>-12.992055089910252</v>
+        <v>-25.945180011944267</v>
       </c>
       <c r="L32" s="84">
         <f xml:space="preserve"> ($B32 - 0.5) * $E$26 + $E$22</f>
-        <v>-1.2719243413496553</v>
+        <v>-0.80986273274228471</v>
       </c>
       <c r="M32" s="85">
         <f>$E$12+$E$16*COS(L32)</f>
-        <v>15.109102133176851</v>
+        <v>24.268344603103579</v>
       </c>
       <c r="N32" s="86">
         <f>$E$16*SIN(L32)</f>
-        <v>-22.151297559836966</v>
+        <v>-16.785937542017532</v>
       </c>
       <c r="O32" s="81">
         <f>($B32 - 0.5) * $E$26 + $E$23</f>
-        <v>-0.23103080430368522</v>
+        <v>0.23103080430368522</v>
       </c>
       <c r="P32" s="82">
         <f>$E$12+$E$17*COS(O32)</f>
@@ -4480,19 +4482,19 @@
       </c>
       <c r="Q32" s="83">
         <f>$E$17*SIN(O32)</f>
-        <v>-6.1173959351322393</v>
+        <v>6.1173959351322393</v>
       </c>
       <c r="R32" s="84">
         <f>($B32 - 0.5) * $E$26 + $E$24</f>
-        <v>0.80986273274228471</v>
+        <v>1.2719243413496553</v>
       </c>
       <c r="S32" s="85">
         <f>$E$12+$E$18*COS(R32)</f>
-        <v>24.268344603103579</v>
+        <v>15.109102133176851</v>
       </c>
       <c r="T32" s="86">
         <f>$E$18*SIN(R32)</f>
-        <v>16.785937542017532</v>
+        <v>22.151297559836966</v>
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
@@ -4501,19 +4503,19 @@
       </c>
       <c r="C33" s="65">
         <f t="shared" ref="C33:C52" si="1">($B33-0.5) * $E$26 + $E$19</f>
-        <v>2.3181852210460892</v>
+        <v>2.7340406687927223</v>
       </c>
       <c r="D33" s="66">
         <f t="shared" ref="D33:D52" si="2">$E$12+$E$13*COS(C33)</f>
-        <v>-15.262125378436776</v>
+        <v>-23.519433521775909</v>
       </c>
       <c r="E33" s="67">
         <f t="shared" ref="E33:E52" si="3">$E$13*SIN(C33)</f>
-        <v>25.408014600434004</v>
+        <v>13.730417435430004</v>
       </c>
       <c r="F33" s="71">
         <f t="shared" ref="F33:F52" si="4">($B33 - 0.5) * $E$26 + $E$20</f>
-        <v>2.9336649297164765</v>
+        <v>3.3495203774631097</v>
       </c>
       <c r="G33" s="72">
         <f t="shared" ref="G33:G52" si="5">$E$12+$E$14*COS(F33)</f>
@@ -4521,35 +4523,35 @@
       </c>
       <c r="H33" s="73">
         <f t="shared" ref="H33:H52" si="6">$E$14*SIN(F33)</f>
-        <v>8.9352891362541804</v>
+        <v>-8.9352891362541698</v>
       </c>
       <c r="I33" s="65">
         <f t="shared" ref="I33:I52" si="7">($B33 - 0.5) * $E$26 + $E$21</f>
-        <v>-2.7340406687927223</v>
+        <v>-2.3181852210460892</v>
       </c>
       <c r="J33" s="66">
         <f t="shared" ref="J33:J52" si="8">$E$12+$E$15*COS(I33)</f>
-        <v>-23.519433521775909</v>
+        <v>-15.262125378436776</v>
       </c>
       <c r="K33" s="67">
         <f t="shared" ref="K33:K52" si="9">$E$15*SIN(I33)</f>
-        <v>-13.730417435430004</v>
+        <v>-25.408014600434004</v>
       </c>
       <c r="L33" s="71">
         <f t="shared" ref="L33:L52" si="10" xml:space="preserve"> ($B33 - 0.5) * $E$26 + $E$22</f>
-        <v>-1.2488212609192866</v>
+        <v>-0.83296581317265328</v>
       </c>
       <c r="M33" s="72">
         <f t="shared" ref="M33:M52" si="11">$E$12+$E$16*COS(L33)</f>
-        <v>15.618998514088089</v>
+        <v>23.876306657427222</v>
       </c>
       <c r="N33" s="73">
         <f t="shared" ref="N33:N52" si="12">$E$16*SIN(L33)</f>
-        <v>-21.98772557876913</v>
+        <v>-17.150706457094863</v>
       </c>
       <c r="O33" s="65">
         <f t="shared" ref="O33:O52" si="13">($B33 - 0.5) * $E$26 + $E$23</f>
-        <v>-0.20792772387331671</v>
+        <v>0.20792772387331671</v>
       </c>
       <c r="P33" s="66">
         <f t="shared" ref="P33:P52" si="14">$E$12+$E$17*COS(O33)</f>
@@ -4557,19 +4559,19 @@
       </c>
       <c r="Q33" s="67">
         <f t="shared" ref="Q33:Q52" si="15">$E$17*SIN(O33)</f>
-        <v>-5.5150001145893084</v>
+        <v>5.5150001145893084</v>
       </c>
       <c r="R33" s="71">
         <f t="shared" ref="R33:R52" si="16">($B33 - 0.5) * $E$26 + $E$24</f>
-        <v>0.83296581317265328</v>
+        <v>1.2488212609192866</v>
       </c>
       <c r="S33" s="72">
         <f t="shared" ref="S33:S52" si="17">$E$12+$E$18*COS(R33)</f>
-        <v>23.876306657427222</v>
+        <v>15.618998514088089</v>
       </c>
       <c r="T33" s="73">
         <f t="shared" ref="T33:T52" si="18">$E$18*SIN(R33)</f>
-        <v>17.150706457094863</v>
+        <v>21.98772557876913</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
@@ -4578,19 +4580,19 @@
       </c>
       <c r="C34" s="65">
         <f t="shared" si="1"/>
-        <v>2.3412883014764576</v>
+        <v>2.7109375883623539</v>
       </c>
       <c r="D34" s="66">
         <f t="shared" si="2"/>
-        <v>-15.842792873173584</v>
+        <v>-23.19375952853526</v>
       </c>
       <c r="E34" s="67">
         <f t="shared" si="3"/>
-        <v>24.857288205247652</v>
+        <v>14.461451464682787</v>
       </c>
       <c r="F34" s="71">
         <f t="shared" si="4"/>
-        <v>2.956768010146845</v>
+        <v>3.3264172970327412</v>
       </c>
       <c r="G34" s="72">
         <f t="shared" si="5"/>
@@ -4598,35 +4600,35 @@
       </c>
       <c r="H34" s="73">
         <f t="shared" si="6"/>
-        <v>7.9545308660430658</v>
+        <v>-7.9545308660430551</v>
       </c>
       <c r="I34" s="65">
         <f t="shared" si="7"/>
-        <v>-2.7109375883623539</v>
+        <v>-2.3412883014764576</v>
       </c>
       <c r="J34" s="66">
         <f t="shared" si="8"/>
-        <v>-23.19375952853526</v>
+        <v>-15.842792873173584</v>
       </c>
       <c r="K34" s="67">
         <f t="shared" si="9"/>
-        <v>-14.461451464682787</v>
+        <v>-24.857288205247652</v>
       </c>
       <c r="L34" s="71">
         <f t="shared" si="10"/>
-        <v>-1.2257181804889181</v>
+        <v>-0.85606889360302185</v>
       </c>
       <c r="M34" s="72">
         <f t="shared" si="11"/>
-        <v>16.124980141395174</v>
+        <v>23.475946796756844</v>
       </c>
       <c r="N34" s="73">
         <f t="shared" si="12"/>
-        <v>-21.812418120044455</v>
+        <v>-17.506321549885975</v>
       </c>
       <c r="O34" s="65">
         <f t="shared" si="13"/>
-        <v>-0.18482464344294819</v>
+        <v>0.18482464344294819</v>
       </c>
       <c r="P34" s="66">
         <f t="shared" si="14"/>
@@ -4634,19 +4636,19 @@
       </c>
       <c r="Q34" s="67">
         <f t="shared" si="15"/>
-        <v>-4.909660780839868</v>
+        <v>4.909660780839868</v>
       </c>
       <c r="R34" s="71">
         <f t="shared" si="16"/>
-        <v>0.85606889360302185</v>
+        <v>1.2257181804889181</v>
       </c>
       <c r="S34" s="72">
         <f t="shared" si="17"/>
-        <v>23.475946796756844</v>
+        <v>16.124980141395174</v>
       </c>
       <c r="T34" s="73">
         <f t="shared" si="18"/>
-        <v>17.506321549885975</v>
+        <v>21.812418120044455</v>
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
@@ -4655,19 +4657,19 @@
       </c>
       <c r="C35" s="65">
         <f t="shared" si="1"/>
-        <v>2.3643913819068261</v>
+        <v>2.6878345079319854</v>
       </c>
       <c r="D35" s="66">
         <f t="shared" si="2"/>
-        <v>-16.410583064121127</v>
+        <v>-22.851284810475221</v>
       </c>
       <c r="E35" s="67">
         <f t="shared" si="3"/>
-        <v>24.293294764804742</v>
+        <v>15.184767003910704</v>
       </c>
       <c r="F35" s="71">
         <f t="shared" si="4"/>
-        <v>2.9798710905772134</v>
+        <v>3.3033142166023728</v>
       </c>
       <c r="G35" s="72">
         <f t="shared" si="5"/>
@@ -4675,35 +4677,35 @@
       </c>
       <c r="H35" s="73">
         <f t="shared" si="6"/>
-        <v>6.9695270353298122</v>
+        <v>-6.9695270353298016</v>
       </c>
       <c r="I35" s="65">
         <f t="shared" si="7"/>
-        <v>-2.6878345079319854</v>
+        <v>-2.3643913819068261</v>
       </c>
       <c r="J35" s="66">
         <f t="shared" si="8"/>
-        <v>-22.851284810475221</v>
+        <v>-16.410583064121127</v>
       </c>
       <c r="K35" s="67">
         <f t="shared" si="9"/>
-        <v>-15.184767003910704</v>
+        <v>-24.293294764804742</v>
       </c>
       <c r="L35" s="71">
         <f t="shared" si="10"/>
-        <v>-1.2026151000585497</v>
+        <v>-0.87917197403339031</v>
       </c>
       <c r="M35" s="72">
         <f t="shared" si="11"/>
-        <v>16.626776958240217</v>
+        <v>23.067478704594315</v>
       </c>
       <c r="N35" s="73">
         <f t="shared" si="12"/>
-        <v>-21.625468750264794</v>
+        <v>-17.852593018450641</v>
       </c>
       <c r="O35" s="65">
         <f t="shared" si="13"/>
-        <v>-0.16172156301257964</v>
+        <v>0.16172156301257964</v>
       </c>
       <c r="P35" s="66">
         <f t="shared" si="14"/>
@@ -4711,19 +4713,19 @@
       </c>
       <c r="Q35" s="67">
         <f t="shared" si="15"/>
-        <v>-4.3017010207898609</v>
+        <v>4.3017010207898609</v>
       </c>
       <c r="R35" s="71">
         <f t="shared" si="16"/>
-        <v>0.87917197403339031</v>
+        <v>1.2026151000585497</v>
       </c>
       <c r="S35" s="72">
         <f t="shared" si="17"/>
-        <v>23.067478704594315</v>
+        <v>16.626776958240217</v>
       </c>
       <c r="T35" s="73">
         <f t="shared" si="18"/>
-        <v>17.852593018450641</v>
+        <v>21.625468750264794</v>
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
@@ -4732,55 +4734,55 @@
       </c>
       <c r="C36" s="65">
         <f t="shared" si="1"/>
-        <v>2.3874944623371945</v>
+        <v>2.664731427501617</v>
       </c>
       <c r="D36" s="66">
         <f t="shared" si="2"/>
-        <v>-16.965192905424296</v>
+        <v>-22.492192156142416</v>
       </c>
       <c r="E36" s="67">
         <f t="shared" si="3"/>
-        <v>23.716335298526101</v>
+        <v>15.899977998934611</v>
       </c>
       <c r="F36" s="71">
         <f t="shared" si="4"/>
-        <v>3.0029741710075819</v>
+        <v>3.2802111361720043</v>
       </c>
       <c r="G36" s="72">
         <f t="shared" si="5"/>
-        <v>-34.584810017331115</v>
+        <v>-34.584810017331122</v>
       </c>
       <c r="H36" s="73">
         <f t="shared" si="6"/>
-        <v>5.9808033688150415</v>
+        <v>-5.9808033688150299</v>
       </c>
       <c r="I36" s="65">
         <f t="shared" si="7"/>
-        <v>-2.664731427501617</v>
+        <v>-2.3874944623371945</v>
       </c>
       <c r="J36" s="66">
         <f t="shared" si="8"/>
-        <v>-22.492192156142416</v>
+        <v>-16.965192905424296</v>
       </c>
       <c r="K36" s="67">
         <f t="shared" si="9"/>
-        <v>-15.899977998934611</v>
+        <v>-23.716335298526101</v>
       </c>
       <c r="L36" s="71">
         <f t="shared" si="10"/>
-        <v>-1.1795120196281812</v>
+        <v>-0.90227505446375889</v>
       </c>
       <c r="M36" s="72">
         <f t="shared" si="11"/>
-        <v>17.124121141318291</v>
+        <v>22.6511203920364</v>
       </c>
       <c r="N36" s="73">
         <f t="shared" si="12"/>
-        <v>-21.426977249652715</v>
+        <v>-18.189336047807984</v>
       </c>
       <c r="O36" s="65">
         <f t="shared" si="13"/>
-        <v>-0.13861848258221113</v>
+        <v>0.13861848258221113</v>
       </c>
       <c r="P36" s="66">
         <f t="shared" si="14"/>
@@ -4788,19 +4790,19 @@
       </c>
       <c r="Q36" s="67">
         <f t="shared" si="15"/>
-        <v>-3.6914453199416575</v>
+        <v>3.6914453199416575</v>
       </c>
       <c r="R36" s="71">
         <f t="shared" si="16"/>
-        <v>0.90227505446375889</v>
+        <v>1.1795120196281812</v>
       </c>
       <c r="S36" s="72">
         <f t="shared" si="17"/>
-        <v>22.6511203920364</v>
+        <v>17.124121141318291</v>
       </c>
       <c r="T36" s="73">
         <f t="shared" si="18"/>
-        <v>18.189336047807984</v>
+        <v>21.426977249652715</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
@@ -4809,19 +4811,19 @@
       </c>
       <c r="C37" s="65">
         <f t="shared" si="1"/>
-        <v>2.410597542767563</v>
+        <v>2.6416283470712485</v>
       </c>
       <c r="D37" s="66">
         <f t="shared" si="2"/>
-        <v>-17.506326385957379</v>
+        <v>-22.116673223551054</v>
       </c>
       <c r="E37" s="67">
         <f t="shared" si="3"/>
-        <v>23.126717746171163</v>
+        <v>16.606702721202282</v>
       </c>
       <c r="F37" s="71">
         <f t="shared" si="4"/>
-        <v>3.0260772514379504</v>
+        <v>3.2571080557416359</v>
       </c>
       <c r="G37" s="72">
         <f t="shared" si="5"/>
@@ -4829,35 +4831,35 @@
       </c>
       <c r="H37" s="73">
         <f t="shared" si="6"/>
-        <v>4.9888875765820719</v>
+        <v>-4.9888875765820613</v>
       </c>
       <c r="I37" s="65">
         <f t="shared" si="7"/>
-        <v>-2.6416283470712485</v>
+        <v>-2.410597542767563</v>
       </c>
       <c r="J37" s="66">
         <f t="shared" si="8"/>
-        <v>-22.116673223551054</v>
+        <v>-17.506326385957379</v>
       </c>
       <c r="K37" s="67">
         <f t="shared" si="9"/>
-        <v>-16.606702721202282</v>
+        <v>-23.126717746171163</v>
       </c>
       <c r="L37" s="71">
         <f t="shared" si="10"/>
-        <v>-1.1564089391978125</v>
+        <v>-0.92537813489412735</v>
       </c>
       <c r="M37" s="72">
         <f t="shared" si="11"/>
-        <v>17.616747243822388</v>
+        <v>22.227094081416055</v>
       </c>
       <c r="N37" s="73">
         <f t="shared" si="12"/>
-        <v>-21.217049558795946</v>
+        <v>-18.516370908577485</v>
       </c>
       <c r="O37" s="65">
         <f t="shared" si="13"/>
-        <v>-0.11551540215184261</v>
+        <v>0.11551540215184261</v>
       </c>
       <c r="P37" s="66">
         <f t="shared" si="14"/>
@@ -4865,19 +4867,19 @@
       </c>
       <c r="Q37" s="67">
         <f t="shared" si="15"/>
-        <v>-3.0792193892068549</v>
+        <v>3.0792193892068549</v>
       </c>
       <c r="R37" s="71">
         <f t="shared" si="16"/>
-        <v>0.92537813489412735</v>
+        <v>1.1564089391978125</v>
       </c>
       <c r="S37" s="72">
         <f t="shared" si="17"/>
-        <v>22.227094081416055</v>
+        <v>17.616747243822388</v>
       </c>
       <c r="T37" s="73">
         <f t="shared" si="18"/>
-        <v>18.516370908577485</v>
+        <v>21.217049558795946</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
@@ -4886,55 +4888,55 @@
       </c>
       <c r="C38" s="65">
         <f t="shared" si="1"/>
-        <v>2.4337006231979315</v>
+        <v>2.61852526664088</v>
       </c>
       <c r="D38" s="66">
         <f t="shared" si="2"/>
-        <v>-18.033694687313591</v>
+        <v>-21.724928437889609</v>
       </c>
       <c r="E38" s="67">
         <f t="shared" si="3"/>
-        <v>22.524756803481743</v>
+        <v>17.304563971527834</v>
       </c>
       <c r="F38" s="71">
         <f t="shared" si="4"/>
-        <v>3.0491803318683188</v>
+        <v>3.2340049753112674</v>
       </c>
       <c r="G38" s="72">
         <f t="shared" si="5"/>
-        <v>-34.815306853230183</v>
+        <v>-34.81530685323019</v>
       </c>
       <c r="H38" s="73">
         <f t="shared" si="6"/>
-        <v>3.9943090724429657</v>
+        <v>-3.9943090724429551</v>
       </c>
       <c r="I38" s="65">
         <f t="shared" si="7"/>
-        <v>-2.61852526664088</v>
+        <v>-2.4337006231979315</v>
       </c>
       <c r="J38" s="66">
         <f t="shared" si="8"/>
-        <v>-21.724928437889609</v>
+        <v>-18.033694687313591</v>
       </c>
       <c r="K38" s="67">
         <f t="shared" si="9"/>
-        <v>-17.304563971527834</v>
+        <v>-22.524756803481743</v>
       </c>
       <c r="L38" s="71">
         <f t="shared" si="10"/>
-        <v>-1.1333058587674441</v>
+        <v>-0.94848121532449592</v>
       </c>
       <c r="M38" s="72">
         <f t="shared" si="11"/>
-        <v>18.104392337119965</v>
+        <v>21.795626087695972</v>
       </c>
       <c r="N38" s="73">
         <f t="shared" si="12"/>
-        <v>-20.995797722103841</v>
+        <v>-18.833523052905722</v>
       </c>
       <c r="O38" s="65">
         <f t="shared" si="13"/>
-        <v>-9.2412321721474094E-2</v>
+        <v>9.2412321721474094E-2</v>
       </c>
       <c r="P38" s="66">
         <f t="shared" si="14"/>
@@ -4942,19 +4944,19 @@
       </c>
       <c r="Q38" s="67">
         <f t="shared" si="15"/>
-        <v>-2.4653499910650627</v>
+        <v>2.4653499910650627</v>
       </c>
       <c r="R38" s="71">
         <f t="shared" si="16"/>
-        <v>0.94848121532449592</v>
+        <v>1.1333058587674441</v>
       </c>
       <c r="S38" s="72">
         <f t="shared" si="17"/>
-        <v>21.795626087695972</v>
+        <v>18.104392337119965</v>
       </c>
       <c r="T38" s="73">
         <f t="shared" si="18"/>
-        <v>18.833523052905722</v>
+        <v>20.995797722103841</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
@@ -4963,19 +4965,19 @@
       </c>
       <c r="C39" s="65">
         <f t="shared" si="1"/>
-        <v>2.4568037036283004</v>
+        <v>2.5954221862105111</v>
       </c>
       <c r="D39" s="66">
         <f t="shared" si="2"/>
-        <v>-18.547016337955782</v>
+        <v>-21.317166884548143</v>
       </c>
       <c r="E39" s="67">
         <f t="shared" si="3"/>
-        <v>21.910773754219893</v>
+        <v>17.993189281413734</v>
       </c>
       <c r="F39" s="71">
         <f t="shared" si="4"/>
-        <v>3.0722834122986877</v>
+        <v>3.2109018948808985</v>
       </c>
       <c r="G39" s="72">
         <f t="shared" si="5"/>
@@ -4983,35 +4985,35 @@
       </c>
       <c r="H39" s="73">
         <f t="shared" si="6"/>
-        <v>2.9975986913752215</v>
+        <v>-2.9975986913752113</v>
       </c>
       <c r="I39" s="65">
         <f t="shared" si="7"/>
-        <v>-2.5954221862105111</v>
+        <v>-2.4568037036283004</v>
       </c>
       <c r="J39" s="66">
         <f t="shared" si="8"/>
-        <v>-21.317166884548143</v>
+        <v>-18.547016337955782</v>
       </c>
       <c r="K39" s="67">
         <f t="shared" si="9"/>
-        <v>-17.993189281413734</v>
+        <v>-21.910773754219893</v>
       </c>
       <c r="L39" s="71">
         <f t="shared" si="10"/>
-        <v>-1.1102027783370756</v>
+        <v>-0.97158429575486438</v>
       </c>
       <c r="M39" s="72">
         <f t="shared" si="11"/>
-        <v>18.586796151085473</v>
+        <v>21.356946697677845</v>
       </c>
       <c r="N39" s="73">
         <f t="shared" si="12"/>
-        <v>-20.763339828006092</v>
+        <v>-19.140623207627524</v>
       </c>
       <c r="O39" s="65">
         <f t="shared" si="13"/>
-        <v>-6.9309241291105578E-2</v>
+        <v>6.9309241291105578E-2</v>
       </c>
       <c r="P39" s="66">
         <f t="shared" si="14"/>
@@ -5019,19 +5021,19 @@
       </c>
       <c r="Q39" s="67">
         <f t="shared" si="15"/>
-        <v>-1.8501647651614226</v>
+        <v>1.8501647651614226</v>
       </c>
       <c r="R39" s="71">
         <f t="shared" si="16"/>
-        <v>0.97158429575486438</v>
+        <v>1.1102027783370756</v>
       </c>
       <c r="S39" s="72">
         <f t="shared" si="17"/>
-        <v>21.356946697677845</v>
+        <v>18.586796151085473</v>
       </c>
       <c r="T39" s="73">
         <f t="shared" si="18"/>
-        <v>19.140623207627524</v>
+        <v>20.763339828006092</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
@@ -5040,19 +5042,19 @@
       </c>
       <c r="C40" s="65">
         <f t="shared" si="1"/>
-        <v>2.4799067840586688</v>
+        <v>2.5723191057801427</v>
       </c>
       <c r="D40" s="66">
         <f t="shared" si="2"/>
-        <v>-19.046017363445763</v>
+        <v>-20.893606197523482</v>
       </c>
       <c r="E40" s="67">
         <f t="shared" si="3"/>
-        <v>21.285096298689638</v>
+        <v>18.67221111184783</v>
       </c>
       <c r="F40" s="71">
         <f t="shared" si="4"/>
-        <v>3.0953864927290562</v>
+        <v>3.18779881445053</v>
       </c>
       <c r="G40" s="72">
         <f t="shared" si="5"/>
@@ -5060,35 +5062,35 @@
       </c>
       <c r="H40" s="73">
         <f t="shared" si="6"/>
-        <v>1.9992884062000542</v>
+        <v>-1.9992884062000433</v>
       </c>
       <c r="I40" s="65">
         <f t="shared" si="7"/>
-        <v>-2.5723191057801427</v>
+        <v>-2.4799067840586688</v>
       </c>
       <c r="J40" s="66">
         <f t="shared" si="8"/>
-        <v>-20.893606197523482</v>
+        <v>-19.046017363445763</v>
       </c>
       <c r="K40" s="67">
         <f t="shared" si="9"/>
-        <v>-18.67221111184783</v>
+        <v>-21.285096298689638</v>
       </c>
       <c r="L40" s="71">
         <f t="shared" si="10"/>
-        <v>-1.0870996979067069</v>
+        <v>-0.99468737618523295</v>
       </c>
       <c r="M40" s="72">
         <f t="shared" si="11"/>
-        <v>19.063701213013974</v>
+        <v>20.911290047091697</v>
       </c>
       <c r="N40" s="73">
         <f t="shared" si="12"/>
-        <v>-20.519799945925545</v>
+        <v>-19.437507464611908</v>
       </c>
       <c r="O40" s="65">
         <f t="shared" si="13"/>
-        <v>-4.6206160860737033E-2</v>
+        <v>4.6206160860737033E-2</v>
       </c>
       <c r="P40" s="66">
         <f t="shared" si="14"/>
@@ -5096,19 +5098,19 @@
       </c>
       <c r="Q40" s="67">
         <f t="shared" si="15"/>
-        <v>-1.2339920534359656</v>
+        <v>1.2339920534359656</v>
       </c>
       <c r="R40" s="71">
         <f t="shared" si="16"/>
-        <v>0.99468737618523295</v>
+        <v>1.0870996979067069</v>
       </c>
       <c r="S40" s="72">
         <f t="shared" si="17"/>
-        <v>20.911290047091697</v>
+        <v>19.063701213013974</v>
       </c>
       <c r="T40" s="73">
         <f t="shared" si="18"/>
-        <v>19.437507464611908</v>
+        <v>20.519799945925545</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
@@ -5117,19 +5119,19 @@
       </c>
       <c r="C41" s="65">
         <f t="shared" si="1"/>
-        <v>2.5030098644890373</v>
+        <v>2.5492160253497742</v>
       </c>
       <c r="D41" s="66">
         <f t="shared" si="2"/>
-        <v>-19.53043143267238</v>
+        <v>-20.454472443261693</v>
       </c>
       <c r="E41" s="67">
         <f t="shared" si="3"/>
-        <v>20.648058378833856</v>
+        <v>19.341267049469508</v>
       </c>
       <c r="F41" s="71">
         <f t="shared" si="4"/>
-        <v>3.1184895731594247</v>
+        <v>3.1646957340201616</v>
       </c>
       <c r="G41" s="72">
         <f t="shared" si="5"/>
@@ -5137,35 +5139,35 @@
       </c>
       <c r="H41" s="73">
         <f t="shared" si="6"/>
-        <v>0.99991104365317329</v>
+        <v>-0.99991104365316275</v>
       </c>
       <c r="I41" s="65">
         <f t="shared" si="7"/>
-        <v>-2.5492160253497742</v>
+        <v>-2.5030098644890373</v>
       </c>
       <c r="J41" s="66">
         <f t="shared" si="8"/>
-        <v>-20.454472443261693</v>
+        <v>-19.53043143267238</v>
       </c>
       <c r="K41" s="67">
         <f t="shared" si="9"/>
-        <v>-19.341267049469508</v>
+        <v>-20.648058378833856</v>
       </c>
       <c r="L41" s="71">
         <f t="shared" si="10"/>
-        <v>-1.0639966174763384</v>
+        <v>-1.0177904566156015</v>
       </c>
       <c r="M41" s="72">
         <f t="shared" si="11"/>
-        <v>19.53485298504166</v>
+        <v>20.458893995630973</v>
       </c>
       <c r="N41" s="73">
         <f t="shared" si="12"/>
-        <v>-20.265308060058818</v>
+        <v>-19.724017368244535</v>
       </c>
       <c r="O41" s="65">
         <f t="shared" si="13"/>
-        <v>-2.3103080430368517E-2</v>
+        <v>2.3103080430368517E-2</v>
       </c>
       <c r="P41" s="66">
         <f t="shared" si="14"/>
@@ -5173,19 +5175,19 @@
       </c>
       <c r="Q41" s="67">
         <f t="shared" si="15"/>
-        <v>-0.61716072487813445</v>
+        <v>0.61716072487813445</v>
       </c>
       <c r="R41" s="71">
         <f t="shared" si="16"/>
-        <v>1.0177904566156015</v>
+        <v>1.0639966174763384</v>
       </c>
       <c r="S41" s="72">
         <f t="shared" si="17"/>
-        <v>20.458893995630973</v>
+        <v>19.53485298504166</v>
       </c>
       <c r="T41" s="73">
         <f t="shared" si="18"/>
-        <v>19.724017368244535</v>
+        <v>20.265308060058818</v>
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
@@ -5271,19 +5273,19 @@
       </c>
       <c r="C43" s="65">
         <f t="shared" si="1"/>
-        <v>2.5492160253497742</v>
+        <v>2.5030098644890373</v>
       </c>
       <c r="D43" s="66">
         <f t="shared" si="2"/>
-        <v>-20.454472443261693</v>
+        <v>-19.53043143267238</v>
       </c>
       <c r="E43" s="67">
         <f t="shared" si="3"/>
-        <v>19.341267049469508</v>
+        <v>20.648058378833856</v>
       </c>
       <c r="F43" s="71">
         <f t="shared" si="4"/>
-        <v>3.1646957340201616</v>
+        <v>3.1184895731594247</v>
       </c>
       <c r="G43" s="72">
         <f t="shared" si="5"/>
@@ -5291,35 +5293,35 @@
       </c>
       <c r="H43" s="73">
         <f t="shared" si="6"/>
-        <v>-0.99991104365316275</v>
+        <v>0.99991104365317329</v>
       </c>
       <c r="I43" s="65">
         <f t="shared" si="7"/>
-        <v>-2.5030098644890373</v>
+        <v>-2.5492160253497742</v>
       </c>
       <c r="J43" s="66">
         <f t="shared" si="8"/>
-        <v>-19.53043143267238</v>
+        <v>-20.454472443261693</v>
       </c>
       <c r="K43" s="67">
         <f t="shared" si="9"/>
-        <v>-20.648058378833856</v>
+        <v>-19.341267049469508</v>
       </c>
       <c r="L43" s="71">
         <f t="shared" si="10"/>
-        <v>-1.0177904566156015</v>
+        <v>-1.0639966174763384</v>
       </c>
       <c r="M43" s="72">
         <f t="shared" si="11"/>
-        <v>20.458893995630973</v>
+        <v>19.53485298504166</v>
       </c>
       <c r="N43" s="73">
         <f t="shared" si="12"/>
-        <v>-19.724017368244535</v>
+        <v>-20.265308060058818</v>
       </c>
       <c r="O43" s="65">
         <f t="shared" si="13"/>
-        <v>2.3103080430368544E-2</v>
+        <v>-2.3103080430368544E-2</v>
       </c>
       <c r="P43" s="66">
         <f t="shared" si="14"/>
@@ -5327,19 +5329,19 @@
       </c>
       <c r="Q43" s="67">
         <f t="shared" si="15"/>
-        <v>0.61716072487813523</v>
+        <v>-0.61716072487813523</v>
       </c>
       <c r="R43" s="71">
         <f t="shared" si="16"/>
-        <v>1.0639966174763384</v>
+        <v>1.0177904566156015</v>
       </c>
       <c r="S43" s="72">
         <f t="shared" si="17"/>
-        <v>19.53485298504166</v>
+        <v>20.458893995630973</v>
       </c>
       <c r="T43" s="73">
         <f t="shared" si="18"/>
-        <v>20.265308060058818</v>
+        <v>19.724017368244535</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
@@ -5348,19 +5350,19 @@
       </c>
       <c r="C44" s="65">
         <f t="shared" si="1"/>
-        <v>2.5723191057801427</v>
+        <v>2.4799067840586688</v>
       </c>
       <c r="D44" s="66">
         <f t="shared" si="2"/>
-        <v>-20.893606197523482</v>
+        <v>-19.046017363445763</v>
       </c>
       <c r="E44" s="67">
         <f t="shared" si="3"/>
-        <v>18.67221111184783</v>
+        <v>21.285096298689638</v>
       </c>
       <c r="F44" s="71">
         <f t="shared" si="4"/>
-        <v>3.18779881445053</v>
+        <v>3.0953864927290562</v>
       </c>
       <c r="G44" s="72">
         <f t="shared" si="5"/>
@@ -5368,35 +5370,35 @@
       </c>
       <c r="H44" s="73">
         <f t="shared" si="6"/>
-        <v>-1.9992884062000433</v>
+        <v>1.9992884062000542</v>
       </c>
       <c r="I44" s="65">
         <f t="shared" si="7"/>
-        <v>-2.4799067840586688</v>
+        <v>-2.5723191057801427</v>
       </c>
       <c r="J44" s="66">
         <f t="shared" si="8"/>
-        <v>-19.046017363445763</v>
+        <v>-20.893606197523482</v>
       </c>
       <c r="K44" s="67">
         <f t="shared" si="9"/>
-        <v>-21.285096298689638</v>
+        <v>-18.67221111184783</v>
       </c>
       <c r="L44" s="71">
         <f t="shared" si="10"/>
-        <v>-0.99468737618523295</v>
+        <v>-1.0870996979067069</v>
       </c>
       <c r="M44" s="72">
         <f t="shared" si="11"/>
-        <v>20.911290047091697</v>
+        <v>19.063701213013974</v>
       </c>
       <c r="N44" s="73">
         <f t="shared" si="12"/>
-        <v>-19.437507464611908</v>
+        <v>-20.519799945925545</v>
       </c>
       <c r="O44" s="65">
         <f t="shared" si="13"/>
-        <v>4.6206160860737033E-2</v>
+        <v>-4.6206160860737033E-2</v>
       </c>
       <c r="P44" s="66">
         <f t="shared" si="14"/>
@@ -5404,19 +5406,19 @@
       </c>
       <c r="Q44" s="67">
         <f t="shared" si="15"/>
-        <v>1.2339920534359656</v>
+        <v>-1.2339920534359656</v>
       </c>
       <c r="R44" s="71">
         <f t="shared" si="16"/>
-        <v>1.0870996979067069</v>
+        <v>0.99468737618523295</v>
       </c>
       <c r="S44" s="72">
         <f t="shared" si="17"/>
-        <v>19.063701213013974</v>
+        <v>20.911290047091697</v>
       </c>
       <c r="T44" s="73">
         <f t="shared" si="18"/>
-        <v>20.519799945925545</v>
+        <v>19.437507464611908</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
@@ -5425,19 +5427,19 @@
       </c>
       <c r="C45" s="65">
         <f t="shared" si="1"/>
-        <v>2.5954221862105111</v>
+        <v>2.4568037036283004</v>
       </c>
       <c r="D45" s="66">
         <f t="shared" si="2"/>
-        <v>-21.317166884548143</v>
+        <v>-18.547016337955782</v>
       </c>
       <c r="E45" s="67">
         <f t="shared" si="3"/>
-        <v>17.993189281413734</v>
+        <v>21.910773754219893</v>
       </c>
       <c r="F45" s="71">
         <f t="shared" si="4"/>
-        <v>3.2109018948808985</v>
+        <v>3.0722834122986877</v>
       </c>
       <c r="G45" s="72">
         <f t="shared" si="5"/>
@@ -5445,35 +5447,35 @@
       </c>
       <c r="H45" s="73">
         <f t="shared" si="6"/>
-        <v>-2.9975986913752113</v>
+        <v>2.9975986913752215</v>
       </c>
       <c r="I45" s="65">
         <f t="shared" si="7"/>
-        <v>-2.4568037036283004</v>
+        <v>-2.5954221862105111</v>
       </c>
       <c r="J45" s="66">
         <f t="shared" si="8"/>
-        <v>-18.547016337955782</v>
+        <v>-21.317166884548143</v>
       </c>
       <c r="K45" s="67">
         <f t="shared" si="9"/>
-        <v>-21.910773754219893</v>
+        <v>-17.993189281413734</v>
       </c>
       <c r="L45" s="71">
         <f t="shared" si="10"/>
-        <v>-0.97158429575486438</v>
+        <v>-1.1102027783370756</v>
       </c>
       <c r="M45" s="72">
         <f t="shared" si="11"/>
-        <v>21.356946697677845</v>
+        <v>18.586796151085473</v>
       </c>
       <c r="N45" s="73">
         <f t="shared" si="12"/>
-        <v>-19.140623207627524</v>
+        <v>-20.763339828006092</v>
       </c>
       <c r="O45" s="65">
         <f t="shared" si="13"/>
-        <v>6.9309241291105578E-2</v>
+        <v>-6.9309241291105578E-2</v>
       </c>
       <c r="P45" s="66">
         <f t="shared" si="14"/>
@@ -5481,19 +5483,19 @@
       </c>
       <c r="Q45" s="67">
         <f t="shared" si="15"/>
-        <v>1.8501647651614226</v>
+        <v>-1.8501647651614226</v>
       </c>
       <c r="R45" s="71">
         <f t="shared" si="16"/>
-        <v>1.1102027783370756</v>
+        <v>0.97158429575486438</v>
       </c>
       <c r="S45" s="72">
         <f t="shared" si="17"/>
-        <v>18.586796151085473</v>
+        <v>21.356946697677845</v>
       </c>
       <c r="T45" s="73">
         <f t="shared" si="18"/>
-        <v>20.763339828006092</v>
+        <v>19.140623207627524</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
@@ -5502,19 +5504,19 @@
       </c>
       <c r="C46" s="65">
         <f t="shared" si="1"/>
-        <v>2.61852526664088</v>
+        <v>2.4337006231979315</v>
       </c>
       <c r="D46" s="66">
         <f t="shared" si="2"/>
-        <v>-21.724928437889609</v>
+        <v>-18.033694687313591</v>
       </c>
       <c r="E46" s="67">
         <f t="shared" si="3"/>
-        <v>17.304563971527834</v>
+        <v>22.524756803481743</v>
       </c>
       <c r="F46" s="71">
         <f t="shared" si="4"/>
-        <v>3.234004975311267</v>
+        <v>3.0491803318683193</v>
       </c>
       <c r="G46" s="72">
         <f t="shared" si="5"/>
@@ -5522,35 +5524,35 @@
       </c>
       <c r="H46" s="73">
         <f t="shared" si="6"/>
-        <v>-3.994309072442936</v>
+        <v>3.9943090724429466</v>
       </c>
       <c r="I46" s="65">
         <f t="shared" si="7"/>
-        <v>-2.4337006231979315</v>
+        <v>-2.61852526664088</v>
       </c>
       <c r="J46" s="66">
         <f t="shared" si="8"/>
-        <v>-18.033694687313591</v>
+        <v>-21.724928437889609</v>
       </c>
       <c r="K46" s="67">
         <f t="shared" si="9"/>
-        <v>-22.524756803481743</v>
+        <v>-17.304563971527834</v>
       </c>
       <c r="L46" s="71">
         <f t="shared" si="10"/>
-        <v>-0.94848121532449592</v>
+        <v>-1.1333058587674441</v>
       </c>
       <c r="M46" s="72">
         <f t="shared" si="11"/>
-        <v>21.795626087695972</v>
+        <v>18.104392337119965</v>
       </c>
       <c r="N46" s="73">
         <f t="shared" si="12"/>
-        <v>-18.833523052905722</v>
+        <v>-20.995797722103841</v>
       </c>
       <c r="O46" s="65">
         <f t="shared" si="13"/>
-        <v>9.2412321721474067E-2</v>
+        <v>-9.2412321721474067E-2</v>
       </c>
       <c r="P46" s="66">
         <f t="shared" si="14"/>
@@ -5558,19 +5560,19 @@
       </c>
       <c r="Q46" s="67">
         <f t="shared" si="15"/>
-        <v>2.4653499910650618</v>
+        <v>-2.4653499910650618</v>
       </c>
       <c r="R46" s="71">
         <f t="shared" si="16"/>
-        <v>1.1333058587674441</v>
+        <v>0.94848121532449592</v>
       </c>
       <c r="S46" s="72">
         <f t="shared" si="17"/>
-        <v>18.104392337119965</v>
+        <v>21.795626087695972</v>
       </c>
       <c r="T46" s="73">
         <f t="shared" si="18"/>
-        <v>20.995797722103841</v>
+        <v>18.833523052905722</v>
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
@@ -5579,19 +5581,19 @@
       </c>
       <c r="C47" s="65">
         <f t="shared" si="1"/>
-        <v>2.6416283470712485</v>
+        <v>2.410597542767563</v>
       </c>
       <c r="D47" s="66">
         <f t="shared" si="2"/>
-        <v>-22.116673223551054</v>
+        <v>-17.506326385957379</v>
       </c>
       <c r="E47" s="67">
         <f t="shared" si="3"/>
-        <v>16.606702721202282</v>
+        <v>23.126717746171163</v>
       </c>
       <c r="F47" s="71">
         <f t="shared" si="4"/>
-        <v>3.2571080557416359</v>
+        <v>3.0260772514379504</v>
       </c>
       <c r="G47" s="72">
         <f t="shared" si="5"/>
@@ -5599,35 +5601,35 @@
       </c>
       <c r="H47" s="73">
         <f t="shared" si="6"/>
-        <v>-4.9888875765820613</v>
+        <v>4.9888875765820719</v>
       </c>
       <c r="I47" s="65">
         <f t="shared" si="7"/>
-        <v>-2.410597542767563</v>
+        <v>-2.6416283470712485</v>
       </c>
       <c r="J47" s="66">
         <f t="shared" si="8"/>
-        <v>-17.506326385957379</v>
+        <v>-22.116673223551054</v>
       </c>
       <c r="K47" s="67">
         <f t="shared" si="9"/>
-        <v>-23.126717746171163</v>
+        <v>-16.606702721202282</v>
       </c>
       <c r="L47" s="71">
         <f t="shared" si="10"/>
-        <v>-0.92537813489412735</v>
+        <v>-1.1564089391978125</v>
       </c>
       <c r="M47" s="72">
         <f t="shared" si="11"/>
-        <v>22.227094081416055</v>
+        <v>17.616747243822388</v>
       </c>
       <c r="N47" s="73">
         <f t="shared" si="12"/>
-        <v>-18.516370908577485</v>
+        <v>-21.217049558795946</v>
       </c>
       <c r="O47" s="65">
         <f t="shared" si="13"/>
-        <v>0.11551540215184261</v>
+        <v>-0.11551540215184261</v>
       </c>
       <c r="P47" s="66">
         <f t="shared" si="14"/>
@@ -5635,19 +5637,19 @@
       </c>
       <c r="Q47" s="67">
         <f t="shared" si="15"/>
-        <v>3.0792193892068549</v>
+        <v>-3.0792193892068549</v>
       </c>
       <c r="R47" s="71">
         <f t="shared" si="16"/>
-        <v>1.1564089391978125</v>
+        <v>0.92537813489412735</v>
       </c>
       <c r="S47" s="72">
         <f t="shared" si="17"/>
-        <v>17.616747243822388</v>
+        <v>22.227094081416055</v>
       </c>
       <c r="T47" s="73">
         <f t="shared" si="18"/>
-        <v>21.217049558795946</v>
+        <v>18.516370908577485</v>
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
@@ -5656,55 +5658,55 @@
       </c>
       <c r="C48" s="65">
         <f t="shared" si="1"/>
-        <v>2.664731427501617</v>
+        <v>2.3874944623371945</v>
       </c>
       <c r="D48" s="66">
         <f t="shared" si="2"/>
-        <v>-22.492192156142416</v>
+        <v>-16.965192905424296</v>
       </c>
       <c r="E48" s="67">
         <f t="shared" si="3"/>
-        <v>15.899977998934611</v>
+        <v>23.716335298526101</v>
       </c>
       <c r="F48" s="71">
         <f t="shared" si="4"/>
-        <v>3.2802111361720043</v>
+        <v>3.0029741710075819</v>
       </c>
       <c r="G48" s="72">
         <f t="shared" si="5"/>
-        <v>-34.584810017331122</v>
+        <v>-34.584810017331115</v>
       </c>
       <c r="H48" s="73">
         <f t="shared" si="6"/>
-        <v>-5.9808033688150299</v>
+        <v>5.9808033688150415</v>
       </c>
       <c r="I48" s="65">
         <f t="shared" si="7"/>
-        <v>-2.3874944623371945</v>
+        <v>-2.664731427501617</v>
       </c>
       <c r="J48" s="66">
         <f t="shared" si="8"/>
-        <v>-16.965192905424296</v>
+        <v>-22.492192156142416</v>
       </c>
       <c r="K48" s="67">
         <f t="shared" si="9"/>
-        <v>-23.716335298526101</v>
+        <v>-15.899977998934611</v>
       </c>
       <c r="L48" s="71">
         <f t="shared" si="10"/>
-        <v>-0.90227505446375877</v>
+        <v>-1.1795120196281812</v>
       </c>
       <c r="M48" s="72">
         <f t="shared" si="11"/>
-        <v>22.651120392036404</v>
+        <v>17.124121141318291</v>
       </c>
       <c r="N48" s="73">
         <f t="shared" si="12"/>
-        <v>-18.189336047807981</v>
+        <v>-21.426977249652715</v>
       </c>
       <c r="O48" s="65">
         <f t="shared" si="13"/>
-        <v>0.13861848258221116</v>
+        <v>-0.13861848258221116</v>
       </c>
       <c r="P48" s="66">
         <f t="shared" si="14"/>
@@ -5712,19 +5714,19 @@
       </c>
       <c r="Q48" s="67">
         <f t="shared" si="15"/>
-        <v>3.6914453199416584</v>
+        <v>-3.6914453199416584</v>
       </c>
       <c r="R48" s="71">
         <f t="shared" si="16"/>
-        <v>1.1795120196281812</v>
+        <v>0.90227505446375877</v>
       </c>
       <c r="S48" s="72">
         <f t="shared" si="17"/>
-        <v>17.124121141318291</v>
+        <v>22.651120392036404</v>
       </c>
       <c r="T48" s="73">
         <f t="shared" si="18"/>
-        <v>21.426977249652715</v>
+        <v>18.189336047807981</v>
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
@@ -5733,19 +5735,19 @@
       </c>
       <c r="C49" s="65">
         <f t="shared" si="1"/>
-        <v>2.6878345079319854</v>
+        <v>2.3643913819068261</v>
       </c>
       <c r="D49" s="66">
         <f t="shared" si="2"/>
-        <v>-22.851284810475221</v>
+        <v>-16.410583064121127</v>
       </c>
       <c r="E49" s="67">
         <f t="shared" si="3"/>
-        <v>15.184767003910704</v>
+        <v>24.293294764804742</v>
       </c>
       <c r="F49" s="71">
         <f t="shared" si="4"/>
-        <v>3.3033142166023728</v>
+        <v>2.9798710905772134</v>
       </c>
       <c r="G49" s="72">
         <f t="shared" si="5"/>
@@ -5753,35 +5755,35 @@
       </c>
       <c r="H49" s="73">
         <f t="shared" si="6"/>
-        <v>-6.9695270353298016</v>
+        <v>6.9695270353298122</v>
       </c>
       <c r="I49" s="65">
         <f t="shared" si="7"/>
-        <v>-2.3643913819068261</v>
+        <v>-2.6878345079319854</v>
       </c>
       <c r="J49" s="66">
         <f t="shared" si="8"/>
-        <v>-16.410583064121127</v>
+        <v>-22.851284810475221</v>
       </c>
       <c r="K49" s="67">
         <f t="shared" si="9"/>
-        <v>-24.293294764804742</v>
+        <v>-15.184767003910704</v>
       </c>
       <c r="L49" s="71">
         <f t="shared" si="10"/>
-        <v>-0.87917197403339031</v>
+        <v>-1.2026151000585497</v>
       </c>
       <c r="M49" s="72">
         <f t="shared" si="11"/>
-        <v>23.067478704594315</v>
+        <v>16.626776958240217</v>
       </c>
       <c r="N49" s="73">
         <f t="shared" si="12"/>
-        <v>-17.852593018450641</v>
+        <v>-21.625468750264794</v>
       </c>
       <c r="O49" s="65">
         <f t="shared" si="13"/>
-        <v>0.16172156301257964</v>
+        <v>-0.16172156301257964</v>
       </c>
       <c r="P49" s="66">
         <f t="shared" si="14"/>
@@ -5789,19 +5791,19 @@
       </c>
       <c r="Q49" s="67">
         <f t="shared" si="15"/>
-        <v>4.3017010207898609</v>
+        <v>-4.3017010207898609</v>
       </c>
       <c r="R49" s="71">
         <f t="shared" si="16"/>
-        <v>1.2026151000585497</v>
+        <v>0.87917197403339031</v>
       </c>
       <c r="S49" s="72">
         <f t="shared" si="17"/>
-        <v>16.626776958240217</v>
+        <v>23.067478704594315</v>
       </c>
       <c r="T49" s="73">
         <f t="shared" si="18"/>
-        <v>21.625468750264794</v>
+        <v>17.852593018450641</v>
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
@@ -5810,19 +5812,19 @@
       </c>
       <c r="C50" s="65">
         <f t="shared" si="1"/>
-        <v>2.7109375883623539</v>
+        <v>2.3412883014764576</v>
       </c>
       <c r="D50" s="66">
         <f t="shared" si="2"/>
-        <v>-23.19375952853526</v>
+        <v>-15.842792873173584</v>
       </c>
       <c r="E50" s="67">
         <f t="shared" si="3"/>
-        <v>14.461451464682787</v>
+        <v>24.857288205247652</v>
       </c>
       <c r="F50" s="71">
         <f t="shared" si="4"/>
-        <v>3.3264172970327412</v>
+        <v>2.956768010146845</v>
       </c>
       <c r="G50" s="72">
         <f t="shared" si="5"/>
@@ -5830,35 +5832,35 @@
       </c>
       <c r="H50" s="73">
         <f t="shared" si="6"/>
-        <v>-7.9545308660430551</v>
+        <v>7.9545308660430658</v>
       </c>
       <c r="I50" s="65">
         <f t="shared" si="7"/>
-        <v>-2.3412883014764576</v>
+        <v>-2.7109375883623539</v>
       </c>
       <c r="J50" s="66">
         <f t="shared" si="8"/>
-        <v>-15.842792873173584</v>
+        <v>-23.19375952853526</v>
       </c>
       <c r="K50" s="67">
         <f t="shared" si="9"/>
-        <v>-24.857288205247652</v>
+        <v>-14.461451464682787</v>
       </c>
       <c r="L50" s="71">
         <f t="shared" si="10"/>
-        <v>-0.85606889360302185</v>
+        <v>-1.2257181804889181</v>
       </c>
       <c r="M50" s="72">
         <f t="shared" si="11"/>
-        <v>23.475946796756844</v>
+        <v>16.124980141395174</v>
       </c>
       <c r="N50" s="73">
         <f t="shared" si="12"/>
-        <v>-17.506321549885975</v>
+        <v>-21.812418120044455</v>
       </c>
       <c r="O50" s="65">
         <f t="shared" si="13"/>
-        <v>0.18482464344294819</v>
+        <v>-0.18482464344294819</v>
       </c>
       <c r="P50" s="66">
         <f t="shared" si="14"/>
@@ -5866,19 +5868,19 @@
       </c>
       <c r="Q50" s="67">
         <f t="shared" si="15"/>
-        <v>4.909660780839868</v>
+        <v>-4.909660780839868</v>
       </c>
       <c r="R50" s="71">
         <f t="shared" si="16"/>
-        <v>1.2257181804889181</v>
+        <v>0.85606889360302185</v>
       </c>
       <c r="S50" s="72">
         <f t="shared" si="17"/>
-        <v>16.124980141395174</v>
+        <v>23.475946796756844</v>
       </c>
       <c r="T50" s="73">
         <f t="shared" si="18"/>
-        <v>21.812418120044455</v>
+        <v>17.506321549885975</v>
       </c>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
@@ -5887,19 +5889,19 @@
       </c>
       <c r="C51" s="65">
         <f t="shared" si="1"/>
-        <v>2.7340406687927223</v>
+        <v>2.3181852210460892</v>
       </c>
       <c r="D51" s="66">
         <f t="shared" si="2"/>
-        <v>-23.519433521775909</v>
+        <v>-15.262125378436776</v>
       </c>
       <c r="E51" s="67">
         <f t="shared" si="3"/>
-        <v>13.730417435430004</v>
+        <v>25.408014600434004</v>
       </c>
       <c r="F51" s="71">
         <f t="shared" si="4"/>
-        <v>3.3495203774631097</v>
+        <v>2.9336649297164765</v>
       </c>
       <c r="G51" s="72">
         <f t="shared" si="5"/>
@@ -5907,35 +5909,35 @@
       </c>
       <c r="H51" s="73">
         <f t="shared" si="6"/>
-        <v>-8.9352891362541698</v>
+        <v>8.9352891362541804</v>
       </c>
       <c r="I51" s="65">
         <f t="shared" si="7"/>
-        <v>-2.3181852210460892</v>
+        <v>-2.7340406687927223</v>
       </c>
       <c r="J51" s="66">
         <f t="shared" si="8"/>
-        <v>-15.262125378436776</v>
+        <v>-23.519433521775909</v>
       </c>
       <c r="K51" s="67">
         <f t="shared" si="9"/>
-        <v>-25.408014600434004</v>
+        <v>-13.730417435430004</v>
       </c>
       <c r="L51" s="71">
         <f t="shared" si="10"/>
-        <v>-0.83296581317265328</v>
+        <v>-1.2488212609192866</v>
       </c>
       <c r="M51" s="72">
         <f t="shared" si="11"/>
-        <v>23.876306657427222</v>
+        <v>15.618998514088089</v>
       </c>
       <c r="N51" s="73">
         <f t="shared" si="12"/>
-        <v>-17.150706457094863</v>
+        <v>-21.98772557876913</v>
       </c>
       <c r="O51" s="65">
         <f t="shared" si="13"/>
-        <v>0.20792772387331668</v>
+        <v>-0.20792772387331668</v>
       </c>
       <c r="P51" s="66">
         <f t="shared" si="14"/>
@@ -5943,19 +5945,19 @@
       </c>
       <c r="Q51" s="67">
         <f t="shared" si="15"/>
-        <v>5.5150001145893075</v>
+        <v>-5.5150001145893075</v>
       </c>
       <c r="R51" s="71">
         <f t="shared" si="16"/>
-        <v>1.2488212609192866</v>
+        <v>0.83296581317265328</v>
       </c>
       <c r="S51" s="72">
         <f t="shared" si="17"/>
-        <v>15.618998514088089</v>
+        <v>23.876306657427222</v>
       </c>
       <c r="T51" s="73">
         <f t="shared" si="18"/>
-        <v>21.98772557876913</v>
+        <v>17.150706457094863</v>
       </c>
     </row>
     <row r="52" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5964,55 +5966,55 @@
       </c>
       <c r="C52" s="88">
         <f t="shared" si="1"/>
-        <v>2.7571437492230908</v>
+        <v>2.2950821406157207</v>
       </c>
       <c r="D52" s="89">
         <f t="shared" si="2"/>
-        <v>-23.82813296867765</v>
+        <v>-14.668890498750928</v>
       </c>
       <c r="E52" s="90">
         <f t="shared" si="3"/>
-        <v>12.992055089910252</v>
+        <v>25.945180011944267</v>
       </c>
       <c r="F52" s="91">
         <f t="shared" si="4"/>
-        <v>3.3726234578934782</v>
+        <v>2.9105618492861081</v>
       </c>
       <c r="G52" s="92">
         <f t="shared" si="5"/>
-        <v>-33.849974896909735</v>
+        <v>-33.849974896909728</v>
       </c>
       <c r="H52" s="93">
         <f t="shared" si="6"/>
-        <v>-9.9112783872395216</v>
+        <v>9.9112783872395323</v>
       </c>
       <c r="I52" s="88">
         <f t="shared" si="7"/>
-        <v>-2.2950821406157207</v>
+        <v>-2.7571437492230908</v>
       </c>
       <c r="J52" s="89">
         <f t="shared" si="8"/>
-        <v>-14.668890498750928</v>
+        <v>-23.82813296867765</v>
       </c>
       <c r="K52" s="90">
         <f t="shared" si="9"/>
-        <v>-25.945180011944267</v>
+        <v>-12.992055089910252</v>
       </c>
       <c r="L52" s="91">
         <f t="shared" si="10"/>
-        <v>-0.80986273274228471</v>
+        <v>-1.2719243413496553</v>
       </c>
       <c r="M52" s="92">
         <f t="shared" si="11"/>
-        <v>24.268344603103579</v>
+        <v>15.109102133176851</v>
       </c>
       <c r="N52" s="93">
         <f t="shared" si="12"/>
-        <v>-16.785937542017532</v>
+        <v>-22.151297559836966</v>
       </c>
       <c r="O52" s="88">
         <f t="shared" si="13"/>
-        <v>0.23103080430368522</v>
+        <v>-0.23103080430368522</v>
       </c>
       <c r="P52" s="89">
         <f t="shared" si="14"/>
@@ -6020,55 +6022,23 @@
       </c>
       <c r="Q52" s="90">
         <f t="shared" si="15"/>
-        <v>6.1173959351322393</v>
+        <v>-6.1173959351322393</v>
       </c>
       <c r="R52" s="91">
         <f t="shared" si="16"/>
-        <v>1.2719243413496553</v>
+        <v>0.80986273274228471</v>
       </c>
       <c r="S52" s="92">
         <f t="shared" si="17"/>
-        <v>15.109102133176851</v>
+        <v>24.268344603103579</v>
       </c>
       <c r="T52" s="93">
         <f t="shared" si="18"/>
-        <v>22.151297559836966</v>
+        <v>16.785937542017532</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="G13:M18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="G19:M24"/>
     <mergeCell ref="B29:T29"/>
@@ -6085,6 +6055,38 @@
     <mergeCell ref="R30:T30"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:M25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="G13:M18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G12:M12"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/IK and trajectory algorithms.xlsx
+++ b/docs/IK and trajectory algorithms.xlsx
@@ -1223,6 +1223,117 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1283,18 +1394,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1302,105 +1401,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1528,67 +1528,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-23.82813296867765</c:v>
+                  <c:v>-100.14892496555947</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-23.519433521775909</c:v>
+                  <c:v>-101.79746874221689</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-23.19375952853526</c:v>
+                  <c:v>-103.41111038876282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-22.851284810475221</c:v>
+                  <c:v>-104.98929686774301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-22.492192156142416</c:v>
+                  <c:v>-106.53148729312204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-22.116673223551054</c:v>
+                  <c:v>-108.03715311565934</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-21.724928437889609</c:v>
+                  <c:v>-109.50577830405679</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-21.317166884548143</c:v>
+                  <c:v>-110.93685952181639</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-20.893606197523482</c:v>
+                  <c:v>-112.32990629974668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-20.454472443261693</c:v>
+                  <c:v>-113.68444120405972</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-20</c:v>
+                  <c:v>-115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-19.53043143267238</c:v>
+                  <c:v>-116.27613181094999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-19.046017363445763</c:v>
+                  <c:v>-117.51239927295748</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-18.547016337955782</c:v>
+                  <c:v>-118.70837868463155</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-18.033694687313591</c:v>
+                  <c:v>-119.86366015235637</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-17.506326385957379</c:v>
+                  <c:v>-120.97784773077237</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-16.965192905424296</c:v>
+                  <c:v>-122.05055955847723</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-16.410583064121127</c:v>
+                  <c:v>-123.08142798889988</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-15.842792873173584</c:v>
+                  <c:v>-124.07009971630248</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-15.262125378436776</c:v>
+                  <c:v>-125.01623589686776</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-14.668890498750928</c:v>
+                  <c:v>-125.91951226482961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1600,67 +1600,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>12.992055089910252</c:v>
+                  <c:v>89.979771222137614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.730417435430004</c:v>
+                  <c:v>88.109660550196153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.461451464682787</c:v>
+                  <c:v>86.209352379030832</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.184767003910704</c:v>
+                  <c:v>84.279497994257369</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.899977998934611</c:v>
+                  <c:v>82.32075880775642</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.606702721202282</c:v>
+                  <c:v>80.33380613099024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.304563971527834</c:v>
+                  <c:v>78.319320944926616</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.993189281413734</c:v>
+                  <c:v>76.277993666648783</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.67221111184783</c:v>
+                  <c:v>74.210523912731404</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.341267049469508</c:v>
+                  <c:v>72.117620259463308</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.000000000000004</c:v>
+                  <c:v>70.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.648058378833856</c:v>
+                  <c:v>67.858388898528361</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.285096298689638</c:v>
+                  <c:v>65.693520941528021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.910773754219893</c:v>
+                  <c:v>63.506138086215103</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.524756803481743</c:v>
+                  <c:v>61.296990006253715</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.126717746171163</c:v>
+                  <c:v>59.066833834823406</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.716335298526101</c:v>
+                  <c:v>56.816433905129294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24.293294764804742</c:v>
+                  <c:v>54.546561488445221</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.857288205247652</c:v>
+                  <c:v>52.257994529778742</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.408014600434004</c:v>
+                  <c:v>49.951517381248848</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25.945180011944267</c:v>
+                  <c:v>47.62792053326794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1680,67 +1680,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-33.849974896909735</c:v>
+                  <c:v>-132.69246029453819</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-34.067691463555342</c:v>
+                  <c:v>-133.12987773832018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-34.26280357707833</c:v>
+                  <c:v>-133.52165461093401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-34.435207100566458</c:v>
+                  <c:v>-133.86765664013609</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-34.584810017331122</c:v>
+                  <c:v>-134.16776524192616</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-34.711532480019251</c:v>
+                  <c:v>-134.42187756118923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-34.81530685323019</c:v>
+                  <c:v>-134.62990650694664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-34.896077749614562</c:v>
+                  <c:v>-134.79178078220454</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-34.953802059436164</c:v>
+                  <c:v>-134.90744490838915</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-34.988448973580795</c:v>
+                  <c:v>-134.97685924436081</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-35</c:v>
+                  <c:v>-135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-34.988448973580795</c:v>
+                  <c:v>-134.97685924436081</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-34.953802059436164</c:v>
+                  <c:v>-134.90744490838915</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-34.896077749614562</c:v>
+                  <c:v>-134.79178078220454</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-34.81530685323019</c:v>
+                  <c:v>-134.62990650694664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-34.711532480019251</c:v>
+                  <c:v>-134.42187756118923</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-34.584810017331115</c:v>
+                  <c:v>-134.16776524192619</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-34.435207100566458</c:v>
+                  <c:v>-133.86765664013612</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-34.26280357707833</c:v>
+                  <c:v>-133.52165461093401</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-34.067691463555342</c:v>
+                  <c:v>-133.12987773832018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-33.849974896909728</c:v>
+                  <c:v>-132.69246029453819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1752,67 +1752,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-9.9112783872395216</c:v>
+                  <c:v>24.857437815759159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.9352891362541698</c:v>
+                  <c:v>22.396038320852366</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7.9545308660430551</c:v>
+                  <c:v>19.926963114274585</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.9695270353298016</c:v>
+                  <c:v>17.451058413071362</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.9808033688150299</c:v>
+                  <c:v>14.969172774935751</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.9888875765820613</c:v>
+                  <c:v>12.482156807385293</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.9943090724429551</c:v>
+                  <c:v>9.9908628762364113</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.9975986913752113</c:v>
+                  <c:v>7.4961448134761683</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.9992884062000433</c:v>
+                  <c:v>4.9988576246318139</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.99991104365316275</c:v>
+                  <c:v>2.4998571957375324</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3029658040673552E-15</c:v>
+                  <c:v>1.6544315288987496E-14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99991104365317329</c:v>
+                  <c:v>-2.4998571957374991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9992884062000542</c:v>
+                  <c:v>-4.9988576246317802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9975986913752215</c:v>
+                  <c:v>-7.4961448134761355</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.9943090724429466</c:v>
+                  <c:v>-9.990862876236319</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9888875765820719</c:v>
+                  <c:v>-12.482156807385259</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9808033688150415</c:v>
+                  <c:v>-14.96917277493572</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.9695270353298122</c:v>
+                  <c:v>-17.451058413071326</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.9545308660430658</c:v>
+                  <c:v>-19.926963114274553</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.9352891362541804</c:v>
+                  <c:v>-22.39603832085233</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.9112783872395323</c:v>
+                  <c:v>-24.857437815759127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1832,67 +1832,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-14.668890498750928</c:v>
+                  <c:v>-125.91951226482961</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-15.262125378436776</c:v>
+                  <c:v>-125.01623589686776</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-15.842792873173584</c:v>
+                  <c:v>-124.07009971630248</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-16.410583064121127</c:v>
+                  <c:v>-123.08142798889988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-16.965192905424296</c:v>
+                  <c:v>-122.05055955847723</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-17.506326385957379</c:v>
+                  <c:v>-120.97784773077237</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-18.033694687313591</c:v>
+                  <c:v>-119.86366015235637</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-18.547016337955782</c:v>
+                  <c:v>-118.70837868463155</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-19.046017363445763</c:v>
+                  <c:v>-117.51239927295748</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-19.53043143267238</c:v>
+                  <c:v>-116.27613181094999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-20</c:v>
+                  <c:v>-115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-20.454472443261693</c:v>
+                  <c:v>-113.68444120405972</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-20.893606197523482</c:v>
+                  <c:v>-112.32990629974668</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-21.317166884548143</c:v>
+                  <c:v>-110.93685952181639</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-21.724928437889609</c:v>
+                  <c:v>-109.50577830405679</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-22.116673223551054</c:v>
+                  <c:v>-108.03715311565934</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-22.492192156142416</c:v>
+                  <c:v>-106.53148729312204</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-22.851284810475221</c:v>
+                  <c:v>-104.98929686774301</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-23.19375952853526</c:v>
+                  <c:v>-103.41111038876282</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-23.519433521775909</c:v>
+                  <c:v>-101.79746874221689</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-23.82813296867765</c:v>
+                  <c:v>-100.14892496555947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1904,67 +1904,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-25.945180011944267</c:v>
+                  <c:v>-47.62792053326794</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-25.408014600434004</c:v>
+                  <c:v>-49.951517381248848</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-24.857288205247652</c:v>
+                  <c:v>-52.257994529778742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-24.293294764804742</c:v>
+                  <c:v>-54.546561488445221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-23.716335298526101</c:v>
+                  <c:v>-56.816433905129294</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-23.126717746171163</c:v>
+                  <c:v>-59.066833834823406</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-22.524756803481743</c:v>
+                  <c:v>-61.296990006253715</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-21.910773754219893</c:v>
+                  <c:v>-63.506138086215103</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-21.285096298689638</c:v>
+                  <c:v>-65.693520941528021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-20.648058378833856</c:v>
+                  <c:v>-67.858388898528361</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-20.000000000000004</c:v>
+                  <c:v>-70.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-19.341267049469508</c:v>
+                  <c:v>-72.117620259463308</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-18.67221111184783</c:v>
+                  <c:v>-74.210523912731404</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-17.993189281413734</c:v>
+                  <c:v>-76.277993666648783</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-17.304563971527834</c:v>
+                  <c:v>-78.319320944926616</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-16.606702721202282</c:v>
+                  <c:v>-80.33380613099024</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-15.899977998934611</c:v>
+                  <c:v>-82.32075880775642</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-15.184767003910704</c:v>
+                  <c:v>-84.279497994257369</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-14.461451464682787</c:v>
+                  <c:v>-86.209352379030832</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-13.730417435430004</c:v>
+                  <c:v>-88.109660550196153</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-12.992055089910252</c:v>
+                  <c:v>-89.979771222137614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1984,67 +1984,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>24.268344603103579</c:v>
+                  <c:v>125.92085434689243</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.876306657427222</c:v>
+                  <c:v>125.01732357372842</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.475946796756844</c:v>
+                  <c:v>124.07095953285281</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.067478704594315</c:v>
+                  <c:v>123.08208656812548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.6511203920364</c:v>
+                  <c:v>122.05104359233296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.227094081416055</c:v>
+                  <c:v>120.9781839710344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.795626087695972</c:v>
+                  <c:v>119.86387540145367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.356946697677845</c:v>
+                  <c:v>118.70849978645992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.911290047091697</c:v>
+                  <c:v>117.51245310367943</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.458893995630973</c:v>
+                  <c:v>116.27614526978367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.53485298504166</c:v>
+                  <c:v>113.68445466289337</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.063701213013974</c:v>
+                  <c:v>112.32996013046863</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.586796151085473</c:v>
+                  <c:v>110.93698062364474</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.104392337119965</c:v>
+                  <c:v>109.50599355315411</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.616747243822388</c:v>
+                  <c:v>108.03748935592138</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.124121141318291</c:v>
+                  <c:v>106.53197132697777</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.626776958240217</c:v>
+                  <c:v>104.98995544696859</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.124980141395174</c:v>
+                  <c:v>103.41197020531315</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.618998514088089</c:v>
+                  <c:v>101.79855641907753</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.109102133176851</c:v>
+                  <c:v>100.15026704762228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2056,67 +2056,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-16.785937542017532</c:v>
+                  <c:v>47.642377801908076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-17.150706457094863</c:v>
+                  <c:v>49.964543081841143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-17.506321549885975</c:v>
+                  <c:v>52.26958419807282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-17.852593018450641</c:v>
+                  <c:v>54.556711152356797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-18.189336047807984</c:v>
+                  <c:v>56.825140086101463</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-18.516370908577485</c:v>
+                  <c:v>59.074093549018841</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-18.833523052905722</c:v>
+                  <c:v>61.302800765577338</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-19.140623207627524</c:v>
+                  <c:v>63.510497899166715</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-19.437507464611908</c:v>
+                  <c:v>65.696428313885079</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-19.724017368244535</c:v>
+                  <c:v>67.859842833857826</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-20</c:v>
+                  <c:v>70.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-20.265308060058818</c:v>
+                  <c:v>72.116166324133829</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-20.519799945925545</c:v>
+                  <c:v>74.207616540374318</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-20.763339828006092</c:v>
+                  <c:v>76.273633853697149</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-20.995797722103841</c:v>
+                  <c:v>78.313510185602979</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-21.217049558795946</c:v>
+                  <c:v>80.326546416794784</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-21.426977249652715</c:v>
+                  <c:v>82.312052626784237</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-21.625468750264794</c:v>
+                  <c:v>84.269348330345778</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-21.812418120044455</c:v>
+                  <c:v>86.197762710736725</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-21.98772557876913</c:v>
+                  <c:v>88.096634849603845</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-22.151297559836966</c:v>
+                  <c:v>89.965313953497443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2136,67 +2136,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>34.29018653133565</c:v>
+                  <c:v>132.69380237660101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.424564599206647</c:v>
+                  <c:v>133.13096541518081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.544990845299921</c:v>
+                  <c:v>133.52251442748434</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.651400994685552</c:v>
+                  <c:v>133.86831521936168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.743738253225104</c:v>
+                  <c:v>134.1682492757819</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.821953337884253</c:v>
+                  <c:v>134.42221380145125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.886004503036553</c:v>
+                  <c:v>134.63012175604393</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.93585756274426</c:v>
+                  <c:v>134.79190188403288</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.971485909004379</c:v>
+                  <c:v>134.90749873911111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.992870525950067</c:v>
+                  <c:v>134.97687270319446</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.992870525950067</c:v>
+                  <c:v>134.97687270319446</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.971485909004379</c:v>
+                  <c:v>134.90749873911111</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.93585756274426</c:v>
+                  <c:v>134.79190188403288</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34.886004503036553</c:v>
+                  <c:v>134.63012175604393</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.821953337884253</c:v>
+                  <c:v>134.42221380145125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.743738253225104</c:v>
+                  <c:v>134.1682492757819</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34.651400994685552</c:v>
+                  <c:v>133.86831521936168</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.544990845299921</c:v>
+                  <c:v>133.52251442748434</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.424564599206647</c:v>
+                  <c:v>133.13096541518081</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.29018653133565</c:v>
+                  <c:v>132.69380237660101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2208,67 +2208,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6.1173959351322393</c:v>
+                  <c:v>-24.842980547118994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5150001145893084</c:v>
+                  <c:v>-22.383012620260054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.909660780839868</c:v>
+                  <c:v>-19.915373445980478</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3017010207898609</c:v>
+                  <c:v>-17.440908749159757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6914453199416575</c:v>
+                  <c:v>-14.960466593963559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0792193892068549</c:v>
+                  <c:v>-12.474897093189828</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4653499910650627</c:v>
+                  <c:v>-9.9850521169127635</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8501647651614226</c:v>
+                  <c:v>-7.4917850005245246</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2339920534359656</c:v>
+                  <c:v>-4.9959502522747368</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61716072487813445</c:v>
+                  <c:v>-2.4984032604080371</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.61716072487813523</c:v>
+                  <c:v>2.4984032604080402</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.2339920534359656</c:v>
+                  <c:v>4.9959502522747368</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.8501647651614226</c:v>
+                  <c:v>7.4917850005245246</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.4653499910650618</c:v>
+                  <c:v>9.98505211691276</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.0792193892068549</c:v>
+                  <c:v>12.474897093189828</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.6914453199416584</c:v>
+                  <c:v>14.960466593963563</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.3017010207898609</c:v>
+                  <c:v>17.440908749159757</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.909660780839868</c:v>
+                  <c:v>19.915373445980478</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-5.5150001145893075</c:v>
+                  <c:v>22.383012620260047</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-6.1173959351322393</c:v>
+                  <c:v>24.842980547118994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2288,67 +2288,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>15.109102133176851</c:v>
+                  <c:v>100.15026704762228</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.618998514088089</c:v>
+                  <c:v>101.79855641907753</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.124980141395174</c:v>
+                  <c:v>103.41197020531315</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.626776958240217</c:v>
+                  <c:v>104.98995544696859</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.124121141318291</c:v>
+                  <c:v>106.53197132697777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.616747243822388</c:v>
+                  <c:v>108.03748935592138</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.104392337119965</c:v>
+                  <c:v>109.50599355315411</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.586796151085473</c:v>
+                  <c:v>110.93698062364474</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.063701213013974</c:v>
+                  <c:v>112.32996013046863</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.53485298504166</c:v>
+                  <c:v>113.68445466289337</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.458893995630973</c:v>
+                  <c:v>116.27614526978367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.911290047091697</c:v>
+                  <c:v>117.51245310367943</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.356946697677845</c:v>
+                  <c:v>118.70849978645992</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.795626087695972</c:v>
+                  <c:v>119.86387540145367</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.227094081416055</c:v>
+                  <c:v>120.9781839710344</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.651120392036404</c:v>
+                  <c:v>122.05104359233296</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.067478704594315</c:v>
+                  <c:v>123.08208656812548</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.475946796756844</c:v>
+                  <c:v>124.07095953285281</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23.876306657427222</c:v>
+                  <c:v>125.01732357372842</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.268344603103579</c:v>
+                  <c:v>125.92085434689243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2360,67 +2360,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>22.151297559836966</c:v>
+                  <c:v>-89.965313953497443</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.98772557876913</c:v>
+                  <c:v>-88.096634849603845</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.812418120044455</c:v>
+                  <c:v>-86.197762710736725</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.625468750264794</c:v>
+                  <c:v>-84.269348330345778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.426977249652715</c:v>
+                  <c:v>-82.312052626784237</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.217049558795946</c:v>
+                  <c:v>-80.326546416794784</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.995797722103841</c:v>
+                  <c:v>-78.313510185602979</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.763339828006092</c:v>
+                  <c:v>-76.273633853697149</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.519799945925545</c:v>
+                  <c:v>-74.207616540374318</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.265308060058818</c:v>
+                  <c:v>-72.116166324133829</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>-70.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.724017368244535</c:v>
+                  <c:v>-67.859842833857826</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.437507464611908</c:v>
+                  <c:v>-65.696428313885079</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.140623207627524</c:v>
+                  <c:v>-63.510497899166715</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.833523052905722</c:v>
+                  <c:v>-61.302800765577338</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.516370908577485</c:v>
+                  <c:v>-59.074093549018841</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.189336047807981</c:v>
+                  <c:v>-56.825140086101456</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.852593018450641</c:v>
+                  <c:v>-54.556711152356797</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.506321549885975</c:v>
+                  <c:v>-52.26958419807282</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.150706457094863</c:v>
+                  <c:v>-49.964543081841143</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.785937542017532</c:v>
+                  <c:v>-47.642377801908076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2440,7 +2440,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8.2842712474619002</c:v>
+                  <c:v>3.9269916244421305E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2482,40 +2482,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8.2842712474619002</c:v>
+                  <c:v>3.9269916244421305E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-20</c:v>
+                  <c:v>-115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2842712474619002</c:v>
+                  <c:v>3.9269916244421305E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-35</c:v>
+                  <c:v>-135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2842712474619002</c:v>
+                  <c:v>3.9269916244421305E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-20</c:v>
+                  <c:v>-115</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2842712474619002</c:v>
+                  <c:v>3.9269916244421305E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2842712474619002</c:v>
+                  <c:v>3.9269916244421305E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2842712474619002</c:v>
+                  <c:v>3.9269916244421305E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2530,7 +2530,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2542,13 +2542,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-20</c:v>
+                  <c:v>-70</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-20</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2560,7 +2560,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20</c:v>
+                  <c:v>-70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2575,15 +2575,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204717056"/>
-        <c:axId val="205456128"/>
+        <c:axId val="202566656"/>
+        <c:axId val="203240192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204717056"/>
+        <c:axId val="202566656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
-          <c:min val="-50"/>
+          <c:max val="150"/>
+          <c:min val="-150"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2610,17 +2610,17 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205456128"/>
+        <c:crossAx val="203240192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205456128"/>
+        <c:axId val="203240192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
-          <c:min val="-50"/>
+          <c:max val="150"/>
+          <c:min val="-150"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2656,10 +2656,10 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204717056"/>
+        <c:crossAx val="202566656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2840,11 +2840,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="177076864"/>
-        <c:axId val="205464704"/>
+        <c:axId val="175524480"/>
+        <c:axId val="203244672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="177076864"/>
+        <c:axId val="175524480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2853,12 +2853,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205464704"/>
+        <c:crossAx val="203244672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205464704"/>
+        <c:axId val="203244672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2869,7 +2869,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177076864"/>
+        <c:crossAx val="175524480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3561,7 +3561,7 @@
   <dimension ref="A1:AB52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3598,14 +3598,14 @@
       <c r="AB1" s="59"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="107">
-        <v>1.5</v>
-      </c>
-      <c r="E2" s="108"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="144">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="E2" s="145"/>
       <c r="O2" s="59"/>
       <c r="P2" s="59"/>
       <c r="Q2" s="59"/>
@@ -3622,14 +3622,14 @@
       <c r="AB2" s="59"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="109">
-        <v>-20</v>
-      </c>
-      <c r="E3" s="110"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="146">
+        <v>50</v>
+      </c>
+      <c r="E3" s="147"/>
       <c r="O3" s="59"/>
       <c r="P3" s="59"/>
       <c r="Q3" s="59"/>
@@ -3662,20 +3662,20 @@
       <c r="AB4" s="59"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="117"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="154"/>
       <c r="N5" s="54"/>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
@@ -3693,30 +3693,30 @@
       <c r="AB5" s="59"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="121" t="s">
+      <c r="C6" s="159"/>
+      <c r="D6" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="122"/>
-      <c r="F6" s="121" t="s">
+      <c r="E6" s="159"/>
+      <c r="F6" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="122"/>
-      <c r="H6" s="121" t="s">
+      <c r="G6" s="159"/>
+      <c r="H6" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="122"/>
-      <c r="J6" s="121" t="s">
+      <c r="I6" s="159"/>
+      <c r="J6" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="122"/>
-      <c r="L6" s="121" t="s">
+      <c r="K6" s="159"/>
+      <c r="L6" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="122"/>
+      <c r="M6" s="159"/>
       <c r="O6" s="59"/>
       <c r="P6" s="59"/>
       <c r="Q6" s="59"/>
@@ -3737,37 +3737,37 @@
         <v>33</v>
       </c>
       <c r="C7" s="49">
-        <v>-20</v>
+        <v>-115</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="49">
-        <v>-35</v>
+        <v>-135</v>
       </c>
       <c r="F7" s="55" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="49">
-        <v>-20</v>
+        <v>-115</v>
       </c>
       <c r="H7" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I7" s="49">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="J7" s="55" t="s">
         <v>33</v>
       </c>
       <c r="K7" s="49">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="L7" s="55" t="s">
         <v>33</v>
       </c>
       <c r="M7" s="49">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="O7" s="59"/>
       <c r="P7" s="47"/>
@@ -3841,7 +3841,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="50">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D9" s="56" t="s">
         <v>36</v>
@@ -3853,13 +3853,13 @@
         <v>36</v>
       </c>
       <c r="G9" s="50">
-        <v>-20</v>
+        <v>-70</v>
       </c>
       <c r="H9" s="56" t="s">
         <v>36</v>
       </c>
       <c r="I9" s="50">
-        <v>-20</v>
+        <v>70</v>
       </c>
       <c r="J9" s="56" t="s">
         <v>36</v>
@@ -3871,7 +3871,7 @@
         <v>36</v>
       </c>
       <c r="M9" s="50">
-        <v>20</v>
+        <v>-70</v>
       </c>
       <c r="O9" s="59"/>
       <c r="P9" s="47"/>
@@ -3906,20 +3906,20 @@
       <c r="AB10" s="59"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="120"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="157"/>
       <c r="O11" s="59"/>
       <c r="P11" s="59"/>
       <c r="Q11" s="59"/>
@@ -3936,25 +3936,25 @@
       <c r="AB11" s="59"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="113">
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="150">
         <f>TAN((2 - D2) * PI() / 4) * ABS(D3)</f>
-        <v>8.2842712474619002</v>
-      </c>
-      <c r="F12" s="114"/>
-      <c r="G12" s="127" t="s">
+        <v>3.9269916244421305E-2</v>
+      </c>
+      <c r="F12" s="151"/>
+      <c r="G12" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="129"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="162"/>
       <c r="O12" s="59"/>
       <c r="P12" s="59"/>
       <c r="Q12" s="59"/>
@@ -3971,25 +3971,25 @@
       <c r="AB12" s="59"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="138">
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="136">
         <f>SQRT((E12-C7)^2+C9^2)</f>
-        <v>34.641016151377549</v>
-      </c>
-      <c r="F13" s="139"/>
-      <c r="G13" s="135" t="s">
+        <v>134.66266603206154</v>
+      </c>
+      <c r="F13" s="137"/>
+      <c r="G13" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="137"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="135"/>
       <c r="O13" s="59"/>
       <c r="P13" s="59"/>
       <c r="Q13" s="59"/>
@@ -4006,23 +4006,23 @@
       <c r="AB13" s="59"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="125" t="s">
+      <c r="B14" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="138">
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="136">
         <f>SQRT((E12-E7)^2+E9^2)</f>
-        <v>43.284271247461902</v>
-      </c>
-      <c r="F14" s="139"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="137"/>
+        <v>135.03926991624442</v>
+      </c>
+      <c r="F14" s="137"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="135"/>
       <c r="O14" s="59"/>
       <c r="P14" s="59"/>
       <c r="Q14" s="59"/>
@@ -4039,23 +4039,23 @@
       <c r="AB14" s="59"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="138">
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="136">
         <f>SQRT((E12-G7)^2+G9^2)</f>
-        <v>34.641016151377549</v>
-      </c>
-      <c r="F15" s="139"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="137"/>
+        <v>134.66266603206154</v>
+      </c>
+      <c r="F15" s="137"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="135"/>
       <c r="O15" s="59"/>
       <c r="P15" s="59"/>
       <c r="Q15" s="59"/>
@@ -4072,92 +4072,92 @@
       <c r="AB15" s="59"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="138">
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="136">
         <f>SQRT((E12-I7)^2+I9^2)</f>
-        <v>23.178833020733549</v>
-      </c>
-      <c r="F16" s="139"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="136"/>
-      <c r="M16" s="137"/>
+        <v>134.59557742136295</v>
+      </c>
+      <c r="F16" s="137"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="135"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="138">
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="136">
         <f>SQRT((E12-K7)^2+K9^2)</f>
-        <v>26.715728752538098</v>
-      </c>
-      <c r="F17" s="139"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="137"/>
+        <v>134.96073008375558</v>
+      </c>
+      <c r="F17" s="137"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="135"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="138">
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="136">
         <f>SQRT((E12-M7)^2+M9^2)</f>
-        <v>23.178833020733549</v>
-      </c>
-      <c r="F18" s="139"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="137"/>
+        <v>134.59557742136295</v>
+      </c>
+      <c r="F18" s="137"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="135"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
       <c r="E19" s="48">
         <f>ATAN2(-(E12-C7), C9)</f>
-        <v>2.5261129449194057</v>
+        <v>2.5949554380450901</v>
       </c>
       <c r="F19" s="57">
         <f t="shared" ref="F19:F24" si="0">DEGREES(E19)</f>
-        <v>144.73561031724535</v>
-      </c>
-      <c r="G19" s="142" t="s">
+        <v>148.67999462450544</v>
+      </c>
+      <c r="G19" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="144"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="107"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
       <c r="E20" s="48">
         <f>ATAN2(-(E12-E7), E9)</f>
         <v>3.1415926535897931</v>
@@ -4166,64 +4166,64 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="G20" s="145"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146"/>
-      <c r="M20" s="147"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="110"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
       <c r="E21" s="48">
         <f>ATAN2(-(E12-G7), G9)</f>
-        <v>-2.5261129449194057</v>
+        <v>-2.5949554380450901</v>
       </c>
       <c r="F21" s="57">
         <f t="shared" si="0"/>
-        <v>-144.73561031724535</v>
-      </c>
-      <c r="G21" s="145"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="146"/>
-      <c r="M21" s="147"/>
+        <v>-148.67999462450544</v>
+      </c>
+      <c r="G21" s="108"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="110"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="125" t="s">
+      <c r="B22" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
       <c r="E22" s="48">
         <f>ATAN2(-(E12-I7), I9)</f>
-        <v>-1.04089353704597</v>
+        <v>0.5469405418108203</v>
       </c>
       <c r="F22" s="57">
         <f t="shared" si="0"/>
-        <v>-59.638806595178281</v>
-      </c>
-      <c r="G22" s="145"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="146"/>
-      <c r="L22" s="146"/>
-      <c r="M22" s="147"/>
+        <v>31.337384690358544</v>
+      </c>
+      <c r="G22" s="108"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="110"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="125" t="s">
+      <c r="B23" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
       <c r="E23" s="48">
         <f>ATAN2(-(E12-K7), K9)</f>
         <v>0</v>
@@ -4232,139 +4232,139 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="145"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="146"/>
-      <c r="M23" s="147"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="110"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="125" t="s">
+      <c r="B24" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="126"/>
-      <c r="D24" s="126"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
       <c r="E24" s="48">
         <f>ATAN2(-(E12-M7), M9)</f>
-        <v>1.04089353704597</v>
+        <v>-0.5469405418108203</v>
       </c>
       <c r="F24" s="57">
         <f t="shared" si="0"/>
-        <v>59.638806595178281</v>
-      </c>
-      <c r="G24" s="148"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="149"/>
-      <c r="L24" s="149"/>
-      <c r="M24" s="150"/>
+        <v>-31.337384690358544</v>
+      </c>
+      <c r="G24" s="111"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="113"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="123" t="s">
+      <c r="B25" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="158">
+      <c r="C25" s="139"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="123">
         <f>MAX(E13:F18)</f>
-        <v>43.284271247461902</v>
-      </c>
-      <c r="F25" s="159"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="161"/>
-      <c r="K25" s="161"/>
-      <c r="L25" s="161"/>
-      <c r="M25" s="162"/>
+        <v>135.03926991624442</v>
+      </c>
+      <c r="F25" s="124"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="127"/>
     </row>
     <row r="26" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="130" t="s">
+      <c r="B26" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="131"/>
-      <c r="D26" s="131"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
       <c r="E26" s="74">
         <f>SIGN(E12) * D3 / E25</f>
-        <v>-0.46206160860737044</v>
+        <v>0.37026266530477814</v>
       </c>
       <c r="F26" s="75">
         <f>ABS(E26)</f>
-        <v>0.46206160860737044</v>
-      </c>
-      <c r="G26" s="132" t="s">
+        <v>0.37026266530477814</v>
+      </c>
+      <c r="G26" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="133"/>
-      <c r="M26" s="134"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="132"/>
     </row>
     <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="151" t="s">
+      <c r="B29" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="151"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="151"/>
-      <c r="Q29" s="151"/>
-      <c r="R29" s="151"/>
-      <c r="S29" s="151"/>
-      <c r="T29" s="151"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="114"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="114"/>
+      <c r="R29" s="114"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="114"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="140" t="s">
+      <c r="B30" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="155" t="s">
+      <c r="C30" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="156"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="152" t="s">
+      <c r="D30" s="121"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="153"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="155" t="s">
+      <c r="G30" s="118"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="J30" s="156"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="152" t="s">
+      <c r="J30" s="121"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="M30" s="153"/>
-      <c r="N30" s="154"/>
-      <c r="O30" s="155" t="s">
+      <c r="M30" s="118"/>
+      <c r="N30" s="119"/>
+      <c r="O30" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="P30" s="156"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="152" t="s">
+      <c r="P30" s="121"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="S30" s="153"/>
-      <c r="T30" s="154"/>
+      <c r="S30" s="118"/>
+      <c r="T30" s="119"/>
     </row>
     <row r="31" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="141"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="62" t="s">
         <v>60</v>
       </c>
@@ -4426,75 +4426,75 @@
       </c>
       <c r="C32" s="81">
         <f>($B32-0.5) * $E$26 + $E$19</f>
-        <v>2.7571437492230908</v>
+        <v>2.4098241053927012</v>
       </c>
       <c r="D32" s="82">
         <f>$E$12+$E$13*COS(C32)</f>
-        <v>-23.82813296867765</v>
+        <v>-100.14892496555947</v>
       </c>
       <c r="E32" s="83">
         <f>$E$13*SIN(C32)</f>
-        <v>12.992055089910252</v>
+        <v>89.979771222137614</v>
       </c>
       <c r="F32" s="84">
         <f>($B32 - 0.5) * $E$26 + $E$20</f>
-        <v>3.3726234578934782</v>
+        <v>2.9564613209374042</v>
       </c>
       <c r="G32" s="85">
         <f>$E$12+$E$14*COS(F32)</f>
-        <v>-33.849974896909735</v>
+        <v>-132.69246029453819</v>
       </c>
       <c r="H32" s="86">
         <f>$E$14*SIN(F32)</f>
-        <v>-9.9112783872395216</v>
+        <v>24.857437815759159</v>
       </c>
       <c r="I32" s="81">
         <f>($B32 - 0.5) * $E$26 + $E$21</f>
-        <v>-2.2950821406157207</v>
+        <v>-2.780086770697479</v>
       </c>
       <c r="J32" s="82">
         <f>$E$12+$E$15*COS(I32)</f>
-        <v>-14.668890498750928</v>
+        <v>-125.91951226482961</v>
       </c>
       <c r="K32" s="83">
         <f>$E$15*SIN(I32)</f>
-        <v>-25.945180011944267</v>
+        <v>-47.62792053326794</v>
       </c>
       <c r="L32" s="84">
         <f xml:space="preserve"> ($B32 - 0.5) * $E$26 + $E$22</f>
-        <v>-0.80986273274228471</v>
+        <v>0.36180920915843123</v>
       </c>
       <c r="M32" s="85">
         <f>$E$12+$E$16*COS(L32)</f>
-        <v>24.268344603103579</v>
+        <v>125.92085434689243</v>
       </c>
       <c r="N32" s="86">
         <f>$E$16*SIN(L32)</f>
-        <v>-16.785937542017532</v>
+        <v>47.642377801908076</v>
       </c>
       <c r="O32" s="81">
         <f>($B32 - 0.5) * $E$26 + $E$23</f>
-        <v>0.23103080430368522</v>
+        <v>-0.18513133265238907</v>
       </c>
       <c r="P32" s="82">
         <f>$E$12+$E$17*COS(O32)</f>
-        <v>34.29018653133565</v>
+        <v>132.69380237660101</v>
       </c>
       <c r="Q32" s="83">
         <f>$E$17*SIN(O32)</f>
-        <v>6.1173959351322393</v>
+        <v>-24.842980547118994</v>
       </c>
       <c r="R32" s="84">
         <f>($B32 - 0.5) * $E$26 + $E$24</f>
-        <v>1.2719243413496553</v>
+        <v>-0.73207187446320932</v>
       </c>
       <c r="S32" s="85">
         <f>$E$12+$E$18*COS(R32)</f>
-        <v>15.109102133176851</v>
+        <v>100.15026704762228</v>
       </c>
       <c r="T32" s="86">
         <f>$E$18*SIN(R32)</f>
-        <v>22.151297559836966</v>
+        <v>-89.965313953497443</v>
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
@@ -4503,75 +4503,75 @@
       </c>
       <c r="C33" s="65">
         <f t="shared" ref="C33:C52" si="1">($B33-0.5) * $E$26 + $E$19</f>
-        <v>2.7340406687927223</v>
+        <v>2.42833723865794</v>
       </c>
       <c r="D33" s="66">
         <f t="shared" ref="D33:D52" si="2">$E$12+$E$13*COS(C33)</f>
-        <v>-23.519433521775909</v>
+        <v>-101.79746874221689</v>
       </c>
       <c r="E33" s="67">
         <f t="shared" ref="E33:E52" si="3">$E$13*SIN(C33)</f>
-        <v>13.730417435430004</v>
+        <v>88.109660550196153</v>
       </c>
       <c r="F33" s="71">
         <f t="shared" ref="F33:F52" si="4">($B33 - 0.5) * $E$26 + $E$20</f>
-        <v>3.3495203774631097</v>
+        <v>2.9749744542026431</v>
       </c>
       <c r="G33" s="72">
         <f t="shared" ref="G33:G52" si="5">$E$12+$E$14*COS(F33)</f>
-        <v>-34.067691463555342</v>
+        <v>-133.12987773832018</v>
       </c>
       <c r="H33" s="73">
         <f t="shared" ref="H33:H52" si="6">$E$14*SIN(F33)</f>
-        <v>-8.9352891362541698</v>
+        <v>22.396038320852366</v>
       </c>
       <c r="I33" s="65">
         <f t="shared" ref="I33:I52" si="7">($B33 - 0.5) * $E$26 + $E$21</f>
-        <v>-2.3181852210460892</v>
+        <v>-2.7615736374322402</v>
       </c>
       <c r="J33" s="66">
         <f t="shared" ref="J33:J52" si="8">$E$12+$E$15*COS(I33)</f>
-        <v>-15.262125378436776</v>
+        <v>-125.01623589686776</v>
       </c>
       <c r="K33" s="67">
         <f t="shared" ref="K33:K52" si="9">$E$15*SIN(I33)</f>
-        <v>-25.408014600434004</v>
+        <v>-49.951517381248848</v>
       </c>
       <c r="L33" s="71">
         <f t="shared" ref="L33:L52" si="10" xml:space="preserve"> ($B33 - 0.5) * $E$26 + $E$22</f>
-        <v>-0.83296581317265328</v>
+        <v>0.38032234242367013</v>
       </c>
       <c r="M33" s="72">
         <f t="shared" ref="M33:M52" si="11">$E$12+$E$16*COS(L33)</f>
-        <v>23.876306657427222</v>
+        <v>125.01732357372842</v>
       </c>
       <c r="N33" s="73">
         <f t="shared" ref="N33:N52" si="12">$E$16*SIN(L33)</f>
-        <v>-17.150706457094863</v>
+        <v>49.964543081841143</v>
       </c>
       <c r="O33" s="65">
         <f t="shared" ref="O33:O52" si="13">($B33 - 0.5) * $E$26 + $E$23</f>
-        <v>0.20792772387331671</v>
+        <v>-0.16661819938715017</v>
       </c>
       <c r="P33" s="66">
         <f t="shared" ref="P33:P52" si="14">$E$12+$E$17*COS(O33)</f>
-        <v>34.424564599206647</v>
+        <v>133.13096541518081</v>
       </c>
       <c r="Q33" s="67">
         <f t="shared" ref="Q33:Q52" si="15">$E$17*SIN(O33)</f>
-        <v>5.5150001145893084</v>
+        <v>-22.383012620260054</v>
       </c>
       <c r="R33" s="71">
         <f t="shared" ref="R33:R52" si="16">($B33 - 0.5) * $E$26 + $E$24</f>
-        <v>1.2488212609192866</v>
+        <v>-0.71355874119797047</v>
       </c>
       <c r="S33" s="72">
         <f t="shared" ref="S33:S52" si="17">$E$12+$E$18*COS(R33)</f>
-        <v>15.618998514088089</v>
+        <v>101.79855641907753</v>
       </c>
       <c r="T33" s="73">
         <f t="shared" ref="T33:T52" si="18">$E$18*SIN(R33)</f>
-        <v>21.98772557876913</v>
+        <v>-88.096634849603845</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
@@ -4580,75 +4580,75 @@
       </c>
       <c r="C34" s="65">
         <f t="shared" si="1"/>
-        <v>2.7109375883623539</v>
+        <v>2.4468503719231789</v>
       </c>
       <c r="D34" s="66">
         <f t="shared" si="2"/>
-        <v>-23.19375952853526</v>
+        <v>-103.41111038876282</v>
       </c>
       <c r="E34" s="67">
         <f t="shared" si="3"/>
-        <v>14.461451464682787</v>
+        <v>86.209352379030832</v>
       </c>
       <c r="F34" s="71">
         <f t="shared" si="4"/>
-        <v>3.3264172970327412</v>
+        <v>2.9934875874678819</v>
       </c>
       <c r="G34" s="72">
         <f t="shared" si="5"/>
-        <v>-34.26280357707833</v>
+        <v>-133.52165461093401</v>
       </c>
       <c r="H34" s="73">
         <f t="shared" si="6"/>
-        <v>-7.9545308660430551</v>
+        <v>19.926963114274585</v>
       </c>
       <c r="I34" s="65">
         <f t="shared" si="7"/>
-        <v>-2.3412883014764576</v>
+        <v>-2.7430605041670013</v>
       </c>
       <c r="J34" s="66">
         <f t="shared" si="8"/>
-        <v>-15.842792873173584</v>
+        <v>-124.07009971630248</v>
       </c>
       <c r="K34" s="67">
         <f t="shared" si="9"/>
-        <v>-24.857288205247652</v>
+        <v>-52.257994529778742</v>
       </c>
       <c r="L34" s="71">
         <f t="shared" si="10"/>
-        <v>-0.85606889360302185</v>
+        <v>0.39883547568890904</v>
       </c>
       <c r="M34" s="72">
         <f t="shared" si="11"/>
-        <v>23.475946796756844</v>
+        <v>124.07095953285281</v>
       </c>
       <c r="N34" s="73">
         <f t="shared" si="12"/>
-        <v>-17.506321549885975</v>
+        <v>52.26958419807282</v>
       </c>
       <c r="O34" s="65">
         <f t="shared" si="13"/>
-        <v>0.18482464344294819</v>
+        <v>-0.14810506612191127</v>
       </c>
       <c r="P34" s="66">
         <f t="shared" si="14"/>
-        <v>34.544990845299921</v>
+        <v>133.52251442748434</v>
       </c>
       <c r="Q34" s="67">
         <f t="shared" si="15"/>
-        <v>4.909660780839868</v>
+        <v>-19.915373445980478</v>
       </c>
       <c r="R34" s="71">
         <f t="shared" si="16"/>
-        <v>1.2257181804889181</v>
+        <v>-0.69504560793273162</v>
       </c>
       <c r="S34" s="72">
         <f t="shared" si="17"/>
-        <v>16.124980141395174</v>
+        <v>103.41197020531315</v>
       </c>
       <c r="T34" s="73">
         <f t="shared" si="18"/>
-        <v>21.812418120044455</v>
+        <v>-86.197762710736725</v>
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
@@ -4657,75 +4657,75 @@
       </c>
       <c r="C35" s="65">
         <f t="shared" si="1"/>
-        <v>2.6878345079319854</v>
+        <v>2.4653635051884177</v>
       </c>
       <c r="D35" s="66">
         <f t="shared" si="2"/>
-        <v>-22.851284810475221</v>
+        <v>-104.98929686774301</v>
       </c>
       <c r="E35" s="67">
         <f t="shared" si="3"/>
-        <v>15.184767003910704</v>
+        <v>84.279497994257369</v>
       </c>
       <c r="F35" s="71">
         <f t="shared" si="4"/>
-        <v>3.3033142166023728</v>
+        <v>3.0120007207331208</v>
       </c>
       <c r="G35" s="72">
         <f t="shared" si="5"/>
-        <v>-34.435207100566458</v>
+        <v>-133.86765664013609</v>
       </c>
       <c r="H35" s="73">
         <f t="shared" si="6"/>
-        <v>-6.9695270353298016</v>
+        <v>17.451058413071362</v>
       </c>
       <c r="I35" s="65">
         <f t="shared" si="7"/>
-        <v>-2.3643913819068261</v>
+        <v>-2.7245473709017625</v>
       </c>
       <c r="J35" s="66">
         <f t="shared" si="8"/>
-        <v>-16.410583064121127</v>
+        <v>-123.08142798889988</v>
       </c>
       <c r="K35" s="67">
         <f t="shared" si="9"/>
-        <v>-24.293294764804742</v>
+        <v>-54.546561488445221</v>
       </c>
       <c r="L35" s="71">
         <f t="shared" si="10"/>
-        <v>-0.87917197403339031</v>
+        <v>0.41734860895414794</v>
       </c>
       <c r="M35" s="72">
         <f t="shared" si="11"/>
-        <v>23.067478704594315</v>
+        <v>123.08208656812548</v>
       </c>
       <c r="N35" s="73">
         <f t="shared" si="12"/>
-        <v>-17.852593018450641</v>
+        <v>54.556711152356797</v>
       </c>
       <c r="O35" s="65">
         <f t="shared" si="13"/>
-        <v>0.16172156301257964</v>
+        <v>-0.12959193285667234</v>
       </c>
       <c r="P35" s="66">
         <f t="shared" si="14"/>
-        <v>34.651400994685552</v>
+        <v>133.86831521936168</v>
       </c>
       <c r="Q35" s="67">
         <f t="shared" si="15"/>
-        <v>4.3017010207898609</v>
+        <v>-17.440908749159757</v>
       </c>
       <c r="R35" s="71">
         <f t="shared" si="16"/>
-        <v>1.2026151000585497</v>
+        <v>-0.67653247466749267</v>
       </c>
       <c r="S35" s="72">
         <f t="shared" si="17"/>
-        <v>16.626776958240217</v>
+        <v>104.98995544696859</v>
       </c>
       <c r="T35" s="73">
         <f t="shared" si="18"/>
-        <v>21.625468750264794</v>
+        <v>-84.269348330345778</v>
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
@@ -4734,75 +4734,75 @@
       </c>
       <c r="C36" s="65">
         <f t="shared" si="1"/>
-        <v>2.664731427501617</v>
+        <v>2.4838766384536566</v>
       </c>
       <c r="D36" s="66">
         <f t="shared" si="2"/>
-        <v>-22.492192156142416</v>
+        <v>-106.53148729312204</v>
       </c>
       <c r="E36" s="67">
         <f t="shared" si="3"/>
-        <v>15.899977998934611</v>
+        <v>82.32075880775642</v>
       </c>
       <c r="F36" s="71">
         <f t="shared" si="4"/>
-        <v>3.2802111361720043</v>
+        <v>3.0305138539983596</v>
       </c>
       <c r="G36" s="72">
         <f t="shared" si="5"/>
-        <v>-34.584810017331122</v>
+        <v>-134.16776524192616</v>
       </c>
       <c r="H36" s="73">
         <f t="shared" si="6"/>
-        <v>-5.9808033688150299</v>
+        <v>14.969172774935751</v>
       </c>
       <c r="I36" s="65">
         <f t="shared" si="7"/>
-        <v>-2.3874944623371945</v>
+        <v>-2.7060342376365236</v>
       </c>
       <c r="J36" s="66">
         <f t="shared" si="8"/>
-        <v>-16.965192905424296</v>
+        <v>-122.05055955847723</v>
       </c>
       <c r="K36" s="67">
         <f t="shared" si="9"/>
-        <v>-23.716335298526101</v>
+        <v>-56.816433905129294</v>
       </c>
       <c r="L36" s="71">
         <f t="shared" si="10"/>
-        <v>-0.90227505446375889</v>
+        <v>0.43586174221938689</v>
       </c>
       <c r="M36" s="72">
         <f t="shared" si="11"/>
-        <v>22.6511203920364</v>
+        <v>122.05104359233296</v>
       </c>
       <c r="N36" s="73">
         <f t="shared" si="12"/>
-        <v>-18.189336047807984</v>
+        <v>56.825140086101463</v>
       </c>
       <c r="O36" s="65">
         <f t="shared" si="13"/>
-        <v>0.13861848258221113</v>
+        <v>-0.11107879959143344</v>
       </c>
       <c r="P36" s="66">
         <f t="shared" si="14"/>
-        <v>34.743738253225104</v>
+        <v>134.1682492757819</v>
       </c>
       <c r="Q36" s="67">
         <f t="shared" si="15"/>
-        <v>3.6914453199416575</v>
+        <v>-14.960466593963559</v>
       </c>
       <c r="R36" s="71">
         <f t="shared" si="16"/>
-        <v>1.1795120196281812</v>
+        <v>-0.65801934140225371</v>
       </c>
       <c r="S36" s="72">
         <f t="shared" si="17"/>
-        <v>17.124121141318291</v>
+        <v>106.53197132697777</v>
       </c>
       <c r="T36" s="73">
         <f t="shared" si="18"/>
-        <v>21.426977249652715</v>
+        <v>-82.312052626784237</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
@@ -4811,75 +4811,75 @@
       </c>
       <c r="C37" s="65">
         <f t="shared" si="1"/>
-        <v>2.6416283470712485</v>
+        <v>2.5023897717188954</v>
       </c>
       <c r="D37" s="66">
         <f t="shared" si="2"/>
-        <v>-22.116673223551054</v>
+        <v>-108.03715311565934</v>
       </c>
       <c r="E37" s="67">
         <f t="shared" si="3"/>
-        <v>16.606702721202282</v>
+        <v>80.33380613099024</v>
       </c>
       <c r="F37" s="71">
         <f t="shared" si="4"/>
-        <v>3.2571080557416359</v>
+        <v>3.0490269872635984</v>
       </c>
       <c r="G37" s="72">
         <f t="shared" si="5"/>
-        <v>-34.711532480019251</v>
+        <v>-134.42187756118923</v>
       </c>
       <c r="H37" s="73">
         <f t="shared" si="6"/>
-        <v>-4.9888875765820613</v>
+        <v>12.482156807385293</v>
       </c>
       <c r="I37" s="65">
         <f t="shared" si="7"/>
-        <v>-2.410597542767563</v>
+        <v>-2.6875211043712848</v>
       </c>
       <c r="J37" s="66">
         <f t="shared" si="8"/>
-        <v>-17.506326385957379</v>
+        <v>-120.97784773077237</v>
       </c>
       <c r="K37" s="67">
         <f t="shared" si="9"/>
-        <v>-23.126717746171163</v>
+        <v>-59.066833834823406</v>
       </c>
       <c r="L37" s="71">
         <f t="shared" si="10"/>
-        <v>-0.92537813489412735</v>
+        <v>0.45437487548462574</v>
       </c>
       <c r="M37" s="72">
         <f t="shared" si="11"/>
-        <v>22.227094081416055</v>
+        <v>120.9781839710344</v>
       </c>
       <c r="N37" s="73">
         <f t="shared" si="12"/>
-        <v>-18.516370908577485</v>
+        <v>59.074093549018841</v>
       </c>
       <c r="O37" s="65">
         <f t="shared" si="13"/>
-        <v>0.11551540215184261</v>
+        <v>-9.2565666326194534E-2</v>
       </c>
       <c r="P37" s="66">
         <f t="shared" si="14"/>
-        <v>34.821953337884253</v>
+        <v>134.42221380145125</v>
       </c>
       <c r="Q37" s="67">
         <f t="shared" si="15"/>
-        <v>3.0792193892068549</v>
+        <v>-12.474897093189828</v>
       </c>
       <c r="R37" s="71">
         <f t="shared" si="16"/>
-        <v>1.1564089391978125</v>
+        <v>-0.63950620813701486</v>
       </c>
       <c r="S37" s="72">
         <f t="shared" si="17"/>
-        <v>17.616747243822388</v>
+        <v>108.03748935592138</v>
       </c>
       <c r="T37" s="73">
         <f t="shared" si="18"/>
-        <v>21.217049558795946</v>
+        <v>-80.326546416794784</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
@@ -4888,75 +4888,75 @@
       </c>
       <c r="C38" s="65">
         <f t="shared" si="1"/>
-        <v>2.61852526664088</v>
+        <v>2.5209029049841343</v>
       </c>
       <c r="D38" s="66">
         <f t="shared" si="2"/>
-        <v>-21.724928437889609</v>
+        <v>-109.50577830405679</v>
       </c>
       <c r="E38" s="67">
         <f t="shared" si="3"/>
-        <v>17.304563971527834</v>
+        <v>78.319320944926616</v>
       </c>
       <c r="F38" s="71">
         <f t="shared" si="4"/>
-        <v>3.2340049753112674</v>
+        <v>3.0675401205288373</v>
       </c>
       <c r="G38" s="72">
         <f t="shared" si="5"/>
-        <v>-34.81530685323019</v>
+        <v>-134.62990650694664</v>
       </c>
       <c r="H38" s="73">
         <f t="shared" si="6"/>
-        <v>-3.9943090724429551</v>
+        <v>9.9908628762364113</v>
       </c>
       <c r="I38" s="65">
         <f t="shared" si="7"/>
-        <v>-2.4337006231979315</v>
+        <v>-2.6690079711060459</v>
       </c>
       <c r="J38" s="66">
         <f t="shared" si="8"/>
-        <v>-18.033694687313591</v>
+        <v>-119.86366015235637</v>
       </c>
       <c r="K38" s="67">
         <f t="shared" si="9"/>
-        <v>-22.524756803481743</v>
+        <v>-61.296990006253715</v>
       </c>
       <c r="L38" s="71">
         <f t="shared" si="10"/>
-        <v>-0.94848121532449592</v>
+        <v>0.4728880087498647</v>
       </c>
       <c r="M38" s="72">
         <f t="shared" si="11"/>
-        <v>21.795626087695972</v>
+        <v>119.86387540145367</v>
       </c>
       <c r="N38" s="73">
         <f t="shared" si="12"/>
-        <v>-18.833523052905722</v>
+        <v>61.302800765577338</v>
       </c>
       <c r="O38" s="65">
         <f t="shared" si="13"/>
-        <v>9.2412321721474094E-2</v>
+        <v>-7.4052533060955633E-2</v>
       </c>
       <c r="P38" s="66">
         <f t="shared" si="14"/>
-        <v>34.886004503036553</v>
+        <v>134.63012175604393</v>
       </c>
       <c r="Q38" s="67">
         <f t="shared" si="15"/>
-        <v>2.4653499910650627</v>
+        <v>-9.9850521169127635</v>
       </c>
       <c r="R38" s="71">
         <f t="shared" si="16"/>
-        <v>1.1333058587674441</v>
+        <v>-0.62099307487177591</v>
       </c>
       <c r="S38" s="72">
         <f t="shared" si="17"/>
-        <v>18.104392337119965</v>
+        <v>109.50599355315411</v>
       </c>
       <c r="T38" s="73">
         <f t="shared" si="18"/>
-        <v>20.995797722103841</v>
+        <v>-78.313510185602979</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
@@ -4965,75 +4965,75 @@
       </c>
       <c r="C39" s="65">
         <f t="shared" si="1"/>
-        <v>2.5954221862105111</v>
+        <v>2.5394160382493736</v>
       </c>
       <c r="D39" s="66">
         <f t="shared" si="2"/>
-        <v>-21.317166884548143</v>
+        <v>-110.93685952181639</v>
       </c>
       <c r="E39" s="67">
         <f t="shared" si="3"/>
-        <v>17.993189281413734</v>
+        <v>76.277993666648783</v>
       </c>
       <c r="F39" s="71">
         <f t="shared" si="4"/>
-        <v>3.2109018948808985</v>
+        <v>3.0860532537940766</v>
       </c>
       <c r="G39" s="72">
         <f t="shared" si="5"/>
-        <v>-34.896077749614562</v>
+        <v>-134.79178078220454</v>
       </c>
       <c r="H39" s="73">
         <f t="shared" si="6"/>
-        <v>-2.9975986913752113</v>
+        <v>7.4961448134761683</v>
       </c>
       <c r="I39" s="65">
         <f t="shared" si="7"/>
-        <v>-2.4568037036283004</v>
+        <v>-2.6504948378408066</v>
       </c>
       <c r="J39" s="66">
         <f t="shared" si="8"/>
-        <v>-18.547016337955782</v>
+        <v>-118.70837868463155</v>
       </c>
       <c r="K39" s="67">
         <f t="shared" si="9"/>
-        <v>-21.910773754219893</v>
+        <v>-63.506138086215103</v>
       </c>
       <c r="L39" s="71">
         <f t="shared" si="10"/>
-        <v>-0.97158429575486438</v>
+        <v>0.49140114201510354</v>
       </c>
       <c r="M39" s="72">
         <f t="shared" si="11"/>
-        <v>21.356946697677845</v>
+        <v>118.70849978645992</v>
       </c>
       <c r="N39" s="73">
         <f t="shared" si="12"/>
-        <v>-19.140623207627524</v>
+        <v>63.510497899166715</v>
       </c>
       <c r="O39" s="65">
         <f t="shared" si="13"/>
-        <v>6.9309241291105578E-2</v>
+        <v>-5.5539399795716732E-2</v>
       </c>
       <c r="P39" s="66">
         <f t="shared" si="14"/>
-        <v>34.93585756274426</v>
+        <v>134.79190188403288</v>
       </c>
       <c r="Q39" s="67">
         <f t="shared" si="15"/>
-        <v>1.8501647651614226</v>
+        <v>-7.4917850005245246</v>
       </c>
       <c r="R39" s="71">
         <f t="shared" si="16"/>
-        <v>1.1102027783370756</v>
+        <v>-0.60247994160653706</v>
       </c>
       <c r="S39" s="72">
         <f t="shared" si="17"/>
-        <v>18.586796151085473</v>
+        <v>110.93698062364474</v>
       </c>
       <c r="T39" s="73">
         <f t="shared" si="18"/>
-        <v>20.763339828006092</v>
+        <v>-76.273633853697149</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
@@ -5042,75 +5042,75 @@
       </c>
       <c r="C40" s="65">
         <f t="shared" si="1"/>
-        <v>2.5723191057801427</v>
+        <v>2.5579291715146124</v>
       </c>
       <c r="D40" s="66">
         <f t="shared" si="2"/>
-        <v>-20.893606197523482</v>
+        <v>-112.32990629974668</v>
       </c>
       <c r="E40" s="67">
         <f t="shared" si="3"/>
-        <v>18.67221111184783</v>
+        <v>74.210523912731404</v>
       </c>
       <c r="F40" s="71">
         <f t="shared" si="4"/>
-        <v>3.18779881445053</v>
+        <v>3.1045663870593154</v>
       </c>
       <c r="G40" s="72">
         <f t="shared" si="5"/>
-        <v>-34.953802059436164</v>
+        <v>-134.90744490838915</v>
       </c>
       <c r="H40" s="73">
         <f t="shared" si="6"/>
-        <v>-1.9992884062000433</v>
+        <v>4.9988576246318139</v>
       </c>
       <c r="I40" s="65">
         <f t="shared" si="7"/>
-        <v>-2.4799067840586688</v>
+        <v>-2.6319817045755678</v>
       </c>
       <c r="J40" s="66">
         <f t="shared" si="8"/>
-        <v>-19.046017363445763</v>
+        <v>-117.51239927295748</v>
       </c>
       <c r="K40" s="67">
         <f t="shared" si="9"/>
-        <v>-21.285096298689638</v>
+        <v>-65.693520941528021</v>
       </c>
       <c r="L40" s="71">
         <f t="shared" si="10"/>
-        <v>-0.99468737618523295</v>
+        <v>0.5099142752803425</v>
       </c>
       <c r="M40" s="72">
         <f t="shared" si="11"/>
-        <v>20.911290047091697</v>
+        <v>117.51245310367943</v>
       </c>
       <c r="N40" s="73">
         <f t="shared" si="12"/>
-        <v>-19.437507464611908</v>
+        <v>65.696428313885079</v>
       </c>
       <c r="O40" s="65">
         <f t="shared" si="13"/>
-        <v>4.6206160860737033E-2</v>
+        <v>-3.7026266530477803E-2</v>
       </c>
       <c r="P40" s="66">
         <f t="shared" si="14"/>
-        <v>34.971485909004379</v>
+        <v>134.90749873911111</v>
       </c>
       <c r="Q40" s="67">
         <f t="shared" si="15"/>
-        <v>1.2339920534359656</v>
+        <v>-4.9959502522747368</v>
       </c>
       <c r="R40" s="71">
         <f t="shared" si="16"/>
-        <v>1.0870996979067069</v>
+        <v>-0.5839668083412981</v>
       </c>
       <c r="S40" s="72">
         <f t="shared" si="17"/>
-        <v>19.063701213013974</v>
+        <v>112.32996013046863</v>
       </c>
       <c r="T40" s="73">
         <f t="shared" si="18"/>
-        <v>20.519799945925545</v>
+        <v>-74.207616540374318</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
@@ -5119,75 +5119,75 @@
       </c>
       <c r="C41" s="65">
         <f t="shared" si="1"/>
-        <v>2.5492160253497742</v>
+        <v>2.5764423047798513</v>
       </c>
       <c r="D41" s="66">
         <f t="shared" si="2"/>
-        <v>-20.454472443261693</v>
+        <v>-113.68444120405972</v>
       </c>
       <c r="E41" s="67">
         <f t="shared" si="3"/>
-        <v>19.341267049469508</v>
+        <v>72.117620259463308</v>
       </c>
       <c r="F41" s="71">
         <f t="shared" si="4"/>
-        <v>3.1646957340201616</v>
+        <v>3.1230795203245543</v>
       </c>
       <c r="G41" s="72">
         <f t="shared" si="5"/>
-        <v>-34.988448973580795</v>
+        <v>-134.97685924436081</v>
       </c>
       <c r="H41" s="73">
         <f t="shared" si="6"/>
-        <v>-0.99991104365316275</v>
+        <v>2.4998571957375324</v>
       </c>
       <c r="I41" s="65">
         <f t="shared" si="7"/>
-        <v>-2.5030098644890373</v>
+        <v>-2.6134685713103289</v>
       </c>
       <c r="J41" s="66">
         <f t="shared" si="8"/>
-        <v>-19.53043143267238</v>
+        <v>-116.27613181094999</v>
       </c>
       <c r="K41" s="67">
         <f t="shared" si="9"/>
-        <v>-20.648058378833856</v>
+        <v>-67.858388898528361</v>
       </c>
       <c r="L41" s="71">
         <f t="shared" si="10"/>
-        <v>-1.0177904566156015</v>
+        <v>0.52842740854558135</v>
       </c>
       <c r="M41" s="72">
         <f t="shared" si="11"/>
-        <v>20.458893995630973</v>
+        <v>116.27614526978367</v>
       </c>
       <c r="N41" s="73">
         <f t="shared" si="12"/>
-        <v>-19.724017368244535</v>
+        <v>67.859842833857826</v>
       </c>
       <c r="O41" s="65">
         <f t="shared" si="13"/>
-        <v>2.3103080430368517E-2</v>
+        <v>-1.8513133265238901E-2</v>
       </c>
       <c r="P41" s="66">
         <f t="shared" si="14"/>
-        <v>34.992870525950067</v>
+        <v>134.97687270319446</v>
       </c>
       <c r="Q41" s="67">
         <f t="shared" si="15"/>
-        <v>0.61716072487813445</v>
+        <v>-2.4984032604080371</v>
       </c>
       <c r="R41" s="71">
         <f t="shared" si="16"/>
-        <v>1.0639966174763384</v>
+        <v>-0.56545367507605926</v>
       </c>
       <c r="S41" s="72">
         <f t="shared" si="17"/>
-        <v>19.53485298504166</v>
+        <v>113.68445466289337</v>
       </c>
       <c r="T41" s="73">
         <f t="shared" si="18"/>
-        <v>20.265308060058818</v>
+        <v>-72.116166324133829</v>
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
@@ -5196,15 +5196,15 @@
       </c>
       <c r="C42" s="79">
         <f t="shared" si="1"/>
-        <v>2.5261129449194057</v>
+        <v>2.5949554380450901</v>
       </c>
       <c r="D42" s="76">
         <f t="shared" si="2"/>
-        <v>-20</v>
+        <v>-115</v>
       </c>
       <c r="E42" s="77">
         <f t="shared" si="3"/>
-        <v>20.000000000000004</v>
+        <v>70.000000000000014</v>
       </c>
       <c r="F42" s="79">
         <f t="shared" si="4"/>
@@ -5212,35 +5212,35 @@
       </c>
       <c r="G42" s="76">
         <f t="shared" si="5"/>
-        <v>-35</v>
+        <v>-135</v>
       </c>
       <c r="H42" s="77">
         <f t="shared" si="6"/>
-        <v>5.3029658040673552E-15</v>
+        <v>1.6544315288987496E-14</v>
       </c>
       <c r="I42" s="79">
         <f t="shared" si="7"/>
-        <v>-2.5261129449194057</v>
+        <v>-2.5949554380450901</v>
       </c>
       <c r="J42" s="76">
         <f t="shared" si="8"/>
-        <v>-20</v>
+        <v>-115</v>
       </c>
       <c r="K42" s="77">
         <f t="shared" si="9"/>
-        <v>-20.000000000000004</v>
+        <v>-70.000000000000014</v>
       </c>
       <c r="L42" s="79">
         <f t="shared" si="10"/>
-        <v>-1.04089353704597</v>
+        <v>0.5469405418108203</v>
       </c>
       <c r="M42" s="76">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="N42" s="77">
         <f t="shared" si="12"/>
-        <v>-20</v>
+        <v>70.000000000000014</v>
       </c>
       <c r="O42" s="79">
         <f t="shared" si="13"/>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="P42" s="76">
         <f t="shared" si="14"/>
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="Q42" s="77">
         <f t="shared" si="15"/>
@@ -5256,15 +5256,15 @@
       </c>
       <c r="R42" s="79">
         <f t="shared" si="16"/>
-        <v>1.04089353704597</v>
+        <v>-0.5469405418108203</v>
       </c>
       <c r="S42" s="76">
         <f t="shared" si="17"/>
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="T42" s="77">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>-70.000000000000014</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
@@ -5273,75 +5273,75 @@
       </c>
       <c r="C43" s="65">
         <f t="shared" si="1"/>
-        <v>2.5030098644890373</v>
+        <v>2.6134685713103289</v>
       </c>
       <c r="D43" s="66">
         <f t="shared" si="2"/>
-        <v>-19.53043143267238</v>
+        <v>-116.27613181094999</v>
       </c>
       <c r="E43" s="67">
         <f t="shared" si="3"/>
-        <v>20.648058378833856</v>
+        <v>67.858388898528361</v>
       </c>
       <c r="F43" s="71">
         <f t="shared" si="4"/>
-        <v>3.1184895731594247</v>
+        <v>3.160105786855032</v>
       </c>
       <c r="G43" s="72">
         <f t="shared" si="5"/>
-        <v>-34.988448973580795</v>
+        <v>-134.97685924436081</v>
       </c>
       <c r="H43" s="73">
         <f t="shared" si="6"/>
-        <v>0.99991104365317329</v>
+        <v>-2.4998571957374991</v>
       </c>
       <c r="I43" s="65">
         <f t="shared" si="7"/>
-        <v>-2.5492160253497742</v>
+        <v>-2.5764423047798513</v>
       </c>
       <c r="J43" s="66">
         <f t="shared" si="8"/>
-        <v>-20.454472443261693</v>
+        <v>-113.68444120405972</v>
       </c>
       <c r="K43" s="67">
         <f t="shared" si="9"/>
-        <v>-19.341267049469508</v>
+        <v>-72.117620259463308</v>
       </c>
       <c r="L43" s="71">
         <f t="shared" si="10"/>
-        <v>-1.0639966174763384</v>
+        <v>0.56545367507605926</v>
       </c>
       <c r="M43" s="72">
         <f t="shared" si="11"/>
-        <v>19.53485298504166</v>
+        <v>113.68445466289337</v>
       </c>
       <c r="N43" s="73">
         <f t="shared" si="12"/>
-        <v>-20.265308060058818</v>
+        <v>72.116166324133829</v>
       </c>
       <c r="O43" s="65">
         <f t="shared" si="13"/>
-        <v>-2.3103080430368544E-2</v>
+        <v>1.8513133265238922E-2</v>
       </c>
       <c r="P43" s="66">
         <f t="shared" si="14"/>
-        <v>34.992870525950067</v>
+        <v>134.97687270319446</v>
       </c>
       <c r="Q43" s="67">
         <f t="shared" si="15"/>
-        <v>-0.61716072487813523</v>
+        <v>2.4984032604080402</v>
       </c>
       <c r="R43" s="71">
         <f t="shared" si="16"/>
-        <v>1.0177904566156015</v>
+        <v>-0.52842740854558135</v>
       </c>
       <c r="S43" s="72">
         <f t="shared" si="17"/>
-        <v>20.458893995630973</v>
+        <v>116.27614526978367</v>
       </c>
       <c r="T43" s="73">
         <f t="shared" si="18"/>
-        <v>19.724017368244535</v>
+        <v>-67.859842833857826</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
@@ -5350,75 +5350,75 @@
       </c>
       <c r="C44" s="65">
         <f t="shared" si="1"/>
-        <v>2.4799067840586688</v>
+        <v>2.6319817045755678</v>
       </c>
       <c r="D44" s="66">
         <f t="shared" si="2"/>
-        <v>-19.046017363445763</v>
+        <v>-117.51239927295748</v>
       </c>
       <c r="E44" s="67">
         <f t="shared" si="3"/>
-        <v>21.285096298689638</v>
+        <v>65.693520941528021</v>
       </c>
       <c r="F44" s="71">
         <f t="shared" si="4"/>
-        <v>3.0953864927290562</v>
+        <v>3.1786189201202708</v>
       </c>
       <c r="G44" s="72">
         <f t="shared" si="5"/>
-        <v>-34.953802059436164</v>
+        <v>-134.90744490838915</v>
       </c>
       <c r="H44" s="73">
         <f t="shared" si="6"/>
-        <v>1.9992884062000542</v>
+        <v>-4.9988576246317802</v>
       </c>
       <c r="I44" s="65">
         <f t="shared" si="7"/>
-        <v>-2.5723191057801427</v>
+        <v>-2.5579291715146124</v>
       </c>
       <c r="J44" s="66">
         <f t="shared" si="8"/>
-        <v>-20.893606197523482</v>
+        <v>-112.32990629974668</v>
       </c>
       <c r="K44" s="67">
         <f t="shared" si="9"/>
-        <v>-18.67221111184783</v>
+        <v>-74.210523912731404</v>
       </c>
       <c r="L44" s="71">
         <f t="shared" si="10"/>
-        <v>-1.0870996979067069</v>
+        <v>0.5839668083412981</v>
       </c>
       <c r="M44" s="72">
         <f t="shared" si="11"/>
-        <v>19.063701213013974</v>
+        <v>112.32996013046863</v>
       </c>
       <c r="N44" s="73">
         <f t="shared" si="12"/>
-        <v>-20.519799945925545</v>
+        <v>74.207616540374318</v>
       </c>
       <c r="O44" s="65">
         <f t="shared" si="13"/>
-        <v>-4.6206160860737033E-2</v>
+        <v>3.7026266530477803E-2</v>
       </c>
       <c r="P44" s="66">
         <f t="shared" si="14"/>
-        <v>34.971485909004379</v>
+        <v>134.90749873911111</v>
       </c>
       <c r="Q44" s="67">
         <f t="shared" si="15"/>
-        <v>-1.2339920534359656</v>
+        <v>4.9959502522747368</v>
       </c>
       <c r="R44" s="71">
         <f t="shared" si="16"/>
-        <v>0.99468737618523295</v>
+        <v>-0.5099142752803425</v>
       </c>
       <c r="S44" s="72">
         <f t="shared" si="17"/>
-        <v>20.911290047091697</v>
+        <v>117.51245310367943</v>
       </c>
       <c r="T44" s="73">
         <f t="shared" si="18"/>
-        <v>19.437507464611908</v>
+        <v>-65.696428313885079</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
@@ -5427,75 +5427,75 @@
       </c>
       <c r="C45" s="65">
         <f t="shared" si="1"/>
-        <v>2.4568037036283004</v>
+        <v>2.6504948378408066</v>
       </c>
       <c r="D45" s="66">
         <f t="shared" si="2"/>
-        <v>-18.547016337955782</v>
+        <v>-118.70837868463155</v>
       </c>
       <c r="E45" s="67">
         <f t="shared" si="3"/>
-        <v>21.910773754219893</v>
+        <v>63.506138086215103</v>
       </c>
       <c r="F45" s="71">
         <f t="shared" si="4"/>
-        <v>3.0722834122986877</v>
+        <v>3.1971320533855097</v>
       </c>
       <c r="G45" s="72">
         <f t="shared" si="5"/>
-        <v>-34.896077749614562</v>
+        <v>-134.79178078220454</v>
       </c>
       <c r="H45" s="73">
         <f t="shared" si="6"/>
-        <v>2.9975986913752215</v>
+        <v>-7.4961448134761355</v>
       </c>
       <c r="I45" s="65">
         <f t="shared" si="7"/>
-        <v>-2.5954221862105111</v>
+        <v>-2.5394160382493736</v>
       </c>
       <c r="J45" s="66">
         <f t="shared" si="8"/>
-        <v>-21.317166884548143</v>
+        <v>-110.93685952181639</v>
       </c>
       <c r="K45" s="67">
         <f t="shared" si="9"/>
-        <v>-17.993189281413734</v>
+        <v>-76.277993666648783</v>
       </c>
       <c r="L45" s="71">
         <f t="shared" si="10"/>
-        <v>-1.1102027783370756</v>
+        <v>0.60247994160653706</v>
       </c>
       <c r="M45" s="72">
         <f t="shared" si="11"/>
-        <v>18.586796151085473</v>
+        <v>110.93698062364474</v>
       </c>
       <c r="N45" s="73">
         <f t="shared" si="12"/>
-        <v>-20.763339828006092</v>
+        <v>76.273633853697149</v>
       </c>
       <c r="O45" s="65">
         <f t="shared" si="13"/>
-        <v>-6.9309241291105578E-2</v>
+        <v>5.5539399795716732E-2</v>
       </c>
       <c r="P45" s="66">
         <f t="shared" si="14"/>
-        <v>34.93585756274426</v>
+        <v>134.79190188403288</v>
       </c>
       <c r="Q45" s="67">
         <f t="shared" si="15"/>
-        <v>-1.8501647651614226</v>
+        <v>7.4917850005245246</v>
       </c>
       <c r="R45" s="71">
         <f t="shared" si="16"/>
-        <v>0.97158429575486438</v>
+        <v>-0.49140114201510354</v>
       </c>
       <c r="S45" s="72">
         <f t="shared" si="17"/>
-        <v>21.356946697677845</v>
+        <v>118.70849978645992</v>
       </c>
       <c r="T45" s="73">
         <f t="shared" si="18"/>
-        <v>19.140623207627524</v>
+        <v>-63.510497899166715</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
@@ -5504,75 +5504,75 @@
       </c>
       <c r="C46" s="65">
         <f t="shared" si="1"/>
-        <v>2.4337006231979315</v>
+        <v>2.6690079711060459</v>
       </c>
       <c r="D46" s="66">
         <f t="shared" si="2"/>
-        <v>-18.033694687313591</v>
+        <v>-119.86366015235637</v>
       </c>
       <c r="E46" s="67">
         <f t="shared" si="3"/>
-        <v>22.524756803481743</v>
+        <v>61.296990006253715</v>
       </c>
       <c r="F46" s="71">
         <f t="shared" si="4"/>
-        <v>3.0491803318683193</v>
+        <v>3.2156451866507485</v>
       </c>
       <c r="G46" s="72">
         <f t="shared" si="5"/>
-        <v>-34.81530685323019</v>
+        <v>-134.62990650694664</v>
       </c>
       <c r="H46" s="73">
         <f t="shared" si="6"/>
-        <v>3.9943090724429466</v>
+        <v>-9.990862876236319</v>
       </c>
       <c r="I46" s="65">
         <f t="shared" si="7"/>
-        <v>-2.61852526664088</v>
+        <v>-2.5209029049841343</v>
       </c>
       <c r="J46" s="66">
         <f t="shared" si="8"/>
-        <v>-21.724928437889609</v>
+        <v>-109.50577830405679</v>
       </c>
       <c r="K46" s="67">
         <f t="shared" si="9"/>
-        <v>-17.304563971527834</v>
+        <v>-78.319320944926616</v>
       </c>
       <c r="L46" s="71">
         <f t="shared" si="10"/>
-        <v>-1.1333058587674441</v>
+        <v>0.62099307487177591</v>
       </c>
       <c r="M46" s="72">
         <f t="shared" si="11"/>
-        <v>18.104392337119965</v>
+        <v>109.50599355315411</v>
       </c>
       <c r="N46" s="73">
         <f t="shared" si="12"/>
-        <v>-20.995797722103841</v>
+        <v>78.313510185602979</v>
       </c>
       <c r="O46" s="65">
         <f t="shared" si="13"/>
-        <v>-9.2412321721474067E-2</v>
+        <v>7.4052533060955605E-2</v>
       </c>
       <c r="P46" s="66">
         <f t="shared" si="14"/>
-        <v>34.886004503036553</v>
+        <v>134.63012175604393</v>
       </c>
       <c r="Q46" s="67">
         <f t="shared" si="15"/>
-        <v>-2.4653499910650618</v>
+        <v>9.98505211691276</v>
       </c>
       <c r="R46" s="71">
         <f t="shared" si="16"/>
-        <v>0.94848121532449592</v>
+        <v>-0.4728880087498647</v>
       </c>
       <c r="S46" s="72">
         <f t="shared" si="17"/>
-        <v>21.795626087695972</v>
+        <v>119.86387540145367</v>
       </c>
       <c r="T46" s="73">
         <f t="shared" si="18"/>
-        <v>18.833523052905722</v>
+        <v>-61.302800765577338</v>
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
@@ -5581,75 +5581,75 @@
       </c>
       <c r="C47" s="65">
         <f t="shared" si="1"/>
-        <v>2.410597542767563</v>
+        <v>2.6875211043712848</v>
       </c>
       <c r="D47" s="66">
         <f t="shared" si="2"/>
-        <v>-17.506326385957379</v>
+        <v>-120.97784773077237</v>
       </c>
       <c r="E47" s="67">
         <f t="shared" si="3"/>
-        <v>23.126717746171163</v>
+        <v>59.066833834823406</v>
       </c>
       <c r="F47" s="71">
         <f t="shared" si="4"/>
-        <v>3.0260772514379504</v>
+        <v>3.2341583199159878</v>
       </c>
       <c r="G47" s="72">
         <f t="shared" si="5"/>
-        <v>-34.711532480019251</v>
+        <v>-134.42187756118923</v>
       </c>
       <c r="H47" s="73">
         <f t="shared" si="6"/>
-        <v>4.9888875765820719</v>
+        <v>-12.482156807385259</v>
       </c>
       <c r="I47" s="65">
         <f t="shared" si="7"/>
-        <v>-2.6416283470712485</v>
+        <v>-2.5023897717188954</v>
       </c>
       <c r="J47" s="66">
         <f t="shared" si="8"/>
-        <v>-22.116673223551054</v>
+        <v>-108.03715311565934</v>
       </c>
       <c r="K47" s="67">
         <f t="shared" si="9"/>
-        <v>-16.606702721202282</v>
+        <v>-80.33380613099024</v>
       </c>
       <c r="L47" s="71">
         <f t="shared" si="10"/>
-        <v>-1.1564089391978125</v>
+        <v>0.63950620813701486</v>
       </c>
       <c r="M47" s="72">
         <f t="shared" si="11"/>
-        <v>17.616747243822388</v>
+        <v>108.03748935592138</v>
       </c>
       <c r="N47" s="73">
         <f t="shared" si="12"/>
-        <v>-21.217049558795946</v>
+        <v>80.326546416794784</v>
       </c>
       <c r="O47" s="65">
         <f t="shared" si="13"/>
-        <v>-0.11551540215184261</v>
+        <v>9.2565666326194534E-2</v>
       </c>
       <c r="P47" s="66">
         <f t="shared" si="14"/>
-        <v>34.821953337884253</v>
+        <v>134.42221380145125</v>
       </c>
       <c r="Q47" s="67">
         <f t="shared" si="15"/>
-        <v>-3.0792193892068549</v>
+        <v>12.474897093189828</v>
       </c>
       <c r="R47" s="71">
         <f t="shared" si="16"/>
-        <v>0.92537813489412735</v>
+        <v>-0.45437487548462574</v>
       </c>
       <c r="S47" s="72">
         <f t="shared" si="17"/>
-        <v>22.227094081416055</v>
+        <v>120.9781839710344</v>
       </c>
       <c r="T47" s="73">
         <f t="shared" si="18"/>
-        <v>18.516370908577485</v>
+        <v>-59.074093549018841</v>
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
@@ -5658,75 +5658,75 @@
       </c>
       <c r="C48" s="65">
         <f t="shared" si="1"/>
-        <v>2.3874944623371945</v>
+        <v>2.7060342376365236</v>
       </c>
       <c r="D48" s="66">
         <f t="shared" si="2"/>
-        <v>-16.965192905424296</v>
+        <v>-122.05055955847723</v>
       </c>
       <c r="E48" s="67">
         <f t="shared" si="3"/>
-        <v>23.716335298526101</v>
+        <v>56.816433905129294</v>
       </c>
       <c r="F48" s="71">
         <f t="shared" si="4"/>
-        <v>3.0029741710075819</v>
+        <v>3.2526714531812266</v>
       </c>
       <c r="G48" s="72">
         <f t="shared" si="5"/>
-        <v>-34.584810017331115</v>
+        <v>-134.16776524192619</v>
       </c>
       <c r="H48" s="73">
         <f t="shared" si="6"/>
-        <v>5.9808033688150415</v>
+        <v>-14.96917277493572</v>
       </c>
       <c r="I48" s="65">
         <f t="shared" si="7"/>
-        <v>-2.664731427501617</v>
+        <v>-2.4838766384536566</v>
       </c>
       <c r="J48" s="66">
         <f t="shared" si="8"/>
-        <v>-22.492192156142416</v>
+        <v>-106.53148729312204</v>
       </c>
       <c r="K48" s="67">
         <f t="shared" si="9"/>
-        <v>-15.899977998934611</v>
+        <v>-82.32075880775642</v>
       </c>
       <c r="L48" s="71">
         <f t="shared" si="10"/>
-        <v>-1.1795120196281812</v>
+        <v>0.65801934140225371</v>
       </c>
       <c r="M48" s="72">
         <f t="shared" si="11"/>
-        <v>17.124121141318291</v>
+        <v>106.53197132697777</v>
       </c>
       <c r="N48" s="73">
         <f t="shared" si="12"/>
-        <v>-21.426977249652715</v>
+        <v>82.312052626784237</v>
       </c>
       <c r="O48" s="65">
         <f t="shared" si="13"/>
-        <v>-0.13861848258221116</v>
+        <v>0.11107879959143346</v>
       </c>
       <c r="P48" s="66">
         <f t="shared" si="14"/>
-        <v>34.743738253225104</v>
+        <v>134.1682492757819</v>
       </c>
       <c r="Q48" s="67">
         <f t="shared" si="15"/>
-        <v>-3.6914453199416584</v>
+        <v>14.960466593963563</v>
       </c>
       <c r="R48" s="71">
         <f t="shared" si="16"/>
-        <v>0.90227505446375877</v>
+        <v>-0.43586174221938684</v>
       </c>
       <c r="S48" s="72">
         <f t="shared" si="17"/>
-        <v>22.651120392036404</v>
+        <v>122.05104359233296</v>
       </c>
       <c r="T48" s="73">
         <f t="shared" si="18"/>
-        <v>18.189336047807981</v>
+        <v>-56.825140086101456</v>
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
@@ -5735,75 +5735,75 @@
       </c>
       <c r="C49" s="65">
         <f t="shared" si="1"/>
-        <v>2.3643913819068261</v>
+        <v>2.7245473709017625</v>
       </c>
       <c r="D49" s="66">
         <f t="shared" si="2"/>
-        <v>-16.410583064121127</v>
+        <v>-123.08142798889988</v>
       </c>
       <c r="E49" s="67">
         <f t="shared" si="3"/>
-        <v>24.293294764804742</v>
+        <v>54.546561488445221</v>
       </c>
       <c r="F49" s="71">
         <f t="shared" si="4"/>
-        <v>2.9798710905772134</v>
+        <v>3.2711845864464655</v>
       </c>
       <c r="G49" s="72">
         <f t="shared" si="5"/>
-        <v>-34.435207100566458</v>
+        <v>-133.86765664013612</v>
       </c>
       <c r="H49" s="73">
         <f t="shared" si="6"/>
-        <v>6.9695270353298122</v>
+        <v>-17.451058413071326</v>
       </c>
       <c r="I49" s="65">
         <f t="shared" si="7"/>
-        <v>-2.6878345079319854</v>
+        <v>-2.4653635051884177</v>
       </c>
       <c r="J49" s="66">
         <f t="shared" si="8"/>
-        <v>-22.851284810475221</v>
+        <v>-104.98929686774301</v>
       </c>
       <c r="K49" s="67">
         <f t="shared" si="9"/>
-        <v>-15.184767003910704</v>
+        <v>-84.279497994257369</v>
       </c>
       <c r="L49" s="71">
         <f t="shared" si="10"/>
-        <v>-1.2026151000585497</v>
+        <v>0.67653247466749267</v>
       </c>
       <c r="M49" s="72">
         <f t="shared" si="11"/>
-        <v>16.626776958240217</v>
+        <v>104.98995544696859</v>
       </c>
       <c r="N49" s="73">
         <f t="shared" si="12"/>
-        <v>-21.625468750264794</v>
+        <v>84.269348330345778</v>
       </c>
       <c r="O49" s="65">
         <f t="shared" si="13"/>
-        <v>-0.16172156301257964</v>
+        <v>0.12959193285667234</v>
       </c>
       <c r="P49" s="66">
         <f t="shared" si="14"/>
-        <v>34.651400994685552</v>
+        <v>133.86831521936168</v>
       </c>
       <c r="Q49" s="67">
         <f t="shared" si="15"/>
-        <v>-4.3017010207898609</v>
+        <v>17.440908749159757</v>
       </c>
       <c r="R49" s="71">
         <f t="shared" si="16"/>
-        <v>0.87917197403339031</v>
+        <v>-0.41734860895414794</v>
       </c>
       <c r="S49" s="72">
         <f t="shared" si="17"/>
-        <v>23.067478704594315</v>
+        <v>123.08208656812548</v>
       </c>
       <c r="T49" s="73">
         <f t="shared" si="18"/>
-        <v>17.852593018450641</v>
+        <v>-54.556711152356797</v>
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
@@ -5812,75 +5812,75 @@
       </c>
       <c r="C50" s="65">
         <f t="shared" si="1"/>
-        <v>2.3412883014764576</v>
+        <v>2.7430605041670013</v>
       </c>
       <c r="D50" s="66">
         <f t="shared" si="2"/>
-        <v>-15.842792873173584</v>
+        <v>-124.07009971630248</v>
       </c>
       <c r="E50" s="67">
         <f t="shared" si="3"/>
-        <v>24.857288205247652</v>
+        <v>52.257994529778742</v>
       </c>
       <c r="F50" s="71">
         <f t="shared" si="4"/>
-        <v>2.956768010146845</v>
+        <v>3.2896977197117043</v>
       </c>
       <c r="G50" s="72">
         <f t="shared" si="5"/>
-        <v>-34.26280357707833</v>
+        <v>-133.52165461093401</v>
       </c>
       <c r="H50" s="73">
         <f t="shared" si="6"/>
-        <v>7.9545308660430658</v>
+        <v>-19.926963114274553</v>
       </c>
       <c r="I50" s="65">
         <f t="shared" si="7"/>
-        <v>-2.7109375883623539</v>
+        <v>-2.4468503719231789</v>
       </c>
       <c r="J50" s="66">
         <f t="shared" si="8"/>
-        <v>-23.19375952853526</v>
+        <v>-103.41111038876282</v>
       </c>
       <c r="K50" s="67">
         <f t="shared" si="9"/>
-        <v>-14.461451464682787</v>
+        <v>-86.209352379030832</v>
       </c>
       <c r="L50" s="71">
         <f t="shared" si="10"/>
-        <v>-1.2257181804889181</v>
+        <v>0.69504560793273162</v>
       </c>
       <c r="M50" s="72">
         <f t="shared" si="11"/>
-        <v>16.124980141395174</v>
+        <v>103.41197020531315</v>
       </c>
       <c r="N50" s="73">
         <f t="shared" si="12"/>
-        <v>-21.812418120044455</v>
+        <v>86.197762710736725</v>
       </c>
       <c r="O50" s="65">
         <f t="shared" si="13"/>
-        <v>-0.18482464344294819</v>
+        <v>0.14810506612191127</v>
       </c>
       <c r="P50" s="66">
         <f t="shared" si="14"/>
-        <v>34.544990845299921</v>
+        <v>133.52251442748434</v>
       </c>
       <c r="Q50" s="67">
         <f t="shared" si="15"/>
-        <v>-4.909660780839868</v>
+        <v>19.915373445980478</v>
       </c>
       <c r="R50" s="71">
         <f t="shared" si="16"/>
-        <v>0.85606889360302185</v>
+        <v>-0.39883547568890904</v>
       </c>
       <c r="S50" s="72">
         <f t="shared" si="17"/>
-        <v>23.475946796756844</v>
+        <v>124.07095953285281</v>
       </c>
       <c r="T50" s="73">
         <f t="shared" si="18"/>
-        <v>17.506321549885975</v>
+        <v>-52.26958419807282</v>
       </c>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
@@ -5889,75 +5889,75 @@
       </c>
       <c r="C51" s="65">
         <f t="shared" si="1"/>
-        <v>2.3181852210460892</v>
+        <v>2.7615736374322402</v>
       </c>
       <c r="D51" s="66">
         <f t="shared" si="2"/>
-        <v>-15.262125378436776</v>
+        <v>-125.01623589686776</v>
       </c>
       <c r="E51" s="67">
         <f t="shared" si="3"/>
-        <v>25.408014600434004</v>
+        <v>49.951517381248848</v>
       </c>
       <c r="F51" s="71">
         <f t="shared" si="4"/>
-        <v>2.9336649297164765</v>
+        <v>3.3082108529769432</v>
       </c>
       <c r="G51" s="72">
         <f t="shared" si="5"/>
-        <v>-34.067691463555342</v>
+        <v>-133.12987773832018</v>
       </c>
       <c r="H51" s="73">
         <f t="shared" si="6"/>
-        <v>8.9352891362541804</v>
+        <v>-22.39603832085233</v>
       </c>
       <c r="I51" s="65">
         <f t="shared" si="7"/>
-        <v>-2.7340406687927223</v>
+        <v>-2.42833723865794</v>
       </c>
       <c r="J51" s="66">
         <f t="shared" si="8"/>
-        <v>-23.519433521775909</v>
+        <v>-101.79746874221689</v>
       </c>
       <c r="K51" s="67">
         <f t="shared" si="9"/>
-        <v>-13.730417435430004</v>
+        <v>-88.109660550196153</v>
       </c>
       <c r="L51" s="71">
         <f t="shared" si="10"/>
-        <v>-1.2488212609192866</v>
+        <v>0.71355874119797047</v>
       </c>
       <c r="M51" s="72">
         <f t="shared" si="11"/>
-        <v>15.618998514088089</v>
+        <v>101.79855641907753</v>
       </c>
       <c r="N51" s="73">
         <f t="shared" si="12"/>
-        <v>-21.98772557876913</v>
+        <v>88.096634849603845</v>
       </c>
       <c r="O51" s="65">
         <f t="shared" si="13"/>
-        <v>-0.20792772387331668</v>
+        <v>0.16661819938715014</v>
       </c>
       <c r="P51" s="66">
         <f t="shared" si="14"/>
-        <v>34.424564599206647</v>
+        <v>133.13096541518081</v>
       </c>
       <c r="Q51" s="67">
         <f t="shared" si="15"/>
-        <v>-5.5150001145893075</v>
+        <v>22.383012620260047</v>
       </c>
       <c r="R51" s="71">
         <f t="shared" si="16"/>
-        <v>0.83296581317265328</v>
+        <v>-0.38032234242367013</v>
       </c>
       <c r="S51" s="72">
         <f t="shared" si="17"/>
-        <v>23.876306657427222</v>
+        <v>125.01732357372842</v>
       </c>
       <c r="T51" s="73">
         <f t="shared" si="18"/>
-        <v>17.150706457094863</v>
+        <v>-49.964543081841143</v>
       </c>
     </row>
     <row r="52" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5966,79 +5966,111 @@
       </c>
       <c r="C52" s="88">
         <f t="shared" si="1"/>
-        <v>2.2950821406157207</v>
+        <v>2.780086770697479</v>
       </c>
       <c r="D52" s="89">
         <f t="shared" si="2"/>
-        <v>-14.668890498750928</v>
+        <v>-125.91951226482961</v>
       </c>
       <c r="E52" s="90">
         <f t="shared" si="3"/>
-        <v>25.945180011944267</v>
+        <v>47.62792053326794</v>
       </c>
       <c r="F52" s="91">
         <f t="shared" si="4"/>
-        <v>2.9105618492861081</v>
+        <v>3.326723986242182</v>
       </c>
       <c r="G52" s="92">
         <f t="shared" si="5"/>
-        <v>-33.849974896909728</v>
+        <v>-132.69246029453819</v>
       </c>
       <c r="H52" s="93">
         <f t="shared" si="6"/>
-        <v>9.9112783872395323</v>
+        <v>-24.857437815759127</v>
       </c>
       <c r="I52" s="88">
         <f t="shared" si="7"/>
-        <v>-2.7571437492230908</v>
+        <v>-2.4098241053927012</v>
       </c>
       <c r="J52" s="89">
         <f t="shared" si="8"/>
-        <v>-23.82813296867765</v>
+        <v>-100.14892496555947</v>
       </c>
       <c r="K52" s="90">
         <f t="shared" si="9"/>
-        <v>-12.992055089910252</v>
+        <v>-89.979771222137614</v>
       </c>
       <c r="L52" s="91">
         <f t="shared" si="10"/>
-        <v>-1.2719243413496553</v>
+        <v>0.73207187446320932</v>
       </c>
       <c r="M52" s="92">
         <f t="shared" si="11"/>
-        <v>15.109102133176851</v>
+        <v>100.15026704762228</v>
       </c>
       <c r="N52" s="93">
         <f t="shared" si="12"/>
-        <v>-22.151297559836966</v>
+        <v>89.965313953497443</v>
       </c>
       <c r="O52" s="88">
         <f t="shared" si="13"/>
-        <v>-0.23103080430368522</v>
+        <v>0.18513133265238907</v>
       </c>
       <c r="P52" s="89">
         <f t="shared" si="14"/>
-        <v>34.29018653133565</v>
+        <v>132.69380237660101</v>
       </c>
       <c r="Q52" s="90">
         <f t="shared" si="15"/>
-        <v>-6.1173959351322393</v>
+        <v>24.842980547118994</v>
       </c>
       <c r="R52" s="91">
         <f t="shared" si="16"/>
-        <v>0.80986273274228471</v>
+        <v>-0.36180920915843123</v>
       </c>
       <c r="S52" s="92">
         <f t="shared" si="17"/>
-        <v>24.268344603103579</v>
+        <v>125.92085434689243</v>
       </c>
       <c r="T52" s="93">
         <f t="shared" si="18"/>
-        <v>16.785937542017532</v>
+        <v>-47.642377801908076</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="G13:M18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="G19:M24"/>
     <mergeCell ref="B29:T29"/>
@@ -6055,38 +6087,6 @@
     <mergeCell ref="R30:T30"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:M25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="G13:M18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G12:M12"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/IK and trajectory algorithms.xlsx
+++ b/docs/IK and trajectory algorithms.xlsx
@@ -1298,6 +1298,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1306,102 +1402,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,67 +1528,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-14.668890498750928</c:v>
+                  <c:v>-100.14892496555947</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-15.262125378436776</c:v>
+                  <c:v>-101.79746874221689</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-15.842792873173584</c:v>
+                  <c:v>-103.41111038876282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-16.410583064121127</c:v>
+                  <c:v>-104.98929686774301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-16.965192905424296</c:v>
+                  <c:v>-106.53148729312204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-17.506326385957379</c:v>
+                  <c:v>-108.03715311565934</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-18.033694687313591</c:v>
+                  <c:v>-109.50577830405679</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-18.547016337955782</c:v>
+                  <c:v>-110.93685952181639</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-19.046017363445763</c:v>
+                  <c:v>-112.32990629974668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-19.53043143267238</c:v>
+                  <c:v>-113.68444120405972</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-20</c:v>
+                  <c:v>-115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-20.454472443261693</c:v>
+                  <c:v>-116.27613181094999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-20.893606197523482</c:v>
+                  <c:v>-117.51239927295748</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-21.317166884548143</c:v>
+                  <c:v>-118.70837868463155</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-21.724928437889609</c:v>
+                  <c:v>-119.86366015235637</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-22.116673223551054</c:v>
+                  <c:v>-120.97784773077237</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-22.492192156142416</c:v>
+                  <c:v>-122.05055955847723</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-22.851284810475221</c:v>
+                  <c:v>-123.08142798889988</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-23.19375952853526</c:v>
+                  <c:v>-124.07009971630248</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-23.519433521775909</c:v>
+                  <c:v>-125.01623589686776</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-23.82813296867765</c:v>
+                  <c:v>-125.91951226482961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1600,67 +1600,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>25.945180011944267</c:v>
+                  <c:v>89.979771222137614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.408014600434004</c:v>
+                  <c:v>88.109660550196153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.857288205247652</c:v>
+                  <c:v>86.209352379030832</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.293294764804742</c:v>
+                  <c:v>84.279497994257369</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.716335298526101</c:v>
+                  <c:v>82.32075880775642</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.126717746171163</c:v>
+                  <c:v>80.33380613099024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.524756803481743</c:v>
+                  <c:v>78.319320944926616</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.910773754219893</c:v>
+                  <c:v>76.277993666648783</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.285096298689638</c:v>
+                  <c:v>74.210523912731404</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.648058378833856</c:v>
+                  <c:v>72.117620259463308</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.000000000000004</c:v>
+                  <c:v>70.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.341267049469508</c:v>
+                  <c:v>67.858388898528361</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.67221111184783</c:v>
+                  <c:v>65.693520941528021</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.993189281413734</c:v>
+                  <c:v>63.506138086215103</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.304563971527834</c:v>
+                  <c:v>61.296990006253715</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.606702721202282</c:v>
+                  <c:v>59.066833834823406</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.899977998934611</c:v>
+                  <c:v>56.816433905129294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.184767003910704</c:v>
+                  <c:v>54.546561488445221</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.461451464682787</c:v>
+                  <c:v>52.257994529778742</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.730417435430004</c:v>
+                  <c:v>49.951517381248848</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.992055089910252</c:v>
+                  <c:v>47.62792053326794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1680,67 +1680,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-33.849974896909728</c:v>
+                  <c:v>-132.69246029453819</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-34.067691463555342</c:v>
+                  <c:v>-133.12987773832018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-34.26280357707833</c:v>
+                  <c:v>-133.52165461093401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-34.435207100566458</c:v>
+                  <c:v>-133.86765664013609</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-34.584810017331115</c:v>
+                  <c:v>-134.16776524192616</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-34.711532480019251</c:v>
+                  <c:v>-134.42187756118923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-34.815306853230183</c:v>
+                  <c:v>-134.62990650694664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-34.896077749614562</c:v>
+                  <c:v>-134.79178078220454</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-34.953802059436164</c:v>
+                  <c:v>-134.90744490838915</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-34.988448973580795</c:v>
+                  <c:v>-134.97685924436081</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-35</c:v>
+                  <c:v>-135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-34.988448973580795</c:v>
+                  <c:v>-134.97685924436081</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-34.953802059436164</c:v>
+                  <c:v>-134.90744490838915</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-34.896077749614562</c:v>
+                  <c:v>-134.79178078220454</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-34.81530685323019</c:v>
+                  <c:v>-134.62990650694664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-34.711532480019251</c:v>
+                  <c:v>-134.42187756118923</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-34.584810017331122</c:v>
+                  <c:v>-134.16776524192619</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-34.435207100566458</c:v>
+                  <c:v>-133.86765664013612</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-34.26280357707833</c:v>
+                  <c:v>-133.52165461093401</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-34.067691463555342</c:v>
+                  <c:v>-133.12987773832018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-33.849974896909735</c:v>
+                  <c:v>-132.69246029453819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1752,67 +1752,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>9.9112783872395323</c:v>
+                  <c:v>24.857437815759159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9352891362541804</c:v>
+                  <c:v>22.396038320852366</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9545308660430658</c:v>
+                  <c:v>19.926963114274585</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9695270353298122</c:v>
+                  <c:v>17.451058413071362</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9808033688150415</c:v>
+                  <c:v>14.969172774935751</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9888875765820719</c:v>
+                  <c:v>12.482156807385293</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9943090724429657</c:v>
+                  <c:v>9.9908628762364113</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9975986913752215</c:v>
+                  <c:v>7.4961448134761683</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9992884062000542</c:v>
+                  <c:v>4.9988576246318139</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99991104365317329</c:v>
+                  <c:v>2.4998571957375324</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3029658040673552E-15</c:v>
+                  <c:v>1.6544315288987496E-14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.99991104365316275</c:v>
+                  <c:v>-2.4998571957374991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.9992884062000433</c:v>
+                  <c:v>-4.9988576246317802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.9975986913752113</c:v>
+                  <c:v>-7.4961448134761355</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.994309072442936</c:v>
+                  <c:v>-9.990862876236319</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4.9888875765820613</c:v>
+                  <c:v>-12.482156807385259</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-5.9808033688150299</c:v>
+                  <c:v>-14.96917277493572</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.9695270353298016</c:v>
+                  <c:v>-17.451058413071326</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7.9545308660430551</c:v>
+                  <c:v>-19.926963114274553</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-8.9352891362541698</c:v>
+                  <c:v>-22.39603832085233</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-9.9112783872395216</c:v>
+                  <c:v>-24.857437815759127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1832,67 +1832,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-23.82813296867765</c:v>
+                  <c:v>-125.91951226482961</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-23.519433521775909</c:v>
+                  <c:v>-125.01623589686776</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-23.19375952853526</c:v>
+                  <c:v>-124.07009971630248</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-22.851284810475221</c:v>
+                  <c:v>-123.08142798889988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-22.492192156142416</c:v>
+                  <c:v>-122.05055955847723</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-22.116673223551054</c:v>
+                  <c:v>-120.97784773077237</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-21.724928437889609</c:v>
+                  <c:v>-119.86366015235637</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-21.317166884548143</c:v>
+                  <c:v>-118.70837868463155</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-20.893606197523482</c:v>
+                  <c:v>-117.51239927295748</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-20.454472443261693</c:v>
+                  <c:v>-116.27613181094999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-20</c:v>
+                  <c:v>-115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-19.53043143267238</c:v>
+                  <c:v>-113.68444120405972</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-19.046017363445763</c:v>
+                  <c:v>-112.32990629974668</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-18.547016337955782</c:v>
+                  <c:v>-110.93685952181639</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-18.033694687313591</c:v>
+                  <c:v>-109.50577830405679</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-17.506326385957379</c:v>
+                  <c:v>-108.03715311565934</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-16.965192905424296</c:v>
+                  <c:v>-106.53148729312204</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-16.410583064121127</c:v>
+                  <c:v>-104.98929686774301</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-15.842792873173584</c:v>
+                  <c:v>-103.41111038876282</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-15.262125378436776</c:v>
+                  <c:v>-101.79746874221689</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-14.668890498750928</c:v>
+                  <c:v>-100.14892496555947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1904,67 +1904,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-12.992055089910252</c:v>
+                  <c:v>-47.62792053326794</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-13.730417435430004</c:v>
+                  <c:v>-49.951517381248848</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-14.461451464682787</c:v>
+                  <c:v>-52.257994529778742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-15.184767003910704</c:v>
+                  <c:v>-54.546561488445221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-15.899977998934611</c:v>
+                  <c:v>-56.816433905129294</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-16.606702721202282</c:v>
+                  <c:v>-59.066833834823406</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-17.304563971527834</c:v>
+                  <c:v>-61.296990006253715</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-17.993189281413734</c:v>
+                  <c:v>-63.506138086215103</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-18.67221111184783</c:v>
+                  <c:v>-65.693520941528021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-19.341267049469508</c:v>
+                  <c:v>-67.858388898528361</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-20.000000000000004</c:v>
+                  <c:v>-70.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-20.648058378833856</c:v>
+                  <c:v>-72.117620259463308</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-21.285096298689638</c:v>
+                  <c:v>-74.210523912731404</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-21.910773754219893</c:v>
+                  <c:v>-76.277993666648783</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-22.524756803481743</c:v>
+                  <c:v>-78.319320944926616</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-23.126717746171163</c:v>
+                  <c:v>-80.33380613099024</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-23.716335298526101</c:v>
+                  <c:v>-82.32075880775642</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-24.293294764804742</c:v>
+                  <c:v>-84.279497994257369</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-24.857288205247652</c:v>
+                  <c:v>-86.209352379030832</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-25.408014600434004</c:v>
+                  <c:v>-88.109660550196153</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-25.945180011944267</c:v>
+                  <c:v>-89.979771222137614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1984,67 +1984,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>15.109102133176851</c:v>
+                  <c:v>125.92085434689243</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.618998514088089</c:v>
+                  <c:v>125.01732357372842</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.124980141395174</c:v>
+                  <c:v>124.07095953285281</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.626776958240217</c:v>
+                  <c:v>123.08208656812548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.124121141318291</c:v>
+                  <c:v>122.05104359233296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.616747243822388</c:v>
+                  <c:v>120.9781839710344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.104392337119965</c:v>
+                  <c:v>119.86387540145367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.586796151085473</c:v>
+                  <c:v>118.70849978645992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.063701213013974</c:v>
+                  <c:v>117.51245310367943</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.53485298504166</c:v>
+                  <c:v>116.27614526978367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.458893995630973</c:v>
+                  <c:v>113.68445466289337</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.911290047091697</c:v>
+                  <c:v>112.32996013046863</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.356946697677845</c:v>
+                  <c:v>110.93698062364474</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.795626087695972</c:v>
+                  <c:v>109.50599355315411</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.227094081416055</c:v>
+                  <c:v>108.03748935592138</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.651120392036404</c:v>
+                  <c:v>106.53197132697777</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.067478704594315</c:v>
+                  <c:v>104.98995544696859</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.475946796756844</c:v>
+                  <c:v>103.41197020531315</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23.876306657427222</c:v>
+                  <c:v>101.79855641907753</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.268344603103579</c:v>
+                  <c:v>100.15026704762228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2056,67 +2056,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-22.151297559836966</c:v>
+                  <c:v>47.642377801908076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-21.98772557876913</c:v>
+                  <c:v>49.964543081841143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-21.812418120044455</c:v>
+                  <c:v>52.26958419807282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-21.625468750264794</c:v>
+                  <c:v>54.556711152356797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-21.426977249652715</c:v>
+                  <c:v>56.825140086101463</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-21.217049558795946</c:v>
+                  <c:v>59.074093549018841</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-20.995797722103841</c:v>
+                  <c:v>61.302800765577338</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-20.763339828006092</c:v>
+                  <c:v>63.510497899166715</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-20.519799945925545</c:v>
+                  <c:v>65.696428313885079</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-20.265308060058818</c:v>
+                  <c:v>67.859842833857826</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-20</c:v>
+                  <c:v>70.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-19.724017368244535</c:v>
+                  <c:v>72.116166324133829</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-19.437507464611908</c:v>
+                  <c:v>74.207616540374318</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-19.140623207627524</c:v>
+                  <c:v>76.273633853697149</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-18.833523052905722</c:v>
+                  <c:v>78.313510185602979</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-18.516370908577485</c:v>
+                  <c:v>80.326546416794784</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-18.189336047807981</c:v>
+                  <c:v>82.312052626784237</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-17.852593018450641</c:v>
+                  <c:v>84.269348330345778</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-17.506321549885975</c:v>
+                  <c:v>86.197762710736725</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-17.150706457094863</c:v>
+                  <c:v>88.096634849603845</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-16.785937542017532</c:v>
+                  <c:v>89.965313953497443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2136,67 +2136,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>34.29018653133565</c:v>
+                  <c:v>132.69380237660101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.424564599206647</c:v>
+                  <c:v>133.13096541518081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.544990845299921</c:v>
+                  <c:v>133.52251442748434</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.651400994685552</c:v>
+                  <c:v>133.86831521936168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.743738253225104</c:v>
+                  <c:v>134.1682492757819</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.821953337884253</c:v>
+                  <c:v>134.42221380145125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.886004503036553</c:v>
+                  <c:v>134.63012175604393</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.93585756274426</c:v>
+                  <c:v>134.79190188403288</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.971485909004379</c:v>
+                  <c:v>134.90749873911111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.992870525950067</c:v>
+                  <c:v>134.97687270319446</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.992870525950067</c:v>
+                  <c:v>134.97687270319446</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.971485909004379</c:v>
+                  <c:v>134.90749873911111</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.93585756274426</c:v>
+                  <c:v>134.79190188403288</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34.886004503036553</c:v>
+                  <c:v>134.63012175604393</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.821953337884253</c:v>
+                  <c:v>134.42221380145125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.743738253225104</c:v>
+                  <c:v>134.1682492757819</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34.651400994685552</c:v>
+                  <c:v>133.86831521936168</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.544990845299921</c:v>
+                  <c:v>133.52251442748434</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.424564599206647</c:v>
+                  <c:v>133.13096541518081</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.29018653133565</c:v>
+                  <c:v>132.69380237660101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2208,67 +2208,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-6.1173959351322393</c:v>
+                  <c:v>-24.842980547118994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.5150001145893084</c:v>
+                  <c:v>-22.383012620260054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.909660780839868</c:v>
+                  <c:v>-19.915373445980478</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.3017010207898609</c:v>
+                  <c:v>-17.440908749159757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.6914453199416575</c:v>
+                  <c:v>-14.960466593963559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.0792193892068549</c:v>
+                  <c:v>-12.474897093189828</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.4653499910650627</c:v>
+                  <c:v>-9.9850521169127635</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.8501647651614226</c:v>
+                  <c:v>-7.4917850005245246</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.2339920534359656</c:v>
+                  <c:v>-4.9959502522747368</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.61716072487813445</c:v>
+                  <c:v>-2.4984032604080371</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61716072487813523</c:v>
+                  <c:v>2.4984032604080402</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2339920534359656</c:v>
+                  <c:v>4.9959502522747368</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.8501647651614226</c:v>
+                  <c:v>7.4917850005245246</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4653499910650618</c:v>
+                  <c:v>9.98505211691276</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0792193892068549</c:v>
+                  <c:v>12.474897093189828</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.6914453199416584</c:v>
+                  <c:v>14.960466593963563</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.3017010207898609</c:v>
+                  <c:v>17.440908749159757</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.909660780839868</c:v>
+                  <c:v>19.915373445980478</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.5150001145893075</c:v>
+                  <c:v>22.383012620260047</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.1173959351322393</c:v>
+                  <c:v>24.842980547118994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2288,67 +2288,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>24.268344603103579</c:v>
+                  <c:v>100.15026704762228</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.876306657427222</c:v>
+                  <c:v>101.79855641907753</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.475946796756844</c:v>
+                  <c:v>103.41197020531315</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.067478704594315</c:v>
+                  <c:v>104.98995544696859</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.6511203920364</c:v>
+                  <c:v>106.53197132697777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.227094081416055</c:v>
+                  <c:v>108.03748935592138</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.795626087695972</c:v>
+                  <c:v>109.50599355315411</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.356946697677845</c:v>
+                  <c:v>110.93698062364474</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.911290047091697</c:v>
+                  <c:v>112.32996013046863</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.458893995630973</c:v>
+                  <c:v>113.68445466289337</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.53485298504166</c:v>
+                  <c:v>116.27614526978367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.063701213013974</c:v>
+                  <c:v>117.51245310367943</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.586796151085473</c:v>
+                  <c:v>118.70849978645992</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.104392337119965</c:v>
+                  <c:v>119.86387540145367</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.616747243822388</c:v>
+                  <c:v>120.9781839710344</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.124121141318291</c:v>
+                  <c:v>122.05104359233296</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.626776958240217</c:v>
+                  <c:v>123.08208656812548</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.124980141395174</c:v>
+                  <c:v>124.07095953285281</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.618998514088089</c:v>
+                  <c:v>125.01732357372842</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.109102133176851</c:v>
+                  <c:v>125.92085434689243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2360,67 +2360,67 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>16.785937542017532</c:v>
+                  <c:v>-89.965313953497443</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.150706457094863</c:v>
+                  <c:v>-88.096634849603845</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.506321549885975</c:v>
+                  <c:v>-86.197762710736725</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.852593018450641</c:v>
+                  <c:v>-84.269348330345778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.189336047807984</c:v>
+                  <c:v>-82.312052626784237</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.516370908577485</c:v>
+                  <c:v>-80.326546416794784</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.833523052905722</c:v>
+                  <c:v>-78.313510185602979</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.140623207627524</c:v>
+                  <c:v>-76.273633853697149</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.437507464611908</c:v>
+                  <c:v>-74.207616540374318</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.724017368244535</c:v>
+                  <c:v>-72.116166324133829</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>-70.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.265308060058818</c:v>
+                  <c:v>-67.859842833857826</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.519799945925545</c:v>
+                  <c:v>-65.696428313885079</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.763339828006092</c:v>
+                  <c:v>-63.510497899166715</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.995797722103841</c:v>
+                  <c:v>-61.302800765577338</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.217049558795946</c:v>
+                  <c:v>-59.074093549018841</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.426977249652715</c:v>
+                  <c:v>-56.825140086101456</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.625468750264794</c:v>
+                  <c:v>-54.556711152356797</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.812418120044455</c:v>
+                  <c:v>-52.26958419807282</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21.98772557876913</c:v>
+                  <c:v>-49.964543081841143</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22.151297559836966</c:v>
+                  <c:v>-47.642377801908076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2440,7 +2440,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8.2842712474619002</c:v>
+                  <c:v>3.9269916244421305E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2482,40 +2482,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8.2842712474619002</c:v>
+                  <c:v>3.9269916244421305E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-20</c:v>
+                  <c:v>-115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2842712474619002</c:v>
+                  <c:v>3.9269916244421305E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-35</c:v>
+                  <c:v>-135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2842712474619002</c:v>
+                  <c:v>3.9269916244421305E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-20</c:v>
+                  <c:v>-115</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2842712474619002</c:v>
+                  <c:v>3.9269916244421305E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2842712474619002</c:v>
+                  <c:v>3.9269916244421305E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2842712474619002</c:v>
+                  <c:v>3.9269916244421305E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2530,7 +2530,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2542,13 +2542,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-20</c:v>
+                  <c:v>-70</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-20</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2560,7 +2560,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20</c:v>
+                  <c:v>-70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2575,15 +2575,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165170560"/>
-        <c:axId val="165188736"/>
+        <c:axId val="202566656"/>
+        <c:axId val="203240192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165170560"/>
+        <c:axId val="202566656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
-          <c:min val="-50"/>
+          <c:max val="150"/>
+          <c:min val="-150"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2610,17 +2610,17 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165188736"/>
+        <c:crossAx val="203240192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165188736"/>
+        <c:axId val="203240192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
-          <c:min val="-50"/>
+          <c:max val="150"/>
+          <c:min val="-150"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2656,10 +2656,10 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165170560"/>
+        <c:crossAx val="202566656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2840,11 +2840,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165192832"/>
-        <c:axId val="165194368"/>
+        <c:axId val="175524480"/>
+        <c:axId val="203244672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165192832"/>
+        <c:axId val="175524480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2853,12 +2853,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165194368"/>
+        <c:crossAx val="203244672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165194368"/>
+        <c:axId val="203244672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2869,7 +2869,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165192832"/>
+        <c:crossAx val="175524480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3560,7 +3560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3596,14 +3598,14 @@
       <c r="AB1" s="59"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="149">
-        <v>1.5</v>
-      </c>
-      <c r="E2" s="150"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="144">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="E2" s="145"/>
       <c r="O2" s="59"/>
       <c r="P2" s="59"/>
       <c r="Q2" s="59"/>
@@ -3620,14 +3622,14 @@
       <c r="AB2" s="59"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="151">
-        <v>20</v>
-      </c>
-      <c r="E3" s="152"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="146">
+        <v>50</v>
+      </c>
+      <c r="E3" s="147"/>
       <c r="O3" s="59"/>
       <c r="P3" s="59"/>
       <c r="Q3" s="59"/>
@@ -3660,20 +3662,20 @@
       <c r="AB4" s="59"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="158"/>
-      <c r="K5" s="158"/>
-      <c r="L5" s="158"/>
-      <c r="M5" s="159"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="154"/>
       <c r="N5" s="54"/>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
@@ -3691,30 +3693,30 @@
       <c r="AB5" s="59"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="142"/>
-      <c r="D6" s="141" t="s">
+      <c r="C6" s="159"/>
+      <c r="D6" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="142"/>
-      <c r="F6" s="141" t="s">
+      <c r="E6" s="159"/>
+      <c r="F6" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="142"/>
-      <c r="H6" s="141" t="s">
+      <c r="G6" s="159"/>
+      <c r="H6" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="142"/>
-      <c r="J6" s="141" t="s">
+      <c r="I6" s="159"/>
+      <c r="J6" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="142"/>
-      <c r="L6" s="141" t="s">
+      <c r="K6" s="159"/>
+      <c r="L6" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="142"/>
+      <c r="M6" s="159"/>
       <c r="O6" s="59"/>
       <c r="P6" s="59"/>
       <c r="Q6" s="59"/>
@@ -3735,37 +3737,37 @@
         <v>33</v>
       </c>
       <c r="C7" s="49">
-        <v>-20</v>
+        <v>-115</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="49">
-        <v>-35</v>
+        <v>-135</v>
       </c>
       <c r="F7" s="55" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="49">
-        <v>-20</v>
+        <v>-115</v>
       </c>
       <c r="H7" s="55" t="s">
         <v>33</v>
       </c>
       <c r="I7" s="49">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="J7" s="55" t="s">
         <v>33</v>
       </c>
       <c r="K7" s="49">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="L7" s="55" t="s">
         <v>33</v>
       </c>
       <c r="M7" s="49">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="O7" s="59"/>
       <c r="P7" s="47"/>
@@ -3839,7 +3841,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="50">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D9" s="56" t="s">
         <v>36</v>
@@ -3851,13 +3853,13 @@
         <v>36</v>
       </c>
       <c r="G9" s="50">
-        <v>-20</v>
+        <v>-70</v>
       </c>
       <c r="H9" s="56" t="s">
         <v>36</v>
       </c>
       <c r="I9" s="50">
-        <v>-20</v>
+        <v>70</v>
       </c>
       <c r="J9" s="56" t="s">
         <v>36</v>
@@ -3869,7 +3871,7 @@
         <v>36</v>
       </c>
       <c r="M9" s="50">
-        <v>20</v>
+        <v>-70</v>
       </c>
       <c r="O9" s="59"/>
       <c r="P9" s="47"/>
@@ -3904,20 +3906,20 @@
       <c r="AB10" s="59"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="162"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="157"/>
       <c r="O11" s="59"/>
       <c r="P11" s="59"/>
       <c r="Q11" s="59"/>
@@ -3934,25 +3936,25 @@
       <c r="AB11" s="59"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B12" s="153" t="s">
+      <c r="B12" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="155">
-        <f>TAN((2 - D2) * PI() / 4) * D3</f>
-        <v>8.2842712474619002</v>
-      </c>
-      <c r="F12" s="156"/>
-      <c r="G12" s="128" t="s">
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="150">
+        <f>TAN((2 - D2) * PI() / 4) * ABS(D3)</f>
+        <v>3.9269916244421305E-2</v>
+      </c>
+      <c r="F12" s="151"/>
+      <c r="G12" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="130"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="162"/>
       <c r="O12" s="59"/>
       <c r="P12" s="59"/>
       <c r="Q12" s="59"/>
@@ -3974,20 +3976,20 @@
       </c>
       <c r="C13" s="116"/>
       <c r="D13" s="116"/>
-      <c r="E13" s="139">
+      <c r="E13" s="136">
         <f>SQRT((E12-C7)^2+C9^2)</f>
-        <v>34.641016151377549</v>
-      </c>
-      <c r="F13" s="140"/>
-      <c r="G13" s="136" t="s">
+        <v>134.66266603206154</v>
+      </c>
+      <c r="F13" s="137"/>
+      <c r="G13" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="138"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="135"/>
       <c r="O13" s="59"/>
       <c r="P13" s="59"/>
       <c r="Q13" s="59"/>
@@ -4009,18 +4011,18 @@
       </c>
       <c r="C14" s="116"/>
       <c r="D14" s="116"/>
-      <c r="E14" s="139">
+      <c r="E14" s="136">
         <f>SQRT((E12-E7)^2+E9^2)</f>
-        <v>43.284271247461902</v>
-      </c>
-      <c r="F14" s="140"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="138"/>
+        <v>135.03926991624442</v>
+      </c>
+      <c r="F14" s="137"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="135"/>
       <c r="O14" s="59"/>
       <c r="P14" s="59"/>
       <c r="Q14" s="59"/>
@@ -4042,18 +4044,18 @@
       </c>
       <c r="C15" s="116"/>
       <c r="D15" s="116"/>
-      <c r="E15" s="139">
+      <c r="E15" s="136">
         <f>SQRT((E12-G7)^2+G9^2)</f>
-        <v>34.641016151377549</v>
-      </c>
-      <c r="F15" s="140"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="138"/>
+        <v>134.66266603206154</v>
+      </c>
+      <c r="F15" s="137"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="135"/>
       <c r="O15" s="59"/>
       <c r="P15" s="59"/>
       <c r="Q15" s="59"/>
@@ -4075,18 +4077,18 @@
       </c>
       <c r="C16" s="116"/>
       <c r="D16" s="116"/>
-      <c r="E16" s="139">
+      <c r="E16" s="136">
         <f>SQRT((E12-I7)^2+I9^2)</f>
-        <v>23.178833020733549</v>
-      </c>
-      <c r="F16" s="140"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="138"/>
+        <v>134.59557742136295</v>
+      </c>
+      <c r="F16" s="137"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="135"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="115" t="s">
@@ -4094,18 +4096,18 @@
       </c>
       <c r="C17" s="116"/>
       <c r="D17" s="116"/>
-      <c r="E17" s="139">
+      <c r="E17" s="136">
         <f>SQRT((E12-K7)^2+K9^2)</f>
-        <v>26.715728752538098</v>
-      </c>
-      <c r="F17" s="140"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="138"/>
+        <v>134.96073008375558</v>
+      </c>
+      <c r="F17" s="137"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="135"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="115" t="s">
@@ -4113,18 +4115,18 @@
       </c>
       <c r="C18" s="116"/>
       <c r="D18" s="116"/>
-      <c r="E18" s="139">
+      <c r="E18" s="136">
         <f>SQRT((E12-M7)^2+M9^2)</f>
-        <v>23.178833020733549</v>
-      </c>
-      <c r="F18" s="140"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="138"/>
+        <v>134.59557742136295</v>
+      </c>
+      <c r="F18" s="137"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="135"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="115" t="s">
@@ -4134,11 +4136,11 @@
       <c r="D19" s="116"/>
       <c r="E19" s="48">
         <f>ATAN2(-(E12-C7), C9)</f>
-        <v>2.5261129449194057</v>
+        <v>2.5949554380450901</v>
       </c>
       <c r="F19" s="57">
         <f t="shared" ref="F19:F24" si="0">DEGREES(E19)</f>
-        <v>144.73561031724535</v>
+        <v>148.67999462450544</v>
       </c>
       <c r="G19" s="105" t="s">
         <v>70</v>
@@ -4180,11 +4182,11 @@
       <c r="D21" s="116"/>
       <c r="E21" s="48">
         <f>ATAN2(-(E12-G7), G9)</f>
-        <v>-2.5261129449194057</v>
+        <v>-2.5949554380450901</v>
       </c>
       <c r="F21" s="57">
         <f t="shared" si="0"/>
-        <v>-144.73561031724535</v>
+        <v>-148.67999462450544</v>
       </c>
       <c r="G21" s="108"/>
       <c r="H21" s="109"/>
@@ -4202,11 +4204,11 @@
       <c r="D22" s="116"/>
       <c r="E22" s="48">
         <f>ATAN2(-(E12-I7), I9)</f>
-        <v>-1.04089353704597</v>
+        <v>0.5469405418108203</v>
       </c>
       <c r="F22" s="57">
         <f t="shared" si="0"/>
-        <v>-59.638806595178281</v>
+        <v>31.337384690358544</v>
       </c>
       <c r="G22" s="108"/>
       <c r="H22" s="109"/>
@@ -4246,11 +4248,11 @@
       <c r="D24" s="116"/>
       <c r="E24" s="48">
         <f>ATAN2(-(E12-M7), M9)</f>
-        <v>1.04089353704597</v>
+        <v>-0.5469405418108203</v>
       </c>
       <c r="F24" s="57">
         <f t="shared" si="0"/>
-        <v>59.638806595178281</v>
+        <v>-31.337384690358544</v>
       </c>
       <c r="G24" s="111"/>
       <c r="H24" s="112"/>
@@ -4261,14 +4263,14 @@
       <c r="M24" s="113"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="143" t="s">
+      <c r="B25" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="139"/>
       <c r="E25" s="123">
         <f>MAX(E13:F18)</f>
-        <v>43.284271247461902</v>
+        <v>135.03926991624442</v>
       </c>
       <c r="F25" s="124"/>
       <c r="G25" s="125"/>
@@ -4280,28 +4282,28 @@
       <c r="M25" s="127"/>
     </row>
     <row r="26" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="131" t="s">
+      <c r="B26" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
       <c r="E26" s="74">
         <f>SIGN(E12) * D3 / E25</f>
-        <v>0.46206160860737044</v>
+        <v>0.37026266530477814</v>
       </c>
       <c r="F26" s="75">
         <f>ABS(E26)</f>
-        <v>0.46206160860737044</v>
-      </c>
-      <c r="G26" s="133" t="s">
+        <v>0.37026266530477814</v>
+      </c>
+      <c r="G26" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="135"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="132"/>
     </row>
     <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="114" t="s">
@@ -4424,75 +4426,75 @@
       </c>
       <c r="C32" s="81">
         <f>($B32-0.5) * $E$26 + $E$19</f>
-        <v>2.2950821406157207</v>
+        <v>2.4098241053927012</v>
       </c>
       <c r="D32" s="82">
         <f>$E$12+$E$13*COS(C32)</f>
-        <v>-14.668890498750928</v>
+        <v>-100.14892496555947</v>
       </c>
       <c r="E32" s="83">
         <f>$E$13*SIN(C32)</f>
-        <v>25.945180011944267</v>
+        <v>89.979771222137614</v>
       </c>
       <c r="F32" s="84">
         <f>($B32 - 0.5) * $E$26 + $E$20</f>
-        <v>2.9105618492861081</v>
+        <v>2.9564613209374042</v>
       </c>
       <c r="G32" s="85">
         <f>$E$12+$E$14*COS(F32)</f>
-        <v>-33.849974896909728</v>
+        <v>-132.69246029453819</v>
       </c>
       <c r="H32" s="86">
         <f>$E$14*SIN(F32)</f>
-        <v>9.9112783872395323</v>
+        <v>24.857437815759159</v>
       </c>
       <c r="I32" s="81">
         <f>($B32 - 0.5) * $E$26 + $E$21</f>
-        <v>-2.7571437492230908</v>
+        <v>-2.780086770697479</v>
       </c>
       <c r="J32" s="82">
         <f>$E$12+$E$15*COS(I32)</f>
-        <v>-23.82813296867765</v>
+        <v>-125.91951226482961</v>
       </c>
       <c r="K32" s="83">
         <f>$E$15*SIN(I32)</f>
-        <v>-12.992055089910252</v>
+        <v>-47.62792053326794</v>
       </c>
       <c r="L32" s="84">
         <f xml:space="preserve"> ($B32 - 0.5) * $E$26 + $E$22</f>
-        <v>-1.2719243413496553</v>
+        <v>0.36180920915843123</v>
       </c>
       <c r="M32" s="85">
         <f>$E$12+$E$16*COS(L32)</f>
-        <v>15.109102133176851</v>
+        <v>125.92085434689243</v>
       </c>
       <c r="N32" s="86">
         <f>$E$16*SIN(L32)</f>
-        <v>-22.151297559836966</v>
+        <v>47.642377801908076</v>
       </c>
       <c r="O32" s="81">
         <f>($B32 - 0.5) * $E$26 + $E$23</f>
-        <v>-0.23103080430368522</v>
+        <v>-0.18513133265238907</v>
       </c>
       <c r="P32" s="82">
         <f>$E$12+$E$17*COS(O32)</f>
-        <v>34.29018653133565</v>
+        <v>132.69380237660101</v>
       </c>
       <c r="Q32" s="83">
         <f>$E$17*SIN(O32)</f>
-        <v>-6.1173959351322393</v>
+        <v>-24.842980547118994</v>
       </c>
       <c r="R32" s="84">
         <f>($B32 - 0.5) * $E$26 + $E$24</f>
-        <v>0.80986273274228471</v>
+        <v>-0.73207187446320932</v>
       </c>
       <c r="S32" s="85">
         <f>$E$12+$E$18*COS(R32)</f>
-        <v>24.268344603103579</v>
+        <v>100.15026704762228</v>
       </c>
       <c r="T32" s="86">
         <f>$E$18*SIN(R32)</f>
-        <v>16.785937542017532</v>
+        <v>-89.965313953497443</v>
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
@@ -4501,75 +4503,75 @@
       </c>
       <c r="C33" s="65">
         <f t="shared" ref="C33:C52" si="1">($B33-0.5) * $E$26 + $E$19</f>
-        <v>2.3181852210460892</v>
+        <v>2.42833723865794</v>
       </c>
       <c r="D33" s="66">
         <f t="shared" ref="D33:D52" si="2">$E$12+$E$13*COS(C33)</f>
-        <v>-15.262125378436776</v>
+        <v>-101.79746874221689</v>
       </c>
       <c r="E33" s="67">
         <f t="shared" ref="E33:E52" si="3">$E$13*SIN(C33)</f>
-        <v>25.408014600434004</v>
+        <v>88.109660550196153</v>
       </c>
       <c r="F33" s="71">
         <f t="shared" ref="F33:F52" si="4">($B33 - 0.5) * $E$26 + $E$20</f>
-        <v>2.9336649297164765</v>
+        <v>2.9749744542026431</v>
       </c>
       <c r="G33" s="72">
         <f t="shared" ref="G33:G52" si="5">$E$12+$E$14*COS(F33)</f>
-        <v>-34.067691463555342</v>
+        <v>-133.12987773832018</v>
       </c>
       <c r="H33" s="73">
         <f t="shared" ref="H33:H52" si="6">$E$14*SIN(F33)</f>
-        <v>8.9352891362541804</v>
+        <v>22.396038320852366</v>
       </c>
       <c r="I33" s="65">
         <f t="shared" ref="I33:I52" si="7">($B33 - 0.5) * $E$26 + $E$21</f>
-        <v>-2.7340406687927223</v>
+        <v>-2.7615736374322402</v>
       </c>
       <c r="J33" s="66">
         <f t="shared" ref="J33:J52" si="8">$E$12+$E$15*COS(I33)</f>
-        <v>-23.519433521775909</v>
+        <v>-125.01623589686776</v>
       </c>
       <c r="K33" s="67">
         <f t="shared" ref="K33:K52" si="9">$E$15*SIN(I33)</f>
-        <v>-13.730417435430004</v>
+        <v>-49.951517381248848</v>
       </c>
       <c r="L33" s="71">
         <f t="shared" ref="L33:L52" si="10" xml:space="preserve"> ($B33 - 0.5) * $E$26 + $E$22</f>
-        <v>-1.2488212609192866</v>
+        <v>0.38032234242367013</v>
       </c>
       <c r="M33" s="72">
         <f t="shared" ref="M33:M52" si="11">$E$12+$E$16*COS(L33)</f>
-        <v>15.618998514088089</v>
+        <v>125.01732357372842</v>
       </c>
       <c r="N33" s="73">
         <f t="shared" ref="N33:N52" si="12">$E$16*SIN(L33)</f>
-        <v>-21.98772557876913</v>
+        <v>49.964543081841143</v>
       </c>
       <c r="O33" s="65">
         <f t="shared" ref="O33:O52" si="13">($B33 - 0.5) * $E$26 + $E$23</f>
-        <v>-0.20792772387331671</v>
+        <v>-0.16661819938715017</v>
       </c>
       <c r="P33" s="66">
         <f t="shared" ref="P33:P52" si="14">$E$12+$E$17*COS(O33)</f>
-        <v>34.424564599206647</v>
+        <v>133.13096541518081</v>
       </c>
       <c r="Q33" s="67">
         <f t="shared" ref="Q33:Q52" si="15">$E$17*SIN(O33)</f>
-        <v>-5.5150001145893084</v>
+        <v>-22.383012620260054</v>
       </c>
       <c r="R33" s="71">
         <f t="shared" ref="R33:R52" si="16">($B33 - 0.5) * $E$26 + $E$24</f>
-        <v>0.83296581317265328</v>
+        <v>-0.71355874119797047</v>
       </c>
       <c r="S33" s="72">
         <f t="shared" ref="S33:S52" si="17">$E$12+$E$18*COS(R33)</f>
-        <v>23.876306657427222</v>
+        <v>101.79855641907753</v>
       </c>
       <c r="T33" s="73">
         <f t="shared" ref="T33:T52" si="18">$E$18*SIN(R33)</f>
-        <v>17.150706457094863</v>
+        <v>-88.096634849603845</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
@@ -4578,75 +4580,75 @@
       </c>
       <c r="C34" s="65">
         <f t="shared" si="1"/>
-        <v>2.3412883014764576</v>
+        <v>2.4468503719231789</v>
       </c>
       <c r="D34" s="66">
         <f t="shared" si="2"/>
-        <v>-15.842792873173584</v>
+        <v>-103.41111038876282</v>
       </c>
       <c r="E34" s="67">
         <f t="shared" si="3"/>
-        <v>24.857288205247652</v>
+        <v>86.209352379030832</v>
       </c>
       <c r="F34" s="71">
         <f t="shared" si="4"/>
-        <v>2.956768010146845</v>
+        <v>2.9934875874678819</v>
       </c>
       <c r="G34" s="72">
         <f t="shared" si="5"/>
-        <v>-34.26280357707833</v>
+        <v>-133.52165461093401</v>
       </c>
       <c r="H34" s="73">
         <f t="shared" si="6"/>
-        <v>7.9545308660430658</v>
+        <v>19.926963114274585</v>
       </c>
       <c r="I34" s="65">
         <f t="shared" si="7"/>
-        <v>-2.7109375883623539</v>
+        <v>-2.7430605041670013</v>
       </c>
       <c r="J34" s="66">
         <f t="shared" si="8"/>
-        <v>-23.19375952853526</v>
+        <v>-124.07009971630248</v>
       </c>
       <c r="K34" s="67">
         <f t="shared" si="9"/>
-        <v>-14.461451464682787</v>
+        <v>-52.257994529778742</v>
       </c>
       <c r="L34" s="71">
         <f t="shared" si="10"/>
-        <v>-1.2257181804889181</v>
+        <v>0.39883547568890904</v>
       </c>
       <c r="M34" s="72">
         <f t="shared" si="11"/>
-        <v>16.124980141395174</v>
+        <v>124.07095953285281</v>
       </c>
       <c r="N34" s="73">
         <f t="shared" si="12"/>
-        <v>-21.812418120044455</v>
+        <v>52.26958419807282</v>
       </c>
       <c r="O34" s="65">
         <f t="shared" si="13"/>
-        <v>-0.18482464344294819</v>
+        <v>-0.14810506612191127</v>
       </c>
       <c r="P34" s="66">
         <f t="shared" si="14"/>
-        <v>34.544990845299921</v>
+        <v>133.52251442748434</v>
       </c>
       <c r="Q34" s="67">
         <f t="shared" si="15"/>
-        <v>-4.909660780839868</v>
+        <v>-19.915373445980478</v>
       </c>
       <c r="R34" s="71">
         <f t="shared" si="16"/>
-        <v>0.85606889360302185</v>
+        <v>-0.69504560793273162</v>
       </c>
       <c r="S34" s="72">
         <f t="shared" si="17"/>
-        <v>23.475946796756844</v>
+        <v>103.41197020531315</v>
       </c>
       <c r="T34" s="73">
         <f t="shared" si="18"/>
-        <v>17.506321549885975</v>
+        <v>-86.197762710736725</v>
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
@@ -4655,75 +4657,75 @@
       </c>
       <c r="C35" s="65">
         <f t="shared" si="1"/>
-        <v>2.3643913819068261</v>
+        <v>2.4653635051884177</v>
       </c>
       <c r="D35" s="66">
         <f t="shared" si="2"/>
-        <v>-16.410583064121127</v>
+        <v>-104.98929686774301</v>
       </c>
       <c r="E35" s="67">
         <f t="shared" si="3"/>
-        <v>24.293294764804742</v>
+        <v>84.279497994257369</v>
       </c>
       <c r="F35" s="71">
         <f t="shared" si="4"/>
-        <v>2.9798710905772134</v>
+        <v>3.0120007207331208</v>
       </c>
       <c r="G35" s="72">
         <f t="shared" si="5"/>
-        <v>-34.435207100566458</v>
+        <v>-133.86765664013609</v>
       </c>
       <c r="H35" s="73">
         <f t="shared" si="6"/>
-        <v>6.9695270353298122</v>
+        <v>17.451058413071362</v>
       </c>
       <c r="I35" s="65">
         <f t="shared" si="7"/>
-        <v>-2.6878345079319854</v>
+        <v>-2.7245473709017625</v>
       </c>
       <c r="J35" s="66">
         <f t="shared" si="8"/>
-        <v>-22.851284810475221</v>
+        <v>-123.08142798889988</v>
       </c>
       <c r="K35" s="67">
         <f t="shared" si="9"/>
-        <v>-15.184767003910704</v>
+        <v>-54.546561488445221</v>
       </c>
       <c r="L35" s="71">
         <f t="shared" si="10"/>
-        <v>-1.2026151000585497</v>
+        <v>0.41734860895414794</v>
       </c>
       <c r="M35" s="72">
         <f t="shared" si="11"/>
-        <v>16.626776958240217</v>
+        <v>123.08208656812548</v>
       </c>
       <c r="N35" s="73">
         <f t="shared" si="12"/>
-        <v>-21.625468750264794</v>
+        <v>54.556711152356797</v>
       </c>
       <c r="O35" s="65">
         <f t="shared" si="13"/>
-        <v>-0.16172156301257964</v>
+        <v>-0.12959193285667234</v>
       </c>
       <c r="P35" s="66">
         <f t="shared" si="14"/>
-        <v>34.651400994685552</v>
+        <v>133.86831521936168</v>
       </c>
       <c r="Q35" s="67">
         <f t="shared" si="15"/>
-        <v>-4.3017010207898609</v>
+        <v>-17.440908749159757</v>
       </c>
       <c r="R35" s="71">
         <f t="shared" si="16"/>
-        <v>0.87917197403339031</v>
+        <v>-0.67653247466749267</v>
       </c>
       <c r="S35" s="72">
         <f t="shared" si="17"/>
-        <v>23.067478704594315</v>
+        <v>104.98995544696859</v>
       </c>
       <c r="T35" s="73">
         <f t="shared" si="18"/>
-        <v>17.852593018450641</v>
+        <v>-84.269348330345778</v>
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
@@ -4732,75 +4734,75 @@
       </c>
       <c r="C36" s="65">
         <f t="shared" si="1"/>
-        <v>2.3874944623371945</v>
+        <v>2.4838766384536566</v>
       </c>
       <c r="D36" s="66">
         <f t="shared" si="2"/>
-        <v>-16.965192905424296</v>
+        <v>-106.53148729312204</v>
       </c>
       <c r="E36" s="67">
         <f t="shared" si="3"/>
-        <v>23.716335298526101</v>
+        <v>82.32075880775642</v>
       </c>
       <c r="F36" s="71">
         <f t="shared" si="4"/>
-        <v>3.0029741710075819</v>
+        <v>3.0305138539983596</v>
       </c>
       <c r="G36" s="72">
         <f t="shared" si="5"/>
-        <v>-34.584810017331115</v>
+        <v>-134.16776524192616</v>
       </c>
       <c r="H36" s="73">
         <f t="shared" si="6"/>
-        <v>5.9808033688150415</v>
+        <v>14.969172774935751</v>
       </c>
       <c r="I36" s="65">
         <f t="shared" si="7"/>
-        <v>-2.664731427501617</v>
+        <v>-2.7060342376365236</v>
       </c>
       <c r="J36" s="66">
         <f t="shared" si="8"/>
-        <v>-22.492192156142416</v>
+        <v>-122.05055955847723</v>
       </c>
       <c r="K36" s="67">
         <f t="shared" si="9"/>
-        <v>-15.899977998934611</v>
+        <v>-56.816433905129294</v>
       </c>
       <c r="L36" s="71">
         <f t="shared" si="10"/>
-        <v>-1.1795120196281812</v>
+        <v>0.43586174221938689</v>
       </c>
       <c r="M36" s="72">
         <f t="shared" si="11"/>
-        <v>17.124121141318291</v>
+        <v>122.05104359233296</v>
       </c>
       <c r="N36" s="73">
         <f t="shared" si="12"/>
-        <v>-21.426977249652715</v>
+        <v>56.825140086101463</v>
       </c>
       <c r="O36" s="65">
         <f t="shared" si="13"/>
-        <v>-0.13861848258221113</v>
+        <v>-0.11107879959143344</v>
       </c>
       <c r="P36" s="66">
         <f t="shared" si="14"/>
-        <v>34.743738253225104</v>
+        <v>134.1682492757819</v>
       </c>
       <c r="Q36" s="67">
         <f t="shared" si="15"/>
-        <v>-3.6914453199416575</v>
+        <v>-14.960466593963559</v>
       </c>
       <c r="R36" s="71">
         <f t="shared" si="16"/>
-        <v>0.90227505446375889</v>
+        <v>-0.65801934140225371</v>
       </c>
       <c r="S36" s="72">
         <f t="shared" si="17"/>
-        <v>22.6511203920364</v>
+        <v>106.53197132697777</v>
       </c>
       <c r="T36" s="73">
         <f t="shared" si="18"/>
-        <v>18.189336047807984</v>
+        <v>-82.312052626784237</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
@@ -4809,75 +4811,75 @@
       </c>
       <c r="C37" s="65">
         <f t="shared" si="1"/>
-        <v>2.410597542767563</v>
+        <v>2.5023897717188954</v>
       </c>
       <c r="D37" s="66">
         <f t="shared" si="2"/>
-        <v>-17.506326385957379</v>
+        <v>-108.03715311565934</v>
       </c>
       <c r="E37" s="67">
         <f t="shared" si="3"/>
-        <v>23.126717746171163</v>
+        <v>80.33380613099024</v>
       </c>
       <c r="F37" s="71">
         <f t="shared" si="4"/>
-        <v>3.0260772514379504</v>
+        <v>3.0490269872635984</v>
       </c>
       <c r="G37" s="72">
         <f t="shared" si="5"/>
-        <v>-34.711532480019251</v>
+        <v>-134.42187756118923</v>
       </c>
       <c r="H37" s="73">
         <f t="shared" si="6"/>
-        <v>4.9888875765820719</v>
+        <v>12.482156807385293</v>
       </c>
       <c r="I37" s="65">
         <f t="shared" si="7"/>
-        <v>-2.6416283470712485</v>
+        <v>-2.6875211043712848</v>
       </c>
       <c r="J37" s="66">
         <f t="shared" si="8"/>
-        <v>-22.116673223551054</v>
+        <v>-120.97784773077237</v>
       </c>
       <c r="K37" s="67">
         <f t="shared" si="9"/>
-        <v>-16.606702721202282</v>
+        <v>-59.066833834823406</v>
       </c>
       <c r="L37" s="71">
         <f t="shared" si="10"/>
-        <v>-1.1564089391978125</v>
+        <v>0.45437487548462574</v>
       </c>
       <c r="M37" s="72">
         <f t="shared" si="11"/>
-        <v>17.616747243822388</v>
+        <v>120.9781839710344</v>
       </c>
       <c r="N37" s="73">
         <f t="shared" si="12"/>
-        <v>-21.217049558795946</v>
+        <v>59.074093549018841</v>
       </c>
       <c r="O37" s="65">
         <f t="shared" si="13"/>
-        <v>-0.11551540215184261</v>
+        <v>-9.2565666326194534E-2</v>
       </c>
       <c r="P37" s="66">
         <f t="shared" si="14"/>
-        <v>34.821953337884253</v>
+        <v>134.42221380145125</v>
       </c>
       <c r="Q37" s="67">
         <f t="shared" si="15"/>
-        <v>-3.0792193892068549</v>
+        <v>-12.474897093189828</v>
       </c>
       <c r="R37" s="71">
         <f t="shared" si="16"/>
-        <v>0.92537813489412735</v>
+        <v>-0.63950620813701486</v>
       </c>
       <c r="S37" s="72">
         <f t="shared" si="17"/>
-        <v>22.227094081416055</v>
+        <v>108.03748935592138</v>
       </c>
       <c r="T37" s="73">
         <f t="shared" si="18"/>
-        <v>18.516370908577485</v>
+        <v>-80.326546416794784</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
@@ -4886,75 +4888,75 @@
       </c>
       <c r="C38" s="65">
         <f t="shared" si="1"/>
-        <v>2.4337006231979315</v>
+        <v>2.5209029049841343</v>
       </c>
       <c r="D38" s="66">
         <f t="shared" si="2"/>
-        <v>-18.033694687313591</v>
+        <v>-109.50577830405679</v>
       </c>
       <c r="E38" s="67">
         <f t="shared" si="3"/>
-        <v>22.524756803481743</v>
+        <v>78.319320944926616</v>
       </c>
       <c r="F38" s="71">
         <f t="shared" si="4"/>
-        <v>3.0491803318683188</v>
+        <v>3.0675401205288373</v>
       </c>
       <c r="G38" s="72">
         <f t="shared" si="5"/>
-        <v>-34.815306853230183</v>
+        <v>-134.62990650694664</v>
       </c>
       <c r="H38" s="73">
         <f t="shared" si="6"/>
-        <v>3.9943090724429657</v>
+        <v>9.9908628762364113</v>
       </c>
       <c r="I38" s="65">
         <f t="shared" si="7"/>
-        <v>-2.61852526664088</v>
+        <v>-2.6690079711060459</v>
       </c>
       <c r="J38" s="66">
         <f t="shared" si="8"/>
-        <v>-21.724928437889609</v>
+        <v>-119.86366015235637</v>
       </c>
       <c r="K38" s="67">
         <f t="shared" si="9"/>
-        <v>-17.304563971527834</v>
+        <v>-61.296990006253715</v>
       </c>
       <c r="L38" s="71">
         <f t="shared" si="10"/>
-        <v>-1.1333058587674441</v>
+        <v>0.4728880087498647</v>
       </c>
       <c r="M38" s="72">
         <f t="shared" si="11"/>
-        <v>18.104392337119965</v>
+        <v>119.86387540145367</v>
       </c>
       <c r="N38" s="73">
         <f t="shared" si="12"/>
-        <v>-20.995797722103841</v>
+        <v>61.302800765577338</v>
       </c>
       <c r="O38" s="65">
         <f t="shared" si="13"/>
-        <v>-9.2412321721474094E-2</v>
+        <v>-7.4052533060955633E-2</v>
       </c>
       <c r="P38" s="66">
         <f t="shared" si="14"/>
-        <v>34.886004503036553</v>
+        <v>134.63012175604393</v>
       </c>
       <c r="Q38" s="67">
         <f t="shared" si="15"/>
-        <v>-2.4653499910650627</v>
+        <v>-9.9850521169127635</v>
       </c>
       <c r="R38" s="71">
         <f t="shared" si="16"/>
-        <v>0.94848121532449592</v>
+        <v>-0.62099307487177591</v>
       </c>
       <c r="S38" s="72">
         <f t="shared" si="17"/>
-        <v>21.795626087695972</v>
+        <v>109.50599355315411</v>
       </c>
       <c r="T38" s="73">
         <f t="shared" si="18"/>
-        <v>18.833523052905722</v>
+        <v>-78.313510185602979</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
@@ -4963,75 +4965,75 @@
       </c>
       <c r="C39" s="65">
         <f t="shared" si="1"/>
-        <v>2.4568037036283004</v>
+        <v>2.5394160382493736</v>
       </c>
       <c r="D39" s="66">
         <f t="shared" si="2"/>
-        <v>-18.547016337955782</v>
+        <v>-110.93685952181639</v>
       </c>
       <c r="E39" s="67">
         <f t="shared" si="3"/>
-        <v>21.910773754219893</v>
+        <v>76.277993666648783</v>
       </c>
       <c r="F39" s="71">
         <f t="shared" si="4"/>
-        <v>3.0722834122986877</v>
+        <v>3.0860532537940766</v>
       </c>
       <c r="G39" s="72">
         <f t="shared" si="5"/>
-        <v>-34.896077749614562</v>
+        <v>-134.79178078220454</v>
       </c>
       <c r="H39" s="73">
         <f t="shared" si="6"/>
-        <v>2.9975986913752215</v>
+        <v>7.4961448134761683</v>
       </c>
       <c r="I39" s="65">
         <f t="shared" si="7"/>
-        <v>-2.5954221862105111</v>
+        <v>-2.6504948378408066</v>
       </c>
       <c r="J39" s="66">
         <f t="shared" si="8"/>
-        <v>-21.317166884548143</v>
+        <v>-118.70837868463155</v>
       </c>
       <c r="K39" s="67">
         <f t="shared" si="9"/>
-        <v>-17.993189281413734</v>
+        <v>-63.506138086215103</v>
       </c>
       <c r="L39" s="71">
         <f t="shared" si="10"/>
-        <v>-1.1102027783370756</v>
+        <v>0.49140114201510354</v>
       </c>
       <c r="M39" s="72">
         <f t="shared" si="11"/>
-        <v>18.586796151085473</v>
+        <v>118.70849978645992</v>
       </c>
       <c r="N39" s="73">
         <f t="shared" si="12"/>
-        <v>-20.763339828006092</v>
+        <v>63.510497899166715</v>
       </c>
       <c r="O39" s="65">
         <f t="shared" si="13"/>
-        <v>-6.9309241291105578E-2</v>
+        <v>-5.5539399795716732E-2</v>
       </c>
       <c r="P39" s="66">
         <f t="shared" si="14"/>
-        <v>34.93585756274426</v>
+        <v>134.79190188403288</v>
       </c>
       <c r="Q39" s="67">
         <f t="shared" si="15"/>
-        <v>-1.8501647651614226</v>
+        <v>-7.4917850005245246</v>
       </c>
       <c r="R39" s="71">
         <f t="shared" si="16"/>
-        <v>0.97158429575486438</v>
+        <v>-0.60247994160653706</v>
       </c>
       <c r="S39" s="72">
         <f t="shared" si="17"/>
-        <v>21.356946697677845</v>
+        <v>110.93698062364474</v>
       </c>
       <c r="T39" s="73">
         <f t="shared" si="18"/>
-        <v>19.140623207627524</v>
+        <v>-76.273633853697149</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
@@ -5040,75 +5042,75 @@
       </c>
       <c r="C40" s="65">
         <f t="shared" si="1"/>
-        <v>2.4799067840586688</v>
+        <v>2.5579291715146124</v>
       </c>
       <c r="D40" s="66">
         <f t="shared" si="2"/>
-        <v>-19.046017363445763</v>
+        <v>-112.32990629974668</v>
       </c>
       <c r="E40" s="67">
         <f t="shared" si="3"/>
-        <v>21.285096298689638</v>
+        <v>74.210523912731404</v>
       </c>
       <c r="F40" s="71">
         <f t="shared" si="4"/>
-        <v>3.0953864927290562</v>
+        <v>3.1045663870593154</v>
       </c>
       <c r="G40" s="72">
         <f t="shared" si="5"/>
-        <v>-34.953802059436164</v>
+        <v>-134.90744490838915</v>
       </c>
       <c r="H40" s="73">
         <f t="shared" si="6"/>
-        <v>1.9992884062000542</v>
+        <v>4.9988576246318139</v>
       </c>
       <c r="I40" s="65">
         <f t="shared" si="7"/>
-        <v>-2.5723191057801427</v>
+        <v>-2.6319817045755678</v>
       </c>
       <c r="J40" s="66">
         <f t="shared" si="8"/>
-        <v>-20.893606197523482</v>
+        <v>-117.51239927295748</v>
       </c>
       <c r="K40" s="67">
         <f t="shared" si="9"/>
-        <v>-18.67221111184783</v>
+        <v>-65.693520941528021</v>
       </c>
       <c r="L40" s="71">
         <f t="shared" si="10"/>
-        <v>-1.0870996979067069</v>
+        <v>0.5099142752803425</v>
       </c>
       <c r="M40" s="72">
         <f t="shared" si="11"/>
-        <v>19.063701213013974</v>
+        <v>117.51245310367943</v>
       </c>
       <c r="N40" s="73">
         <f t="shared" si="12"/>
-        <v>-20.519799945925545</v>
+        <v>65.696428313885079</v>
       </c>
       <c r="O40" s="65">
         <f t="shared" si="13"/>
-        <v>-4.6206160860737033E-2</v>
+        <v>-3.7026266530477803E-2</v>
       </c>
       <c r="P40" s="66">
         <f t="shared" si="14"/>
-        <v>34.971485909004379</v>
+        <v>134.90749873911111</v>
       </c>
       <c r="Q40" s="67">
         <f t="shared" si="15"/>
-        <v>-1.2339920534359656</v>
+        <v>-4.9959502522747368</v>
       </c>
       <c r="R40" s="71">
         <f t="shared" si="16"/>
-        <v>0.99468737618523295</v>
+        <v>-0.5839668083412981</v>
       </c>
       <c r="S40" s="72">
         <f t="shared" si="17"/>
-        <v>20.911290047091697</v>
+        <v>112.32996013046863</v>
       </c>
       <c r="T40" s="73">
         <f t="shared" si="18"/>
-        <v>19.437507464611908</v>
+        <v>-74.207616540374318</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
@@ -5117,75 +5119,75 @@
       </c>
       <c r="C41" s="65">
         <f t="shared" si="1"/>
-        <v>2.5030098644890373</v>
+        <v>2.5764423047798513</v>
       </c>
       <c r="D41" s="66">
         <f t="shared" si="2"/>
-        <v>-19.53043143267238</v>
+        <v>-113.68444120405972</v>
       </c>
       <c r="E41" s="67">
         <f t="shared" si="3"/>
-        <v>20.648058378833856</v>
+        <v>72.117620259463308</v>
       </c>
       <c r="F41" s="71">
         <f t="shared" si="4"/>
-        <v>3.1184895731594247</v>
+        <v>3.1230795203245543</v>
       </c>
       <c r="G41" s="72">
         <f t="shared" si="5"/>
-        <v>-34.988448973580795</v>
+        <v>-134.97685924436081</v>
       </c>
       <c r="H41" s="73">
         <f t="shared" si="6"/>
-        <v>0.99991104365317329</v>
+        <v>2.4998571957375324</v>
       </c>
       <c r="I41" s="65">
         <f t="shared" si="7"/>
-        <v>-2.5492160253497742</v>
+        <v>-2.6134685713103289</v>
       </c>
       <c r="J41" s="66">
         <f t="shared" si="8"/>
-        <v>-20.454472443261693</v>
+        <v>-116.27613181094999</v>
       </c>
       <c r="K41" s="67">
         <f t="shared" si="9"/>
-        <v>-19.341267049469508</v>
+        <v>-67.858388898528361</v>
       </c>
       <c r="L41" s="71">
         <f t="shared" si="10"/>
-        <v>-1.0639966174763384</v>
+        <v>0.52842740854558135</v>
       </c>
       <c r="M41" s="72">
         <f t="shared" si="11"/>
-        <v>19.53485298504166</v>
+        <v>116.27614526978367</v>
       </c>
       <c r="N41" s="73">
         <f t="shared" si="12"/>
-        <v>-20.265308060058818</v>
+        <v>67.859842833857826</v>
       </c>
       <c r="O41" s="65">
         <f t="shared" si="13"/>
-        <v>-2.3103080430368517E-2</v>
+        <v>-1.8513133265238901E-2</v>
       </c>
       <c r="P41" s="66">
         <f t="shared" si="14"/>
-        <v>34.992870525950067</v>
+        <v>134.97687270319446</v>
       </c>
       <c r="Q41" s="67">
         <f t="shared" si="15"/>
-        <v>-0.61716072487813445</v>
+        <v>-2.4984032604080371</v>
       </c>
       <c r="R41" s="71">
         <f t="shared" si="16"/>
-        <v>1.0177904566156015</v>
+        <v>-0.56545367507605926</v>
       </c>
       <c r="S41" s="72">
         <f t="shared" si="17"/>
-        <v>20.458893995630973</v>
+        <v>113.68445466289337</v>
       </c>
       <c r="T41" s="73">
         <f t="shared" si="18"/>
-        <v>19.724017368244535</v>
+        <v>-72.116166324133829</v>
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
@@ -5194,15 +5196,15 @@
       </c>
       <c r="C42" s="79">
         <f t="shared" si="1"/>
-        <v>2.5261129449194057</v>
+        <v>2.5949554380450901</v>
       </c>
       <c r="D42" s="76">
         <f t="shared" si="2"/>
-        <v>-20</v>
+        <v>-115</v>
       </c>
       <c r="E42" s="77">
         <f t="shared" si="3"/>
-        <v>20.000000000000004</v>
+        <v>70.000000000000014</v>
       </c>
       <c r="F42" s="79">
         <f t="shared" si="4"/>
@@ -5210,35 +5212,35 @@
       </c>
       <c r="G42" s="76">
         <f t="shared" si="5"/>
-        <v>-35</v>
+        <v>-135</v>
       </c>
       <c r="H42" s="77">
         <f t="shared" si="6"/>
-        <v>5.3029658040673552E-15</v>
+        <v>1.6544315288987496E-14</v>
       </c>
       <c r="I42" s="79">
         <f t="shared" si="7"/>
-        <v>-2.5261129449194057</v>
+        <v>-2.5949554380450901</v>
       </c>
       <c r="J42" s="76">
         <f t="shared" si="8"/>
-        <v>-20</v>
+        <v>-115</v>
       </c>
       <c r="K42" s="77">
         <f t="shared" si="9"/>
-        <v>-20.000000000000004</v>
+        <v>-70.000000000000014</v>
       </c>
       <c r="L42" s="79">
         <f t="shared" si="10"/>
-        <v>-1.04089353704597</v>
+        <v>0.5469405418108203</v>
       </c>
       <c r="M42" s="76">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="N42" s="77">
         <f t="shared" si="12"/>
-        <v>-20</v>
+        <v>70.000000000000014</v>
       </c>
       <c r="O42" s="79">
         <f t="shared" si="13"/>
@@ -5246,7 +5248,7 @@
       </c>
       <c r="P42" s="76">
         <f t="shared" si="14"/>
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="Q42" s="77">
         <f t="shared" si="15"/>
@@ -5254,15 +5256,15 @@
       </c>
       <c r="R42" s="79">
         <f t="shared" si="16"/>
-        <v>1.04089353704597</v>
+        <v>-0.5469405418108203</v>
       </c>
       <c r="S42" s="76">
         <f t="shared" si="17"/>
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="T42" s="77">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>-70.000000000000014</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
@@ -5271,75 +5273,75 @@
       </c>
       <c r="C43" s="65">
         <f t="shared" si="1"/>
-        <v>2.5492160253497742</v>
+        <v>2.6134685713103289</v>
       </c>
       <c r="D43" s="66">
         <f t="shared" si="2"/>
-        <v>-20.454472443261693</v>
+        <v>-116.27613181094999</v>
       </c>
       <c r="E43" s="67">
         <f t="shared" si="3"/>
-        <v>19.341267049469508</v>
+        <v>67.858388898528361</v>
       </c>
       <c r="F43" s="71">
         <f t="shared" si="4"/>
-        <v>3.1646957340201616</v>
+        <v>3.160105786855032</v>
       </c>
       <c r="G43" s="72">
         <f t="shared" si="5"/>
-        <v>-34.988448973580795</v>
+        <v>-134.97685924436081</v>
       </c>
       <c r="H43" s="73">
         <f t="shared" si="6"/>
-        <v>-0.99991104365316275</v>
+        <v>-2.4998571957374991</v>
       </c>
       <c r="I43" s="65">
         <f t="shared" si="7"/>
-        <v>-2.5030098644890373</v>
+        <v>-2.5764423047798513</v>
       </c>
       <c r="J43" s="66">
         <f t="shared" si="8"/>
-        <v>-19.53043143267238</v>
+        <v>-113.68444120405972</v>
       </c>
       <c r="K43" s="67">
         <f t="shared" si="9"/>
-        <v>-20.648058378833856</v>
+        <v>-72.117620259463308</v>
       </c>
       <c r="L43" s="71">
         <f t="shared" si="10"/>
-        <v>-1.0177904566156015</v>
+        <v>0.56545367507605926</v>
       </c>
       <c r="M43" s="72">
         <f t="shared" si="11"/>
-        <v>20.458893995630973</v>
+        <v>113.68445466289337</v>
       </c>
       <c r="N43" s="73">
         <f t="shared" si="12"/>
-        <v>-19.724017368244535</v>
+        <v>72.116166324133829</v>
       </c>
       <c r="O43" s="65">
         <f t="shared" si="13"/>
-        <v>2.3103080430368544E-2</v>
+        <v>1.8513133265238922E-2</v>
       </c>
       <c r="P43" s="66">
         <f t="shared" si="14"/>
-        <v>34.992870525950067</v>
+        <v>134.97687270319446</v>
       </c>
       <c r="Q43" s="67">
         <f t="shared" si="15"/>
-        <v>0.61716072487813523</v>
+        <v>2.4984032604080402</v>
       </c>
       <c r="R43" s="71">
         <f t="shared" si="16"/>
-        <v>1.0639966174763384</v>
+        <v>-0.52842740854558135</v>
       </c>
       <c r="S43" s="72">
         <f t="shared" si="17"/>
-        <v>19.53485298504166</v>
+        <v>116.27614526978367</v>
       </c>
       <c r="T43" s="73">
         <f t="shared" si="18"/>
-        <v>20.265308060058818</v>
+        <v>-67.859842833857826</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
@@ -5348,75 +5350,75 @@
       </c>
       <c r="C44" s="65">
         <f t="shared" si="1"/>
-        <v>2.5723191057801427</v>
+        <v>2.6319817045755678</v>
       </c>
       <c r="D44" s="66">
         <f t="shared" si="2"/>
-        <v>-20.893606197523482</v>
+        <v>-117.51239927295748</v>
       </c>
       <c r="E44" s="67">
         <f t="shared" si="3"/>
-        <v>18.67221111184783</v>
+        <v>65.693520941528021</v>
       </c>
       <c r="F44" s="71">
         <f t="shared" si="4"/>
-        <v>3.18779881445053</v>
+        <v>3.1786189201202708</v>
       </c>
       <c r="G44" s="72">
         <f t="shared" si="5"/>
-        <v>-34.953802059436164</v>
+        <v>-134.90744490838915</v>
       </c>
       <c r="H44" s="73">
         <f t="shared" si="6"/>
-        <v>-1.9992884062000433</v>
+        <v>-4.9988576246317802</v>
       </c>
       <c r="I44" s="65">
         <f t="shared" si="7"/>
-        <v>-2.4799067840586688</v>
+        <v>-2.5579291715146124</v>
       </c>
       <c r="J44" s="66">
         <f t="shared" si="8"/>
-        <v>-19.046017363445763</v>
+        <v>-112.32990629974668</v>
       </c>
       <c r="K44" s="67">
         <f t="shared" si="9"/>
-        <v>-21.285096298689638</v>
+        <v>-74.210523912731404</v>
       </c>
       <c r="L44" s="71">
         <f t="shared" si="10"/>
-        <v>-0.99468737618523295</v>
+        <v>0.5839668083412981</v>
       </c>
       <c r="M44" s="72">
         <f t="shared" si="11"/>
-        <v>20.911290047091697</v>
+        <v>112.32996013046863</v>
       </c>
       <c r="N44" s="73">
         <f t="shared" si="12"/>
-        <v>-19.437507464611908</v>
+        <v>74.207616540374318</v>
       </c>
       <c r="O44" s="65">
         <f t="shared" si="13"/>
-        <v>4.6206160860737033E-2</v>
+        <v>3.7026266530477803E-2</v>
       </c>
       <c r="P44" s="66">
         <f t="shared" si="14"/>
-        <v>34.971485909004379</v>
+        <v>134.90749873911111</v>
       </c>
       <c r="Q44" s="67">
         <f t="shared" si="15"/>
-        <v>1.2339920534359656</v>
+        <v>4.9959502522747368</v>
       </c>
       <c r="R44" s="71">
         <f t="shared" si="16"/>
-        <v>1.0870996979067069</v>
+        <v>-0.5099142752803425</v>
       </c>
       <c r="S44" s="72">
         <f t="shared" si="17"/>
-        <v>19.063701213013974</v>
+        <v>117.51245310367943</v>
       </c>
       <c r="T44" s="73">
         <f t="shared" si="18"/>
-        <v>20.519799945925545</v>
+        <v>-65.696428313885079</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
@@ -5425,75 +5427,75 @@
       </c>
       <c r="C45" s="65">
         <f t="shared" si="1"/>
-        <v>2.5954221862105111</v>
+        <v>2.6504948378408066</v>
       </c>
       <c r="D45" s="66">
         <f t="shared" si="2"/>
-        <v>-21.317166884548143</v>
+        <v>-118.70837868463155</v>
       </c>
       <c r="E45" s="67">
         <f t="shared" si="3"/>
-        <v>17.993189281413734</v>
+        <v>63.506138086215103</v>
       </c>
       <c r="F45" s="71">
         <f t="shared" si="4"/>
-        <v>3.2109018948808985</v>
+        <v>3.1971320533855097</v>
       </c>
       <c r="G45" s="72">
         <f t="shared" si="5"/>
-        <v>-34.896077749614562</v>
+        <v>-134.79178078220454</v>
       </c>
       <c r="H45" s="73">
         <f t="shared" si="6"/>
-        <v>-2.9975986913752113</v>
+        <v>-7.4961448134761355</v>
       </c>
       <c r="I45" s="65">
         <f t="shared" si="7"/>
-        <v>-2.4568037036283004</v>
+        <v>-2.5394160382493736</v>
       </c>
       <c r="J45" s="66">
         <f t="shared" si="8"/>
-        <v>-18.547016337955782</v>
+        <v>-110.93685952181639</v>
       </c>
       <c r="K45" s="67">
         <f t="shared" si="9"/>
-        <v>-21.910773754219893</v>
+        <v>-76.277993666648783</v>
       </c>
       <c r="L45" s="71">
         <f t="shared" si="10"/>
-        <v>-0.97158429575486438</v>
+        <v>0.60247994160653706</v>
       </c>
       <c r="M45" s="72">
         <f t="shared" si="11"/>
-        <v>21.356946697677845</v>
+        <v>110.93698062364474</v>
       </c>
       <c r="N45" s="73">
         <f t="shared" si="12"/>
-        <v>-19.140623207627524</v>
+        <v>76.273633853697149</v>
       </c>
       <c r="O45" s="65">
         <f t="shared" si="13"/>
-        <v>6.9309241291105578E-2</v>
+        <v>5.5539399795716732E-2</v>
       </c>
       <c r="P45" s="66">
         <f t="shared" si="14"/>
-        <v>34.93585756274426</v>
+        <v>134.79190188403288</v>
       </c>
       <c r="Q45" s="67">
         <f t="shared" si="15"/>
-        <v>1.8501647651614226</v>
+        <v>7.4917850005245246</v>
       </c>
       <c r="R45" s="71">
         <f t="shared" si="16"/>
-        <v>1.1102027783370756</v>
+        <v>-0.49140114201510354</v>
       </c>
       <c r="S45" s="72">
         <f t="shared" si="17"/>
-        <v>18.586796151085473</v>
+        <v>118.70849978645992</v>
       </c>
       <c r="T45" s="73">
         <f t="shared" si="18"/>
-        <v>20.763339828006092</v>
+        <v>-63.510497899166715</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
@@ -5502,75 +5504,75 @@
       </c>
       <c r="C46" s="65">
         <f t="shared" si="1"/>
-        <v>2.61852526664088</v>
+        <v>2.6690079711060459</v>
       </c>
       <c r="D46" s="66">
         <f t="shared" si="2"/>
-        <v>-21.724928437889609</v>
+        <v>-119.86366015235637</v>
       </c>
       <c r="E46" s="67">
         <f t="shared" si="3"/>
-        <v>17.304563971527834</v>
+        <v>61.296990006253715</v>
       </c>
       <c r="F46" s="71">
         <f t="shared" si="4"/>
-        <v>3.234004975311267</v>
+        <v>3.2156451866507485</v>
       </c>
       <c r="G46" s="72">
         <f t="shared" si="5"/>
-        <v>-34.81530685323019</v>
+        <v>-134.62990650694664</v>
       </c>
       <c r="H46" s="73">
         <f t="shared" si="6"/>
-        <v>-3.994309072442936</v>
+        <v>-9.990862876236319</v>
       </c>
       <c r="I46" s="65">
         <f t="shared" si="7"/>
-        <v>-2.4337006231979315</v>
+        <v>-2.5209029049841343</v>
       </c>
       <c r="J46" s="66">
         <f t="shared" si="8"/>
-        <v>-18.033694687313591</v>
+        <v>-109.50577830405679</v>
       </c>
       <c r="K46" s="67">
         <f t="shared" si="9"/>
-        <v>-22.524756803481743</v>
+        <v>-78.319320944926616</v>
       </c>
       <c r="L46" s="71">
         <f t="shared" si="10"/>
-        <v>-0.94848121532449592</v>
+        <v>0.62099307487177591</v>
       </c>
       <c r="M46" s="72">
         <f t="shared" si="11"/>
-        <v>21.795626087695972</v>
+        <v>109.50599355315411</v>
       </c>
       <c r="N46" s="73">
         <f t="shared" si="12"/>
-        <v>-18.833523052905722</v>
+        <v>78.313510185602979</v>
       </c>
       <c r="O46" s="65">
         <f t="shared" si="13"/>
-        <v>9.2412321721474067E-2</v>
+        <v>7.4052533060955605E-2</v>
       </c>
       <c r="P46" s="66">
         <f t="shared" si="14"/>
-        <v>34.886004503036553</v>
+        <v>134.63012175604393</v>
       </c>
       <c r="Q46" s="67">
         <f t="shared" si="15"/>
-        <v>2.4653499910650618</v>
+        <v>9.98505211691276</v>
       </c>
       <c r="R46" s="71">
         <f t="shared" si="16"/>
-        <v>1.1333058587674441</v>
+        <v>-0.4728880087498647</v>
       </c>
       <c r="S46" s="72">
         <f t="shared" si="17"/>
-        <v>18.104392337119965</v>
+        <v>119.86387540145367</v>
       </c>
       <c r="T46" s="73">
         <f t="shared" si="18"/>
-        <v>20.995797722103841</v>
+        <v>-61.302800765577338</v>
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
@@ -5579,75 +5581,75 @@
       </c>
       <c r="C47" s="65">
         <f t="shared" si="1"/>
-        <v>2.6416283470712485</v>
+        <v>2.6875211043712848</v>
       </c>
       <c r="D47" s="66">
         <f t="shared" si="2"/>
-        <v>-22.116673223551054</v>
+        <v>-120.97784773077237</v>
       </c>
       <c r="E47" s="67">
         <f t="shared" si="3"/>
-        <v>16.606702721202282</v>
+        <v>59.066833834823406</v>
       </c>
       <c r="F47" s="71">
         <f t="shared" si="4"/>
-        <v>3.2571080557416359</v>
+        <v>3.2341583199159878</v>
       </c>
       <c r="G47" s="72">
         <f t="shared" si="5"/>
-        <v>-34.711532480019251</v>
+        <v>-134.42187756118923</v>
       </c>
       <c r="H47" s="73">
         <f t="shared" si="6"/>
-        <v>-4.9888875765820613</v>
+        <v>-12.482156807385259</v>
       </c>
       <c r="I47" s="65">
         <f t="shared" si="7"/>
-        <v>-2.410597542767563</v>
+        <v>-2.5023897717188954</v>
       </c>
       <c r="J47" s="66">
         <f t="shared" si="8"/>
-        <v>-17.506326385957379</v>
+        <v>-108.03715311565934</v>
       </c>
       <c r="K47" s="67">
         <f t="shared" si="9"/>
-        <v>-23.126717746171163</v>
+        <v>-80.33380613099024</v>
       </c>
       <c r="L47" s="71">
         <f t="shared" si="10"/>
-        <v>-0.92537813489412735</v>
+        <v>0.63950620813701486</v>
       </c>
       <c r="M47" s="72">
         <f t="shared" si="11"/>
-        <v>22.227094081416055</v>
+        <v>108.03748935592138</v>
       </c>
       <c r="N47" s="73">
         <f t="shared" si="12"/>
-        <v>-18.516370908577485</v>
+        <v>80.326546416794784</v>
       </c>
       <c r="O47" s="65">
         <f t="shared" si="13"/>
-        <v>0.11551540215184261</v>
+        <v>9.2565666326194534E-2</v>
       </c>
       <c r="P47" s="66">
         <f t="shared" si="14"/>
-        <v>34.821953337884253</v>
+        <v>134.42221380145125</v>
       </c>
       <c r="Q47" s="67">
         <f t="shared" si="15"/>
-        <v>3.0792193892068549</v>
+        <v>12.474897093189828</v>
       </c>
       <c r="R47" s="71">
         <f t="shared" si="16"/>
-        <v>1.1564089391978125</v>
+        <v>-0.45437487548462574</v>
       </c>
       <c r="S47" s="72">
         <f t="shared" si="17"/>
-        <v>17.616747243822388</v>
+        <v>120.9781839710344</v>
       </c>
       <c r="T47" s="73">
         <f t="shared" si="18"/>
-        <v>21.217049558795946</v>
+        <v>-59.074093549018841</v>
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
@@ -5656,75 +5658,75 @@
       </c>
       <c r="C48" s="65">
         <f t="shared" si="1"/>
-        <v>2.664731427501617</v>
+        <v>2.7060342376365236</v>
       </c>
       <c r="D48" s="66">
         <f t="shared" si="2"/>
-        <v>-22.492192156142416</v>
+        <v>-122.05055955847723</v>
       </c>
       <c r="E48" s="67">
         <f t="shared" si="3"/>
-        <v>15.899977998934611</v>
+        <v>56.816433905129294</v>
       </c>
       <c r="F48" s="71">
         <f t="shared" si="4"/>
-        <v>3.2802111361720043</v>
+        <v>3.2526714531812266</v>
       </c>
       <c r="G48" s="72">
         <f t="shared" si="5"/>
-        <v>-34.584810017331122</v>
+        <v>-134.16776524192619</v>
       </c>
       <c r="H48" s="73">
         <f t="shared" si="6"/>
-        <v>-5.9808033688150299</v>
+        <v>-14.96917277493572</v>
       </c>
       <c r="I48" s="65">
         <f t="shared" si="7"/>
-        <v>-2.3874944623371945</v>
+        <v>-2.4838766384536566</v>
       </c>
       <c r="J48" s="66">
         <f t="shared" si="8"/>
-        <v>-16.965192905424296</v>
+        <v>-106.53148729312204</v>
       </c>
       <c r="K48" s="67">
         <f t="shared" si="9"/>
-        <v>-23.716335298526101</v>
+        <v>-82.32075880775642</v>
       </c>
       <c r="L48" s="71">
         <f t="shared" si="10"/>
-        <v>-0.90227505446375877</v>
+        <v>0.65801934140225371</v>
       </c>
       <c r="M48" s="72">
         <f t="shared" si="11"/>
-        <v>22.651120392036404</v>
+        <v>106.53197132697777</v>
       </c>
       <c r="N48" s="73">
         <f t="shared" si="12"/>
-        <v>-18.189336047807981</v>
+        <v>82.312052626784237</v>
       </c>
       <c r="O48" s="65">
         <f t="shared" si="13"/>
-        <v>0.13861848258221116</v>
+        <v>0.11107879959143346</v>
       </c>
       <c r="P48" s="66">
         <f t="shared" si="14"/>
-        <v>34.743738253225104</v>
+        <v>134.1682492757819</v>
       </c>
       <c r="Q48" s="67">
         <f t="shared" si="15"/>
-        <v>3.6914453199416584</v>
+        <v>14.960466593963563</v>
       </c>
       <c r="R48" s="71">
         <f t="shared" si="16"/>
-        <v>1.1795120196281812</v>
+        <v>-0.43586174221938684</v>
       </c>
       <c r="S48" s="72">
         <f t="shared" si="17"/>
-        <v>17.124121141318291</v>
+        <v>122.05104359233296</v>
       </c>
       <c r="T48" s="73">
         <f t="shared" si="18"/>
-        <v>21.426977249652715</v>
+        <v>-56.825140086101456</v>
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
@@ -5733,75 +5735,75 @@
       </c>
       <c r="C49" s="65">
         <f t="shared" si="1"/>
-        <v>2.6878345079319854</v>
+        <v>2.7245473709017625</v>
       </c>
       <c r="D49" s="66">
         <f t="shared" si="2"/>
-        <v>-22.851284810475221</v>
+        <v>-123.08142798889988</v>
       </c>
       <c r="E49" s="67">
         <f t="shared" si="3"/>
-        <v>15.184767003910704</v>
+        <v>54.546561488445221</v>
       </c>
       <c r="F49" s="71">
         <f t="shared" si="4"/>
-        <v>3.3033142166023728</v>
+        <v>3.2711845864464655</v>
       </c>
       <c r="G49" s="72">
         <f t="shared" si="5"/>
-        <v>-34.435207100566458</v>
+        <v>-133.86765664013612</v>
       </c>
       <c r="H49" s="73">
         <f t="shared" si="6"/>
-        <v>-6.9695270353298016</v>
+        <v>-17.451058413071326</v>
       </c>
       <c r="I49" s="65">
         <f t="shared" si="7"/>
-        <v>-2.3643913819068261</v>
+        <v>-2.4653635051884177</v>
       </c>
       <c r="J49" s="66">
         <f t="shared" si="8"/>
-        <v>-16.410583064121127</v>
+        <v>-104.98929686774301</v>
       </c>
       <c r="K49" s="67">
         <f t="shared" si="9"/>
-        <v>-24.293294764804742</v>
+        <v>-84.279497994257369</v>
       </c>
       <c r="L49" s="71">
         <f t="shared" si="10"/>
-        <v>-0.87917197403339031</v>
+        <v>0.67653247466749267</v>
       </c>
       <c r="M49" s="72">
         <f t="shared" si="11"/>
-        <v>23.067478704594315</v>
+        <v>104.98995544696859</v>
       </c>
       <c r="N49" s="73">
         <f t="shared" si="12"/>
-        <v>-17.852593018450641</v>
+        <v>84.269348330345778</v>
       </c>
       <c r="O49" s="65">
         <f t="shared" si="13"/>
-        <v>0.16172156301257964</v>
+        <v>0.12959193285667234</v>
       </c>
       <c r="P49" s="66">
         <f t="shared" si="14"/>
-        <v>34.651400994685552</v>
+        <v>133.86831521936168</v>
       </c>
       <c r="Q49" s="67">
         <f t="shared" si="15"/>
-        <v>4.3017010207898609</v>
+        <v>17.440908749159757</v>
       </c>
       <c r="R49" s="71">
         <f t="shared" si="16"/>
-        <v>1.2026151000585497</v>
+        <v>-0.41734860895414794</v>
       </c>
       <c r="S49" s="72">
         <f t="shared" si="17"/>
-        <v>16.626776958240217</v>
+        <v>123.08208656812548</v>
       </c>
       <c r="T49" s="73">
         <f t="shared" si="18"/>
-        <v>21.625468750264794</v>
+        <v>-54.556711152356797</v>
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
@@ -5810,75 +5812,75 @@
       </c>
       <c r="C50" s="65">
         <f t="shared" si="1"/>
-        <v>2.7109375883623539</v>
+        <v>2.7430605041670013</v>
       </c>
       <c r="D50" s="66">
         <f t="shared" si="2"/>
-        <v>-23.19375952853526</v>
+        <v>-124.07009971630248</v>
       </c>
       <c r="E50" s="67">
         <f t="shared" si="3"/>
-        <v>14.461451464682787</v>
+        <v>52.257994529778742</v>
       </c>
       <c r="F50" s="71">
         <f t="shared" si="4"/>
-        <v>3.3264172970327412</v>
+        <v>3.2896977197117043</v>
       </c>
       <c r="G50" s="72">
         <f t="shared" si="5"/>
-        <v>-34.26280357707833</v>
+        <v>-133.52165461093401</v>
       </c>
       <c r="H50" s="73">
         <f t="shared" si="6"/>
-        <v>-7.9545308660430551</v>
+        <v>-19.926963114274553</v>
       </c>
       <c r="I50" s="65">
         <f t="shared" si="7"/>
-        <v>-2.3412883014764576</v>
+        <v>-2.4468503719231789</v>
       </c>
       <c r="J50" s="66">
         <f t="shared" si="8"/>
-        <v>-15.842792873173584</v>
+        <v>-103.41111038876282</v>
       </c>
       <c r="K50" s="67">
         <f t="shared" si="9"/>
-        <v>-24.857288205247652</v>
+        <v>-86.209352379030832</v>
       </c>
       <c r="L50" s="71">
         <f t="shared" si="10"/>
-        <v>-0.85606889360302185</v>
+        <v>0.69504560793273162</v>
       </c>
       <c r="M50" s="72">
         <f t="shared" si="11"/>
-        <v>23.475946796756844</v>
+        <v>103.41197020531315</v>
       </c>
       <c r="N50" s="73">
         <f t="shared" si="12"/>
-        <v>-17.506321549885975</v>
+        <v>86.197762710736725</v>
       </c>
       <c r="O50" s="65">
         <f t="shared" si="13"/>
-        <v>0.18482464344294819</v>
+        <v>0.14810506612191127</v>
       </c>
       <c r="P50" s="66">
         <f t="shared" si="14"/>
-        <v>34.544990845299921</v>
+        <v>133.52251442748434</v>
       </c>
       <c r="Q50" s="67">
         <f t="shared" si="15"/>
-        <v>4.909660780839868</v>
+        <v>19.915373445980478</v>
       </c>
       <c r="R50" s="71">
         <f t="shared" si="16"/>
-        <v>1.2257181804889181</v>
+        <v>-0.39883547568890904</v>
       </c>
       <c r="S50" s="72">
         <f t="shared" si="17"/>
-        <v>16.124980141395174</v>
+        <v>124.07095953285281</v>
       </c>
       <c r="T50" s="73">
         <f t="shared" si="18"/>
-        <v>21.812418120044455</v>
+        <v>-52.26958419807282</v>
       </c>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
@@ -5887,75 +5889,75 @@
       </c>
       <c r="C51" s="65">
         <f t="shared" si="1"/>
-        <v>2.7340406687927223</v>
+        <v>2.7615736374322402</v>
       </c>
       <c r="D51" s="66">
         <f t="shared" si="2"/>
-        <v>-23.519433521775909</v>
+        <v>-125.01623589686776</v>
       </c>
       <c r="E51" s="67">
         <f t="shared" si="3"/>
-        <v>13.730417435430004</v>
+        <v>49.951517381248848</v>
       </c>
       <c r="F51" s="71">
         <f t="shared" si="4"/>
-        <v>3.3495203774631097</v>
+        <v>3.3082108529769432</v>
       </c>
       <c r="G51" s="72">
         <f t="shared" si="5"/>
-        <v>-34.067691463555342</v>
+        <v>-133.12987773832018</v>
       </c>
       <c r="H51" s="73">
         <f t="shared" si="6"/>
-        <v>-8.9352891362541698</v>
+        <v>-22.39603832085233</v>
       </c>
       <c r="I51" s="65">
         <f t="shared" si="7"/>
-        <v>-2.3181852210460892</v>
+        <v>-2.42833723865794</v>
       </c>
       <c r="J51" s="66">
         <f t="shared" si="8"/>
-        <v>-15.262125378436776</v>
+        <v>-101.79746874221689</v>
       </c>
       <c r="K51" s="67">
         <f t="shared" si="9"/>
-        <v>-25.408014600434004</v>
+        <v>-88.109660550196153</v>
       </c>
       <c r="L51" s="71">
         <f t="shared" si="10"/>
-        <v>-0.83296581317265328</v>
+        <v>0.71355874119797047</v>
       </c>
       <c r="M51" s="72">
         <f t="shared" si="11"/>
-        <v>23.876306657427222</v>
+        <v>101.79855641907753</v>
       </c>
       <c r="N51" s="73">
         <f t="shared" si="12"/>
-        <v>-17.150706457094863</v>
+        <v>88.096634849603845</v>
       </c>
       <c r="O51" s="65">
         <f t="shared" si="13"/>
-        <v>0.20792772387331668</v>
+        <v>0.16661819938715014</v>
       </c>
       <c r="P51" s="66">
         <f t="shared" si="14"/>
-        <v>34.424564599206647</v>
+        <v>133.13096541518081</v>
       </c>
       <c r="Q51" s="67">
         <f t="shared" si="15"/>
-        <v>5.5150001145893075</v>
+        <v>22.383012620260047</v>
       </c>
       <c r="R51" s="71">
         <f t="shared" si="16"/>
-        <v>1.2488212609192866</v>
+        <v>-0.38032234242367013</v>
       </c>
       <c r="S51" s="72">
         <f t="shared" si="17"/>
-        <v>15.618998514088089</v>
+        <v>125.01732357372842</v>
       </c>
       <c r="T51" s="73">
         <f t="shared" si="18"/>
-        <v>21.98772557876913</v>
+        <v>-49.964543081841143</v>
       </c>
     </row>
     <row r="52" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5964,79 +5966,80 @@
       </c>
       <c r="C52" s="88">
         <f t="shared" si="1"/>
-        <v>2.7571437492230908</v>
+        <v>2.780086770697479</v>
       </c>
       <c r="D52" s="89">
         <f t="shared" si="2"/>
-        <v>-23.82813296867765</v>
+        <v>-125.91951226482961</v>
       </c>
       <c r="E52" s="90">
         <f t="shared" si="3"/>
-        <v>12.992055089910252</v>
+        <v>47.62792053326794</v>
       </c>
       <c r="F52" s="91">
         <f t="shared" si="4"/>
-        <v>3.3726234578934782</v>
+        <v>3.326723986242182</v>
       </c>
       <c r="G52" s="92">
         <f t="shared" si="5"/>
-        <v>-33.849974896909735</v>
+        <v>-132.69246029453819</v>
       </c>
       <c r="H52" s="93">
         <f t="shared" si="6"/>
-        <v>-9.9112783872395216</v>
+        <v>-24.857437815759127</v>
       </c>
       <c r="I52" s="88">
         <f t="shared" si="7"/>
-        <v>-2.2950821406157207</v>
+        <v>-2.4098241053927012</v>
       </c>
       <c r="J52" s="89">
         <f t="shared" si="8"/>
-        <v>-14.668890498750928</v>
+        <v>-100.14892496555947</v>
       </c>
       <c r="K52" s="90">
         <f t="shared" si="9"/>
-        <v>-25.945180011944267</v>
+        <v>-89.979771222137614</v>
       </c>
       <c r="L52" s="91">
         <f t="shared" si="10"/>
-        <v>-0.80986273274228471</v>
+        <v>0.73207187446320932</v>
       </c>
       <c r="M52" s="92">
         <f t="shared" si="11"/>
-        <v>24.268344603103579</v>
+        <v>100.15026704762228</v>
       </c>
       <c r="N52" s="93">
         <f t="shared" si="12"/>
-        <v>-16.785937542017532</v>
+        <v>89.965313953497443</v>
       </c>
       <c r="O52" s="88">
         <f t="shared" si="13"/>
-        <v>0.23103080430368522</v>
+        <v>0.18513133265238907</v>
       </c>
       <c r="P52" s="89">
         <f t="shared" si="14"/>
-        <v>34.29018653133565</v>
+        <v>132.69380237660101</v>
       </c>
       <c r="Q52" s="90">
         <f t="shared" si="15"/>
-        <v>6.1173959351322393</v>
+        <v>24.842980547118994</v>
       </c>
       <c r="R52" s="91">
         <f t="shared" si="16"/>
-        <v>1.2719243413496553</v>
+        <v>-0.36180920915843123</v>
       </c>
       <c r="S52" s="92">
         <f t="shared" si="17"/>
-        <v>15.109102133176851</v>
+        <v>125.92085434689243</v>
       </c>
       <c r="T52" s="93">
         <f t="shared" si="18"/>
-        <v>22.151297559836966</v>
+        <v>-47.642377801908076</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D2:E2"/>
@@ -6051,13 +6054,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="G26:M26"/>
@@ -6069,6 +6065,12 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="G19:M24"/>
     <mergeCell ref="B29:T29"/>

--- a/docs/IK and trajectory algorithms.xlsx
+++ b/docs/IK and trajectory algorithms.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Advance trajectory" sheetId="6" r:id="rId2"/>
     <sheet name="Joystick smooth" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
   <si>
     <t>coxa_zero_rotate</t>
   </si>
@@ -134,9 +134,6 @@
     <t xml:space="preserve">z0 = </t>
   </si>
   <si>
-    <t xml:space="preserve">Кривизна [-1.99; 1.99] = </t>
-  </si>
-  <si>
     <t>Общие вычисления</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
   </si>
   <si>
     <t>Конфигурация конечностей</t>
-  </si>
-  <si>
-    <t>Магия из неизвестной области математики, но она работает</t>
   </si>
   <si>
     <t>Вычисляется через формулу длины дуги (длина = угол в радианах * радиус)</t>
@@ -241,9 +235,6 @@
     <t xml:space="preserve">k = </t>
   </si>
   <si>
-    <t xml:space="preserve">Расстояние [мм] = </t>
-  </si>
-  <si>
     <t xml:space="preserve">Радиус траектории тела = </t>
   </si>
   <si>
@@ -251,6 +242,21 @@
   </si>
   <si>
     <t xml:space="preserve">Макс. угол дуги = </t>
+  </si>
+  <si>
+    <t>Функция кривизны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расстояние цикла [мм] = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кривизна траектории = </t>
+  </si>
+  <si>
+    <t>Функция кривизны. Она определяет на сколько далеко находится точка вращения</t>
   </si>
 </sst>
 </file>
@@ -258,8 +264,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -308,7 +314,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,8 +399,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -919,11 +931,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1109,15 +1164,6 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1127,73 +1173,19 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1202,6 +1194,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1223,6 +1218,117 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1259,12 +1365,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1298,111 +1398,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1525,70 +1617,70 @@
             <c:numRef>
               <c:f>'Advance trajectory'!$D$32:$D$52</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-100.14892496555947</c:v>
+                  <c:v>-104.86427732785779</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-101.79746874221689</c:v>
+                  <c:v>-105.99391329540958</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-103.41111038876282</c:v>
+                  <c:v>-107.09814841556084</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-104.98929686774301</c:v>
+                  <c:v>-108.17682979673131</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-106.53148729312204</c:v>
+                  <c:v>-109.22980808549258</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-108.03715311565934</c:v>
+                  <c:v>-110.25693748724748</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-109.50577830405679</c:v>
+                  <c:v>-111.25807578641667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-110.93685952181639</c:v>
+                  <c:v>-112.2330843661297</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-112.32990629974668</c:v>
+                  <c:v>-113.18182822741775</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-113.68444120405972</c:v>
+                  <c:v>-114.10417600790564</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-116.27613181094999</c:v>
+                  <c:v>-115.86917616857161</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-117.51239927295748</c:v>
+                  <c:v>-116.71158416812932</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-118.70837868463155</c:v>
+                  <c:v>-117.5271073594829</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-119.86366015235637</c:v>
+                  <c:v>-118.31563282589275</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-120.97784773077237</c:v>
+                  <c:v>-119.07705138870446</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-122.05055955847723</c:v>
+                  <c:v>-119.81125762246543</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-123.08142798889988</c:v>
+                  <c:v>-120.51814986952206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-124.07009971630248</c:v>
+                  <c:v>-121.19763025409532</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-125.01623589686776</c:v>
+                  <c:v>-121.84960469583228</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-125.91951226482961</c:v>
+                  <c:v>-122.47398292283262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1597,70 +1689,70 @@
             <c:numRef>
               <c:f>'Advance trajectory'!$E$32:$E$52</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>89.979771222137614</c:v>
+                  <c:v>97.075757761376607</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.109660550196153</c:v>
+                  <c:v>94.92369196981511</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.209352379030832</c:v>
+                  <c:v>92.758483113879748</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.279497994257369</c:v>
+                  <c:v>90.580430986791768</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.32075880775642</c:v>
+                  <c:v>88.389837160042191</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.33380613099024</c:v>
+                  <c:v>86.187004941636317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78.319320944926616</c:v>
+                  <c:v>83.972239334098361</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76.277993666648783</c:v>
+                  <c:v>81.745846992240729</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74.210523912731404</c:v>
+                  <c:v>79.508136180704852</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.117620259463308</c:v>
+                  <c:v>77.259416731279231</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70.000000000000014</c:v>
+                  <c:v>75.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67.858388898528361</c:v>
+                  <c:v>72.73019882404131</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65.693520941528021</c:v>
+                  <c:v>70.450327478399828</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>63.506138086215103</c:v>
+                  <c:v>68.160701632380253</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>61.296990006253715</c:v>
+                  <c:v>65.861638305888476</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>59.066833834823406</c:v>
+                  <c:v>63.553455825536872</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>56.816433905129294</c:v>
+                  <c:v>61.236473780569128</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>54.546561488445221</c:v>
+                  <c:v>58.911012978610273</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>52.257994529778742</c:v>
+                  <c:v>56.577395401247486</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49.951517381248848</c:v>
+                  <c:v>54.235944159449339</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>47.62792053326794</c:v>
+                  <c:v>51.886983448827763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1677,70 +1769,70 @@
             <c:numRef>
               <c:f>'Advance trajectory'!$G$32:$G$52</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-132.69246029453819</c:v>
+                  <c:v>-133.53082895337246</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-133.12987773832018</c:v>
+                  <c:v>-133.80971047952286</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-133.52165461093401</c:v>
+                  <c:v>-134.05933980351173</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-133.86765664013609</c:v>
+                  <c:v>-134.27968236184699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-134.16776524192616</c:v>
+                  <c:v>-134.47070764606053</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-134.42187756118923</c:v>
+                  <c:v>-134.6323892069324</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-134.62990650694664</c:v>
+                  <c:v>-134.76470465815299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-134.79178078220454</c:v>
+                  <c:v>-134.86763567942242</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-134.90744490838915</c:v>
+                  <c:v>-134.9411680189875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-134.97685924436081</c:v>
+                  <c:v>-134.98529149561472</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-134.97685924436081</c:v>
+                  <c:v>-134.98529149561472</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-134.90744490838915</c:v>
+                  <c:v>-134.9411680189875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-134.79178078220454</c:v>
+                  <c:v>-134.86763567942245</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-134.62990650694664</c:v>
+                  <c:v>-134.76470465815299</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-134.42187756118923</c:v>
+                  <c:v>-134.6323892069324</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-134.16776524192619</c:v>
+                  <c:v>-134.47070764606053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-133.86765664013612</c:v>
+                  <c:v>-134.27968236184699</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-133.52165461093401</c:v>
+                  <c:v>-134.05933980351173</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-133.12987773832018</c:v>
+                  <c:v>-133.80971047952286</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-132.69246029453819</c:v>
+                  <c:v>-133.53082895337246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1749,70 +1841,70 @@
             <c:numRef>
               <c:f>'Advance trajectory'!$H$32:$H$52</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>24.857437815759159</c:v>
+                  <c:v>24.942347902271187</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.396038320852366</c:v>
+                  <c:v>22.457966091905934</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.926963114274585</c:v>
+                  <c:v>19.970474768120752</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.451058413071362</c:v>
+                  <c:v>17.480218347129536</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.969172774935751</c:v>
+                  <c:v>14.98754162799951</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.482156807385293</c:v>
+                  <c:v>12.492789744910681</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9908628762364113</c:v>
+                  <c:v>9.9963081193684449</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4961448134761683</c:v>
+                  <c:v>7.498442412377349</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9988576246318139</c:v>
+                  <c:v>4.9995384765807396</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4998571957375324</c:v>
+                  <c:v>2.4999423083744512</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6544315288987496E-14</c:v>
+                  <c:v>2.6029463266252034E-14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.4998571957374991</c:v>
+                  <c:v>-2.4999423083743992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4.9988576246317802</c:v>
+                  <c:v>-4.9995384765806872</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-7.4961448134761355</c:v>
+                  <c:v>-7.4984424123772975</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-9.990862876236319</c:v>
+                  <c:v>-9.9963081193683934</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-12.482156807385259</c:v>
+                  <c:v>-12.492789744910629</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-14.96917277493572</c:v>
+                  <c:v>-14.987541627999551</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-17.451058413071326</c:v>
+                  <c:v>-17.480218347129487</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-19.926963114274553</c:v>
+                  <c:v>-19.970474768120699</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-22.39603832085233</c:v>
+                  <c:v>-22.457966091905885</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-24.857437815759127</c:v>
+                  <c:v>-24.942347902271134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1829,70 +1921,70 @@
             <c:numRef>
               <c:f>'Advance trajectory'!$J$32:$J$52</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-125.91951226482961</c:v>
+                  <c:v>-122.47398292283262</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-125.01623589686776</c:v>
+                  <c:v>-121.84960469583228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-124.07009971630248</c:v>
+                  <c:v>-121.19763025409532</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-123.08142798889988</c:v>
+                  <c:v>-120.51814986952206</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-122.05055955847723</c:v>
+                  <c:v>-119.81125762246543</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-120.97784773077237</c:v>
+                  <c:v>-119.07705138870446</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-119.86366015235637</c:v>
+                  <c:v>-118.31563282589275</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-118.70837868463155</c:v>
+                  <c:v>-117.5271073594829</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-117.51239927295748</c:v>
+                  <c:v>-116.71158416812932</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-116.27613181094999</c:v>
+                  <c:v>-115.86917616857161</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-113.68444120405972</c:v>
+                  <c:v>-114.10417600790564</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-112.32990629974668</c:v>
+                  <c:v>-113.18182822741775</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-110.93685952181639</c:v>
+                  <c:v>-112.2330843661297</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-109.50577830405679</c:v>
+                  <c:v>-111.25807578641667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-108.03715311565934</c:v>
+                  <c:v>-110.25693748724748</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-106.53148729312204</c:v>
+                  <c:v>-109.22980808549258</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-104.98929686774301</c:v>
+                  <c:v>-108.17682979673131</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-103.41111038876282</c:v>
+                  <c:v>-107.09814841556084</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-101.79746874221689</c:v>
+                  <c:v>-105.99391329540958</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-100.14892496555947</c:v>
+                  <c:v>-104.86427732785779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1901,70 +1993,70 @@
             <c:numRef>
               <c:f>'Advance trajectory'!$K$32:$K$52</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-47.62792053326794</c:v>
+                  <c:v>-51.886983448827763</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-49.951517381248848</c:v>
+                  <c:v>-54.235944159449339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-52.257994529778742</c:v>
+                  <c:v>-56.577395401247486</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-54.546561488445221</c:v>
+                  <c:v>-58.911012978610273</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-56.816433905129294</c:v>
+                  <c:v>-61.236473780569128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-59.066833834823406</c:v>
+                  <c:v>-63.553455825536872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-61.296990006253715</c:v>
+                  <c:v>-65.861638305888476</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-63.506138086215103</c:v>
+                  <c:v>-68.160701632380253</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-65.693520941528021</c:v>
+                  <c:v>-70.450327478399828</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-67.858388898528361</c:v>
+                  <c:v>-72.73019882404131</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-70.000000000000014</c:v>
+                  <c:v>-75.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-72.117620259463308</c:v>
+                  <c:v>-77.259416731279231</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-74.210523912731404</c:v>
+                  <c:v>-79.508136180704852</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-76.277993666648783</c:v>
+                  <c:v>-81.745846992240729</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-78.319320944926616</c:v>
+                  <c:v>-83.972239334098361</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-80.33380613099024</c:v>
+                  <c:v>-86.187004941636317</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-82.32075880775642</c:v>
+                  <c:v>-88.389837160042191</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-84.279497994257369</c:v>
+                  <c:v>-90.580430986791768</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-86.209352379030832</c:v>
+                  <c:v>-92.758483113879748</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-88.109660550196153</c:v>
+                  <c:v>-94.92369196981511</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-89.979771222137614</c:v>
+                  <c:v>-97.075757761376607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1981,70 +2073,70 @@
             <c:numRef>
               <c:f>'Advance trajectory'!$M$32:$M$52</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>125.92085434689243</c:v>
+                  <c:v>123.54525919445554</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125.01732357372842</c:v>
+                  <c:v>122.71752876946249</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124.07095953285281</c:v>
+                  <c:v>121.88353197430089</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123.08208656812548</c:v>
+                  <c:v>121.04338428355177</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>122.05104359233296</c:v>
+                  <c:v>120.19720202344473</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120.9781839710344</c:v>
+                  <c:v>119.34510235575135</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>119.86387540145367</c:v>
+                  <c:v>118.4872032615631</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>118.70849978645992</c:v>
+                  <c:v>117.62362352495578</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>117.51245310367943</c:v>
+                  <c:v>116.7544827165427</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>116.27614526978367</c:v>
+                  <c:v>115.87990117691915</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>113.68445466289337</c:v>
+                  <c:v>114.11490101625319</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>112.32996013046863</c:v>
+                  <c:v>113.22472677583113</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>110.93698062364474</c:v>
+                  <c:v>112.32960053160257</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>109.50599355315411</c:v>
+                  <c:v>111.42964622208703</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>108.03748935592138</c:v>
+                  <c:v>110.5249884542944</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>106.53197132697777</c:v>
+                  <c:v>109.61575248647191</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>104.98995544696859</c:v>
+                  <c:v>108.70206421076099</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>103.41197020531315</c:v>
+                  <c:v>107.78405013576642</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>101.79855641907753</c:v>
+                  <c:v>106.86183736903985</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100.15026704762228</c:v>
+                  <c:v>105.93555359948068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2053,70 +2145,70 @@
             <c:numRef>
               <c:f>'Advance trajectory'!$N$32:$N$52</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>47.642377801908076</c:v>
+                  <c:v>70.074209182415203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.964543081841143</c:v>
+                  <c:v>70.611631822500328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.26958419807282</c:v>
+                  <c:v>71.139277628126919</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.556711152356797</c:v>
+                  <c:v>71.657073541845946</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.825140086101463</c:v>
+                  <c:v>72.164947870017144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.074093549018841</c:v>
+                  <c:v>72.662830292735634</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.302800765577338</c:v>
+                  <c:v>73.150651873568393</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63.510497899166715</c:v>
+                  <c:v>73.628345069099169</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.696428313885079</c:v>
+                  <c:v>74.095843738280479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67.859842833857826</c:v>
+                  <c:v>74.553083151591395</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70.000000000000014</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72.116166324133829</c:v>
+                  <c:v>75.43653240372916</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74.207616540374318</c:v>
+                  <c:v>75.862619920824187</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76.273633853697149</c:v>
+                  <c:v>76.278203555521799</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>78.313510185602979</c:v>
+                  <c:v>76.683225766418431</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80.326546416794784</c:v>
+                  <c:v>77.077630474437541</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>82.312052626784237</c:v>
+                  <c:v>77.46136307059416</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>84.269348330345778</c:v>
+                  <c:v>77.834370423556081</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>86.197762710736725</c:v>
+                  <c:v>78.196600887000315</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>88.096634849603845</c:v>
+                  <c:v>78.548004306764113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>89.965313953497443</c:v>
+                  <c:v>78.88853202778914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2133,70 +2225,70 @@
             <c:numRef>
               <c:f>'Advance trajectory'!$P$32:$P$52</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>132.69380237660101</c:v>
+                  <c:v>134.60210522499534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>133.13096541518081</c:v>
+                  <c:v>134.6776345531531</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>133.52251442748434</c:v>
+                  <c:v>134.74524152371728</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133.86831521936168</c:v>
+                  <c:v>134.80491677587665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134.1682492757819</c:v>
+                  <c:v>134.8566520470398</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>134.42221380145125</c:v>
+                  <c:v>134.90044017397929</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>134.63012175604393</c:v>
+                  <c:v>134.9362750938233</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>134.79190188403288</c:v>
+                  <c:v>134.9641518448953</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>134.90749873911111</c:v>
+                  <c:v>134.98406656740087</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>134.97687270319446</c:v>
+                  <c:v>134.99601650396224</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>134.97687270319446</c:v>
+                  <c:v>134.99601650396224</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>134.90749873911111</c:v>
+                  <c:v>134.98406656740087</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>134.79190188403288</c:v>
+                  <c:v>134.9641518448953</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>134.63012175604393</c:v>
+                  <c:v>134.9362750938233</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>134.42221380145125</c:v>
+                  <c:v>134.90044017397929</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>134.1682492757819</c:v>
+                  <c:v>134.8566520470398</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>133.86831521936168</c:v>
+                  <c:v>134.80491677587665</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>133.52251442748434</c:v>
+                  <c:v>134.74524152371728</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>133.13096541518081</c:v>
+                  <c:v>134.6776345531531</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>132.69380237660101</c:v>
+                  <c:v>134.60210522499534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2205,70 +2297,70 @@
             <c:numRef>
               <c:f>'Advance trajectory'!$Q$32:$Q$52</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-24.842980547118994</c:v>
+                  <c:v>-6.755122168683612</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-22.383012620260054</c:v>
+                  <c:v>-6.0822784288549183</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-19.915373445980478</c:v>
+                  <c:v>-5.4085925412412958</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-17.440908749159757</c:v>
+                  <c:v>-4.7341577838938296</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-14.960466593963559</c:v>
+                  <c:v>-4.0590675385515533</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-12.474897093189828</c:v>
+                  <c:v>-3.3834152777118858</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.9850521169127635</c:v>
+                  <c:v>-2.7072945516884968</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.4917850005245246</c:v>
+                  <c:v>-2.0307989756584015</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.9959502522747368</c:v>
+                  <c:v>-1.3540222167000664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.4984032604080371</c:v>
+                  <c:v>-0.67705798082434421</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4984032604080402</c:v>
+                  <c:v>0.6770579808243451</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9959502522747368</c:v>
+                  <c:v>1.3540222167000664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.4917850005245246</c:v>
+                  <c:v>2.0307989756584015</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.98505211691276</c:v>
+                  <c:v>2.7072945516884963</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.474897093189828</c:v>
+                  <c:v>3.3834152777118858</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.960466593963563</c:v>
+                  <c:v>4.0590675385515542</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.440908749159757</c:v>
+                  <c:v>4.7341577838938296</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.915373445980478</c:v>
+                  <c:v>5.4085925412412958</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.383012620260047</c:v>
+                  <c:v>6.0822784288549174</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.842980547118994</c:v>
+                  <c:v>6.755122168683612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2285,70 +2377,70 @@
             <c:numRef>
               <c:f>'Advance trajectory'!$S$32:$S$52</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>100.15026704762228</c:v>
+                  <c:v>105.93555359948068</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101.79855641907753</c:v>
+                  <c:v>106.86183736903985</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103.41197020531315</c:v>
+                  <c:v>107.78405013576642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>104.98995544696859</c:v>
+                  <c:v>108.70206421076099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>106.53197132697777</c:v>
+                  <c:v>109.61575248647191</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108.03748935592138</c:v>
+                  <c:v>110.5249884542944</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109.50599355315411</c:v>
+                  <c:v>111.42964622208703</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>110.93698062364474</c:v>
+                  <c:v>112.32960053160257</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>112.32996013046863</c:v>
+                  <c:v>113.22472677583113</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>113.68445466289337</c:v>
+                  <c:v>114.11490101625319</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>116.27614526978367</c:v>
+                  <c:v>115.87990117691916</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>117.51245310367943</c:v>
+                  <c:v>116.7544827165427</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>118.70849978645992</c:v>
+                  <c:v>117.62362352495578</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>119.86387540145367</c:v>
+                  <c:v>118.4872032615631</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>120.9781839710344</c:v>
+                  <c:v>119.34510235575135</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>122.05104359233296</c:v>
+                  <c:v>120.19720202344473</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>123.08208656812548</c:v>
+                  <c:v>121.04338428355177</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>124.07095953285281</c:v>
+                  <c:v>121.88353197430089</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>125.01732357372842</c:v>
+                  <c:v>122.71752876946249</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>125.92085434689243</c:v>
+                  <c:v>123.54525919445554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2357,70 +2449,70 @@
             <c:numRef>
               <c:f>'Advance trajectory'!$T$32:$T$52</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-89.965313953497443</c:v>
+                  <c:v>-78.88853202778914</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-88.096634849603845</c:v>
+                  <c:v>-78.548004306764113</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-86.197762710736725</c:v>
+                  <c:v>-78.196600887000315</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-84.269348330345778</c:v>
+                  <c:v>-77.834370423556081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-82.312052626784237</c:v>
+                  <c:v>-77.46136307059416</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-80.326546416794784</c:v>
+                  <c:v>-77.077630474437541</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-78.313510185602979</c:v>
+                  <c:v>-76.683225766418431</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-76.273633853697149</c:v>
+                  <c:v>-76.278203555521799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-74.207616540374318</c:v>
+                  <c:v>-75.862619920824187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-72.116166324133829</c:v>
+                  <c:v>-75.436532403729146</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-70.000000000000014</c:v>
+                  <c:v>-75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-67.859842833857826</c:v>
+                  <c:v>-74.55308315159138</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-65.696428313885079</c:v>
+                  <c:v>-74.095843738280479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-63.510497899166715</c:v>
+                  <c:v>-73.628345069099169</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-61.302800765577338</c:v>
+                  <c:v>-73.150651873568393</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-59.074093549018841</c:v>
+                  <c:v>-72.662830292735634</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-56.825140086101456</c:v>
+                  <c:v>-72.164947870017144</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-54.556711152356797</c:v>
+                  <c:v>-71.657073541845946</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-52.26958419807282</c:v>
+                  <c:v>-71.139277628126919</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-49.964543081841143</c:v>
+                  <c:v>-70.611631822500328</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-47.642377801908076</c:v>
+                  <c:v>-70.074209182415203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2440,7 +2532,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.9269916244421305E-2</c:v>
+                  <c:v>77.459666924148308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2482,37 +2574,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.9269916244421305E-2</c:v>
+                  <c:v>77.459666924148308</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9269916244421305E-2</c:v>
+                  <c:v>77.459666924148308</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9269916244421305E-2</c:v>
+                  <c:v>77.459666924148308</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-115</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9269916244421305E-2</c:v>
+                  <c:v>77.459666924148308</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9269916244421305E-2</c:v>
+                  <c:v>77.459666924148308</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9269916244421305E-2</c:v>
+                  <c:v>77.459666924148308</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>115</c:v>
@@ -2530,7 +2622,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2542,13 +2634,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-70</c:v>
+                  <c:v>-75</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2560,7 +2652,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-70</c:v>
+                  <c:v>-75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2575,11 +2667,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202566656"/>
-        <c:axId val="203240192"/>
+        <c:axId val="245588736"/>
+        <c:axId val="245590272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202566656"/>
+        <c:axId val="245588736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -2610,13 +2702,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203240192"/>
+        <c:crossAx val="245590272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203240192"/>
+        <c:axId val="245590272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -2656,7 +2748,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202566656"/>
+        <c:crossAx val="245588736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -2713,119 +2805,263 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Advance trajectory'!$V$3:$V$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-850</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-650</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-450</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-150</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Joystick smooth'!$D$3:$D$38</c:f>
+              <c:f>'Advance trajectory'!$W$3:$W$43</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>1999</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1636.6427754028862</c:v>
+                  <c:v>-1.5449255746015966</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1339.9697720252429</c:v>
+                  <c:v>-2.3867950310580737</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1097.0744605519587</c:v>
+                  <c:v>-3.6874206848136306</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>898.20859927032609</c:v>
+                  <c:v>-5.6967905202835105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>735.39100290171325</c:v>
+                  <c:v>-8.8011173679339318</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>602.08722961249202</c:v>
+                  <c:v>-13.597071306791424</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>492.94733091927139</c:v>
+                  <c:v>-21.006463201543625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>403.59113947131624</c:v>
+                  <c:v>-32.453422231992072</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>330.43247755495156</c:v>
+                  <c:v>-50.138121989548587</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>270.53523118998879</c:v>
+                  <c:v>-77.459666924148308</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>221.49551356630545</c:v>
+                  <c:v>-119.66942043123808</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>181.3451886255356</c:v>
+                  <c:v>-184.88034812197066</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>148.47288285045346</c:v>
+                  <c:v>-285.62637805487861</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>121.55931518781071</c:v>
+                  <c:v>-441.2714962378065</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>99.524349667360042</c:v>
+                  <c:v>-681.73161988049924</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>81.483645752754072</c:v>
+                  <c:v>-1053.2246145679571</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>69.435782630532387</c:v>
+                  <c:v>-1627.1536428459474</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>69.435782630532387</c:v>
+                  <c:v>-2513.8312766388558</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>81.483645752754072</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>99.524349667360042</c:v>
+                  <c:v>-3883.6822295127517</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>121.55931518781071</c:v>
+                  <c:v>3883.6822295127517</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>148.47288285045346</c:v>
+                  <c:v>2513.8312766388558</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>181.3451886255356</c:v>
+                  <c:v>1627.1536428459474</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>221.49551356630545</c:v>
+                  <c:v>1053.2246145679571</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>270.53523118998879</c:v>
+                  <c:v>681.73161988049924</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>330.43247755495156</c:v>
+                  <c:v>441.2714962378065</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>403.59113947131624</c:v>
+                  <c:v>285.62637805487861</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>492.94733091927139</c:v>
+                  <c:v>184.88034812197066</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>602.08722961249202</c:v>
+                  <c:v>119.66942043123808</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>735.39100290171325</c:v>
+                  <c:v>77.459666924148308</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>898.20859927032609</c:v>
+                  <c:v>50.138121989548587</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1097.0744605519587</c:v>
+                  <c:v>32.453422231992072</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1339.9697720252429</c:v>
+                  <c:v>21.006463201543625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1636.6427754028862</c:v>
+                  <c:v>13.597071306791424</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1999</c:v>
+                  <c:v>8.8011173679339318</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.6967905202835105</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.6874206848136306</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.3867950310580737</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5449255746015966</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2840,11 +3076,220 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="175524480"/>
-        <c:axId val="203244672"/>
+        <c:axId val="202020352"/>
+        <c:axId val="201879552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175524480"/>
+        <c:axId val="202020352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="-1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="201879552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="200"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="201879552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+          <c:min val="-10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="202020352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2000"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Joystick smooth'!$B$3:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>-999.99999999999989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-941.17647058823525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-882.35294117647049</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-823.52941176470586</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-764.7058823529411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-705.88235294117646</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-647.05882352941171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-588.23529411764707</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-529.41176470588232</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-470.58823529411762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-411.76470588235293</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-352.94117647058823</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-294.11764705882354</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-235.29411764705881</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-176.47058823529412</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-117.64705882352941</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-58.823529411764703</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-11.76470588235294</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.76470588235294</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58.823529411764703</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>117.64705882352941</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>176.47058823529412</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>235.29411764705881</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>294.11764705882354</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>352.94117647058823</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>411.76470588235293</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>470.58823529411762</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>529.41176470588232</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>588.23529411764707</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>647.05882352941171</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>705.88235294117646</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>764.7058823529411</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>823.52941176470586</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>882.35294117647049</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>941.17647058823525</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>999.99999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="139575680"/>
+        <c:axId val="139583872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="139575680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2853,25 +3298,28 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203244672"/>
+        <c:crossAx val="139583872"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="203244672"/>
+        <c:axId val="139583872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175524480"/>
+        <c:crossAx val="139575680"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2899,7 +3347,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>764687</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>94014</xdr:rowOff>
+      <xdr:rowOff>82808</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2920,6 +3368,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>40340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2927,23 +3405,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3265,24 +3741,24 @@
       <c r="C2" s="2">
         <v>45</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="100" t="s">
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="100"/>
-      <c r="J2" s="101" t="s">
+      <c r="I2" s="80"/>
+      <c r="J2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102" t="s">
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="102"/>
+      <c r="N2" s="82"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -3385,19 +3861,19 @@
       <c r="C6" s="4">
         <v>84</v>
       </c>
-      <c r="E6" s="100" t="s">
+      <c r="E6" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
       <c r="P6" s="23"/>
       <c r="Q6" s="23"/>
       <c r="R6" s="23"/>
@@ -3409,10 +3885,10 @@
       <c r="C7" s="25">
         <v>141</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="96"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="6" t="s">
         <v>19</v>
       </c>
@@ -3428,14 +3904,14 @@
       <c r="K7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="97" t="s">
+      <c r="L7" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="97"/>
-      <c r="N7" s="98" t="s">
+      <c r="M7" s="77"/>
+      <c r="N7" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="98"/>
+      <c r="O7" s="78"/>
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
@@ -3560,9 +4036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3576,6 +4050,7 @@
     <col min="12" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3597,15 +4072,19 @@
       <c r="AA1" s="59"/>
       <c r="AB1" s="59"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="140" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="144">
-        <v>1.9990000000000001</v>
-      </c>
-      <c r="E2" s="145"/>
+    <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="89">
+        <v>500</v>
+      </c>
+      <c r="E2" s="90"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
       <c r="O2" s="59"/>
       <c r="P2" s="59"/>
       <c r="Q2" s="59"/>
@@ -3613,23 +4092,30 @@
       <c r="S2" s="59"/>
       <c r="T2" s="59"/>
       <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
+      <c r="V2" s="148" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" s="149"/>
+      <c r="X2" s="151" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="75">
+        <v>6000</v>
+      </c>
       <c r="AA2" s="59"/>
       <c r="AB2" s="59"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="146">
+      <c r="B3" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="88"/>
+      <c r="D3" s="91">
         <v>50</v>
       </c>
-      <c r="E3" s="147"/>
+      <c r="E3" s="92"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
       <c r="O3" s="59"/>
       <c r="P3" s="59"/>
       <c r="Q3" s="59"/>
@@ -3637,10 +4123,20 @@
       <c r="S3" s="59"/>
       <c r="T3" s="59"/>
       <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
+      <c r="V3" s="146">
+        <v>-1000</v>
+      </c>
+      <c r="W3" s="147">
+        <f>EXP((1000 - ABS(V3)) / $Y$3) * (V3 / ABS(V3))</f>
+        <v>-1</v>
+      </c>
+      <c r="X3" s="152" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y3" s="150">
+        <f>V43 / LN(Y2)</f>
+        <v>114.94894013551004</v>
+      </c>
       <c r="Z3" s="59"/>
       <c r="AA3" s="59"/>
       <c r="AB3" s="59"/>
@@ -3653,8 +4149,13 @@
       <c r="S4" s="59"/>
       <c r="T4" s="59"/>
       <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
+      <c r="V4" s="144">
+        <v>-950</v>
+      </c>
+      <c r="W4" s="147">
+        <f t="shared" ref="W4:W43" si="0">EXP((1000 - ABS(V4)) / $Y$3) * (V4 / ABS(V4))</f>
+        <v>-1.5449255746015966</v>
+      </c>
       <c r="X4" s="59"/>
       <c r="Y4" s="59"/>
       <c r="Z4" s="59"/>
@@ -3662,20 +4163,20 @@
       <c r="AB4" s="59"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="152" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="153"/>
-      <c r="L5" s="153"/>
-      <c r="M5" s="154"/>
+      <c r="B5" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="99"/>
       <c r="N5" s="54"/>
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
@@ -3684,8 +4185,13 @@
       <c r="S5" s="59"/>
       <c r="T5" s="59"/>
       <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
+      <c r="V5" s="144">
+        <v>-900</v>
+      </c>
+      <c r="W5" s="147">
+        <f t="shared" si="0"/>
+        <v>-2.3867950310580737</v>
+      </c>
       <c r="X5" s="59"/>
       <c r="Y5" s="59"/>
       <c r="Z5" s="59"/>
@@ -3693,30 +4199,30 @@
       <c r="AB5" s="59"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B6" s="158" t="s">
+      <c r="B6" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="104"/>
+      <c r="D6" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="159"/>
-      <c r="D6" s="158" t="s">
+      <c r="E6" s="104"/>
+      <c r="F6" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="159"/>
-      <c r="F6" s="158" t="s">
+      <c r="G6" s="104"/>
+      <c r="H6" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="159"/>
-      <c r="H6" s="158" t="s">
+      <c r="I6" s="104"/>
+      <c r="J6" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="159"/>
-      <c r="J6" s="158" t="s">
+      <c r="K6" s="104"/>
+      <c r="L6" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="159"/>
-      <c r="L6" s="158" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="159"/>
+      <c r="M6" s="104"/>
       <c r="O6" s="59"/>
       <c r="P6" s="59"/>
       <c r="Q6" s="59"/>
@@ -3724,8 +4230,13 @@
       <c r="S6" s="59"/>
       <c r="T6" s="59"/>
       <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
+      <c r="V6" s="144">
+        <v>-850</v>
+      </c>
+      <c r="W6" s="147">
+        <f t="shared" si="0"/>
+        <v>-3.6874206848136306</v>
+      </c>
       <c r="X6" s="59"/>
       <c r="Y6" s="59"/>
       <c r="Z6" s="59"/>
@@ -3776,8 +4287,13 @@
       <c r="S7" s="58"/>
       <c r="T7" s="47"/>
       <c r="U7" s="58"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="58"/>
+      <c r="V7" s="144">
+        <v>-800</v>
+      </c>
+      <c r="W7" s="147">
+        <f t="shared" si="0"/>
+        <v>-5.6967905202835105</v>
+      </c>
       <c r="X7" s="47"/>
       <c r="Y7" s="58"/>
       <c r="Z7" s="47"/>
@@ -3828,8 +4344,13 @@
       <c r="S8" s="58"/>
       <c r="T8" s="47"/>
       <c r="U8" s="58"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="58"/>
+      <c r="V8" s="144">
+        <v>-750</v>
+      </c>
+      <c r="W8" s="147">
+        <f t="shared" si="0"/>
+        <v>-8.8011173679339318</v>
+      </c>
       <c r="X8" s="47"/>
       <c r="Y8" s="58"/>
       <c r="Z8" s="47"/>
@@ -3841,7 +4362,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="50">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D9" s="56" t="s">
         <v>36</v>
@@ -3853,13 +4374,13 @@
         <v>36</v>
       </c>
       <c r="G9" s="50">
-        <v>-70</v>
+        <v>-75</v>
       </c>
       <c r="H9" s="56" t="s">
         <v>36</v>
       </c>
       <c r="I9" s="50">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J9" s="56" t="s">
         <v>36</v>
@@ -3871,7 +4392,7 @@
         <v>36</v>
       </c>
       <c r="M9" s="50">
-        <v>-70</v>
+        <v>-75</v>
       </c>
       <c r="O9" s="59"/>
       <c r="P9" s="47"/>
@@ -3880,8 +4401,13 @@
       <c r="S9" s="58"/>
       <c r="T9" s="47"/>
       <c r="U9" s="58"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="58"/>
+      <c r="V9" s="144">
+        <v>-700</v>
+      </c>
+      <c r="W9" s="147">
+        <f t="shared" si="0"/>
+        <v>-13.597071306791424</v>
+      </c>
       <c r="X9" s="47"/>
       <c r="Y9" s="58"/>
       <c r="Z9" s="47"/>
@@ -3897,8 +4423,13 @@
       <c r="S10" s="59"/>
       <c r="T10" s="59"/>
       <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
+      <c r="V10" s="144">
+        <v>-650</v>
+      </c>
+      <c r="W10" s="147">
+        <f t="shared" si="0"/>
+        <v>-21.006463201543625</v>
+      </c>
       <c r="X10" s="59"/>
       <c r="Y10" s="59"/>
       <c r="Z10" s="59"/>
@@ -3906,20 +4437,20 @@
       <c r="AB10" s="59"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="155" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="157"/>
+      <c r="B11" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="102"/>
       <c r="O11" s="59"/>
       <c r="P11" s="59"/>
       <c r="Q11" s="59"/>
@@ -3927,8 +4458,13 @@
       <c r="S11" s="59"/>
       <c r="T11" s="59"/>
       <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
+      <c r="V11" s="144">
+        <v>-600</v>
+      </c>
+      <c r="W11" s="147">
+        <f t="shared" si="0"/>
+        <v>-32.453422231992072</v>
+      </c>
       <c r="X11" s="59"/>
       <c r="Y11" s="59"/>
       <c r="Z11" s="59"/>
@@ -3936,25 +4472,25 @@
       <c r="AB11" s="59"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B12" s="148" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="150">
-        <f>TAN((2 - D2) * PI() / 4) * ABS(D3)</f>
-        <v>3.9269916244421305E-2</v>
-      </c>
-      <c r="F12" s="151"/>
-      <c r="G12" s="160" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="161"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="162"/>
+      <c r="B12" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="95">
+        <f>EXP((1000 - ABS(D2)) / $Y$3) * (D2 / ABS(D2))</f>
+        <v>77.459666924148308</v>
+      </c>
+      <c r="F12" s="96"/>
+      <c r="G12" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="107"/>
       <c r="O12" s="59"/>
       <c r="P12" s="59"/>
       <c r="Q12" s="59"/>
@@ -3962,8 +4498,13 @@
       <c r="S12" s="59"/>
       <c r="T12" s="59"/>
       <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
+      <c r="V12" s="144">
+        <v>-550</v>
+      </c>
+      <c r="W12" s="147">
+        <f t="shared" si="0"/>
+        <v>-50.138121989548587</v>
+      </c>
       <c r="X12" s="59"/>
       <c r="Y12" s="59"/>
       <c r="Z12" s="59"/>
@@ -3971,25 +4512,25 @@
       <c r="AB12" s="59"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="115" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="136">
+      <c r="B13" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="116">
         <f>SQRT((E12-C7)^2+C9^2)</f>
-        <v>134.66266603206154</v>
-      </c>
-      <c r="F13" s="137"/>
-      <c r="G13" s="133" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="135"/>
+        <v>206.55682848202841</v>
+      </c>
+      <c r="F13" s="117"/>
+      <c r="G13" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="115"/>
       <c r="O13" s="59"/>
       <c r="P13" s="59"/>
       <c r="Q13" s="59"/>
@@ -3997,8 +4538,13 @@
       <c r="S13" s="59"/>
       <c r="T13" s="59"/>
       <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
+      <c r="V13" s="144">
+        <v>-500</v>
+      </c>
+      <c r="W13" s="147">
+        <f t="shared" si="0"/>
+        <v>-77.459666924148308</v>
+      </c>
       <c r="X13" s="59"/>
       <c r="Y13" s="59"/>
       <c r="Z13" s="59"/>
@@ -4006,23 +4552,23 @@
       <c r="AB13" s="59"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="115" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="136">
+      <c r="B14" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="116">
         <f>SQRT((E12-E7)^2+E9^2)</f>
-        <v>135.03926991624442</v>
-      </c>
-      <c r="F14" s="137"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="135"/>
+        <v>212.45966692414831</v>
+      </c>
+      <c r="F14" s="117"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="115"/>
       <c r="O14" s="59"/>
       <c r="P14" s="59"/>
       <c r="Q14" s="59"/>
@@ -4030,8 +4576,13 @@
       <c r="S14" s="59"/>
       <c r="T14" s="59"/>
       <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
+      <c r="V14" s="144">
+        <v>-450</v>
+      </c>
+      <c r="W14" s="147">
+        <f t="shared" si="0"/>
+        <v>-119.66942043123808</v>
+      </c>
       <c r="X14" s="59"/>
       <c r="Y14" s="59"/>
       <c r="Z14" s="59"/>
@@ -4039,23 +4590,23 @@
       <c r="AB14" s="59"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B15" s="115" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="136">
+      <c r="B15" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="116">
         <f>SQRT((E12-G7)^2+G9^2)</f>
-        <v>134.66266603206154</v>
-      </c>
-      <c r="F15" s="137"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="135"/>
+        <v>206.55682848202841</v>
+      </c>
+      <c r="F15" s="117"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="115"/>
       <c r="O15" s="59"/>
       <c r="P15" s="59"/>
       <c r="Q15" s="59"/>
@@ -4063,8 +4614,13 @@
       <c r="S15" s="59"/>
       <c r="T15" s="59"/>
       <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
+      <c r="V15" s="144">
+        <v>-400</v>
+      </c>
+      <c r="W15" s="147">
+        <f t="shared" si="0"/>
+        <v>-184.88034812197066</v>
+      </c>
       <c r="X15" s="59"/>
       <c r="Y15" s="59"/>
       <c r="Z15" s="59"/>
@@ -4072,301 +4628,407 @@
       <c r="AB15" s="59"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="116">
+        <f>SQRT((E12-I7)^2+I9^2)</f>
+        <v>83.870594414525797</v>
+      </c>
+      <c r="F16" s="117"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="115"/>
+      <c r="V16" s="144">
+        <v>-350</v>
+      </c>
+      <c r="W16" s="147">
+        <f t="shared" si="0"/>
+        <v>-285.62637805487861</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="116">
+        <f>SQRT((E12-K7)^2+K9^2)</f>
+        <v>57.540333075851692</v>
+      </c>
+      <c r="F17" s="117"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="115"/>
+      <c r="V17" s="144">
+        <v>-300</v>
+      </c>
+      <c r="W17" s="147">
+        <f t="shared" si="0"/>
+        <v>-441.2714962378065</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="136">
-        <f>SQRT((E12-I7)^2+I9^2)</f>
-        <v>134.59557742136295</v>
-      </c>
-      <c r="F16" s="137"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="135"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="115" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="136">
-        <f>SQRT((E12-K7)^2+K9^2)</f>
-        <v>134.96073008375558</v>
-      </c>
-      <c r="F17" s="137"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="135"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="115" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="136">
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="116">
         <f>SQRT((E12-M7)^2+M9^2)</f>
-        <v>134.59557742136295</v>
-      </c>
-      <c r="F18" s="137"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="135"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
+        <v>83.870594414525797</v>
+      </c>
+      <c r="F18" s="117"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="115"/>
+      <c r="V18" s="144">
+        <v>-250</v>
+      </c>
+      <c r="W18" s="147">
+        <f t="shared" si="0"/>
+        <v>-681.73161988049924</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
       <c r="E19" s="48">
         <f>ATAN2(-(E12-C7), C9)</f>
-        <v>2.5949554380450901</v>
+        <v>2.7700039117877941</v>
       </c>
       <c r="F19" s="57">
-        <f t="shared" ref="F19:F24" si="0">DEGREES(E19)</f>
-        <v>148.67999462450544</v>
-      </c>
-      <c r="G19" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="107"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="115" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
+        <f t="shared" ref="F19:F24" si="1">DEGREES(E19)</f>
+        <v>158.70953338016898</v>
+      </c>
+      <c r="G19" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="124"/>
+      <c r="V19" s="144">
+        <v>-200</v>
+      </c>
+      <c r="W19" s="147">
+        <f t="shared" si="0"/>
+        <v>-1053.2246145679571</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
       <c r="E20" s="48">
         <f>ATAN2(-(E12-E7), E9)</f>
         <v>3.1415926535897931</v>
       </c>
       <c r="F20" s="57">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="G20" s="125"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="127"/>
+      <c r="V20" s="144">
+        <v>-150</v>
+      </c>
+      <c r="W20" s="147">
         <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="G20" s="108"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="110"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="115" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
+        <v>-1627.1536428459474</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
       <c r="E21" s="48">
         <f>ATAN2(-(E12-G7), G9)</f>
-        <v>-2.5949554380450901</v>
+        <v>-2.7700039117877941</v>
       </c>
       <c r="F21" s="57">
+        <f t="shared" si="1"/>
+        <v>-158.70953338016898</v>
+      </c>
+      <c r="G21" s="125"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="127"/>
+      <c r="V21" s="144">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="147">
         <f t="shared" si="0"/>
-        <v>-148.67999462450544</v>
-      </c>
-      <c r="G21" s="108"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="110"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="115" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
+        <v>-2513.8312766388558</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
       <c r="E22" s="48">
         <f>ATAN2(-(E12-I7), I9)</f>
-        <v>0.5469405418108203</v>
+        <v>1.1067185908693606</v>
       </c>
       <c r="F22" s="57">
+        <f t="shared" si="1"/>
+        <v>63.410304365480052</v>
+      </c>
+      <c r="G22" s="125"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="127"/>
+      <c r="V22" s="144">
+        <v>-50</v>
+      </c>
+      <c r="W22" s="147">
         <f t="shared" si="0"/>
-        <v>31.337384690358544</v>
-      </c>
-      <c r="G22" s="108"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="110"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="115" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
+        <v>-3883.6822295127517</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
       <c r="E23" s="48">
         <f>ATAN2(-(E12-K7), K9)</f>
         <v>0</v>
       </c>
       <c r="F23" s="57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="110"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="115" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="127"/>
+      <c r="V23" s="144">
+        <v>0</v>
+      </c>
+      <c r="W23" s="147"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
       <c r="E24" s="48">
         <f>ATAN2(-(E12-M7), M9)</f>
-        <v>-0.5469405418108203</v>
+        <v>-1.1067185908693606</v>
       </c>
       <c r="F24" s="57">
+        <f t="shared" si="1"/>
+        <v>-63.410304365480052</v>
+      </c>
+      <c r="G24" s="128"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="129"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="130"/>
+      <c r="V24" s="144">
+        <v>50</v>
+      </c>
+      <c r="W24" s="147">
         <f t="shared" si="0"/>
-        <v>-31.337384690358544</v>
-      </c>
-      <c r="G24" s="111"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="112"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="113"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="138" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="123">
+        <v>3883.6822295127517</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="118" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="138">
         <f>MAX(E13:F18)</f>
-        <v>135.03926991624442</v>
-      </c>
-      <c r="F25" s="124"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="127"/>
-    </row>
-    <row r="26" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="128" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="74">
+        <v>212.45966692414831</v>
+      </c>
+      <c r="F25" s="139"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="142"/>
+      <c r="V25" s="144">
+        <v>100</v>
+      </c>
+      <c r="W25" s="147">
+        <f t="shared" si="0"/>
+        <v>2513.8312766388558</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="68">
         <f>SIGN(E12) * D3 / E25</f>
-        <v>0.37026266530477814</v>
-      </c>
-      <c r="F26" s="75">
+        <v>0.23533878558630539</v>
+      </c>
+      <c r="F26" s="69">
         <f>ABS(E26)</f>
-        <v>0.37026266530477814</v>
-      </c>
-      <c r="G26" s="130" t="s">
+        <v>0.23533878558630539</v>
+      </c>
+      <c r="G26" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="112"/>
+      <c r="V26" s="144">
+        <v>150</v>
+      </c>
+      <c r="W26" s="147">
+        <f t="shared" si="0"/>
+        <v>1627.1536428459474</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V27" s="144">
+        <v>200</v>
+      </c>
+      <c r="W27" s="147">
+        <f t="shared" si="0"/>
+        <v>1053.2246145679571</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V28" s="144">
+        <v>250</v>
+      </c>
+      <c r="W28" s="147">
+        <f t="shared" si="0"/>
+        <v>681.73161988049924</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="131" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="131"/>
+      <c r="O29" s="131"/>
+      <c r="P29" s="131"/>
+      <c r="Q29" s="131"/>
+      <c r="R29" s="131"/>
+      <c r="S29" s="131"/>
+      <c r="T29" s="131"/>
+      <c r="V29" s="144">
+        <v>300</v>
+      </c>
+      <c r="W29" s="147">
+        <f t="shared" si="0"/>
+        <v>441.2714962378065</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B30" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="135" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="136"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="132"/>
-    </row>
-    <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="114" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="114"/>
-      <c r="R29" s="114"/>
-      <c r="S29" s="114"/>
-      <c r="T29" s="114"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="120" t="s">
+      <c r="G30" s="133"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="121"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="117" t="s">
+      <c r="J30" s="136"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="118"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="120" t="s">
+      <c r="M30" s="133"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="J30" s="121"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="117" t="s">
+      <c r="P30" s="136"/>
+      <c r="Q30" s="137"/>
+      <c r="R30" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="M30" s="118"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="S30" s="118"/>
-      <c r="T30" s="119"/>
-    </row>
-    <row r="31" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="104"/>
+      <c r="S30" s="133"/>
+      <c r="T30" s="134"/>
+      <c r="V30" s="144">
+        <v>350</v>
+      </c>
+      <c r="W30" s="147">
+        <f t="shared" si="0"/>
+        <v>285.62637805487861</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="121"/>
       <c r="C31" s="62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" s="63" t="s">
         <v>32</v>
@@ -4374,17 +5036,17 @@
       <c r="E31" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" s="69" t="s">
+      <c r="F31" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="70" t="s">
+      <c r="H31" s="67" t="s">
         <v>35</v>
       </c>
       <c r="I31" s="62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J31" s="63" t="s">
         <v>32</v>
@@ -4392,17 +5054,17 @@
       <c r="K31" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="L31" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="M31" s="69" t="s">
+      <c r="L31" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="M31" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="N31" s="70" t="s">
+      <c r="N31" s="67" t="s">
         <v>35</v>
       </c>
       <c r="O31" s="62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P31" s="63" t="s">
         <v>32</v>
@@ -4410,1635 +5072,1761 @@
       <c r="Q31" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="R31" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="S31" s="69" t="s">
+      <c r="R31" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="S31" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="T31" s="70" t="s">
+      <c r="T31" s="67" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="80">
+      <c r="V31" s="144">
+        <v>400</v>
+      </c>
+      <c r="W31" s="147">
+        <f t="shared" si="0"/>
+        <v>184.88034812197066</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B32" s="71">
         <v>0</v>
       </c>
-      <c r="C32" s="81">
+      <c r="C32" s="154">
         <f>($B32-0.5) * $E$26 + $E$19</f>
-        <v>2.4098241053927012</v>
-      </c>
-      <c r="D32" s="82">
+        <v>2.6523345189946417</v>
+      </c>
+      <c r="D32" s="155">
         <f>$E$12+$E$13*COS(C32)</f>
-        <v>-100.14892496555947</v>
-      </c>
-      <c r="E32" s="83">
+        <v>-104.86427732785779</v>
+      </c>
+      <c r="E32" s="156">
         <f>$E$13*SIN(C32)</f>
-        <v>89.979771222137614</v>
-      </c>
-      <c r="F32" s="84">
+        <v>97.075757761376607</v>
+      </c>
+      <c r="F32" s="157">
         <f>($B32 - 0.5) * $E$26 + $E$20</f>
-        <v>2.9564613209374042</v>
-      </c>
-      <c r="G32" s="85">
+        <v>3.0239232607966402</v>
+      </c>
+      <c r="G32" s="158">
         <f>$E$12+$E$14*COS(F32)</f>
-        <v>-132.69246029453819</v>
-      </c>
-      <c r="H32" s="86">
+        <v>-133.53082895337246</v>
+      </c>
+      <c r="H32" s="159">
         <f>$E$14*SIN(F32)</f>
-        <v>24.857437815759159</v>
-      </c>
-      <c r="I32" s="81">
+        <v>24.942347902271187</v>
+      </c>
+      <c r="I32" s="154">
         <f>($B32 - 0.5) * $E$26 + $E$21</f>
-        <v>-2.780086770697479</v>
-      </c>
-      <c r="J32" s="82">
+        <v>-2.8876733045809466</v>
+      </c>
+      <c r="J32" s="155">
         <f>$E$12+$E$15*COS(I32)</f>
-        <v>-125.91951226482961</v>
-      </c>
-      <c r="K32" s="83">
+        <v>-122.47398292283262</v>
+      </c>
+      <c r="K32" s="156">
         <f>$E$15*SIN(I32)</f>
-        <v>-47.62792053326794</v>
-      </c>
-      <c r="L32" s="84">
+        <v>-51.886983448827763</v>
+      </c>
+      <c r="L32" s="157">
         <f xml:space="preserve"> ($B32 - 0.5) * $E$26 + $E$22</f>
-        <v>0.36180920915843123</v>
-      </c>
-      <c r="M32" s="85">
+        <v>0.98904919807620795</v>
+      </c>
+      <c r="M32" s="158">
         <f>$E$12+$E$16*COS(L32)</f>
-        <v>125.92085434689243</v>
-      </c>
-      <c r="N32" s="86">
+        <v>123.54525919445554</v>
+      </c>
+      <c r="N32" s="159">
         <f>$E$16*SIN(L32)</f>
-        <v>47.642377801908076</v>
-      </c>
-      <c r="O32" s="81">
+        <v>70.074209182415203</v>
+      </c>
+      <c r="O32" s="154">
         <f>($B32 - 0.5) * $E$26 + $E$23</f>
-        <v>-0.18513133265238907</v>
-      </c>
-      <c r="P32" s="82">
+        <v>-0.11766939279315269</v>
+      </c>
+      <c r="P32" s="155">
         <f>$E$12+$E$17*COS(O32)</f>
-        <v>132.69380237660101</v>
-      </c>
-      <c r="Q32" s="83">
+        <v>134.60210522499534</v>
+      </c>
+      <c r="Q32" s="156">
         <f>$E$17*SIN(O32)</f>
-        <v>-24.842980547118994</v>
-      </c>
-      <c r="R32" s="84">
+        <v>-6.755122168683612</v>
+      </c>
+      <c r="R32" s="157">
         <f>($B32 - 0.5) * $E$26 + $E$24</f>
-        <v>-0.73207187446320932</v>
-      </c>
-      <c r="S32" s="85">
+        <v>-1.2243879836625133</v>
+      </c>
+      <c r="S32" s="158">
         <f>$E$12+$E$18*COS(R32)</f>
-        <v>100.15026704762228</v>
-      </c>
-      <c r="T32" s="86">
+        <v>105.93555359948068</v>
+      </c>
+      <c r="T32" s="159">
         <f>$E$18*SIN(R32)</f>
-        <v>-89.965313953497443</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+        <v>-78.88853202778914</v>
+      </c>
+      <c r="V32" s="144">
+        <v>450</v>
+      </c>
+      <c r="W32" s="147">
+        <f t="shared" si="0"/>
+        <v>119.66942043123808</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="61">
         <v>0.05</v>
       </c>
-      <c r="C33" s="65">
-        <f t="shared" ref="C33:C52" si="1">($B33-0.5) * $E$26 + $E$19</f>
-        <v>2.42833723865794</v>
-      </c>
-      <c r="D33" s="66">
-        <f t="shared" ref="D33:D52" si="2">$E$12+$E$13*COS(C33)</f>
-        <v>-101.79746874221689</v>
-      </c>
-      <c r="E33" s="67">
-        <f t="shared" ref="E33:E52" si="3">$E$13*SIN(C33)</f>
-        <v>88.109660550196153</v>
-      </c>
-      <c r="F33" s="71">
-        <f t="shared" ref="F33:F52" si="4">($B33 - 0.5) * $E$26 + $E$20</f>
-        <v>2.9749744542026431</v>
-      </c>
-      <c r="G33" s="72">
-        <f t="shared" ref="G33:G52" si="5">$E$12+$E$14*COS(F33)</f>
-        <v>-133.12987773832018</v>
-      </c>
-      <c r="H33" s="73">
-        <f t="shared" ref="H33:H52" si="6">$E$14*SIN(F33)</f>
-        <v>22.396038320852366</v>
-      </c>
-      <c r="I33" s="65">
-        <f t="shared" ref="I33:I52" si="7">($B33 - 0.5) * $E$26 + $E$21</f>
-        <v>-2.7615736374322402</v>
-      </c>
-      <c r="J33" s="66">
-        <f t="shared" ref="J33:J52" si="8">$E$12+$E$15*COS(I33)</f>
-        <v>-125.01623589686776</v>
-      </c>
-      <c r="K33" s="67">
-        <f t="shared" ref="K33:K52" si="9">$E$15*SIN(I33)</f>
-        <v>-49.951517381248848</v>
-      </c>
-      <c r="L33" s="71">
-        <f t="shared" ref="L33:L52" si="10" xml:space="preserve"> ($B33 - 0.5) * $E$26 + $E$22</f>
-        <v>0.38032234242367013</v>
-      </c>
-      <c r="M33" s="72">
-        <f t="shared" ref="M33:M52" si="11">$E$12+$E$16*COS(L33)</f>
-        <v>125.01732357372842</v>
-      </c>
-      <c r="N33" s="73">
-        <f t="shared" ref="N33:N52" si="12">$E$16*SIN(L33)</f>
-        <v>49.964543081841143</v>
-      </c>
-      <c r="O33" s="65">
-        <f t="shared" ref="O33:O52" si="13">($B33 - 0.5) * $E$26 + $E$23</f>
-        <v>-0.16661819938715017</v>
-      </c>
-      <c r="P33" s="66">
-        <f t="shared" ref="P33:P52" si="14">$E$12+$E$17*COS(O33)</f>
-        <v>133.13096541518081</v>
-      </c>
-      <c r="Q33" s="67">
-        <f t="shared" ref="Q33:Q52" si="15">$E$17*SIN(O33)</f>
-        <v>-22.383012620260054</v>
-      </c>
-      <c r="R33" s="71">
-        <f t="shared" ref="R33:R52" si="16">($B33 - 0.5) * $E$26 + $E$24</f>
-        <v>-0.71355874119797047</v>
-      </c>
-      <c r="S33" s="72">
-        <f t="shared" ref="S33:S52" si="17">$E$12+$E$18*COS(R33)</f>
-        <v>101.79855641907753</v>
-      </c>
-      <c r="T33" s="73">
-        <f t="shared" ref="T33:T52" si="18">$E$18*SIN(R33)</f>
-        <v>-88.096634849603845</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C33" s="160">
+        <f t="shared" ref="C33:C52" si="2">($B33-0.5) * $E$26 + $E$19</f>
+        <v>2.6641014582739566</v>
+      </c>
+      <c r="D33" s="161">
+        <f t="shared" ref="D33:D52" si="3">$E$12+$E$13*COS(C33)</f>
+        <v>-105.99391329540958</v>
+      </c>
+      <c r="E33" s="162">
+        <f t="shared" ref="E33:E52" si="4">$E$13*SIN(C33)</f>
+        <v>94.92369196981511</v>
+      </c>
+      <c r="F33" s="163">
+        <f t="shared" ref="F33:F52" si="5">($B33 - 0.5) * $E$26 + $E$20</f>
+        <v>3.0356902000759556</v>
+      </c>
+      <c r="G33" s="164">
+        <f t="shared" ref="G33:G52" si="6">$E$12+$E$14*COS(F33)</f>
+        <v>-133.80971047952286</v>
+      </c>
+      <c r="H33" s="165">
+        <f t="shared" ref="H33:H52" si="7">$E$14*SIN(F33)</f>
+        <v>22.457966091905934</v>
+      </c>
+      <c r="I33" s="160">
+        <f t="shared" ref="I33:I52" si="8">($B33 - 0.5) * $E$26 + $E$21</f>
+        <v>-2.8759063653016317</v>
+      </c>
+      <c r="J33" s="161">
+        <f t="shared" ref="J33:J52" si="9">$E$12+$E$15*COS(I33)</f>
+        <v>-121.84960469583228</v>
+      </c>
+      <c r="K33" s="162">
+        <f t="shared" ref="K33:K52" si="10">$E$15*SIN(I33)</f>
+        <v>-54.235944159449339</v>
+      </c>
+      <c r="L33" s="163">
+        <f t="shared" ref="L33:L52" si="11" xml:space="preserve"> ($B33 - 0.5) * $E$26 + $E$22</f>
+        <v>1.0008161373555233</v>
+      </c>
+      <c r="M33" s="164">
+        <f t="shared" ref="M33:M52" si="12">$E$12+$E$16*COS(L33)</f>
+        <v>122.71752876946249</v>
+      </c>
+      <c r="N33" s="165">
+        <f t="shared" ref="N33:N52" si="13">$E$16*SIN(L33)</f>
+        <v>70.611631822500328</v>
+      </c>
+      <c r="O33" s="160">
+        <f t="shared" ref="O33:O52" si="14">($B33 - 0.5) * $E$26 + $E$23</f>
+        <v>-0.10590245351383742</v>
+      </c>
+      <c r="P33" s="161">
+        <f t="shared" ref="P33:P52" si="15">$E$12+$E$17*COS(O33)</f>
+        <v>134.6776345531531</v>
+      </c>
+      <c r="Q33" s="162">
+        <f t="shared" ref="Q33:Q52" si="16">$E$17*SIN(O33)</f>
+        <v>-6.0822784288549183</v>
+      </c>
+      <c r="R33" s="163">
+        <f t="shared" ref="R33:R52" si="17">($B33 - 0.5) * $E$26 + $E$24</f>
+        <v>-1.212621044383198</v>
+      </c>
+      <c r="S33" s="164">
+        <f t="shared" ref="S33:S52" si="18">$E$12+$E$18*COS(R33)</f>
+        <v>106.86183736903985</v>
+      </c>
+      <c r="T33" s="165">
+        <f t="shared" ref="T33:T52" si="19">$E$18*SIN(R33)</f>
+        <v>-78.548004306764113</v>
+      </c>
+      <c r="V33" s="144">
+        <v>500</v>
+      </c>
+      <c r="W33" s="147">
+        <f t="shared" si="0"/>
+        <v>77.459666924148308</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="60">
         <v>0.1</v>
       </c>
-      <c r="C34" s="65">
-        <f t="shared" si="1"/>
-        <v>2.4468503719231789</v>
-      </c>
-      <c r="D34" s="66">
+      <c r="C34" s="160">
         <f t="shared" si="2"/>
-        <v>-103.41111038876282</v>
-      </c>
-      <c r="E34" s="67">
+        <v>2.675868397553272</v>
+      </c>
+      <c r="D34" s="161">
         <f t="shared" si="3"/>
-        <v>86.209352379030832</v>
-      </c>
-      <c r="F34" s="71">
+        <v>-107.09814841556084</v>
+      </c>
+      <c r="E34" s="162">
         <f t="shared" si="4"/>
-        <v>2.9934875874678819</v>
-      </c>
-      <c r="G34" s="72">
+        <v>92.758483113879748</v>
+      </c>
+      <c r="F34" s="163">
         <f t="shared" si="5"/>
-        <v>-133.52165461093401</v>
-      </c>
-      <c r="H34" s="73">
+        <v>3.047457139355271</v>
+      </c>
+      <c r="G34" s="164">
         <f t="shared" si="6"/>
-        <v>19.926963114274585</v>
-      </c>
-      <c r="I34" s="65">
+        <v>-134.05933980351173</v>
+      </c>
+      <c r="H34" s="165">
         <f t="shared" si="7"/>
-        <v>-2.7430605041670013</v>
-      </c>
-      <c r="J34" s="66">
+        <v>19.970474768120752</v>
+      </c>
+      <c r="I34" s="160">
         <f t="shared" si="8"/>
-        <v>-124.07009971630248</v>
-      </c>
-      <c r="K34" s="67">
+        <v>-2.8641394260223163</v>
+      </c>
+      <c r="J34" s="161">
         <f t="shared" si="9"/>
-        <v>-52.257994529778742</v>
-      </c>
-      <c r="L34" s="71">
+        <v>-121.19763025409532</v>
+      </c>
+      <c r="K34" s="162">
         <f t="shared" si="10"/>
-        <v>0.39883547568890904</v>
-      </c>
-      <c r="M34" s="72">
+        <v>-56.577395401247486</v>
+      </c>
+      <c r="L34" s="163">
         <f t="shared" si="11"/>
-        <v>124.07095953285281</v>
-      </c>
-      <c r="N34" s="73">
+        <v>1.0125830766348385</v>
+      </c>
+      <c r="M34" s="164">
         <f t="shared" si="12"/>
-        <v>52.26958419807282</v>
-      </c>
-      <c r="O34" s="65">
+        <v>121.88353197430089</v>
+      </c>
+      <c r="N34" s="165">
         <f t="shared" si="13"/>
-        <v>-0.14810506612191127</v>
-      </c>
-      <c r="P34" s="66">
+        <v>71.139277628126919</v>
+      </c>
+      <c r="O34" s="160">
         <f t="shared" si="14"/>
-        <v>133.52251442748434</v>
-      </c>
-      <c r="Q34" s="67">
+        <v>-9.4135514234522155E-2</v>
+      </c>
+      <c r="P34" s="161">
         <f t="shared" si="15"/>
-        <v>-19.915373445980478</v>
-      </c>
-      <c r="R34" s="71">
+        <v>134.74524152371728</v>
+      </c>
+      <c r="Q34" s="162">
         <f t="shared" si="16"/>
-        <v>-0.69504560793273162</v>
-      </c>
-      <c r="S34" s="72">
+        <v>-5.4085925412412958</v>
+      </c>
+      <c r="R34" s="163">
         <f t="shared" si="17"/>
-        <v>103.41197020531315</v>
-      </c>
-      <c r="T34" s="73">
+        <v>-1.2008541051038828</v>
+      </c>
+      <c r="S34" s="164">
         <f t="shared" si="18"/>
-        <v>-86.197762710736725</v>
-      </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+        <v>107.78405013576642</v>
+      </c>
+      <c r="T34" s="165">
+        <f t="shared" si="19"/>
+        <v>-78.196600887000315</v>
+      </c>
+      <c r="V34" s="144">
+        <v>550</v>
+      </c>
+      <c r="W34" s="147">
+        <f t="shared" si="0"/>
+        <v>50.138121989548587</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="61">
         <v>0.15</v>
       </c>
-      <c r="C35" s="65">
-        <f t="shared" si="1"/>
-        <v>2.4653635051884177</v>
-      </c>
-      <c r="D35" s="66">
+      <c r="C35" s="160">
         <f t="shared" si="2"/>
-        <v>-104.98929686774301</v>
-      </c>
-      <c r="E35" s="67">
+        <v>2.6876353368325874</v>
+      </c>
+      <c r="D35" s="161">
         <f t="shared" si="3"/>
-        <v>84.279497994257369</v>
-      </c>
-      <c r="F35" s="71">
+        <v>-108.17682979673131</v>
+      </c>
+      <c r="E35" s="162">
         <f t="shared" si="4"/>
-        <v>3.0120007207331208</v>
-      </c>
-      <c r="G35" s="72">
+        <v>90.580430986791768</v>
+      </c>
+      <c r="F35" s="163">
         <f t="shared" si="5"/>
-        <v>-133.86765664013609</v>
-      </c>
-      <c r="H35" s="73">
+        <v>3.0592240786345863</v>
+      </c>
+      <c r="G35" s="164">
         <f t="shared" si="6"/>
-        <v>17.451058413071362</v>
-      </c>
-      <c r="I35" s="65">
+        <v>-134.27968236184699</v>
+      </c>
+      <c r="H35" s="165">
         <f t="shared" si="7"/>
-        <v>-2.7245473709017625</v>
-      </c>
-      <c r="J35" s="66">
+        <v>17.480218347129536</v>
+      </c>
+      <c r="I35" s="160">
         <f t="shared" si="8"/>
-        <v>-123.08142798889988</v>
-      </c>
-      <c r="K35" s="67">
+        <v>-2.8523724867430009</v>
+      </c>
+      <c r="J35" s="161">
         <f t="shared" si="9"/>
-        <v>-54.546561488445221</v>
-      </c>
-      <c r="L35" s="71">
+        <v>-120.51814986952206</v>
+      </c>
+      <c r="K35" s="162">
         <f t="shared" si="10"/>
-        <v>0.41734860895414794</v>
-      </c>
-      <c r="M35" s="72">
+        <v>-58.911012978610273</v>
+      </c>
+      <c r="L35" s="163">
         <f t="shared" si="11"/>
-        <v>123.08208656812548</v>
-      </c>
-      <c r="N35" s="73">
+        <v>1.0243500159141536</v>
+      </c>
+      <c r="M35" s="164">
         <f t="shared" si="12"/>
-        <v>54.556711152356797</v>
-      </c>
-      <c r="O35" s="65">
+        <v>121.04338428355177</v>
+      </c>
+      <c r="N35" s="165">
         <f t="shared" si="13"/>
-        <v>-0.12959193285667234</v>
-      </c>
-      <c r="P35" s="66">
+        <v>71.657073541845946</v>
+      </c>
+      <c r="O35" s="160">
         <f t="shared" si="14"/>
-        <v>133.86831521936168</v>
-      </c>
-      <c r="Q35" s="67">
+        <v>-8.2368574955206886E-2</v>
+      </c>
+      <c r="P35" s="161">
         <f t="shared" si="15"/>
-        <v>-17.440908749159757</v>
-      </c>
-      <c r="R35" s="71">
+        <v>134.80491677587665</v>
+      </c>
+      <c r="Q35" s="162">
         <f t="shared" si="16"/>
-        <v>-0.67653247466749267</v>
-      </c>
-      <c r="S35" s="72">
+        <v>-4.7341577838938296</v>
+      </c>
+      <c r="R35" s="163">
         <f t="shared" si="17"/>
-        <v>104.98995544696859</v>
-      </c>
-      <c r="T35" s="73">
+        <v>-1.1890871658245676</v>
+      </c>
+      <c r="S35" s="164">
         <f t="shared" si="18"/>
-        <v>-84.269348330345778</v>
-      </c>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+        <v>108.70206421076099</v>
+      </c>
+      <c r="T35" s="165">
+        <f t="shared" si="19"/>
+        <v>-77.834370423556081</v>
+      </c>
+      <c r="V35" s="144">
+        <v>600</v>
+      </c>
+      <c r="W35" s="147">
+        <f t="shared" si="0"/>
+        <v>32.453422231992072</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="60">
         <v>0.2</v>
       </c>
-      <c r="C36" s="65">
-        <f t="shared" si="1"/>
-        <v>2.4838766384536566</v>
-      </c>
-      <c r="D36" s="66">
+      <c r="C36" s="160">
         <f t="shared" si="2"/>
-        <v>-106.53148729312204</v>
-      </c>
-      <c r="E36" s="67">
+        <v>2.6994022761119023</v>
+      </c>
+      <c r="D36" s="161">
         <f t="shared" si="3"/>
-        <v>82.32075880775642</v>
-      </c>
-      <c r="F36" s="71">
+        <v>-109.22980808549258</v>
+      </c>
+      <c r="E36" s="162">
         <f t="shared" si="4"/>
-        <v>3.0305138539983596</v>
-      </c>
-      <c r="G36" s="72">
+        <v>88.389837160042191</v>
+      </c>
+      <c r="F36" s="163">
         <f t="shared" si="5"/>
-        <v>-134.16776524192616</v>
-      </c>
-      <c r="H36" s="73">
+        <v>3.0709910179139017</v>
+      </c>
+      <c r="G36" s="164">
         <f t="shared" si="6"/>
-        <v>14.969172774935751</v>
-      </c>
-      <c r="I36" s="65">
+        <v>-134.47070764606053</v>
+      </c>
+      <c r="H36" s="165">
         <f t="shared" si="7"/>
-        <v>-2.7060342376365236</v>
-      </c>
-      <c r="J36" s="66">
+        <v>14.98754162799951</v>
+      </c>
+      <c r="I36" s="160">
         <f t="shared" si="8"/>
-        <v>-122.05055955847723</v>
-      </c>
-      <c r="K36" s="67">
+        <v>-2.840605547463686</v>
+      </c>
+      <c r="J36" s="161">
         <f t="shared" si="9"/>
-        <v>-56.816433905129294</v>
-      </c>
-      <c r="L36" s="71">
+        <v>-119.81125762246543</v>
+      </c>
+      <c r="K36" s="162">
         <f t="shared" si="10"/>
-        <v>0.43586174221938689</v>
-      </c>
-      <c r="M36" s="72">
+        <v>-61.236473780569128</v>
+      </c>
+      <c r="L36" s="163">
         <f t="shared" si="11"/>
-        <v>122.05104359233296</v>
-      </c>
-      <c r="N36" s="73">
+        <v>1.036116955193469</v>
+      </c>
+      <c r="M36" s="164">
         <f t="shared" si="12"/>
-        <v>56.825140086101463</v>
-      </c>
-      <c r="O36" s="65">
+        <v>120.19720202344473</v>
+      </c>
+      <c r="N36" s="165">
         <f t="shared" si="13"/>
-        <v>-0.11107879959143344</v>
-      </c>
-      <c r="P36" s="66">
+        <v>72.164947870017144</v>
+      </c>
+      <c r="O36" s="160">
         <f t="shared" si="14"/>
-        <v>134.1682492757819</v>
-      </c>
-      <c r="Q36" s="67">
+        <v>-7.0601635675891616E-2</v>
+      </c>
+      <c r="P36" s="161">
         <f t="shared" si="15"/>
-        <v>-14.960466593963559</v>
-      </c>
-      <c r="R36" s="71">
+        <v>134.8566520470398</v>
+      </c>
+      <c r="Q36" s="162">
         <f t="shared" si="16"/>
-        <v>-0.65801934140225371</v>
-      </c>
-      <c r="S36" s="72">
+        <v>-4.0590675385515533</v>
+      </c>
+      <c r="R36" s="163">
         <f t="shared" si="17"/>
-        <v>106.53197132697777</v>
-      </c>
-      <c r="T36" s="73">
+        <v>-1.1773202265452523</v>
+      </c>
+      <c r="S36" s="164">
         <f t="shared" si="18"/>
-        <v>-82.312052626784237</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+        <v>109.61575248647191</v>
+      </c>
+      <c r="T36" s="165">
+        <f t="shared" si="19"/>
+        <v>-77.46136307059416</v>
+      </c>
+      <c r="V36" s="144">
+        <v>650</v>
+      </c>
+      <c r="W36" s="147">
+        <f t="shared" si="0"/>
+        <v>21.006463201543625</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="61">
         <v>0.25</v>
       </c>
-      <c r="C37" s="65">
-        <f t="shared" si="1"/>
-        <v>2.5023897717188954</v>
-      </c>
-      <c r="D37" s="66">
+      <c r="C37" s="160">
         <f t="shared" si="2"/>
-        <v>-108.03715311565934</v>
-      </c>
-      <c r="E37" s="67">
+        <v>2.7111692153912177</v>
+      </c>
+      <c r="D37" s="161">
         <f t="shared" si="3"/>
-        <v>80.33380613099024</v>
-      </c>
-      <c r="F37" s="71">
+        <v>-110.25693748724748</v>
+      </c>
+      <c r="E37" s="162">
         <f t="shared" si="4"/>
-        <v>3.0490269872635984</v>
-      </c>
-      <c r="G37" s="72">
+        <v>86.187004941636317</v>
+      </c>
+      <c r="F37" s="163">
         <f t="shared" si="5"/>
-        <v>-134.42187756118923</v>
-      </c>
-      <c r="H37" s="73">
+        <v>3.0827579571932167</v>
+      </c>
+      <c r="G37" s="164">
         <f t="shared" si="6"/>
-        <v>12.482156807385293</v>
-      </c>
-      <c r="I37" s="65">
+        <v>-134.6323892069324</v>
+      </c>
+      <c r="H37" s="165">
         <f t="shared" si="7"/>
-        <v>-2.6875211043712848</v>
-      </c>
-      <c r="J37" s="66">
+        <v>12.492789744910681</v>
+      </c>
+      <c r="I37" s="160">
         <f t="shared" si="8"/>
-        <v>-120.97784773077237</v>
-      </c>
-      <c r="K37" s="67">
+        <v>-2.8288386081843706</v>
+      </c>
+      <c r="J37" s="161">
         <f t="shared" si="9"/>
-        <v>-59.066833834823406</v>
-      </c>
-      <c r="L37" s="71">
+        <v>-119.07705138870446</v>
+      </c>
+      <c r="K37" s="162">
         <f t="shared" si="10"/>
-        <v>0.45437487548462574</v>
-      </c>
-      <c r="M37" s="72">
+        <v>-63.553455825536872</v>
+      </c>
+      <c r="L37" s="163">
         <f t="shared" si="11"/>
-        <v>120.9781839710344</v>
-      </c>
-      <c r="N37" s="73">
+        <v>1.0478838944727844</v>
+      </c>
+      <c r="M37" s="164">
         <f t="shared" si="12"/>
-        <v>59.074093549018841</v>
-      </c>
-      <c r="O37" s="65">
+        <v>119.34510235575135</v>
+      </c>
+      <c r="N37" s="165">
         <f t="shared" si="13"/>
-        <v>-9.2565666326194534E-2</v>
-      </c>
-      <c r="P37" s="66">
+        <v>72.662830292735634</v>
+      </c>
+      <c r="O37" s="160">
         <f t="shared" si="14"/>
-        <v>134.42221380145125</v>
-      </c>
-      <c r="Q37" s="67">
+        <v>-5.8834696396576347E-2</v>
+      </c>
+      <c r="P37" s="161">
         <f t="shared" si="15"/>
-        <v>-12.474897093189828</v>
-      </c>
-      <c r="R37" s="71">
+        <v>134.90044017397929</v>
+      </c>
+      <c r="Q37" s="162">
         <f t="shared" si="16"/>
-        <v>-0.63950620813701486</v>
-      </c>
-      <c r="S37" s="72">
+        <v>-3.3834152777118858</v>
+      </c>
+      <c r="R37" s="163">
         <f t="shared" si="17"/>
-        <v>108.03748935592138</v>
-      </c>
-      <c r="T37" s="73">
+        <v>-1.1655532872659369</v>
+      </c>
+      <c r="S37" s="164">
         <f t="shared" si="18"/>
-        <v>-80.326546416794784</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+        <v>110.5249884542944</v>
+      </c>
+      <c r="T37" s="165">
+        <f t="shared" si="19"/>
+        <v>-77.077630474437541</v>
+      </c>
+      <c r="V37" s="144">
+        <v>700</v>
+      </c>
+      <c r="W37" s="147">
+        <f t="shared" si="0"/>
+        <v>13.597071306791424</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" s="60">
         <v>0.3</v>
       </c>
-      <c r="C38" s="65">
-        <f t="shared" si="1"/>
-        <v>2.5209029049841343</v>
-      </c>
-      <c r="D38" s="66">
+      <c r="C38" s="160">
         <f t="shared" si="2"/>
-        <v>-109.50577830405679</v>
-      </c>
-      <c r="E38" s="67">
+        <v>2.7229361546705331</v>
+      </c>
+      <c r="D38" s="161">
         <f t="shared" si="3"/>
-        <v>78.319320944926616</v>
-      </c>
-      <c r="F38" s="71">
+        <v>-111.25807578641667</v>
+      </c>
+      <c r="E38" s="162">
         <f t="shared" si="4"/>
-        <v>3.0675401205288373</v>
-      </c>
-      <c r="G38" s="72">
+        <v>83.972239334098361</v>
+      </c>
+      <c r="F38" s="163">
         <f t="shared" si="5"/>
-        <v>-134.62990650694664</v>
-      </c>
-      <c r="H38" s="73">
+        <v>3.094524896472532</v>
+      </c>
+      <c r="G38" s="164">
         <f t="shared" si="6"/>
-        <v>9.9908628762364113</v>
-      </c>
-      <c r="I38" s="65">
+        <v>-134.76470465815299</v>
+      </c>
+      <c r="H38" s="165">
         <f t="shared" si="7"/>
-        <v>-2.6690079711060459</v>
-      </c>
-      <c r="J38" s="66">
+        <v>9.9963081193684449</v>
+      </c>
+      <c r="I38" s="160">
         <f t="shared" si="8"/>
-        <v>-119.86366015235637</v>
-      </c>
-      <c r="K38" s="67">
+        <v>-2.8170716689050552</v>
+      </c>
+      <c r="J38" s="161">
         <f t="shared" si="9"/>
-        <v>-61.296990006253715</v>
-      </c>
-      <c r="L38" s="71">
+        <v>-118.31563282589275</v>
+      </c>
+      <c r="K38" s="162">
         <f t="shared" si="10"/>
-        <v>0.4728880087498647</v>
-      </c>
-      <c r="M38" s="72">
+        <v>-65.861638305888476</v>
+      </c>
+      <c r="L38" s="163">
         <f t="shared" si="11"/>
-        <v>119.86387540145367</v>
-      </c>
-      <c r="N38" s="73">
+        <v>1.0596508337520996</v>
+      </c>
+      <c r="M38" s="164">
         <f t="shared" si="12"/>
-        <v>61.302800765577338</v>
-      </c>
-      <c r="O38" s="65">
+        <v>118.4872032615631</v>
+      </c>
+      <c r="N38" s="165">
         <f t="shared" si="13"/>
-        <v>-7.4052533060955633E-2</v>
-      </c>
-      <c r="P38" s="66">
+        <v>73.150651873568393</v>
+      </c>
+      <c r="O38" s="160">
         <f t="shared" si="14"/>
-        <v>134.63012175604393</v>
-      </c>
-      <c r="Q38" s="67">
+        <v>-4.7067757117261078E-2</v>
+      </c>
+      <c r="P38" s="161">
         <f t="shared" si="15"/>
-        <v>-9.9850521169127635</v>
-      </c>
-      <c r="R38" s="71">
+        <v>134.9362750938233</v>
+      </c>
+      <c r="Q38" s="162">
         <f t="shared" si="16"/>
-        <v>-0.62099307487177591</v>
-      </c>
-      <c r="S38" s="72">
+        <v>-2.7072945516884968</v>
+      </c>
+      <c r="R38" s="163">
         <f t="shared" si="17"/>
-        <v>109.50599355315411</v>
-      </c>
-      <c r="T38" s="73">
+        <v>-1.1537863479866217</v>
+      </c>
+      <c r="S38" s="164">
         <f t="shared" si="18"/>
-        <v>-78.313510185602979</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+        <v>111.42964622208703</v>
+      </c>
+      <c r="T38" s="165">
+        <f t="shared" si="19"/>
+        <v>-76.683225766418431</v>
+      </c>
+      <c r="V38" s="144">
+        <v>750</v>
+      </c>
+      <c r="W38" s="147">
+        <f t="shared" si="0"/>
+        <v>8.8011173679339318</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39" s="61">
         <v>0.35</v>
       </c>
-      <c r="C39" s="65">
-        <f t="shared" si="1"/>
-        <v>2.5394160382493736</v>
-      </c>
-      <c r="D39" s="66">
+      <c r="C39" s="160">
         <f t="shared" si="2"/>
-        <v>-110.93685952181639</v>
-      </c>
-      <c r="E39" s="67">
+        <v>2.7347030939498485</v>
+      </c>
+      <c r="D39" s="161">
         <f t="shared" si="3"/>
-        <v>76.277993666648783</v>
-      </c>
-      <c r="F39" s="71">
+        <v>-112.2330843661297</v>
+      </c>
+      <c r="E39" s="162">
         <f t="shared" si="4"/>
-        <v>3.0860532537940766</v>
-      </c>
-      <c r="G39" s="72">
+        <v>81.745846992240729</v>
+      </c>
+      <c r="F39" s="163">
         <f t="shared" si="5"/>
-        <v>-134.79178078220454</v>
-      </c>
-      <c r="H39" s="73">
+        <v>3.1062918357518474</v>
+      </c>
+      <c r="G39" s="164">
         <f t="shared" si="6"/>
-        <v>7.4961448134761683</v>
-      </c>
-      <c r="I39" s="65">
+        <v>-134.86763567942242</v>
+      </c>
+      <c r="H39" s="165">
         <f t="shared" si="7"/>
-        <v>-2.6504948378408066</v>
-      </c>
-      <c r="J39" s="66">
+        <v>7.498442412377349</v>
+      </c>
+      <c r="I39" s="160">
         <f t="shared" si="8"/>
-        <v>-118.70837868463155</v>
-      </c>
-      <c r="K39" s="67">
+        <v>-2.8053047296257398</v>
+      </c>
+      <c r="J39" s="161">
         <f t="shared" si="9"/>
-        <v>-63.506138086215103</v>
-      </c>
-      <c r="L39" s="71">
+        <v>-117.5271073594829</v>
+      </c>
+      <c r="K39" s="162">
         <f t="shared" si="10"/>
-        <v>0.49140114201510354</v>
-      </c>
-      <c r="M39" s="72">
+        <v>-68.160701632380253</v>
+      </c>
+      <c r="L39" s="163">
         <f t="shared" si="11"/>
-        <v>118.70849978645992</v>
-      </c>
-      <c r="N39" s="73">
+        <v>1.0714177730314147</v>
+      </c>
+      <c r="M39" s="164">
         <f t="shared" si="12"/>
-        <v>63.510497899166715</v>
-      </c>
-      <c r="O39" s="65">
+        <v>117.62362352495578</v>
+      </c>
+      <c r="N39" s="165">
         <f t="shared" si="13"/>
-        <v>-5.5539399795716732E-2</v>
-      </c>
-      <c r="P39" s="66">
+        <v>73.628345069099169</v>
+      </c>
+      <c r="O39" s="160">
         <f t="shared" si="14"/>
-        <v>134.79190188403288</v>
-      </c>
-      <c r="Q39" s="67">
+        <v>-3.5300817837945815E-2</v>
+      </c>
+      <c r="P39" s="161">
         <f t="shared" si="15"/>
-        <v>-7.4917850005245246</v>
-      </c>
-      <c r="R39" s="71">
+        <v>134.9641518448953</v>
+      </c>
+      <c r="Q39" s="162">
         <f t="shared" si="16"/>
-        <v>-0.60247994160653706</v>
-      </c>
-      <c r="S39" s="72">
+        <v>-2.0307989756584015</v>
+      </c>
+      <c r="R39" s="163">
         <f t="shared" si="17"/>
-        <v>110.93698062364474</v>
-      </c>
-      <c r="T39" s="73">
+        <v>-1.1420194087073066</v>
+      </c>
+      <c r="S39" s="164">
         <f t="shared" si="18"/>
-        <v>-76.273633853697149</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+        <v>112.32960053160257</v>
+      </c>
+      <c r="T39" s="165">
+        <f t="shared" si="19"/>
+        <v>-76.278203555521799</v>
+      </c>
+      <c r="V39" s="144">
+        <v>800</v>
+      </c>
+      <c r="W39" s="147">
+        <f t="shared" si="0"/>
+        <v>5.6967905202835105</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" s="60">
         <v>0.4</v>
       </c>
-      <c r="C40" s="65">
-        <f t="shared" si="1"/>
-        <v>2.5579291715146124</v>
-      </c>
-      <c r="D40" s="66">
+      <c r="C40" s="160">
         <f t="shared" si="2"/>
-        <v>-112.32990629974668</v>
-      </c>
-      <c r="E40" s="67">
+        <v>2.7464700332291638</v>
+      </c>
+      <c r="D40" s="161">
         <f t="shared" si="3"/>
-        <v>74.210523912731404</v>
-      </c>
-      <c r="F40" s="71">
+        <v>-113.18182822741775</v>
+      </c>
+      <c r="E40" s="162">
         <f t="shared" si="4"/>
-        <v>3.1045663870593154</v>
-      </c>
-      <c r="G40" s="72">
+        <v>79.508136180704852</v>
+      </c>
+      <c r="F40" s="163">
         <f t="shared" si="5"/>
-        <v>-134.90744490838915</v>
-      </c>
-      <c r="H40" s="73">
+        <v>3.1180587750311628</v>
+      </c>
+      <c r="G40" s="164">
         <f t="shared" si="6"/>
-        <v>4.9988576246318139</v>
-      </c>
-      <c r="I40" s="65">
+        <v>-134.9411680189875</v>
+      </c>
+      <c r="H40" s="165">
         <f t="shared" si="7"/>
-        <v>-2.6319817045755678</v>
-      </c>
-      <c r="J40" s="66">
+        <v>4.9995384765807396</v>
+      </c>
+      <c r="I40" s="160">
         <f t="shared" si="8"/>
-        <v>-117.51239927295748</v>
-      </c>
-      <c r="K40" s="67">
+        <v>-2.7935377903464245</v>
+      </c>
+      <c r="J40" s="161">
         <f t="shared" si="9"/>
-        <v>-65.693520941528021</v>
-      </c>
-      <c r="L40" s="71">
+        <v>-116.71158416812932</v>
+      </c>
+      <c r="K40" s="162">
         <f t="shared" si="10"/>
-        <v>0.5099142752803425</v>
-      </c>
-      <c r="M40" s="72">
+        <v>-70.450327478399828</v>
+      </c>
+      <c r="L40" s="163">
         <f t="shared" si="11"/>
-        <v>117.51245310367943</v>
-      </c>
-      <c r="N40" s="73">
+        <v>1.0831847123107301</v>
+      </c>
+      <c r="M40" s="164">
         <f t="shared" si="12"/>
-        <v>65.696428313885079</v>
-      </c>
-      <c r="O40" s="65">
+        <v>116.7544827165427</v>
+      </c>
+      <c r="N40" s="165">
         <f t="shared" si="13"/>
-        <v>-3.7026266530477803E-2</v>
-      </c>
-      <c r="P40" s="66">
+        <v>74.095843738280479</v>
+      </c>
+      <c r="O40" s="160">
         <f t="shared" si="14"/>
-        <v>134.90749873911111</v>
-      </c>
-      <c r="Q40" s="67">
+        <v>-2.3533878558630532E-2</v>
+      </c>
+      <c r="P40" s="161">
         <f t="shared" si="15"/>
-        <v>-4.9959502522747368</v>
-      </c>
-      <c r="R40" s="71">
+        <v>134.98406656740087</v>
+      </c>
+      <c r="Q40" s="162">
         <f t="shared" si="16"/>
-        <v>-0.5839668083412981</v>
-      </c>
-      <c r="S40" s="72">
+        <v>-1.3540222167000664</v>
+      </c>
+      <c r="R40" s="163">
         <f t="shared" si="17"/>
-        <v>112.32996013046863</v>
-      </c>
-      <c r="T40" s="73">
+        <v>-1.1302524694279912</v>
+      </c>
+      <c r="S40" s="164">
         <f t="shared" si="18"/>
-        <v>-74.207616540374318</v>
-      </c>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+        <v>113.22472677583113</v>
+      </c>
+      <c r="T40" s="165">
+        <f t="shared" si="19"/>
+        <v>-75.862619920824187</v>
+      </c>
+      <c r="V40" s="144">
+        <v>850</v>
+      </c>
+      <c r="W40" s="147">
+        <f t="shared" si="0"/>
+        <v>3.6874206848136306</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" s="61">
         <v>0.45</v>
       </c>
-      <c r="C41" s="65">
-        <f t="shared" si="1"/>
-        <v>2.5764423047798513</v>
-      </c>
-      <c r="D41" s="66">
+      <c r="C41" s="160">
         <f t="shared" si="2"/>
-        <v>-113.68444120405972</v>
-      </c>
-      <c r="E41" s="67">
+        <v>2.7582369725084788</v>
+      </c>
+      <c r="D41" s="161">
         <f t="shared" si="3"/>
-        <v>72.117620259463308</v>
-      </c>
-      <c r="F41" s="71">
+        <v>-114.10417600790564</v>
+      </c>
+      <c r="E41" s="162">
         <f t="shared" si="4"/>
-        <v>3.1230795203245543</v>
-      </c>
-      <c r="G41" s="72">
+        <v>77.259416731279231</v>
+      </c>
+      <c r="F41" s="163">
         <f t="shared" si="5"/>
-        <v>-134.97685924436081</v>
-      </c>
-      <c r="H41" s="73">
+        <v>3.1298257143104777</v>
+      </c>
+      <c r="G41" s="164">
         <f t="shared" si="6"/>
-        <v>2.4998571957375324</v>
-      </c>
-      <c r="I41" s="65">
+        <v>-134.98529149561472</v>
+      </c>
+      <c r="H41" s="165">
         <f t="shared" si="7"/>
-        <v>-2.6134685713103289</v>
-      </c>
-      <c r="J41" s="66">
+        <v>2.4999423083744512</v>
+      </c>
+      <c r="I41" s="160">
         <f t="shared" si="8"/>
-        <v>-116.27613181094999</v>
-      </c>
-      <c r="K41" s="67">
+        <v>-2.7817708510671095</v>
+      </c>
+      <c r="J41" s="161">
         <f t="shared" si="9"/>
-        <v>-67.858388898528361</v>
-      </c>
-      <c r="L41" s="71">
+        <v>-115.86917616857161</v>
+      </c>
+      <c r="K41" s="162">
         <f t="shared" si="10"/>
-        <v>0.52842740854558135</v>
-      </c>
-      <c r="M41" s="72">
+        <v>-72.73019882404131</v>
+      </c>
+      <c r="L41" s="163">
         <f t="shared" si="11"/>
-        <v>116.27614526978367</v>
-      </c>
-      <c r="N41" s="73">
+        <v>1.0949516515900455</v>
+      </c>
+      <c r="M41" s="164">
         <f t="shared" si="12"/>
-        <v>67.859842833857826</v>
-      </c>
-      <c r="O41" s="65">
+        <v>115.87990117691915</v>
+      </c>
+      <c r="N41" s="165">
         <f t="shared" si="13"/>
-        <v>-1.8513133265238901E-2</v>
-      </c>
-      <c r="P41" s="66">
+        <v>74.553083151591395</v>
+      </c>
+      <c r="O41" s="160">
         <f t="shared" si="14"/>
-        <v>134.97687270319446</v>
-      </c>
-      <c r="Q41" s="67">
+        <v>-1.1766939279315266E-2</v>
+      </c>
+      <c r="P41" s="161">
         <f t="shared" si="15"/>
-        <v>-2.4984032604080371</v>
-      </c>
-      <c r="R41" s="71">
+        <v>134.99601650396224</v>
+      </c>
+      <c r="Q41" s="162">
         <f t="shared" si="16"/>
-        <v>-0.56545367507605926</v>
-      </c>
-      <c r="S41" s="72">
+        <v>-0.67705798082434421</v>
+      </c>
+      <c r="R41" s="163">
         <f t="shared" si="17"/>
-        <v>113.68445466289337</v>
-      </c>
-      <c r="T41" s="73">
+        <v>-1.1184855301486758</v>
+      </c>
+      <c r="S41" s="164">
         <f t="shared" si="18"/>
-        <v>-72.116166324133829</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="78">
+        <v>114.11490101625319</v>
+      </c>
+      <c r="T41" s="165">
+        <f t="shared" si="19"/>
+        <v>-75.436532403729146</v>
+      </c>
+      <c r="V41" s="144">
+        <v>900</v>
+      </c>
+      <c r="W41" s="147">
+        <f t="shared" si="0"/>
+        <v>2.3867950310580737</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42" s="70">
         <v>0.5</v>
       </c>
-      <c r="C42" s="79">
-        <f t="shared" si="1"/>
-        <v>2.5949554380450901</v>
-      </c>
-      <c r="D42" s="76">
+      <c r="C42" s="166">
         <f t="shared" si="2"/>
+        <v>2.7700039117877941</v>
+      </c>
+      <c r="D42" s="167">
+        <f t="shared" si="3"/>
         <v>-115</v>
       </c>
-      <c r="E42" s="77">
-        <f t="shared" si="3"/>
-        <v>70.000000000000014</v>
-      </c>
-      <c r="F42" s="79">
+      <c r="E42" s="168">
         <f t="shared" si="4"/>
+        <v>75.000000000000014</v>
+      </c>
+      <c r="F42" s="166">
+        <f t="shared" si="5"/>
         <v>3.1415926535897931</v>
       </c>
-      <c r="G42" s="76">
-        <f t="shared" si="5"/>
+      <c r="G42" s="167">
+        <f t="shared" si="6"/>
         <v>-135</v>
       </c>
-      <c r="H42" s="77">
-        <f t="shared" si="6"/>
-        <v>1.6544315288987496E-14</v>
-      </c>
-      <c r="I42" s="79">
+      <c r="H42" s="168">
         <f t="shared" si="7"/>
-        <v>-2.5949554380450901</v>
-      </c>
-      <c r="J42" s="76">
+        <v>2.6029463266252034E-14</v>
+      </c>
+      <c r="I42" s="166">
         <f t="shared" si="8"/>
+        <v>-2.7700039117877941</v>
+      </c>
+      <c r="J42" s="167">
+        <f t="shared" si="9"/>
         <v>-115</v>
       </c>
-      <c r="K42" s="77">
-        <f t="shared" si="9"/>
-        <v>-70.000000000000014</v>
-      </c>
-      <c r="L42" s="79">
+      <c r="K42" s="168">
         <f t="shared" si="10"/>
-        <v>0.5469405418108203</v>
-      </c>
-      <c r="M42" s="76">
+        <v>-75.000000000000014</v>
+      </c>
+      <c r="L42" s="166">
         <f t="shared" si="11"/>
+        <v>1.1067185908693606</v>
+      </c>
+      <c r="M42" s="167">
+        <f t="shared" si="12"/>
         <v>115</v>
       </c>
-      <c r="N42" s="77">
-        <f t="shared" si="12"/>
-        <v>70.000000000000014</v>
-      </c>
-      <c r="O42" s="79">
+      <c r="N42" s="168">
         <f t="shared" si="13"/>
+        <v>75</v>
+      </c>
+      <c r="O42" s="166">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P42" s="76">
-        <f t="shared" si="14"/>
+      <c r="P42" s="167">
+        <f t="shared" si="15"/>
         <v>135</v>
       </c>
-      <c r="Q42" s="77">
-        <f t="shared" si="15"/>
+      <c r="Q42" s="168">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R42" s="79">
-        <f t="shared" si="16"/>
-        <v>-0.5469405418108203</v>
-      </c>
-      <c r="S42" s="76">
+      <c r="R42" s="166">
         <f t="shared" si="17"/>
+        <v>-1.1067185908693606</v>
+      </c>
+      <c r="S42" s="167">
+        <f t="shared" si="18"/>
         <v>115</v>
       </c>
-      <c r="T42" s="77">
-        <f t="shared" si="18"/>
-        <v>-70.000000000000014</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T42" s="168">
+        <f t="shared" si="19"/>
+        <v>-75</v>
+      </c>
+      <c r="V42" s="144">
+        <v>950</v>
+      </c>
+      <c r="W42" s="147">
+        <f t="shared" si="0"/>
+        <v>1.5449255746015966</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="61">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C43" s="65">
-        <f t="shared" si="1"/>
-        <v>2.6134685713103289</v>
-      </c>
-      <c r="D43" s="66">
+      <c r="C43" s="160">
         <f t="shared" si="2"/>
-        <v>-116.27613181094999</v>
-      </c>
-      <c r="E43" s="67">
+        <v>2.7817708510671095</v>
+      </c>
+      <c r="D43" s="161">
         <f t="shared" si="3"/>
-        <v>67.858388898528361</v>
-      </c>
-      <c r="F43" s="71">
+        <v>-115.86917616857161</v>
+      </c>
+      <c r="E43" s="162">
         <f t="shared" si="4"/>
-        <v>3.160105786855032</v>
-      </c>
-      <c r="G43" s="72">
+        <v>72.73019882404131</v>
+      </c>
+      <c r="F43" s="163">
         <f t="shared" si="5"/>
-        <v>-134.97685924436081</v>
-      </c>
-      <c r="H43" s="73">
+        <v>3.1533595928691085</v>
+      </c>
+      <c r="G43" s="164">
         <f t="shared" si="6"/>
-        <v>-2.4998571957374991</v>
-      </c>
-      <c r="I43" s="65">
+        <v>-134.98529149561472</v>
+      </c>
+      <c r="H43" s="165">
         <f t="shared" si="7"/>
-        <v>-2.5764423047798513</v>
-      </c>
-      <c r="J43" s="66">
+        <v>-2.4999423083743992</v>
+      </c>
+      <c r="I43" s="160">
         <f t="shared" si="8"/>
-        <v>-113.68444120405972</v>
-      </c>
-      <c r="K43" s="67">
+        <v>-2.7582369725084788</v>
+      </c>
+      <c r="J43" s="161">
         <f t="shared" si="9"/>
-        <v>-72.117620259463308</v>
-      </c>
-      <c r="L43" s="71">
+        <v>-114.10417600790564</v>
+      </c>
+      <c r="K43" s="162">
         <f t="shared" si="10"/>
-        <v>0.56545367507605926</v>
-      </c>
-      <c r="M43" s="72">
+        <v>-77.259416731279231</v>
+      </c>
+      <c r="L43" s="163">
         <f t="shared" si="11"/>
-        <v>113.68445466289337</v>
-      </c>
-      <c r="N43" s="73">
+        <v>1.118485530148676</v>
+      </c>
+      <c r="M43" s="164">
         <f t="shared" si="12"/>
-        <v>72.116166324133829</v>
-      </c>
-      <c r="O43" s="65">
+        <v>114.11490101625319</v>
+      </c>
+      <c r="N43" s="165">
         <f t="shared" si="13"/>
-        <v>1.8513133265238922E-2</v>
-      </c>
-      <c r="P43" s="66">
+        <v>75.43653240372916</v>
+      </c>
+      <c r="O43" s="160">
         <f t="shared" si="14"/>
-        <v>134.97687270319446</v>
-      </c>
-      <c r="Q43" s="67">
+        <v>1.176693927931528E-2</v>
+      </c>
+      <c r="P43" s="161">
         <f t="shared" si="15"/>
-        <v>2.4984032604080402</v>
-      </c>
-      <c r="R43" s="71">
+        <v>134.99601650396224</v>
+      </c>
+      <c r="Q43" s="162">
         <f t="shared" si="16"/>
-        <v>-0.52842740854558135</v>
-      </c>
-      <c r="S43" s="72">
+        <v>0.6770579808243451</v>
+      </c>
+      <c r="R43" s="163">
         <f t="shared" si="17"/>
-        <v>116.27614526978367</v>
-      </c>
-      <c r="T43" s="73">
+        <v>-1.0949516515900453</v>
+      </c>
+      <c r="S43" s="164">
         <f t="shared" si="18"/>
-        <v>-67.859842833857826</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+        <v>115.87990117691916</v>
+      </c>
+      <c r="T43" s="165">
+        <f t="shared" si="19"/>
+        <v>-74.55308315159138</v>
+      </c>
+      <c r="V43" s="145">
+        <v>1000</v>
+      </c>
+      <c r="W43" s="153">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" s="60">
         <v>0.6</v>
       </c>
-      <c r="C44" s="65">
-        <f t="shared" si="1"/>
-        <v>2.6319817045755678</v>
-      </c>
-      <c r="D44" s="66">
+      <c r="C44" s="160">
         <f t="shared" si="2"/>
-        <v>-117.51239927295748</v>
-      </c>
-      <c r="E44" s="67">
+        <v>2.7935377903464245</v>
+      </c>
+      <c r="D44" s="161">
         <f t="shared" si="3"/>
-        <v>65.693520941528021</v>
-      </c>
-      <c r="F44" s="71">
+        <v>-116.71158416812932</v>
+      </c>
+      <c r="E44" s="162">
         <f t="shared" si="4"/>
-        <v>3.1786189201202708</v>
-      </c>
-      <c r="G44" s="72">
+        <v>70.450327478399828</v>
+      </c>
+      <c r="F44" s="163">
         <f t="shared" si="5"/>
-        <v>-134.90744490838915</v>
-      </c>
-      <c r="H44" s="73">
+        <v>3.1651265321484234</v>
+      </c>
+      <c r="G44" s="164">
         <f t="shared" si="6"/>
-        <v>-4.9988576246317802</v>
-      </c>
-      <c r="I44" s="65">
+        <v>-134.9411680189875</v>
+      </c>
+      <c r="H44" s="165">
         <f t="shared" si="7"/>
-        <v>-2.5579291715146124</v>
-      </c>
-      <c r="J44" s="66">
+        <v>-4.9995384765806872</v>
+      </c>
+      <c r="I44" s="160">
         <f t="shared" si="8"/>
-        <v>-112.32990629974668</v>
-      </c>
-      <c r="K44" s="67">
+        <v>-2.7464700332291638</v>
+      </c>
+      <c r="J44" s="161">
         <f t="shared" si="9"/>
-        <v>-74.210523912731404</v>
-      </c>
-      <c r="L44" s="71">
+        <v>-113.18182822741775</v>
+      </c>
+      <c r="K44" s="162">
         <f t="shared" si="10"/>
-        <v>0.5839668083412981</v>
-      </c>
-      <c r="M44" s="72">
+        <v>-79.508136180704852</v>
+      </c>
+      <c r="L44" s="163">
         <f t="shared" si="11"/>
-        <v>112.32996013046863</v>
-      </c>
-      <c r="N44" s="73">
+        <v>1.1302524694279912</v>
+      </c>
+      <c r="M44" s="164">
         <f t="shared" si="12"/>
-        <v>74.207616540374318</v>
-      </c>
-      <c r="O44" s="65">
+        <v>113.22472677583113</v>
+      </c>
+      <c r="N44" s="165">
         <f t="shared" si="13"/>
-        <v>3.7026266530477803E-2</v>
-      </c>
-      <c r="P44" s="66">
+        <v>75.862619920824187</v>
+      </c>
+      <c r="O44" s="160">
         <f t="shared" si="14"/>
-        <v>134.90749873911111</v>
-      </c>
-      <c r="Q44" s="67">
+        <v>2.3533878558630532E-2</v>
+      </c>
+      <c r="P44" s="161">
         <f t="shared" si="15"/>
-        <v>4.9959502522747368</v>
-      </c>
-      <c r="R44" s="71">
+        <v>134.98406656740087</v>
+      </c>
+      <c r="Q44" s="162">
         <f t="shared" si="16"/>
-        <v>-0.5099142752803425</v>
-      </c>
-      <c r="S44" s="72">
+        <v>1.3540222167000664</v>
+      </c>
+      <c r="R44" s="163">
         <f t="shared" si="17"/>
-        <v>117.51245310367943</v>
-      </c>
-      <c r="T44" s="73">
+        <v>-1.0831847123107301</v>
+      </c>
+      <c r="S44" s="164">
         <f t="shared" si="18"/>
-        <v>-65.696428313885079</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+        <v>116.7544827165427</v>
+      </c>
+      <c r="T44" s="165">
+        <f t="shared" si="19"/>
+        <v>-74.095843738280479</v>
+      </c>
+      <c r="V44" s="59"/>
+      <c r="W44" s="59"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" s="61">
         <v>0.65</v>
       </c>
-      <c r="C45" s="65">
-        <f t="shared" si="1"/>
-        <v>2.6504948378408066</v>
-      </c>
-      <c r="D45" s="66">
+      <c r="C45" s="160">
         <f t="shared" si="2"/>
-        <v>-118.70837868463155</v>
-      </c>
-      <c r="E45" s="67">
+        <v>2.8053047296257398</v>
+      </c>
+      <c r="D45" s="161">
         <f t="shared" si="3"/>
-        <v>63.506138086215103</v>
-      </c>
-      <c r="F45" s="71">
+        <v>-117.5271073594829</v>
+      </c>
+      <c r="E45" s="162">
         <f t="shared" si="4"/>
-        <v>3.1971320533855097</v>
-      </c>
-      <c r="G45" s="72">
+        <v>68.160701632380253</v>
+      </c>
+      <c r="F45" s="163">
         <f t="shared" si="5"/>
-        <v>-134.79178078220454</v>
-      </c>
-      <c r="H45" s="73">
+        <v>3.1768934714277388</v>
+      </c>
+      <c r="G45" s="164">
         <f t="shared" si="6"/>
-        <v>-7.4961448134761355</v>
-      </c>
-      <c r="I45" s="65">
+        <v>-134.86763567942245</v>
+      </c>
+      <c r="H45" s="165">
         <f t="shared" si="7"/>
-        <v>-2.5394160382493736</v>
-      </c>
-      <c r="J45" s="66">
+        <v>-7.4984424123772975</v>
+      </c>
+      <c r="I45" s="160">
         <f t="shared" si="8"/>
-        <v>-110.93685952181639</v>
-      </c>
-      <c r="K45" s="67">
+        <v>-2.7347030939498485</v>
+      </c>
+      <c r="J45" s="161">
         <f t="shared" si="9"/>
-        <v>-76.277993666648783</v>
-      </c>
-      <c r="L45" s="71">
+        <v>-112.2330843661297</v>
+      </c>
+      <c r="K45" s="162">
         <f t="shared" si="10"/>
-        <v>0.60247994160653706</v>
-      </c>
-      <c r="M45" s="72">
+        <v>-81.745846992240729</v>
+      </c>
+      <c r="L45" s="163">
         <f t="shared" si="11"/>
-        <v>110.93698062364474</v>
-      </c>
-      <c r="N45" s="73">
+        <v>1.1420194087073066</v>
+      </c>
+      <c r="M45" s="164">
         <f t="shared" si="12"/>
-        <v>76.273633853697149</v>
-      </c>
-      <c r="O45" s="65">
+        <v>112.32960053160257</v>
+      </c>
+      <c r="N45" s="165">
         <f t="shared" si="13"/>
-        <v>5.5539399795716732E-2</v>
-      </c>
-      <c r="P45" s="66">
+        <v>76.278203555521799</v>
+      </c>
+      <c r="O45" s="160">
         <f t="shared" si="14"/>
-        <v>134.79190188403288</v>
-      </c>
-      <c r="Q45" s="67">
+        <v>3.5300817837945815E-2</v>
+      </c>
+      <c r="P45" s="161">
         <f t="shared" si="15"/>
-        <v>7.4917850005245246</v>
-      </c>
-      <c r="R45" s="71">
+        <v>134.9641518448953</v>
+      </c>
+      <c r="Q45" s="162">
         <f t="shared" si="16"/>
-        <v>-0.49140114201510354</v>
-      </c>
-      <c r="S45" s="72">
+        <v>2.0307989756584015</v>
+      </c>
+      <c r="R45" s="163">
         <f t="shared" si="17"/>
-        <v>118.70849978645992</v>
-      </c>
-      <c r="T45" s="73">
+        <v>-1.0714177730314147</v>
+      </c>
+      <c r="S45" s="164">
         <f t="shared" si="18"/>
-        <v>-63.510497899166715</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+        <v>117.62362352495578</v>
+      </c>
+      <c r="T45" s="165">
+        <f t="shared" si="19"/>
+        <v>-73.628345069099169</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" s="60">
         <v>0.7</v>
       </c>
-      <c r="C46" s="65">
-        <f t="shared" si="1"/>
-        <v>2.6690079711060459</v>
-      </c>
-      <c r="D46" s="66">
+      <c r="C46" s="160">
         <f t="shared" si="2"/>
-        <v>-119.86366015235637</v>
-      </c>
-      <c r="E46" s="67">
+        <v>2.8170716689050552</v>
+      </c>
+      <c r="D46" s="161">
         <f t="shared" si="3"/>
-        <v>61.296990006253715</v>
-      </c>
-      <c r="F46" s="71">
+        <v>-118.31563282589275</v>
+      </c>
+      <c r="E46" s="162">
         <f t="shared" si="4"/>
-        <v>3.2156451866507485</v>
-      </c>
-      <c r="G46" s="72">
+        <v>65.861638305888476</v>
+      </c>
+      <c r="F46" s="163">
         <f t="shared" si="5"/>
-        <v>-134.62990650694664</v>
-      </c>
-      <c r="H46" s="73">
+        <v>3.1886604107070542</v>
+      </c>
+      <c r="G46" s="164">
         <f t="shared" si="6"/>
-        <v>-9.990862876236319</v>
-      </c>
-      <c r="I46" s="65">
+        <v>-134.76470465815299</v>
+      </c>
+      <c r="H46" s="165">
         <f t="shared" si="7"/>
-        <v>-2.5209029049841343</v>
-      </c>
-      <c r="J46" s="66">
+        <v>-9.9963081193683934</v>
+      </c>
+      <c r="I46" s="160">
         <f t="shared" si="8"/>
-        <v>-109.50577830405679</v>
-      </c>
-      <c r="K46" s="67">
+        <v>-2.7229361546705331</v>
+      </c>
+      <c r="J46" s="161">
         <f t="shared" si="9"/>
-        <v>-78.319320944926616</v>
-      </c>
-      <c r="L46" s="71">
+        <v>-111.25807578641667</v>
+      </c>
+      <c r="K46" s="162">
         <f t="shared" si="10"/>
-        <v>0.62099307487177591</v>
-      </c>
-      <c r="M46" s="72">
+        <v>-83.972239334098361</v>
+      </c>
+      <c r="L46" s="163">
         <f t="shared" si="11"/>
-        <v>109.50599355315411</v>
-      </c>
-      <c r="N46" s="73">
+        <v>1.1537863479866217</v>
+      </c>
+      <c r="M46" s="164">
         <f t="shared" si="12"/>
-        <v>78.313510185602979</v>
-      </c>
-      <c r="O46" s="65">
+        <v>111.42964622208703</v>
+      </c>
+      <c r="N46" s="165">
         <f t="shared" si="13"/>
-        <v>7.4052533060955605E-2</v>
-      </c>
-      <c r="P46" s="66">
+        <v>76.683225766418431</v>
+      </c>
+      <c r="O46" s="160">
         <f t="shared" si="14"/>
-        <v>134.63012175604393</v>
-      </c>
-      <c r="Q46" s="67">
+        <v>4.7067757117261064E-2</v>
+      </c>
+      <c r="P46" s="161">
         <f t="shared" si="15"/>
-        <v>9.98505211691276</v>
-      </c>
-      <c r="R46" s="71">
+        <v>134.9362750938233</v>
+      </c>
+      <c r="Q46" s="162">
         <f t="shared" si="16"/>
-        <v>-0.4728880087498647</v>
-      </c>
-      <c r="S46" s="72">
+        <v>2.7072945516884963</v>
+      </c>
+      <c r="R46" s="163">
         <f t="shared" si="17"/>
-        <v>119.86387540145367</v>
-      </c>
-      <c r="T46" s="73">
+        <v>-1.0596508337520996</v>
+      </c>
+      <c r="S46" s="164">
         <f t="shared" si="18"/>
-        <v>-61.302800765577338</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+        <v>118.4872032615631</v>
+      </c>
+      <c r="T46" s="165">
+        <f t="shared" si="19"/>
+        <v>-73.150651873568393</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" s="61">
         <v>0.75</v>
       </c>
-      <c r="C47" s="65">
-        <f t="shared" si="1"/>
-        <v>2.6875211043712848</v>
-      </c>
-      <c r="D47" s="66">
+      <c r="C47" s="160">
         <f t="shared" si="2"/>
-        <v>-120.97784773077237</v>
-      </c>
-      <c r="E47" s="67">
+        <v>2.8288386081843706</v>
+      </c>
+      <c r="D47" s="161">
         <f t="shared" si="3"/>
-        <v>59.066833834823406</v>
-      </c>
-      <c r="F47" s="71">
+        <v>-119.07705138870446</v>
+      </c>
+      <c r="E47" s="162">
         <f t="shared" si="4"/>
-        <v>3.2341583199159878</v>
-      </c>
-      <c r="G47" s="72">
+        <v>63.553455825536872</v>
+      </c>
+      <c r="F47" s="163">
         <f t="shared" si="5"/>
-        <v>-134.42187756118923</v>
-      </c>
-      <c r="H47" s="73">
+        <v>3.2004273499863696</v>
+      </c>
+      <c r="G47" s="164">
         <f t="shared" si="6"/>
-        <v>-12.482156807385259</v>
-      </c>
-      <c r="I47" s="65">
+        <v>-134.6323892069324</v>
+      </c>
+      <c r="H47" s="165">
         <f t="shared" si="7"/>
-        <v>-2.5023897717188954</v>
-      </c>
-      <c r="J47" s="66">
+        <v>-12.492789744910629</v>
+      </c>
+      <c r="I47" s="160">
         <f t="shared" si="8"/>
-        <v>-108.03715311565934</v>
-      </c>
-      <c r="K47" s="67">
+        <v>-2.7111692153912177</v>
+      </c>
+      <c r="J47" s="161">
         <f t="shared" si="9"/>
-        <v>-80.33380613099024</v>
-      </c>
-      <c r="L47" s="71">
+        <v>-110.25693748724748</v>
+      </c>
+      <c r="K47" s="162">
         <f t="shared" si="10"/>
-        <v>0.63950620813701486</v>
-      </c>
-      <c r="M47" s="72">
+        <v>-86.187004941636317</v>
+      </c>
+      <c r="L47" s="163">
         <f t="shared" si="11"/>
-        <v>108.03748935592138</v>
-      </c>
-      <c r="N47" s="73">
+        <v>1.1655532872659369</v>
+      </c>
+      <c r="M47" s="164">
         <f t="shared" si="12"/>
-        <v>80.326546416794784</v>
-      </c>
-      <c r="O47" s="65">
+        <v>110.5249884542944</v>
+      </c>
+      <c r="N47" s="165">
         <f t="shared" si="13"/>
-        <v>9.2565666326194534E-2</v>
-      </c>
-      <c r="P47" s="66">
+        <v>77.077630474437541</v>
+      </c>
+      <c r="O47" s="160">
         <f t="shared" si="14"/>
-        <v>134.42221380145125</v>
-      </c>
-      <c r="Q47" s="67">
+        <v>5.8834696396576347E-2</v>
+      </c>
+      <c r="P47" s="161">
         <f t="shared" si="15"/>
-        <v>12.474897093189828</v>
-      </c>
-      <c r="R47" s="71">
+        <v>134.90044017397929</v>
+      </c>
+      <c r="Q47" s="162">
         <f t="shared" si="16"/>
-        <v>-0.45437487548462574</v>
-      </c>
-      <c r="S47" s="72">
+        <v>3.3834152777118858</v>
+      </c>
+      <c r="R47" s="163">
         <f t="shared" si="17"/>
-        <v>120.9781839710344</v>
-      </c>
-      <c r="T47" s="73">
+        <v>-1.0478838944727844</v>
+      </c>
+      <c r="S47" s="164">
         <f t="shared" si="18"/>
-        <v>-59.074093549018841</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+        <v>119.34510235575135</v>
+      </c>
+      <c r="T47" s="165">
+        <f t="shared" si="19"/>
+        <v>-72.662830292735634</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48" s="60">
         <v>0.8</v>
       </c>
-      <c r="C48" s="65">
-        <f t="shared" si="1"/>
-        <v>2.7060342376365236</v>
-      </c>
-      <c r="D48" s="66">
+      <c r="C48" s="160">
         <f t="shared" si="2"/>
-        <v>-122.05055955847723</v>
-      </c>
-      <c r="E48" s="67">
+        <v>2.840605547463686</v>
+      </c>
+      <c r="D48" s="161">
         <f t="shared" si="3"/>
-        <v>56.816433905129294</v>
-      </c>
-      <c r="F48" s="71">
+        <v>-119.81125762246543</v>
+      </c>
+      <c r="E48" s="162">
         <f t="shared" si="4"/>
-        <v>3.2526714531812266</v>
-      </c>
-      <c r="G48" s="72">
+        <v>61.236473780569128</v>
+      </c>
+      <c r="F48" s="163">
         <f t="shared" si="5"/>
-        <v>-134.16776524192619</v>
-      </c>
-      <c r="H48" s="73">
+        <v>3.212194289265685</v>
+      </c>
+      <c r="G48" s="164">
         <f t="shared" si="6"/>
-        <v>-14.96917277493572</v>
-      </c>
-      <c r="I48" s="65">
+        <v>-134.47070764606053</v>
+      </c>
+      <c r="H48" s="165">
         <f t="shared" si="7"/>
-        <v>-2.4838766384536566</v>
-      </c>
-      <c r="J48" s="66">
+        <v>-14.987541627999551</v>
+      </c>
+      <c r="I48" s="160">
         <f t="shared" si="8"/>
-        <v>-106.53148729312204</v>
-      </c>
-      <c r="K48" s="67">
+        <v>-2.6994022761119023</v>
+      </c>
+      <c r="J48" s="161">
         <f t="shared" si="9"/>
-        <v>-82.32075880775642</v>
-      </c>
-      <c r="L48" s="71">
+        <v>-109.22980808549258</v>
+      </c>
+      <c r="K48" s="162">
         <f t="shared" si="10"/>
-        <v>0.65801934140225371</v>
-      </c>
-      <c r="M48" s="72">
+        <v>-88.389837160042191</v>
+      </c>
+      <c r="L48" s="163">
         <f t="shared" si="11"/>
-        <v>106.53197132697777</v>
-      </c>
-      <c r="N48" s="73">
+        <v>1.1773202265452523</v>
+      </c>
+      <c r="M48" s="164">
         <f t="shared" si="12"/>
-        <v>82.312052626784237</v>
-      </c>
-      <c r="O48" s="65">
+        <v>109.61575248647191</v>
+      </c>
+      <c r="N48" s="165">
         <f t="shared" si="13"/>
-        <v>0.11107879959143346</v>
-      </c>
-      <c r="P48" s="66">
+        <v>77.46136307059416</v>
+      </c>
+      <c r="O48" s="160">
         <f t="shared" si="14"/>
-        <v>134.1682492757819</v>
-      </c>
-      <c r="Q48" s="67">
+        <v>7.060163567589163E-2</v>
+      </c>
+      <c r="P48" s="161">
         <f t="shared" si="15"/>
-        <v>14.960466593963563</v>
-      </c>
-      <c r="R48" s="71">
+        <v>134.8566520470398</v>
+      </c>
+      <c r="Q48" s="162">
         <f t="shared" si="16"/>
-        <v>-0.43586174221938684</v>
-      </c>
-      <c r="S48" s="72">
+        <v>4.0590675385515542</v>
+      </c>
+      <c r="R48" s="163">
         <f t="shared" si="17"/>
-        <v>122.05104359233296</v>
-      </c>
-      <c r="T48" s="73">
+        <v>-1.036116955193469</v>
+      </c>
+      <c r="S48" s="164">
         <f t="shared" si="18"/>
-        <v>-56.825140086101456</v>
+        <v>120.19720202344473</v>
+      </c>
+      <c r="T48" s="165">
+        <f t="shared" si="19"/>
+        <v>-72.164947870017144</v>
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="61">
         <v>0.85</v>
       </c>
-      <c r="C49" s="65">
-        <f t="shared" si="1"/>
-        <v>2.7245473709017625</v>
-      </c>
-      <c r="D49" s="66">
+      <c r="C49" s="160">
         <f t="shared" si="2"/>
-        <v>-123.08142798889988</v>
-      </c>
-      <c r="E49" s="67">
+        <v>2.8523724867430009</v>
+      </c>
+      <c r="D49" s="161">
         <f t="shared" si="3"/>
-        <v>54.546561488445221</v>
-      </c>
-      <c r="F49" s="71">
+        <v>-120.51814986952206</v>
+      </c>
+      <c r="E49" s="162">
         <f t="shared" si="4"/>
-        <v>3.2711845864464655</v>
-      </c>
-      <c r="G49" s="72">
+        <v>58.911012978610273</v>
+      </c>
+      <c r="F49" s="163">
         <f t="shared" si="5"/>
-        <v>-133.86765664013612</v>
-      </c>
-      <c r="H49" s="73">
+        <v>3.2239612285449999</v>
+      </c>
+      <c r="G49" s="164">
         <f t="shared" si="6"/>
-        <v>-17.451058413071326</v>
-      </c>
-      <c r="I49" s="65">
+        <v>-134.27968236184699</v>
+      </c>
+      <c r="H49" s="165">
         <f t="shared" si="7"/>
-        <v>-2.4653635051884177</v>
-      </c>
-      <c r="J49" s="66">
+        <v>-17.480218347129487</v>
+      </c>
+      <c r="I49" s="160">
         <f t="shared" si="8"/>
-        <v>-104.98929686774301</v>
-      </c>
-      <c r="K49" s="67">
+        <v>-2.6876353368325874</v>
+      </c>
+      <c r="J49" s="161">
         <f t="shared" si="9"/>
-        <v>-84.279497994257369</v>
-      </c>
-      <c r="L49" s="71">
+        <v>-108.17682979673131</v>
+      </c>
+      <c r="K49" s="162">
         <f t="shared" si="10"/>
-        <v>0.67653247466749267</v>
-      </c>
-      <c r="M49" s="72">
+        <v>-90.580430986791768</v>
+      </c>
+      <c r="L49" s="163">
         <f t="shared" si="11"/>
-        <v>104.98995544696859</v>
-      </c>
-      <c r="N49" s="73">
+        <v>1.1890871658245676</v>
+      </c>
+      <c r="M49" s="164">
         <f t="shared" si="12"/>
-        <v>84.269348330345778</v>
-      </c>
-      <c r="O49" s="65">
+        <v>108.70206421076099</v>
+      </c>
+      <c r="N49" s="165">
         <f t="shared" si="13"/>
-        <v>0.12959193285667234</v>
-      </c>
-      <c r="P49" s="66">
+        <v>77.834370423556081</v>
+      </c>
+      <c r="O49" s="160">
         <f t="shared" si="14"/>
-        <v>133.86831521936168</v>
-      </c>
-      <c r="Q49" s="67">
+        <v>8.2368574955206886E-2</v>
+      </c>
+      <c r="P49" s="161">
         <f t="shared" si="15"/>
-        <v>17.440908749159757</v>
-      </c>
-      <c r="R49" s="71">
+        <v>134.80491677587665</v>
+      </c>
+      <c r="Q49" s="162">
         <f t="shared" si="16"/>
-        <v>-0.41734860895414794</v>
-      </c>
-      <c r="S49" s="72">
+        <v>4.7341577838938296</v>
+      </c>
+      <c r="R49" s="163">
         <f t="shared" si="17"/>
-        <v>123.08208656812548</v>
-      </c>
-      <c r="T49" s="73">
+        <v>-1.0243500159141536</v>
+      </c>
+      <c r="S49" s="164">
         <f t="shared" si="18"/>
-        <v>-54.556711152356797</v>
+        <v>121.04338428355177</v>
+      </c>
+      <c r="T49" s="165">
+        <f t="shared" si="19"/>
+        <v>-71.657073541845946</v>
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="60">
         <v>0.9</v>
       </c>
-      <c r="C50" s="65">
-        <f t="shared" si="1"/>
-        <v>2.7430605041670013</v>
-      </c>
-      <c r="D50" s="66">
+      <c r="C50" s="160">
         <f t="shared" si="2"/>
-        <v>-124.07009971630248</v>
-      </c>
-      <c r="E50" s="67">
+        <v>2.8641394260223163</v>
+      </c>
+      <c r="D50" s="161">
         <f t="shared" si="3"/>
-        <v>52.257994529778742</v>
-      </c>
-      <c r="F50" s="71">
+        <v>-121.19763025409532</v>
+      </c>
+      <c r="E50" s="162">
         <f t="shared" si="4"/>
-        <v>3.2896977197117043</v>
-      </c>
-      <c r="G50" s="72">
+        <v>56.577395401247486</v>
+      </c>
+      <c r="F50" s="163">
         <f t="shared" si="5"/>
-        <v>-133.52165461093401</v>
-      </c>
-      <c r="H50" s="73">
+        <v>3.2357281678243153</v>
+      </c>
+      <c r="G50" s="164">
         <f t="shared" si="6"/>
-        <v>-19.926963114274553</v>
-      </c>
-      <c r="I50" s="65">
+        <v>-134.05933980351173</v>
+      </c>
+      <c r="H50" s="165">
         <f t="shared" si="7"/>
-        <v>-2.4468503719231789</v>
-      </c>
-      <c r="J50" s="66">
+        <v>-19.970474768120699</v>
+      </c>
+      <c r="I50" s="160">
         <f t="shared" si="8"/>
-        <v>-103.41111038876282</v>
-      </c>
-      <c r="K50" s="67">
+        <v>-2.675868397553272</v>
+      </c>
+      <c r="J50" s="161">
         <f t="shared" si="9"/>
-        <v>-86.209352379030832</v>
-      </c>
-      <c r="L50" s="71">
+        <v>-107.09814841556084</v>
+      </c>
+      <c r="K50" s="162">
         <f t="shared" si="10"/>
-        <v>0.69504560793273162</v>
-      </c>
-      <c r="M50" s="72">
+        <v>-92.758483113879748</v>
+      </c>
+      <c r="L50" s="163">
         <f t="shared" si="11"/>
-        <v>103.41197020531315</v>
-      </c>
-      <c r="N50" s="73">
+        <v>1.2008541051038828</v>
+      </c>
+      <c r="M50" s="164">
         <f t="shared" si="12"/>
-        <v>86.197762710736725</v>
-      </c>
-      <c r="O50" s="65">
+        <v>107.78405013576642</v>
+      </c>
+      <c r="N50" s="165">
         <f t="shared" si="13"/>
-        <v>0.14810506612191127</v>
-      </c>
-      <c r="P50" s="66">
+        <v>78.196600887000315</v>
+      </c>
+      <c r="O50" s="160">
         <f t="shared" si="14"/>
-        <v>133.52251442748434</v>
-      </c>
-      <c r="Q50" s="67">
+        <v>9.4135514234522155E-2</v>
+      </c>
+      <c r="P50" s="161">
         <f t="shared" si="15"/>
-        <v>19.915373445980478</v>
-      </c>
-      <c r="R50" s="71">
+        <v>134.74524152371728</v>
+      </c>
+      <c r="Q50" s="162">
         <f t="shared" si="16"/>
-        <v>-0.39883547568890904</v>
-      </c>
-      <c r="S50" s="72">
+        <v>5.4085925412412958</v>
+      </c>
+      <c r="R50" s="163">
         <f t="shared" si="17"/>
-        <v>124.07095953285281</v>
-      </c>
-      <c r="T50" s="73">
+        <v>-1.0125830766348385</v>
+      </c>
+      <c r="S50" s="164">
         <f t="shared" si="18"/>
-        <v>-52.26958419807282</v>
+        <v>121.88353197430089</v>
+      </c>
+      <c r="T50" s="165">
+        <f t="shared" si="19"/>
+        <v>-71.139277628126919</v>
       </c>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="61">
         <v>0.95</v>
       </c>
-      <c r="C51" s="65">
-        <f t="shared" si="1"/>
-        <v>2.7615736374322402</v>
-      </c>
-      <c r="D51" s="66">
+      <c r="C51" s="160">
         <f t="shared" si="2"/>
-        <v>-125.01623589686776</v>
-      </c>
-      <c r="E51" s="67">
+        <v>2.8759063653016317</v>
+      </c>
+      <c r="D51" s="161">
         <f t="shared" si="3"/>
-        <v>49.951517381248848</v>
-      </c>
-      <c r="F51" s="71">
+        <v>-121.84960469583228</v>
+      </c>
+      <c r="E51" s="162">
         <f t="shared" si="4"/>
-        <v>3.3082108529769432</v>
-      </c>
-      <c r="G51" s="72">
+        <v>54.235944159449339</v>
+      </c>
+      <c r="F51" s="163">
         <f t="shared" si="5"/>
-        <v>-133.12987773832018</v>
-      </c>
-      <c r="H51" s="73">
+        <v>3.2474951071036307</v>
+      </c>
+      <c r="G51" s="164">
         <f t="shared" si="6"/>
-        <v>-22.39603832085233</v>
-      </c>
-      <c r="I51" s="65">
+        <v>-133.80971047952286</v>
+      </c>
+      <c r="H51" s="165">
         <f t="shared" si="7"/>
-        <v>-2.42833723865794</v>
-      </c>
-      <c r="J51" s="66">
+        <v>-22.457966091905885</v>
+      </c>
+      <c r="I51" s="160">
         <f t="shared" si="8"/>
-        <v>-101.79746874221689</v>
-      </c>
-      <c r="K51" s="67">
+        <v>-2.6641014582739566</v>
+      </c>
+      <c r="J51" s="161">
         <f t="shared" si="9"/>
-        <v>-88.109660550196153</v>
-      </c>
-      <c r="L51" s="71">
+        <v>-105.99391329540958</v>
+      </c>
+      <c r="K51" s="162">
         <f t="shared" si="10"/>
-        <v>0.71355874119797047</v>
-      </c>
-      <c r="M51" s="72">
+        <v>-94.92369196981511</v>
+      </c>
+      <c r="L51" s="163">
         <f t="shared" si="11"/>
-        <v>101.79855641907753</v>
-      </c>
-      <c r="N51" s="73">
+        <v>1.212621044383198</v>
+      </c>
+      <c r="M51" s="164">
         <f t="shared" si="12"/>
-        <v>88.096634849603845</v>
-      </c>
-      <c r="O51" s="65">
+        <v>106.86183736903985</v>
+      </c>
+      <c r="N51" s="165">
         <f t="shared" si="13"/>
-        <v>0.16661819938715014</v>
-      </c>
-      <c r="P51" s="66">
+        <v>78.548004306764113</v>
+      </c>
+      <c r="O51" s="160">
         <f t="shared" si="14"/>
-        <v>133.13096541518081</v>
-      </c>
-      <c r="Q51" s="67">
+        <v>0.10590245351383741</v>
+      </c>
+      <c r="P51" s="161">
         <f t="shared" si="15"/>
-        <v>22.383012620260047</v>
-      </c>
-      <c r="R51" s="71">
+        <v>134.6776345531531</v>
+      </c>
+      <c r="Q51" s="162">
         <f t="shared" si="16"/>
-        <v>-0.38032234242367013</v>
-      </c>
-      <c r="S51" s="72">
+        <v>6.0822784288549174</v>
+      </c>
+      <c r="R51" s="163">
         <f t="shared" si="17"/>
-        <v>125.01732357372842</v>
-      </c>
-      <c r="T51" s="73">
+        <v>-1.0008161373555233</v>
+      </c>
+      <c r="S51" s="164">
         <f t="shared" si="18"/>
-        <v>-49.964543081841143</v>
+        <v>122.71752876946249</v>
+      </c>
+      <c r="T51" s="165">
+        <f t="shared" si="19"/>
+        <v>-70.611631822500328</v>
       </c>
     </row>
     <row r="52" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="87">
+      <c r="B52" s="72">
         <v>1</v>
       </c>
-      <c r="C52" s="88">
-        <f t="shared" si="1"/>
-        <v>2.780086770697479</v>
-      </c>
-      <c r="D52" s="89">
+      <c r="C52" s="169">
         <f t="shared" si="2"/>
-        <v>-125.91951226482961</v>
-      </c>
-      <c r="E52" s="90">
+        <v>2.8876733045809466</v>
+      </c>
+      <c r="D52" s="170">
         <f t="shared" si="3"/>
-        <v>47.62792053326794</v>
-      </c>
-      <c r="F52" s="91">
+        <v>-122.47398292283262</v>
+      </c>
+      <c r="E52" s="171">
         <f t="shared" si="4"/>
-        <v>3.326723986242182</v>
-      </c>
-      <c r="G52" s="92">
+        <v>51.886983448827763</v>
+      </c>
+      <c r="F52" s="172">
         <f t="shared" si="5"/>
-        <v>-132.69246029453819</v>
-      </c>
-      <c r="H52" s="93">
+        <v>3.259262046382946</v>
+      </c>
+      <c r="G52" s="173">
         <f t="shared" si="6"/>
-        <v>-24.857437815759127</v>
-      </c>
-      <c r="I52" s="88">
+        <v>-133.53082895337246</v>
+      </c>
+      <c r="H52" s="174">
         <f t="shared" si="7"/>
-        <v>-2.4098241053927012</v>
-      </c>
-      <c r="J52" s="89">
+        <v>-24.942347902271134</v>
+      </c>
+      <c r="I52" s="169">
         <f t="shared" si="8"/>
-        <v>-100.14892496555947</v>
-      </c>
-      <c r="K52" s="90">
+        <v>-2.6523345189946417</v>
+      </c>
+      <c r="J52" s="170">
         <f t="shared" si="9"/>
-        <v>-89.979771222137614</v>
-      </c>
-      <c r="L52" s="91">
+        <v>-104.86427732785779</v>
+      </c>
+      <c r="K52" s="171">
         <f t="shared" si="10"/>
-        <v>0.73207187446320932</v>
-      </c>
-      <c r="M52" s="92">
+        <v>-97.075757761376607</v>
+      </c>
+      <c r="L52" s="172">
         <f t="shared" si="11"/>
-        <v>100.15026704762228</v>
-      </c>
-      <c r="N52" s="93">
+        <v>1.2243879836625133</v>
+      </c>
+      <c r="M52" s="173">
         <f t="shared" si="12"/>
-        <v>89.965313953497443</v>
-      </c>
-      <c r="O52" s="88">
+        <v>105.93555359948068</v>
+      </c>
+      <c r="N52" s="174">
         <f t="shared" si="13"/>
-        <v>0.18513133265238907</v>
-      </c>
-      <c r="P52" s="89">
+        <v>78.88853202778914</v>
+      </c>
+      <c r="O52" s="169">
         <f t="shared" si="14"/>
-        <v>132.69380237660101</v>
-      </c>
-      <c r="Q52" s="90">
+        <v>0.11766939279315269</v>
+      </c>
+      <c r="P52" s="170">
         <f t="shared" si="15"/>
-        <v>24.842980547118994</v>
-      </c>
-      <c r="R52" s="91">
+        <v>134.60210522499534</v>
+      </c>
+      <c r="Q52" s="171">
         <f t="shared" si="16"/>
-        <v>-0.36180920915843123</v>
-      </c>
-      <c r="S52" s="92">
+        <v>6.755122168683612</v>
+      </c>
+      <c r="R52" s="172">
         <f t="shared" si="17"/>
-        <v>125.92085434689243</v>
-      </c>
-      <c r="T52" s="93">
+        <v>-0.98904919807620795</v>
+      </c>
+      <c r="S52" s="173">
         <f t="shared" si="18"/>
-        <v>-47.642377801908076</v>
+        <v>123.54525919445554</v>
+      </c>
+      <c r="T52" s="174">
+        <f t="shared" si="19"/>
+        <v>-70.074209182415203</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="49">
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="G19:M24"/>
+    <mergeCell ref="B29:T29"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="G13:M18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -6055,38 +6843,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="G12:M12"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="G13:M18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="G19:M24"/>
-    <mergeCell ref="B29:T29"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:M25"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6102,637 +6858,422 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="52">
-        <v>25</v>
-      </c>
-      <c r="D2" s="52">
-        <v>1999</v>
-      </c>
+        <f>170/2000</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-85</v>
       </c>
-      <c r="B3" s="94">
-        <f t="shared" ref="B3:B19" si="0">ABS(A3)/$B$2</f>
-        <v>3.4</v>
-      </c>
-      <c r="C3" s="94">
-        <f>EXP(B3) / EXP($B$3)</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="95">
-        <f t="shared" ref="D3:D38" si="1">$D$2*C3</f>
-        <v>1999</v>
-      </c>
+      <c r="B3" s="73">
+        <f>A3/$B$2</f>
+        <v>-999.99999999999989</v>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-80</v>
       </c>
-      <c r="B4" s="94">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="C4" s="94">
-        <f t="shared" ref="C4:C23" si="2">EXP(B4) / EXP($B$3)</f>
-        <v>0.81873075307798204</v>
-      </c>
-      <c r="D4" s="95">
-        <f t="shared" si="1"/>
-        <v>1636.6427754028862</v>
-      </c>
+      <c r="B4" s="73">
+        <f t="shared" ref="B4:B38" si="0">A4/$B$2</f>
+        <v>-941.17647058823525</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-75</v>
       </c>
-      <c r="B5" s="94">
+      <c r="B5" s="73">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="94">
-        <f t="shared" si="2"/>
-        <v>0.67032004603563933</v>
-      </c>
-      <c r="D5" s="95">
-        <f t="shared" si="1"/>
-        <v>1339.9697720252429</v>
-      </c>
+        <v>-882.35294117647049</v>
+      </c>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-70</v>
       </c>
-      <c r="B6" s="94">
+      <c r="B6" s="73">
         <f t="shared" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="C6" s="94">
-        <f t="shared" si="2"/>
-        <v>0.54881163609402639</v>
-      </c>
-      <c r="D6" s="95">
-        <f t="shared" si="1"/>
-        <v>1097.0744605519587</v>
-      </c>
+        <v>-823.52941176470586</v>
+      </c>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-65</v>
       </c>
-      <c r="B7" s="94">
+      <c r="B7" s="73">
         <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-      <c r="C7" s="94">
-        <f t="shared" si="2"/>
-        <v>0.44932896411722167</v>
-      </c>
-      <c r="D7" s="95">
-        <f t="shared" si="1"/>
-        <v>898.20859927032609</v>
-      </c>
+        <v>-764.7058823529411</v>
+      </c>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-60</v>
       </c>
-      <c r="B8" s="94">
+      <c r="B8" s="73">
         <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="C8" s="94">
-        <f t="shared" si="2"/>
-        <v>0.36787944117144233</v>
-      </c>
-      <c r="D8" s="95">
-        <f t="shared" si="1"/>
-        <v>735.39100290171325</v>
-      </c>
+        <v>-705.88235294117646</v>
+      </c>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-55</v>
       </c>
-      <c r="B9" s="94">
+      <c r="B9" s="73">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C9" s="94">
-        <f t="shared" si="2"/>
-        <v>0.30119421191220214</v>
-      </c>
-      <c r="D9" s="95">
-        <f t="shared" si="1"/>
-        <v>602.08722961249202</v>
-      </c>
+        <v>-647.05882352941171</v>
+      </c>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-50</v>
       </c>
-      <c r="B10" s="94">
+      <c r="B10" s="73">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C10" s="94">
-        <f t="shared" si="2"/>
-        <v>0.24659696394160649</v>
-      </c>
-      <c r="D10" s="95">
-        <f t="shared" si="1"/>
-        <v>492.94733091927139</v>
-      </c>
+        <v>-588.23529411764707</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-45</v>
       </c>
-      <c r="B11" s="94">
+      <c r="B11" s="73">
         <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="C11" s="94">
-        <f t="shared" si="2"/>
-        <v>0.20189651799465544</v>
-      </c>
-      <c r="D11" s="95">
-        <f t="shared" si="1"/>
-        <v>403.59113947131624</v>
-      </c>
+        <v>-529.41176470588232</v>
+      </c>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-40</v>
       </c>
-      <c r="B12" s="94">
+      <c r="B12" s="73">
         <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="C12" s="94">
-        <f t="shared" si="2"/>
-        <v>0.16529888822158656</v>
-      </c>
-      <c r="D12" s="95">
-        <f t="shared" si="1"/>
-        <v>330.43247755495156</v>
-      </c>
+        <v>-470.58823529411762</v>
+      </c>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-35</v>
       </c>
-      <c r="B13" s="94">
+      <c r="B13" s="73">
         <f t="shared" si="0"/>
-        <v>1.4</v>
-      </c>
-      <c r="C13" s="94">
-        <f t="shared" si="2"/>
-        <v>0.1353352832366127</v>
-      </c>
-      <c r="D13" s="95">
-        <f t="shared" si="1"/>
-        <v>270.53523118998879</v>
-      </c>
+        <v>-411.76470588235293</v>
+      </c>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-30</v>
       </c>
-      <c r="B14" s="94">
+      <c r="B14" s="73">
         <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="C14" s="94">
-        <f t="shared" si="2"/>
-        <v>0.11080315836233388</v>
-      </c>
-      <c r="D14" s="95">
-        <f t="shared" si="1"/>
-        <v>221.49551356630545</v>
-      </c>
+        <v>-352.94117647058823</v>
+      </c>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-25</v>
       </c>
-      <c r="B15" s="94">
+      <c r="B15" s="73">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C15" s="94">
-        <f t="shared" si="2"/>
-        <v>9.0717953289412512E-2</v>
-      </c>
-      <c r="D15" s="95">
-        <f t="shared" si="1"/>
-        <v>181.3451886255356</v>
-      </c>
+        <v>-294.11764705882354</v>
+      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-20</v>
       </c>
-      <c r="B16" s="94">
+      <c r="B16" s="73">
         <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="C16" s="94">
-        <f t="shared" si="2"/>
-        <v>7.4273578214333891E-2</v>
-      </c>
-      <c r="D16" s="95">
-        <f t="shared" si="1"/>
-        <v>148.47288285045346</v>
-      </c>
+        <v>-235.29411764705881</v>
+      </c>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-15</v>
       </c>
-      <c r="B17" s="94">
+      <c r="B17" s="73">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="C17" s="94">
-        <f t="shared" si="2"/>
-        <v>6.0810062625217966E-2</v>
-      </c>
-      <c r="D17" s="95">
-        <f t="shared" si="1"/>
-        <v>121.55931518781071</v>
-      </c>
+        <v>-176.47058823529412</v>
+      </c>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-10</v>
       </c>
-      <c r="B18" s="94">
+      <c r="B18" s="73">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="C18" s="94">
-        <f t="shared" si="2"/>
-        <v>4.9787068367863951E-2</v>
-      </c>
-      <c r="D18" s="95">
-        <f t="shared" si="1"/>
-        <v>99.524349667360042</v>
-      </c>
+        <v>-117.64705882352941</v>
+      </c>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-5</v>
       </c>
-      <c r="B19" s="94">
+      <c r="B19" s="73">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="C19" s="94">
-        <f t="shared" si="2"/>
-        <v>4.0762203978366218E-2</v>
-      </c>
-      <c r="D19" s="95">
-        <f t="shared" si="1"/>
-        <v>81.483645752754072</v>
-      </c>
+        <v>-58.823529411764703</v>
+      </c>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-1</v>
       </c>
-      <c r="B20" s="94">
-        <f>ABS(A20)/$B$2</f>
-        <v>0.04</v>
-      </c>
-      <c r="C20" s="94">
-        <f t="shared" si="2"/>
-        <v>3.4735258944738563E-2</v>
-      </c>
-      <c r="D20" s="95">
-        <f t="shared" si="1"/>
-        <v>69.435782630532387</v>
-      </c>
+      <c r="B20" s="73">
+        <f t="shared" si="0"/>
+        <v>-11.76470588235294</v>
+      </c>
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="94">
-        <f>ABS(A21)/$B$2</f>
-        <v>0.04</v>
-      </c>
-      <c r="C21" s="94">
-        <f t="shared" si="2"/>
-        <v>3.4735258944738563E-2</v>
-      </c>
-      <c r="D21" s="95">
-        <f t="shared" si="1"/>
-        <v>69.435782630532387</v>
-      </c>
+      <c r="B21" s="73">
+        <f t="shared" si="0"/>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="C21" s="73"/>
+      <c r="D21" s="74"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
-      <c r="B22" s="94">
-        <f t="shared" ref="B22:B38" si="3">ABS(A22)/$B$2</f>
-        <v>0.2</v>
-      </c>
-      <c r="C22" s="94">
-        <f t="shared" si="2"/>
-        <v>4.0762203978366218E-2</v>
-      </c>
-      <c r="D22" s="95">
-        <f t="shared" si="1"/>
-        <v>81.483645752754072</v>
-      </c>
+      <c r="B22" s="73">
+        <f t="shared" si="0"/>
+        <v>58.823529411764703</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10</v>
       </c>
-      <c r="B23" s="94">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="C23" s="94">
-        <f t="shared" si="2"/>
-        <v>4.9787068367863951E-2</v>
-      </c>
-      <c r="D23" s="95">
-        <f t="shared" si="1"/>
-        <v>99.524349667360042</v>
-      </c>
+      <c r="B23" s="73">
+        <f t="shared" si="0"/>
+        <v>117.64705882352941</v>
+      </c>
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>15</v>
       </c>
-      <c r="B24" s="94">
-        <f t="shared" si="3"/>
-        <v>0.6</v>
-      </c>
-      <c r="C24" s="94">
-        <f t="shared" ref="C24:C38" si="4">EXP(B24) / EXP($B$38)</f>
-        <v>6.0810062625217966E-2</v>
-      </c>
-      <c r="D24" s="95">
-        <f t="shared" si="1"/>
-        <v>121.55931518781071</v>
-      </c>
+      <c r="B24" s="73">
+        <f t="shared" si="0"/>
+        <v>176.47058823529412</v>
+      </c>
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
-      <c r="B25" s="94">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-      <c r="C25" s="94">
-        <f t="shared" si="4"/>
-        <v>7.4273578214333891E-2</v>
-      </c>
-      <c r="D25" s="95">
-        <f t="shared" si="1"/>
-        <v>148.47288285045346</v>
-      </c>
+      <c r="B25" s="73">
+        <f t="shared" si="0"/>
+        <v>235.29411764705881</v>
+      </c>
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="94">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C26" s="94">
-        <f t="shared" si="4"/>
-        <v>9.0717953289412512E-2</v>
-      </c>
-      <c r="D26" s="95">
-        <f t="shared" si="1"/>
-        <v>181.3451886255356</v>
-      </c>
+      <c r="B26" s="73">
+        <f t="shared" si="0"/>
+        <v>294.11764705882354</v>
+      </c>
+      <c r="C26" s="73"/>
+      <c r="D26" s="74"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>30</v>
       </c>
-      <c r="B27" s="94">
-        <f t="shared" si="3"/>
-        <v>1.2</v>
-      </c>
-      <c r="C27" s="94">
-        <f t="shared" si="4"/>
-        <v>0.11080315836233388</v>
-      </c>
-      <c r="D27" s="95">
-        <f t="shared" si="1"/>
-        <v>221.49551356630545</v>
-      </c>
+      <c r="B27" s="73">
+        <f t="shared" si="0"/>
+        <v>352.94117647058823</v>
+      </c>
+      <c r="C27" s="73"/>
+      <c r="D27" s="74"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>35</v>
       </c>
-      <c r="B28" s="94">
-        <f t="shared" si="3"/>
-        <v>1.4</v>
-      </c>
-      <c r="C28" s="94">
-        <f t="shared" si="4"/>
-        <v>0.1353352832366127</v>
-      </c>
-      <c r="D28" s="95">
-        <f t="shared" si="1"/>
-        <v>270.53523118998879</v>
-      </c>
+      <c r="B28" s="73">
+        <f t="shared" si="0"/>
+        <v>411.76470588235293</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>40</v>
       </c>
-      <c r="B29" s="94">
-        <f t="shared" si="3"/>
-        <v>1.6</v>
-      </c>
-      <c r="C29" s="94">
-        <f t="shared" si="4"/>
-        <v>0.16529888822158656</v>
-      </c>
-      <c r="D29" s="95">
-        <f t="shared" si="1"/>
-        <v>330.43247755495156</v>
-      </c>
+      <c r="B29" s="73">
+        <f t="shared" si="0"/>
+        <v>470.58823529411762</v>
+      </c>
+      <c r="C29" s="73"/>
+      <c r="D29" s="74"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>45</v>
       </c>
-      <c r="B30" s="94">
-        <f t="shared" si="3"/>
-        <v>1.8</v>
-      </c>
-      <c r="C30" s="94">
-        <f t="shared" si="4"/>
-        <v>0.20189651799465544</v>
-      </c>
-      <c r="D30" s="95">
-        <f t="shared" si="1"/>
-        <v>403.59113947131624</v>
-      </c>
+      <c r="B30" s="73">
+        <f t="shared" si="0"/>
+        <v>529.41176470588232</v>
+      </c>
+      <c r="C30" s="73"/>
+      <c r="D30" s="74"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>50</v>
       </c>
-      <c r="B31" s="94">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="C31" s="94">
-        <f t="shared" si="4"/>
-        <v>0.24659696394160649</v>
-      </c>
-      <c r="D31" s="95">
-        <f t="shared" si="1"/>
-        <v>492.94733091927139</v>
-      </c>
+      <c r="B31" s="73">
+        <f t="shared" si="0"/>
+        <v>588.23529411764707</v>
+      </c>
+      <c r="C31" s="73"/>
+      <c r="D31" s="74"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>55</v>
       </c>
-      <c r="B32" s="94">
-        <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C32" s="94">
-        <f t="shared" si="4"/>
-        <v>0.30119421191220214</v>
-      </c>
-      <c r="D32" s="95">
-        <f t="shared" si="1"/>
-        <v>602.08722961249202</v>
-      </c>
+      <c r="B32" s="73">
+        <f t="shared" si="0"/>
+        <v>647.05882352941171</v>
+      </c>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>60</v>
       </c>
-      <c r="B33" s="94">
-        <f t="shared" si="3"/>
-        <v>2.4</v>
-      </c>
-      <c r="C33" s="94">
-        <f t="shared" si="4"/>
-        <v>0.36787944117144233</v>
-      </c>
-      <c r="D33" s="95">
-        <f t="shared" si="1"/>
-        <v>735.39100290171325</v>
-      </c>
+      <c r="B33" s="73">
+        <f t="shared" si="0"/>
+        <v>705.88235294117646</v>
+      </c>
+      <c r="C33" s="73"/>
+      <c r="D33" s="74"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>65</v>
       </c>
-      <c r="B34" s="94">
-        <f t="shared" si="3"/>
-        <v>2.6</v>
-      </c>
-      <c r="C34" s="94">
-        <f t="shared" si="4"/>
-        <v>0.44932896411722167</v>
-      </c>
-      <c r="D34" s="95">
-        <f t="shared" si="1"/>
-        <v>898.20859927032609</v>
-      </c>
+      <c r="B34" s="73">
+        <f t="shared" si="0"/>
+        <v>764.7058823529411</v>
+      </c>
+      <c r="C34" s="73"/>
+      <c r="D34" s="74"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>70</v>
       </c>
-      <c r="B35" s="94">
-        <f t="shared" si="3"/>
-        <v>2.8</v>
-      </c>
-      <c r="C35" s="94">
-        <f t="shared" si="4"/>
-        <v>0.54881163609402639</v>
-      </c>
-      <c r="D35" s="95">
-        <f t="shared" si="1"/>
-        <v>1097.0744605519587</v>
-      </c>
+      <c r="B35" s="73">
+        <f t="shared" si="0"/>
+        <v>823.52941176470586</v>
+      </c>
+      <c r="C35" s="73"/>
+      <c r="D35" s="74"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>75</v>
       </c>
-      <c r="B36" s="94">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="C36" s="94">
-        <f t="shared" si="4"/>
-        <v>0.67032004603563933</v>
-      </c>
-      <c r="D36" s="95">
-        <f t="shared" si="1"/>
-        <v>1339.9697720252429</v>
-      </c>
+      <c r="B36" s="73">
+        <f t="shared" si="0"/>
+        <v>882.35294117647049</v>
+      </c>
+      <c r="C36" s="73"/>
+      <c r="D36" s="74"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>80</v>
       </c>
-      <c r="B37" s="94">
-        <f t="shared" si="3"/>
-        <v>3.2</v>
-      </c>
-      <c r="C37" s="94">
-        <f t="shared" si="4"/>
-        <v>0.81873075307798204</v>
-      </c>
-      <c r="D37" s="95">
-        <f t="shared" si="1"/>
-        <v>1636.6427754028862</v>
-      </c>
+      <c r="B37" s="73">
+        <f t="shared" si="0"/>
+        <v>941.17647058823525</v>
+      </c>
+      <c r="C37" s="73"/>
+      <c r="D37" s="74"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>85</v>
       </c>
-      <c r="B38" s="94">
-        <f t="shared" si="3"/>
-        <v>3.4</v>
-      </c>
-      <c r="C38" s="94">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="D38" s="95">
-        <f t="shared" si="1"/>
-        <v>1999</v>
-      </c>
+      <c r="B38" s="73">
+        <f t="shared" si="0"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="C38" s="73"/>
+      <c r="D38" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/IK and trajectory algorithms.xlsx
+++ b/docs/IK and trajectory algorithms.xlsx
@@ -264,8 +264,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -992,12 +992,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1119,9 +1113,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1142,9 +1133,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1173,12 +1161,6 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1188,7 +1170,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1203,6 +1185,103 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1218,12 +1297,111 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1254,12 +1432,6 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1293,208 +1465,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="15" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2529,7 +2529,7 @@
             <c:numRef>
               <c:f>'Advance trajectory'!$E$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>77.459666924148308</c:v>
@@ -2573,37 +2573,37 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>77.459666924148308</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-115</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00">
                   <c:v>77.459666924148308</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-135</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.00">
                   <c:v>77.459666924148308</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-115</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0.00">
                   <c:v>77.459666924148308</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>115</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="0.00">
                   <c:v>77.459666924148308</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="0.00">
                   <c:v>77.459666924148308</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -2667,11 +2667,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245588736"/>
-        <c:axId val="245590272"/>
+        <c:axId val="217349120"/>
+        <c:axId val="218104576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245588736"/>
+        <c:axId val="217349120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -2702,13 +2702,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245590272"/>
+        <c:crossAx val="218104576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245590272"/>
+        <c:axId val="218104576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -2748,7 +2748,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245588736"/>
+        <c:crossAx val="217349120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -3076,11 +3076,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202020352"/>
-        <c:axId val="201879552"/>
+        <c:axId val="192384000"/>
+        <c:axId val="218113536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202020352"/>
+        <c:axId val="192384000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -3093,13 +3093,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201879552"/>
+        <c:crossAx val="218113536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201879552"/>
+        <c:axId val="218113536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -3112,7 +3112,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202020352"/>
+        <c:crossAx val="192384000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
@@ -3285,11 +3285,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139575680"/>
-        <c:axId val="139583872"/>
+        <c:axId val="218432640"/>
+        <c:axId val="218434176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139575680"/>
+        <c:axId val="218432640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3298,7 +3298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139583872"/>
+        <c:crossAx val="218434176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3306,7 +3306,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139583872"/>
+        <c:axId val="218434176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3317,7 +3317,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139575680"/>
+        <c:crossAx val="218432640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3344,8 +3344,8 @@
       <xdr:rowOff>117661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>764687</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>13893</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>82808</xdr:rowOff>
     </xdr:to>
@@ -3741,24 +3741,24 @@
       <c r="C2" s="2">
         <v>45</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80" t="s">
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="80"/>
-      <c r="J2" s="81" t="s">
+      <c r="I2" s="107"/>
+      <c r="J2" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="82" t="s">
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="82"/>
+      <c r="N2" s="109"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -3767,34 +3767,34 @@
       <c r="C3" s="4">
         <v>101</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3805,45 +3805,45 @@
       <c r="C4" s="4">
         <v>47</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <f>C9*COS(RADIANS(C2)) + C11*SIN(RADIANS(C2))</f>
-        <v>141.42135623730951</v>
-      </c>
-      <c r="F4" s="15">
+        <v>95.459415460183919</v>
+      </c>
+      <c r="F4" s="13">
         <f>C10</f>
-        <v>-40</v>
-      </c>
-      <c r="G4" s="16">
+        <v>-15</v>
+      </c>
+      <c r="G4" s="14">
         <f>-C9*SIN(RADIANS(C2)) + C11*COS(RADIANS(C2))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="17">
+        <v>-95.459415460183905</v>
+      </c>
+      <c r="H4" s="15">
         <f>ATAN2(E4, G4)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="18">
+        <v>-0.78539816339744828</v>
+      </c>
+      <c r="I4" s="16">
         <f>DEGREES(H4)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="19">
+        <v>-45</v>
+      </c>
+      <c r="J4" s="17">
         <f>E4*COS(H4) + G4*SIN(H4)</f>
-        <v>141.42135623730951</v>
-      </c>
-      <c r="K4" s="15">
+        <v>135</v>
+      </c>
+      <c r="K4" s="13">
         <f>F4</f>
-        <v>-40</v>
-      </c>
-      <c r="L4" s="20">
+        <v>-15</v>
+      </c>
+      <c r="L4" s="18">
         <f>-E4*SIN(H4) + G4*COS(H4)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="19">
         <f>J4-C5</f>
-        <v>101.42135623730951</v>
-      </c>
-      <c r="N4" s="22">
+        <v>95</v>
+      </c>
+      <c r="N4" s="20">
         <f>K4</f>
-        <v>-40</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
@@ -3861,159 +3861,159 @@
       <c r="C6" s="4">
         <v>84</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="23">
         <v>141</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="103"/>
+      <c r="G7" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="77" t="s">
+      <c r="L7" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="77"/>
-      <c r="N7" s="78" t="s">
+      <c r="M7" s="104"/>
+      <c r="N7" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="78"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="E8" s="28">
+      <c r="E8" s="26">
         <f>ATAN2(M4, N4)</f>
-        <v>-0.37566451469282719</v>
-      </c>
-      <c r="F8" s="29">
+        <v>-0.15660187698201536</v>
+      </c>
+      <c r="F8" s="27">
         <f>DEGREES(E8)</f>
-        <v>-21.523991204729302</v>
-      </c>
-      <c r="G8" s="29">
+        <v>-8.9726266148963933</v>
+      </c>
+      <c r="G8" s="27">
         <f>SQRT(M4*M4+N4*N4)</f>
-        <v>109.02427023839802</v>
-      </c>
-      <c r="H8" s="30" t="str">
+        <v>96.176920308356728</v>
+      </c>
+      <c r="H8" s="28" t="str">
         <f>IF(C6 + C7 &gt;G8, "TRUE", "FALSE")</f>
         <v>TRUE</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="29">
         <f>C6*C6</f>
         <v>7056</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="29">
         <f>C7*C7</f>
         <v>19881</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="30">
         <f>G8*G8</f>
-        <v>11886.291501015239</v>
-      </c>
-      <c r="L8" s="29">
+        <v>9250</v>
+      </c>
+      <c r="L8" s="27">
         <f>ACOS((I8 + K8 - J8) / (2 * C6 * G8))</f>
-        <v>1.6220693096897711</v>
-      </c>
-      <c r="M8" s="29">
+        <v>1.7938989691855225</v>
+      </c>
+      <c r="M8" s="27">
         <f>DEGREES(L8)</f>
-        <v>92.937725522922776</v>
-      </c>
-      <c r="N8" s="15">
+        <v>102.78283980719935</v>
+      </c>
+      <c r="N8" s="13">
         <f>ACOS(( J8 + I8 - K8) / (2 * C7 * C6))</f>
-        <v>0.88230526008940935</v>
-      </c>
-      <c r="O8" s="33">
+        <v>0.72776201674430985</v>
+      </c>
+      <c r="O8" s="31">
         <f>DEGREES(N8)</f>
-        <v>50.552367645315549</v>
-      </c>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
+        <v>41.697692049378105</v>
+      </c>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="36">
-        <v>100</v>
+      <c r="C9" s="34">
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="38">
-        <v>-40</v>
+      <c r="C10" s="36">
+        <v>-15</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="40">
-        <v>100</v>
+      <c r="C11" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="40">
         <f>I4</f>
-        <v>0</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="42">
         <f>C3 - M8 - F8</f>
-        <v>29.586265681806527</v>
+        <v>7.1897868076970415</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="44">
         <f>O8-C4</f>
-        <v>3.5523676453155488</v>
+        <v>-5.3023079506218949</v>
       </c>
     </row>
   </sheetData>
@@ -4041,2759 +4041,2784 @@
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="20" width="11.7109375" customWidth="1"/>
     <col min="21" max="21" width="1.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52">
+      <c r="A1" s="49">
         <v>0</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="145" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="89">
+      <c r="C2" s="146"/>
+      <c r="D2" s="149">
         <v>500</v>
       </c>
-      <c r="E2" s="90"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="148" t="s">
+      <c r="E2" s="150"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="W2" s="149"/>
-      <c r="X2" s="151" t="s">
+      <c r="W2" s="111"/>
+      <c r="X2" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="Y2" s="75">
+      <c r="Y2" s="69">
         <v>6000</v>
       </c>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="91">
+      <c r="C3" s="148"/>
+      <c r="D3" s="151">
         <v>50</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="146">
+      <c r="E3" s="152"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="75">
         <v>-1000</v>
       </c>
-      <c r="W3" s="147">
+      <c r="W3" s="76">
         <f>EXP((1000 - ABS(V3)) / $Y$3) * (V3 / ABS(V3))</f>
         <v>-1</v>
       </c>
-      <c r="X3" s="152" t="s">
+      <c r="X3" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="Y3" s="150">
+      <c r="Y3" s="77">
         <f>V43 / LN(Y2)</f>
         <v>114.94894013551004</v>
       </c>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
     </row>
     <row r="4" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="144">
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="73">
         <v>-950</v>
       </c>
-      <c r="W4" s="147">
+      <c r="W4" s="76">
         <f t="shared" ref="W4:W43" si="0">EXP((1000 - ABS(V4)) / $Y$3) * (V4 / ABS(V4))</f>
         <v>-1.5449255746015966</v>
       </c>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="144">
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="73">
         <v>-900</v>
       </c>
-      <c r="W5" s="147">
+      <c r="W5" s="76">
         <f t="shared" si="0"/>
         <v>-2.3867950310580737</v>
       </c>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="103" t="s">
+      <c r="C6" s="162"/>
+      <c r="D6" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="103" t="s">
+      <c r="E6" s="162"/>
+      <c r="F6" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="103" t="s">
+      <c r="G6" s="162"/>
+      <c r="H6" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="104"/>
-      <c r="J6" s="103" t="s">
+      <c r="I6" s="162"/>
+      <c r="J6" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="104"/>
-      <c r="L6" s="103" t="s">
+      <c r="K6" s="162"/>
+      <c r="L6" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="104"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="144">
+      <c r="M6" s="162"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="73">
         <v>-850</v>
       </c>
-      <c r="W6" s="147">
+      <c r="W6" s="76">
         <f t="shared" si="0"/>
         <v>-3.6874206848136306</v>
       </c>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="55"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="46">
         <v>-115</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="46">
         <v>-135</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="46">
         <v>-115</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="46">
         <v>115</v>
       </c>
-      <c r="J7" s="55" t="s">
+      <c r="J7" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="46">
         <v>135</v>
       </c>
-      <c r="L7" s="55" t="s">
+      <c r="L7" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="46">
         <v>115</v>
       </c>
-      <c r="O7" s="59"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="144">
+      <c r="O7" s="55"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="73">
         <v>-800</v>
       </c>
-      <c r="W7" s="147">
+      <c r="W7" s="76">
         <f t="shared" si="0"/>
         <v>-5.6967905202835105</v>
       </c>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="59"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="55"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="46">
         <v>0</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="46">
         <v>0</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="46">
         <v>0</v>
       </c>
-      <c r="H8" s="55" t="s">
+      <c r="H8" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="46">
         <v>0</v>
       </c>
-      <c r="J8" s="55" t="s">
+      <c r="J8" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="46">
         <v>0</v>
       </c>
-      <c r="L8" s="55" t="s">
+      <c r="L8" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="46">
         <v>0</v>
       </c>
-      <c r="O8" s="59"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="144">
+      <c r="O8" s="55"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="73">
         <v>-750</v>
       </c>
-      <c r="W8" s="147">
+      <c r="W8" s="76">
         <f t="shared" si="0"/>
         <v>-8.8011173679339318</v>
       </c>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="59"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="55"/>
     </row>
     <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="47">
         <v>75</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="47">
         <v>0</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9" s="47">
         <v>-75</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="50">
+      <c r="I9" s="47">
         <v>75</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="50">
+      <c r="K9" s="47">
         <v>0</v>
       </c>
-      <c r="L9" s="56" t="s">
+      <c r="L9" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="50">
+      <c r="M9" s="47">
         <v>-75</v>
       </c>
-      <c r="O9" s="59"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="144">
+      <c r="O9" s="55"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="73">
         <v>-700</v>
       </c>
-      <c r="W9" s="147">
+      <c r="W9" s="76">
         <f t="shared" si="0"/>
         <v>-13.597071306791424</v>
       </c>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="59"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="55"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="52"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="144">
+      <c r="G10" s="49"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="73">
         <v>-650</v>
       </c>
-      <c r="W10" s="147">
+      <c r="W10" s="76">
         <f t="shared" si="0"/>
         <v>-21.006463201543625</v>
       </c>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="102"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="144">
+      <c r="C11" s="159"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="160"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="73">
         <v>-600</v>
       </c>
-      <c r="W11" s="147">
+      <c r="W11" s="76">
         <f t="shared" si="0"/>
         <v>-32.453422231992072</v>
       </c>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="153" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="95">
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="166">
         <f>EXP((1000 - ABS(D2)) / $Y$3) * (D2 / ABS(D2))</f>
         <v>77.459666924148308</v>
       </c>
-      <c r="F12" s="96"/>
-      <c r="G12" s="105" t="s">
+      <c r="F12" s="167"/>
+      <c r="G12" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="107"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="144">
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="165"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="73">
         <v>-550</v>
       </c>
-      <c r="W12" s="147">
+      <c r="W12" s="76">
         <f t="shared" si="0"/>
         <v>-50.138121989548587</v>
       </c>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="116">
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="168">
         <f>SQRT((E12-C7)^2+C9^2)</f>
         <v>206.55682848202841</v>
       </c>
-      <c r="F13" s="117"/>
-      <c r="G13" s="113" t="s">
+      <c r="F13" s="169"/>
+      <c r="G13" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="115"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="144">
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="141"/>
+      <c r="M13" s="142"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="73">
         <v>-500</v>
       </c>
-      <c r="W13" s="147">
+      <c r="W13" s="76">
         <f t="shared" si="0"/>
         <v>-77.459666924148308</v>
       </c>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="55"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="116">
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="168">
         <f>SQRT((E12-E7)^2+E9^2)</f>
         <v>212.45966692414831</v>
       </c>
-      <c r="F14" s="117"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="115"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="144">
+      <c r="F14" s="169"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="142"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="73">
         <v>-450</v>
       </c>
-      <c r="W14" s="147">
+      <c r="W14" s="76">
         <f t="shared" si="0"/>
         <v>-119.66942043123808</v>
       </c>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="116">
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="168">
         <f>SQRT((E12-G7)^2+G9^2)</f>
         <v>206.55682848202841</v>
       </c>
-      <c r="F15" s="117"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="115"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="144">
+      <c r="F15" s="169"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="141"/>
+      <c r="M15" s="142"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="73">
         <v>-400</v>
       </c>
-      <c r="W15" s="147">
+      <c r="W15" s="76">
         <f t="shared" si="0"/>
         <v>-184.88034812197066</v>
       </c>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="116">
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="168">
         <f>SQRT((E12-I7)^2+I9^2)</f>
         <v>83.870594414525797</v>
       </c>
-      <c r="F16" s="117"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="115"/>
-      <c r="V16" s="144">
+      <c r="F16" s="169"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="142"/>
+      <c r="V16" s="73">
         <v>-350</v>
       </c>
-      <c r="W16" s="147">
+      <c r="W16" s="76">
         <f t="shared" si="0"/>
         <v>-285.62637805487861</v>
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="116">
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="168">
         <f>SQRT((E12-K7)^2+K9^2)</f>
         <v>57.540333075851692</v>
       </c>
-      <c r="F17" s="117"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="115"/>
-      <c r="V17" s="144">
+      <c r="F17" s="169"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="142"/>
+      <c r="V17" s="73">
         <v>-300</v>
       </c>
-      <c r="W17" s="147">
+      <c r="W17" s="76">
         <f t="shared" si="0"/>
         <v>-441.2714962378065</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="116">
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="168">
         <f>SQRT((E12-M7)^2+M9^2)</f>
         <v>83.870594414525797</v>
       </c>
-      <c r="F18" s="117"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="115"/>
-      <c r="V18" s="144">
+      <c r="F18" s="169"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="142"/>
+      <c r="V18" s="73">
         <v>-250</v>
       </c>
-      <c r="W18" s="147">
+      <c r="W18" s="76">
         <f t="shared" si="0"/>
         <v>-681.73161988049924</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="48">
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="170">
         <f>ATAN2(-(E12-C7), C9)</f>
         <v>2.7700039117877941</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="171">
         <f t="shared" ref="F19:F24" si="1">DEGREES(E19)</f>
         <v>158.70953338016898</v>
       </c>
-      <c r="G19" s="122" t="s">
+      <c r="G19" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="124"/>
-      <c r="V19" s="144">
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="116"/>
+      <c r="V19" s="73">
         <v>-200</v>
       </c>
-      <c r="W19" s="147">
+      <c r="W19" s="76">
         <f t="shared" si="0"/>
         <v>-1053.2246145679571</v>
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="48">
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="170">
         <f>ATAN2(-(E12-E7), E9)</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="F20" s="57">
+      <c r="F20" s="171">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="G20" s="125"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="127"/>
-      <c r="V20" s="144">
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="119"/>
+      <c r="V20" s="73">
         <v>-150</v>
       </c>
-      <c r="W20" s="147">
+      <c r="W20" s="76">
         <f t="shared" si="0"/>
         <v>-1627.1536428459474</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="48">
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="170">
         <f>ATAN2(-(E12-G7), G9)</f>
         <v>-2.7700039117877941</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="171">
         <f t="shared" si="1"/>
         <v>-158.70953338016898</v>
       </c>
-      <c r="G21" s="125"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="127"/>
-      <c r="V21" s="144">
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="119"/>
+      <c r="V21" s="73">
         <v>-100</v>
       </c>
-      <c r="W21" s="147">
+      <c r="W21" s="76">
         <f t="shared" si="0"/>
         <v>-2513.8312766388558</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="48">
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="170">
         <f>ATAN2(-(E12-I7), I9)</f>
         <v>1.1067185908693606</v>
       </c>
-      <c r="F22" s="57">
+      <c r="F22" s="171">
         <f t="shared" si="1"/>
         <v>63.410304365480052</v>
       </c>
-      <c r="G22" s="125"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="127"/>
-      <c r="V22" s="144">
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="119"/>
+      <c r="V22" s="73">
         <v>-50</v>
       </c>
-      <c r="W22" s="147">
+      <c r="W22" s="76">
         <f t="shared" si="0"/>
         <v>-3883.6822295127517</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="48">
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="170">
         <f>ATAN2(-(E12-K7), K9)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="171">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G23" s="125"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="126"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="127"/>
-      <c r="V23" s="144">
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="119"/>
+      <c r="V23" s="73">
         <v>0</v>
       </c>
-      <c r="W23" s="147"/>
+      <c r="W23" s="76"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="48">
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="170">
         <f>ATAN2(-(E12-M7), M9)</f>
         <v>-1.1067185908693606</v>
       </c>
-      <c r="F24" s="57">
+      <c r="F24" s="171">
         <f t="shared" si="1"/>
         <v>-63.410304365480052</v>
       </c>
-      <c r="G24" s="128"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="129"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="130"/>
-      <c r="V24" s="144">
+      <c r="G24" s="120"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="122"/>
+      <c r="V24" s="73">
         <v>50</v>
       </c>
-      <c r="W24" s="147">
+      <c r="W24" s="76">
         <f t="shared" si="0"/>
         <v>3883.6822295127517</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="138">
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="172">
         <f>MAX(E13:F18)</f>
         <v>212.45966692414831</v>
       </c>
-      <c r="F25" s="139"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="141"/>
-      <c r="K25" s="141"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="142"/>
-      <c r="V25" s="144">
+      <c r="F25" s="173"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="133"/>
+      <c r="M25" s="134"/>
+      <c r="V25" s="73">
         <v>100</v>
       </c>
-      <c r="W25" s="147">
+      <c r="W25" s="76">
         <f t="shared" si="0"/>
         <v>2513.8312766388558</v>
       </c>
     </row>
     <row r="26" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="68">
+      <c r="C26" s="136"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="174">
         <f>SIGN(E12) * D3 / E25</f>
         <v>0.23533878558630539</v>
       </c>
-      <c r="F26" s="69">
+      <c r="F26" s="175">
         <f>ABS(E26)</f>
         <v>0.23533878558630539</v>
       </c>
-      <c r="G26" s="110" t="s">
+      <c r="G26" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="112"/>
-      <c r="V26" s="144">
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="139"/>
+      <c r="V26" s="73">
         <v>150</v>
       </c>
-      <c r="W26" s="147">
+      <c r="W26" s="76">
         <f t="shared" si="0"/>
         <v>1627.1536428459474</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="V27" s="144">
+      <c r="V27" s="73">
         <v>200</v>
       </c>
-      <c r="W27" s="147">
+      <c r="W27" s="76">
         <f t="shared" si="0"/>
         <v>1053.2246145679571</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="V28" s="144">
+      <c r="V28" s="73">
         <v>250</v>
       </c>
-      <c r="W28" s="147">
+      <c r="W28" s="76">
         <f t="shared" si="0"/>
         <v>681.73161988049924</v>
       </c>
     </row>
     <row r="29" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="131" t="s">
+      <c r="B29" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="131"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="131"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="131"/>
-      <c r="P29" s="131"/>
-      <c r="Q29" s="131"/>
-      <c r="R29" s="131"/>
-      <c r="S29" s="131"/>
-      <c r="T29" s="131"/>
-      <c r="V29" s="144">
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="123"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="123"/>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="123"/>
+      <c r="S29" s="123"/>
+      <c r="T29" s="123"/>
+      <c r="V29" s="73">
         <v>300</v>
       </c>
-      <c r="W29" s="147">
+      <c r="W29" s="76">
         <f t="shared" si="0"/>
         <v>441.2714962378065</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="120" t="s">
+      <c r="B30" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="135" t="s">
+      <c r="C30" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="136"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="132" t="s">
+      <c r="D30" s="130"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="133"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="135" t="s">
+      <c r="G30" s="127"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="J30" s="136"/>
-      <c r="K30" s="137"/>
-      <c r="L30" s="132" t="s">
+      <c r="J30" s="130"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="M30" s="133"/>
-      <c r="N30" s="134"/>
-      <c r="O30" s="135" t="s">
+      <c r="M30" s="127"/>
+      <c r="N30" s="128"/>
+      <c r="O30" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="P30" s="136"/>
-      <c r="Q30" s="137"/>
-      <c r="R30" s="132" t="s">
+      <c r="P30" s="130"/>
+      <c r="Q30" s="131"/>
+      <c r="R30" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="S30" s="133"/>
-      <c r="T30" s="134"/>
-      <c r="V30" s="144">
+      <c r="S30" s="127"/>
+      <c r="T30" s="128"/>
+      <c r="V30" s="73">
         <v>350</v>
       </c>
-      <c r="W30" s="147">
+      <c r="W30" s="76">
         <f t="shared" si="0"/>
         <v>285.62637805487861</v>
       </c>
     </row>
     <row r="31" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="121"/>
-      <c r="C31" s="62" t="s">
+      <c r="B31" s="113"/>
+      <c r="C31" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="65" t="s">
+      <c r="F31" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="66" t="s">
+      <c r="G31" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="67" t="s">
+      <c r="H31" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="I31" s="62" t="s">
+      <c r="I31" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="63" t="s">
+      <c r="J31" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="K31" s="64" t="s">
+      <c r="K31" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="L31" s="65" t="s">
+      <c r="L31" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="M31" s="66" t="s">
+      <c r="M31" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="N31" s="67" t="s">
+      <c r="N31" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="O31" s="62" t="s">
+      <c r="O31" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="P31" s="63" t="s">
+      <c r="P31" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="Q31" s="64" t="s">
+      <c r="Q31" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="R31" s="65" t="s">
+      <c r="R31" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="S31" s="66" t="s">
+      <c r="S31" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="T31" s="67" t="s">
+      <c r="T31" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="V31" s="144">
+      <c r="V31" s="73">
         <v>400</v>
       </c>
-      <c r="W31" s="147">
+      <c r="W31" s="76">
         <f t="shared" si="0"/>
         <v>184.88034812197066</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="71">
+      <c r="B32" s="65">
         <v>0</v>
       </c>
-      <c r="C32" s="154">
+      <c r="C32" s="81">
         <f>($B32-0.5) * $E$26 + $E$19</f>
         <v>2.6523345189946417</v>
       </c>
-      <c r="D32" s="155">
+      <c r="D32" s="82">
         <f>$E$12+$E$13*COS(C32)</f>
         <v>-104.86427732785779</v>
       </c>
-      <c r="E32" s="156">
+      <c r="E32" s="83">
         <f>$E$13*SIN(C32)</f>
         <v>97.075757761376607</v>
       </c>
-      <c r="F32" s="157">
+      <c r="F32" s="84">
         <f>($B32 - 0.5) * $E$26 + $E$20</f>
         <v>3.0239232607966402</v>
       </c>
-      <c r="G32" s="158">
+      <c r="G32" s="85">
         <f>$E$12+$E$14*COS(F32)</f>
         <v>-133.53082895337246</v>
       </c>
-      <c r="H32" s="159">
+      <c r="H32" s="86">
         <f>$E$14*SIN(F32)</f>
         <v>24.942347902271187</v>
       </c>
-      <c r="I32" s="154">
+      <c r="I32" s="81">
         <f>($B32 - 0.5) * $E$26 + $E$21</f>
         <v>-2.8876733045809466</v>
       </c>
-      <c r="J32" s="155">
+      <c r="J32" s="82">
         <f>$E$12+$E$15*COS(I32)</f>
         <v>-122.47398292283262</v>
       </c>
-      <c r="K32" s="156">
+      <c r="K32" s="83">
         <f>$E$15*SIN(I32)</f>
         <v>-51.886983448827763</v>
       </c>
-      <c r="L32" s="157">
+      <c r="L32" s="84">
         <f xml:space="preserve"> ($B32 - 0.5) * $E$26 + $E$22</f>
         <v>0.98904919807620795</v>
       </c>
-      <c r="M32" s="158">
+      <c r="M32" s="85">
         <f>$E$12+$E$16*COS(L32)</f>
         <v>123.54525919445554</v>
       </c>
-      <c r="N32" s="159">
+      <c r="N32" s="86">
         <f>$E$16*SIN(L32)</f>
         <v>70.074209182415203</v>
       </c>
-      <c r="O32" s="154">
+      <c r="O32" s="81">
         <f>($B32 - 0.5) * $E$26 + $E$23</f>
         <v>-0.11766939279315269</v>
       </c>
-      <c r="P32" s="155">
+      <c r="P32" s="82">
         <f>$E$12+$E$17*COS(O32)</f>
         <v>134.60210522499534</v>
       </c>
-      <c r="Q32" s="156">
+      <c r="Q32" s="83">
         <f>$E$17*SIN(O32)</f>
         <v>-6.755122168683612</v>
       </c>
-      <c r="R32" s="157">
+      <c r="R32" s="84">
         <f>($B32 - 0.5) * $E$26 + $E$24</f>
         <v>-1.2243879836625133</v>
       </c>
-      <c r="S32" s="158">
+      <c r="S32" s="85">
         <f>$E$12+$E$18*COS(R32)</f>
         <v>105.93555359948068</v>
       </c>
-      <c r="T32" s="159">
+      <c r="T32" s="86">
         <f>$E$18*SIN(R32)</f>
         <v>-78.88853202778914</v>
       </c>
-      <c r="V32" s="144">
+      <c r="V32" s="73">
         <v>450</v>
       </c>
-      <c r="W32" s="147">
+      <c r="W32" s="76">
         <f t="shared" si="0"/>
         <v>119.66942043123808</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B33" s="61">
+      <c r="B33" s="57">
         <v>0.05</v>
       </c>
-      <c r="C33" s="160">
+      <c r="C33" s="87">
         <f t="shared" ref="C33:C52" si="2">($B33-0.5) * $E$26 + $E$19</f>
         <v>2.6641014582739566</v>
       </c>
-      <c r="D33" s="161">
+      <c r="D33" s="88">
         <f t="shared" ref="D33:D52" si="3">$E$12+$E$13*COS(C33)</f>
         <v>-105.99391329540958</v>
       </c>
-      <c r="E33" s="162">
+      <c r="E33" s="89">
         <f t="shared" ref="E33:E52" si="4">$E$13*SIN(C33)</f>
         <v>94.92369196981511</v>
       </c>
-      <c r="F33" s="163">
+      <c r="F33" s="90">
         <f t="shared" ref="F33:F52" si="5">($B33 - 0.5) * $E$26 + $E$20</f>
         <v>3.0356902000759556</v>
       </c>
-      <c r="G33" s="164">
+      <c r="G33" s="91">
         <f t="shared" ref="G33:G52" si="6">$E$12+$E$14*COS(F33)</f>
         <v>-133.80971047952286</v>
       </c>
-      <c r="H33" s="165">
+      <c r="H33" s="92">
         <f t="shared" ref="H33:H52" si="7">$E$14*SIN(F33)</f>
         <v>22.457966091905934</v>
       </c>
-      <c r="I33" s="160">
+      <c r="I33" s="87">
         <f t="shared" ref="I33:I52" si="8">($B33 - 0.5) * $E$26 + $E$21</f>
         <v>-2.8759063653016317</v>
       </c>
-      <c r="J33" s="161">
+      <c r="J33" s="88">
         <f t="shared" ref="J33:J52" si="9">$E$12+$E$15*COS(I33)</f>
         <v>-121.84960469583228</v>
       </c>
-      <c r="K33" s="162">
+      <c r="K33" s="89">
         <f t="shared" ref="K33:K52" si="10">$E$15*SIN(I33)</f>
         <v>-54.235944159449339</v>
       </c>
-      <c r="L33" s="163">
+      <c r="L33" s="90">
         <f t="shared" ref="L33:L52" si="11" xml:space="preserve"> ($B33 - 0.5) * $E$26 + $E$22</f>
         <v>1.0008161373555233</v>
       </c>
-      <c r="M33" s="164">
+      <c r="M33" s="91">
         <f t="shared" ref="M33:M52" si="12">$E$12+$E$16*COS(L33)</f>
         <v>122.71752876946249</v>
       </c>
-      <c r="N33" s="165">
+      <c r="N33" s="92">
         <f t="shared" ref="N33:N52" si="13">$E$16*SIN(L33)</f>
         <v>70.611631822500328</v>
       </c>
-      <c r="O33" s="160">
+      <c r="O33" s="87">
         <f t="shared" ref="O33:O52" si="14">($B33 - 0.5) * $E$26 + $E$23</f>
         <v>-0.10590245351383742</v>
       </c>
-      <c r="P33" s="161">
+      <c r="P33" s="88">
         <f t="shared" ref="P33:P52" si="15">$E$12+$E$17*COS(O33)</f>
         <v>134.6776345531531</v>
       </c>
-      <c r="Q33" s="162">
+      <c r="Q33" s="89">
         <f t="shared" ref="Q33:Q52" si="16">$E$17*SIN(O33)</f>
         <v>-6.0822784288549183</v>
       </c>
-      <c r="R33" s="163">
+      <c r="R33" s="90">
         <f t="shared" ref="R33:R52" si="17">($B33 - 0.5) * $E$26 + $E$24</f>
         <v>-1.212621044383198</v>
       </c>
-      <c r="S33" s="164">
+      <c r="S33" s="91">
         <f t="shared" ref="S33:S52" si="18">$E$12+$E$18*COS(R33)</f>
         <v>106.86183736903985</v>
       </c>
-      <c r="T33" s="165">
+      <c r="T33" s="92">
         <f t="shared" ref="T33:T52" si="19">$E$18*SIN(R33)</f>
         <v>-78.548004306764113</v>
       </c>
-      <c r="V33" s="144">
+      <c r="V33" s="73">
         <v>500</v>
       </c>
-      <c r="W33" s="147">
+      <c r="W33" s="76">
         <f t="shared" si="0"/>
         <v>77.459666924148308</v>
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" s="60">
+      <c r="B34" s="56">
         <v>0.1</v>
       </c>
-      <c r="C34" s="160">
+      <c r="C34" s="87">
         <f t="shared" si="2"/>
         <v>2.675868397553272</v>
       </c>
-      <c r="D34" s="161">
+      <c r="D34" s="88">
         <f t="shared" si="3"/>
         <v>-107.09814841556084</v>
       </c>
-      <c r="E34" s="162">
+      <c r="E34" s="89">
         <f t="shared" si="4"/>
         <v>92.758483113879748</v>
       </c>
-      <c r="F34" s="163">
+      <c r="F34" s="90">
         <f t="shared" si="5"/>
         <v>3.047457139355271</v>
       </c>
-      <c r="G34" s="164">
+      <c r="G34" s="91">
         <f t="shared" si="6"/>
         <v>-134.05933980351173</v>
       </c>
-      <c r="H34" s="165">
+      <c r="H34" s="92">
         <f t="shared" si="7"/>
         <v>19.970474768120752</v>
       </c>
-      <c r="I34" s="160">
+      <c r="I34" s="87">
         <f t="shared" si="8"/>
         <v>-2.8641394260223163</v>
       </c>
-      <c r="J34" s="161">
+      <c r="J34" s="88">
         <f t="shared" si="9"/>
         <v>-121.19763025409532</v>
       </c>
-      <c r="K34" s="162">
+      <c r="K34" s="89">
         <f t="shared" si="10"/>
         <v>-56.577395401247486</v>
       </c>
-      <c r="L34" s="163">
+      <c r="L34" s="90">
         <f t="shared" si="11"/>
         <v>1.0125830766348385</v>
       </c>
-      <c r="M34" s="164">
+      <c r="M34" s="91">
         <f t="shared" si="12"/>
         <v>121.88353197430089</v>
       </c>
-      <c r="N34" s="165">
+      <c r="N34" s="92">
         <f t="shared" si="13"/>
         <v>71.139277628126919</v>
       </c>
-      <c r="O34" s="160">
+      <c r="O34" s="87">
         <f t="shared" si="14"/>
         <v>-9.4135514234522155E-2</v>
       </c>
-      <c r="P34" s="161">
+      <c r="P34" s="88">
         <f t="shared" si="15"/>
         <v>134.74524152371728</v>
       </c>
-      <c r="Q34" s="162">
+      <c r="Q34" s="89">
         <f t="shared" si="16"/>
         <v>-5.4085925412412958</v>
       </c>
-      <c r="R34" s="163">
+      <c r="R34" s="90">
         <f t="shared" si="17"/>
         <v>-1.2008541051038828</v>
       </c>
-      <c r="S34" s="164">
+      <c r="S34" s="91">
         <f t="shared" si="18"/>
         <v>107.78405013576642</v>
       </c>
-      <c r="T34" s="165">
+      <c r="T34" s="92">
         <f t="shared" si="19"/>
         <v>-78.196600887000315</v>
       </c>
-      <c r="V34" s="144">
+      <c r="V34" s="73">
         <v>550</v>
       </c>
-      <c r="W34" s="147">
+      <c r="W34" s="76">
         <f t="shared" si="0"/>
         <v>50.138121989548587</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B35" s="61">
+      <c r="B35" s="57">
         <v>0.15</v>
       </c>
-      <c r="C35" s="160">
+      <c r="C35" s="87">
         <f t="shared" si="2"/>
         <v>2.6876353368325874</v>
       </c>
-      <c r="D35" s="161">
+      <c r="D35" s="88">
         <f t="shared" si="3"/>
         <v>-108.17682979673131</v>
       </c>
-      <c r="E35" s="162">
+      <c r="E35" s="89">
         <f t="shared" si="4"/>
         <v>90.580430986791768</v>
       </c>
-      <c r="F35" s="163">
+      <c r="F35" s="90">
         <f t="shared" si="5"/>
         <v>3.0592240786345863</v>
       </c>
-      <c r="G35" s="164">
+      <c r="G35" s="91">
         <f t="shared" si="6"/>
         <v>-134.27968236184699</v>
       </c>
-      <c r="H35" s="165">
+      <c r="H35" s="92">
         <f t="shared" si="7"/>
         <v>17.480218347129536</v>
       </c>
-      <c r="I35" s="160">
+      <c r="I35" s="87">
         <f t="shared" si="8"/>
         <v>-2.8523724867430009</v>
       </c>
-      <c r="J35" s="161">
+      <c r="J35" s="88">
         <f t="shared" si="9"/>
         <v>-120.51814986952206</v>
       </c>
-      <c r="K35" s="162">
+      <c r="K35" s="89">
         <f t="shared" si="10"/>
         <v>-58.911012978610273</v>
       </c>
-      <c r="L35" s="163">
+      <c r="L35" s="90">
         <f t="shared" si="11"/>
         <v>1.0243500159141536</v>
       </c>
-      <c r="M35" s="164">
+      <c r="M35" s="91">
         <f t="shared" si="12"/>
         <v>121.04338428355177</v>
       </c>
-      <c r="N35" s="165">
+      <c r="N35" s="92">
         <f t="shared" si="13"/>
         <v>71.657073541845946</v>
       </c>
-      <c r="O35" s="160">
+      <c r="O35" s="87">
         <f t="shared" si="14"/>
         <v>-8.2368574955206886E-2</v>
       </c>
-      <c r="P35" s="161">
+      <c r="P35" s="88">
         <f t="shared" si="15"/>
         <v>134.80491677587665</v>
       </c>
-      <c r="Q35" s="162">
+      <c r="Q35" s="89">
         <f t="shared" si="16"/>
         <v>-4.7341577838938296</v>
       </c>
-      <c r="R35" s="163">
+      <c r="R35" s="90">
         <f t="shared" si="17"/>
         <v>-1.1890871658245676</v>
       </c>
-      <c r="S35" s="164">
+      <c r="S35" s="91">
         <f t="shared" si="18"/>
         <v>108.70206421076099</v>
       </c>
-      <c r="T35" s="165">
+      <c r="T35" s="92">
         <f t="shared" si="19"/>
         <v>-77.834370423556081</v>
       </c>
-      <c r="V35" s="144">
+      <c r="V35" s="73">
         <v>600</v>
       </c>
-      <c r="W35" s="147">
+      <c r="W35" s="76">
         <f t="shared" si="0"/>
         <v>32.453422231992072</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="60">
+      <c r="B36" s="56">
         <v>0.2</v>
       </c>
-      <c r="C36" s="160">
+      <c r="C36" s="87">
         <f t="shared" si="2"/>
         <v>2.6994022761119023</v>
       </c>
-      <c r="D36" s="161">
+      <c r="D36" s="88">
         <f t="shared" si="3"/>
         <v>-109.22980808549258</v>
       </c>
-      <c r="E36" s="162">
+      <c r="E36" s="89">
         <f t="shared" si="4"/>
         <v>88.389837160042191</v>
       </c>
-      <c r="F36" s="163">
+      <c r="F36" s="90">
         <f t="shared" si="5"/>
         <v>3.0709910179139017</v>
       </c>
-      <c r="G36" s="164">
+      <c r="G36" s="91">
         <f t="shared" si="6"/>
         <v>-134.47070764606053</v>
       </c>
-      <c r="H36" s="165">
+      <c r="H36" s="92">
         <f t="shared" si="7"/>
         <v>14.98754162799951</v>
       </c>
-      <c r="I36" s="160">
+      <c r="I36" s="87">
         <f t="shared" si="8"/>
         <v>-2.840605547463686</v>
       </c>
-      <c r="J36" s="161">
+      <c r="J36" s="88">
         <f t="shared" si="9"/>
         <v>-119.81125762246543</v>
       </c>
-      <c r="K36" s="162">
+      <c r="K36" s="89">
         <f t="shared" si="10"/>
         <v>-61.236473780569128</v>
       </c>
-      <c r="L36" s="163">
+      <c r="L36" s="90">
         <f t="shared" si="11"/>
         <v>1.036116955193469</v>
       </c>
-      <c r="M36" s="164">
+      <c r="M36" s="91">
         <f t="shared" si="12"/>
         <v>120.19720202344473</v>
       </c>
-      <c r="N36" s="165">
+      <c r="N36" s="92">
         <f t="shared" si="13"/>
         <v>72.164947870017144</v>
       </c>
-      <c r="O36" s="160">
+      <c r="O36" s="87">
         <f t="shared" si="14"/>
         <v>-7.0601635675891616E-2</v>
       </c>
-      <c r="P36" s="161">
+      <c r="P36" s="88">
         <f t="shared" si="15"/>
         <v>134.8566520470398</v>
       </c>
-      <c r="Q36" s="162">
+      <c r="Q36" s="89">
         <f t="shared" si="16"/>
         <v>-4.0590675385515533</v>
       </c>
-      <c r="R36" s="163">
+      <c r="R36" s="90">
         <f t="shared" si="17"/>
         <v>-1.1773202265452523</v>
       </c>
-      <c r="S36" s="164">
+      <c r="S36" s="91">
         <f t="shared" si="18"/>
         <v>109.61575248647191</v>
       </c>
-      <c r="T36" s="165">
+      <c r="T36" s="92">
         <f t="shared" si="19"/>
         <v>-77.46136307059416</v>
       </c>
-      <c r="V36" s="144">
+      <c r="V36" s="73">
         <v>650</v>
       </c>
-      <c r="W36" s="147">
+      <c r="W36" s="76">
         <f t="shared" si="0"/>
         <v>21.006463201543625</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B37" s="61">
+      <c r="B37" s="57">
         <v>0.25</v>
       </c>
-      <c r="C37" s="160">
+      <c r="C37" s="87">
         <f t="shared" si="2"/>
         <v>2.7111692153912177</v>
       </c>
-      <c r="D37" s="161">
+      <c r="D37" s="88">
         <f t="shared" si="3"/>
         <v>-110.25693748724748</v>
       </c>
-      <c r="E37" s="162">
+      <c r="E37" s="89">
         <f t="shared" si="4"/>
         <v>86.187004941636317</v>
       </c>
-      <c r="F37" s="163">
+      <c r="F37" s="90">
         <f t="shared" si="5"/>
         <v>3.0827579571932167</v>
       </c>
-      <c r="G37" s="164">
+      <c r="G37" s="91">
         <f t="shared" si="6"/>
         <v>-134.6323892069324</v>
       </c>
-      <c r="H37" s="165">
+      <c r="H37" s="92">
         <f t="shared" si="7"/>
         <v>12.492789744910681</v>
       </c>
-      <c r="I37" s="160">
+      <c r="I37" s="87">
         <f t="shared" si="8"/>
         <v>-2.8288386081843706</v>
       </c>
-      <c r="J37" s="161">
+      <c r="J37" s="88">
         <f t="shared" si="9"/>
         <v>-119.07705138870446</v>
       </c>
-      <c r="K37" s="162">
+      <c r="K37" s="89">
         <f t="shared" si="10"/>
         <v>-63.553455825536872</v>
       </c>
-      <c r="L37" s="163">
+      <c r="L37" s="90">
         <f t="shared" si="11"/>
         <v>1.0478838944727844</v>
       </c>
-      <c r="M37" s="164">
+      <c r="M37" s="91">
         <f t="shared" si="12"/>
         <v>119.34510235575135</v>
       </c>
-      <c r="N37" s="165">
+      <c r="N37" s="92">
         <f t="shared" si="13"/>
         <v>72.662830292735634</v>
       </c>
-      <c r="O37" s="160">
+      <c r="O37" s="87">
         <f t="shared" si="14"/>
         <v>-5.8834696396576347E-2</v>
       </c>
-      <c r="P37" s="161">
+      <c r="P37" s="88">
         <f t="shared" si="15"/>
         <v>134.90044017397929</v>
       </c>
-      <c r="Q37" s="162">
+      <c r="Q37" s="89">
         <f t="shared" si="16"/>
         <v>-3.3834152777118858</v>
       </c>
-      <c r="R37" s="163">
+      <c r="R37" s="90">
         <f t="shared" si="17"/>
         <v>-1.1655532872659369</v>
       </c>
-      <c r="S37" s="164">
+      <c r="S37" s="91">
         <f t="shared" si="18"/>
         <v>110.5249884542944</v>
       </c>
-      <c r="T37" s="165">
+      <c r="T37" s="92">
         <f t="shared" si="19"/>
         <v>-77.077630474437541</v>
       </c>
-      <c r="V37" s="144">
+      <c r="V37" s="73">
         <v>700</v>
       </c>
-      <c r="W37" s="147">
+      <c r="W37" s="76">
         <f t="shared" si="0"/>
         <v>13.597071306791424</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B38" s="60">
+      <c r="B38" s="56">
         <v>0.3</v>
       </c>
-      <c r="C38" s="160">
+      <c r="C38" s="87">
         <f t="shared" si="2"/>
         <v>2.7229361546705331</v>
       </c>
-      <c r="D38" s="161">
+      <c r="D38" s="88">
         <f t="shared" si="3"/>
         <v>-111.25807578641667</v>
       </c>
-      <c r="E38" s="162">
+      <c r="E38" s="89">
         <f t="shared" si="4"/>
         <v>83.972239334098361</v>
       </c>
-      <c r="F38" s="163">
+      <c r="F38" s="90">
         <f t="shared" si="5"/>
         <v>3.094524896472532</v>
       </c>
-      <c r="G38" s="164">
+      <c r="G38" s="91">
         <f t="shared" si="6"/>
         <v>-134.76470465815299</v>
       </c>
-      <c r="H38" s="165">
+      <c r="H38" s="92">
         <f t="shared" si="7"/>
         <v>9.9963081193684449</v>
       </c>
-      <c r="I38" s="160">
+      <c r="I38" s="87">
         <f t="shared" si="8"/>
         <v>-2.8170716689050552</v>
       </c>
-      <c r="J38" s="161">
+      <c r="J38" s="88">
         <f t="shared" si="9"/>
         <v>-118.31563282589275</v>
       </c>
-      <c r="K38" s="162">
+      <c r="K38" s="89">
         <f t="shared" si="10"/>
         <v>-65.861638305888476</v>
       </c>
-      <c r="L38" s="163">
+      <c r="L38" s="90">
         <f t="shared" si="11"/>
         <v>1.0596508337520996</v>
       </c>
-      <c r="M38" s="164">
+      <c r="M38" s="91">
         <f t="shared" si="12"/>
         <v>118.4872032615631</v>
       </c>
-      <c r="N38" s="165">
+      <c r="N38" s="92">
         <f t="shared" si="13"/>
         <v>73.150651873568393</v>
       </c>
-      <c r="O38" s="160">
+      <c r="O38" s="87">
         <f t="shared" si="14"/>
         <v>-4.7067757117261078E-2</v>
       </c>
-      <c r="P38" s="161">
+      <c r="P38" s="88">
         <f t="shared" si="15"/>
         <v>134.9362750938233</v>
       </c>
-      <c r="Q38" s="162">
+      <c r="Q38" s="89">
         <f t="shared" si="16"/>
         <v>-2.7072945516884968</v>
       </c>
-      <c r="R38" s="163">
+      <c r="R38" s="90">
         <f t="shared" si="17"/>
         <v>-1.1537863479866217</v>
       </c>
-      <c r="S38" s="164">
+      <c r="S38" s="91">
         <f t="shared" si="18"/>
         <v>111.42964622208703</v>
       </c>
-      <c r="T38" s="165">
+      <c r="T38" s="92">
         <f t="shared" si="19"/>
         <v>-76.683225766418431</v>
       </c>
-      <c r="V38" s="144">
+      <c r="V38" s="73">
         <v>750</v>
       </c>
-      <c r="W38" s="147">
+      <c r="W38" s="76">
         <f t="shared" si="0"/>
         <v>8.8011173679339318</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B39" s="61">
+      <c r="B39" s="57">
         <v>0.35</v>
       </c>
-      <c r="C39" s="160">
+      <c r="C39" s="87">
         <f t="shared" si="2"/>
         <v>2.7347030939498485</v>
       </c>
-      <c r="D39" s="161">
+      <c r="D39" s="88">
         <f t="shared" si="3"/>
         <v>-112.2330843661297</v>
       </c>
-      <c r="E39" s="162">
+      <c r="E39" s="89">
         <f t="shared" si="4"/>
         <v>81.745846992240729</v>
       </c>
-      <c r="F39" s="163">
+      <c r="F39" s="90">
         <f t="shared" si="5"/>
         <v>3.1062918357518474</v>
       </c>
-      <c r="G39" s="164">
+      <c r="G39" s="91">
         <f t="shared" si="6"/>
         <v>-134.86763567942242</v>
       </c>
-      <c r="H39" s="165">
+      <c r="H39" s="92">
         <f t="shared" si="7"/>
         <v>7.498442412377349</v>
       </c>
-      <c r="I39" s="160">
+      <c r="I39" s="87">
         <f t="shared" si="8"/>
         <v>-2.8053047296257398</v>
       </c>
-      <c r="J39" s="161">
+      <c r="J39" s="88">
         <f t="shared" si="9"/>
         <v>-117.5271073594829</v>
       </c>
-      <c r="K39" s="162">
+      <c r="K39" s="89">
         <f t="shared" si="10"/>
         <v>-68.160701632380253</v>
       </c>
-      <c r="L39" s="163">
+      <c r="L39" s="90">
         <f t="shared" si="11"/>
         <v>1.0714177730314147</v>
       </c>
-      <c r="M39" s="164">
+      <c r="M39" s="91">
         <f t="shared" si="12"/>
         <v>117.62362352495578</v>
       </c>
-      <c r="N39" s="165">
+      <c r="N39" s="92">
         <f t="shared" si="13"/>
         <v>73.628345069099169</v>
       </c>
-      <c r="O39" s="160">
+      <c r="O39" s="87">
         <f t="shared" si="14"/>
         <v>-3.5300817837945815E-2</v>
       </c>
-      <c r="P39" s="161">
+      <c r="P39" s="88">
         <f t="shared" si="15"/>
         <v>134.9641518448953</v>
       </c>
-      <c r="Q39" s="162">
+      <c r="Q39" s="89">
         <f t="shared" si="16"/>
         <v>-2.0307989756584015</v>
       </c>
-      <c r="R39" s="163">
+      <c r="R39" s="90">
         <f t="shared" si="17"/>
         <v>-1.1420194087073066</v>
       </c>
-      <c r="S39" s="164">
+      <c r="S39" s="91">
         <f t="shared" si="18"/>
         <v>112.32960053160257</v>
       </c>
-      <c r="T39" s="165">
+      <c r="T39" s="92">
         <f t="shared" si="19"/>
         <v>-76.278203555521799</v>
       </c>
-      <c r="V39" s="144">
+      <c r="V39" s="73">
         <v>800</v>
       </c>
-      <c r="W39" s="147">
+      <c r="W39" s="76">
         <f t="shared" si="0"/>
         <v>5.6967905202835105</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B40" s="60">
+      <c r="B40" s="56">
         <v>0.4</v>
       </c>
-      <c r="C40" s="160">
+      <c r="C40" s="87">
         <f t="shared" si="2"/>
         <v>2.7464700332291638</v>
       </c>
-      <c r="D40" s="161">
+      <c r="D40" s="88">
         <f t="shared" si="3"/>
         <v>-113.18182822741775</v>
       </c>
-      <c r="E40" s="162">
+      <c r="E40" s="89">
         <f t="shared" si="4"/>
         <v>79.508136180704852</v>
       </c>
-      <c r="F40" s="163">
+      <c r="F40" s="90">
         <f t="shared" si="5"/>
         <v>3.1180587750311628</v>
       </c>
-      <c r="G40" s="164">
+      <c r="G40" s="91">
         <f t="shared" si="6"/>
         <v>-134.9411680189875</v>
       </c>
-      <c r="H40" s="165">
+      <c r="H40" s="92">
         <f t="shared" si="7"/>
         <v>4.9995384765807396</v>
       </c>
-      <c r="I40" s="160">
+      <c r="I40" s="87">
         <f t="shared" si="8"/>
         <v>-2.7935377903464245</v>
       </c>
-      <c r="J40" s="161">
+      <c r="J40" s="88">
         <f t="shared" si="9"/>
         <v>-116.71158416812932</v>
       </c>
-      <c r="K40" s="162">
+      <c r="K40" s="89">
         <f t="shared" si="10"/>
         <v>-70.450327478399828</v>
       </c>
-      <c r="L40" s="163">
+      <c r="L40" s="90">
         <f t="shared" si="11"/>
         <v>1.0831847123107301</v>
       </c>
-      <c r="M40" s="164">
+      <c r="M40" s="91">
         <f t="shared" si="12"/>
         <v>116.7544827165427</v>
       </c>
-      <c r="N40" s="165">
+      <c r="N40" s="92">
         <f t="shared" si="13"/>
         <v>74.095843738280479</v>
       </c>
-      <c r="O40" s="160">
+      <c r="O40" s="87">
         <f t="shared" si="14"/>
         <v>-2.3533878558630532E-2</v>
       </c>
-      <c r="P40" s="161">
+      <c r="P40" s="88">
         <f t="shared" si="15"/>
         <v>134.98406656740087</v>
       </c>
-      <c r="Q40" s="162">
+      <c r="Q40" s="89">
         <f t="shared" si="16"/>
         <v>-1.3540222167000664</v>
       </c>
-      <c r="R40" s="163">
+      <c r="R40" s="90">
         <f t="shared" si="17"/>
         <v>-1.1302524694279912</v>
       </c>
-      <c r="S40" s="164">
+      <c r="S40" s="91">
         <f t="shared" si="18"/>
         <v>113.22472677583113</v>
       </c>
-      <c r="T40" s="165">
+      <c r="T40" s="92">
         <f t="shared" si="19"/>
         <v>-75.862619920824187</v>
       </c>
-      <c r="V40" s="144">
+      <c r="V40" s="73">
         <v>850</v>
       </c>
-      <c r="W40" s="147">
+      <c r="W40" s="76">
         <f t="shared" si="0"/>
         <v>3.6874206848136306</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B41" s="61">
+      <c r="B41" s="57">
         <v>0.45</v>
       </c>
-      <c r="C41" s="160">
+      <c r="C41" s="87">
         <f t="shared" si="2"/>
         <v>2.7582369725084788</v>
       </c>
-      <c r="D41" s="161">
+      <c r="D41" s="88">
         <f t="shared" si="3"/>
         <v>-114.10417600790564</v>
       </c>
-      <c r="E41" s="162">
+      <c r="E41" s="89">
         <f t="shared" si="4"/>
         <v>77.259416731279231</v>
       </c>
-      <c r="F41" s="163">
+      <c r="F41" s="90">
         <f t="shared" si="5"/>
         <v>3.1298257143104777</v>
       </c>
-      <c r="G41" s="164">
+      <c r="G41" s="91">
         <f t="shared" si="6"/>
         <v>-134.98529149561472</v>
       </c>
-      <c r="H41" s="165">
+      <c r="H41" s="92">
         <f t="shared" si="7"/>
         <v>2.4999423083744512</v>
       </c>
-      <c r="I41" s="160">
+      <c r="I41" s="87">
         <f t="shared" si="8"/>
         <v>-2.7817708510671095</v>
       </c>
-      <c r="J41" s="161">
+      <c r="J41" s="88">
         <f t="shared" si="9"/>
         <v>-115.86917616857161</v>
       </c>
-      <c r="K41" s="162">
+      <c r="K41" s="89">
         <f t="shared" si="10"/>
         <v>-72.73019882404131</v>
       </c>
-      <c r="L41" s="163">
+      <c r="L41" s="90">
         <f t="shared" si="11"/>
         <v>1.0949516515900455</v>
       </c>
-      <c r="M41" s="164">
+      <c r="M41" s="91">
         <f t="shared" si="12"/>
         <v>115.87990117691915</v>
       </c>
-      <c r="N41" s="165">
+      <c r="N41" s="92">
         <f t="shared" si="13"/>
         <v>74.553083151591395</v>
       </c>
-      <c r="O41" s="160">
+      <c r="O41" s="87">
         <f t="shared" si="14"/>
         <v>-1.1766939279315266E-2</v>
       </c>
-      <c r="P41" s="161">
+      <c r="P41" s="88">
         <f t="shared" si="15"/>
         <v>134.99601650396224</v>
       </c>
-      <c r="Q41" s="162">
+      <c r="Q41" s="89">
         <f t="shared" si="16"/>
         <v>-0.67705798082434421</v>
       </c>
-      <c r="R41" s="163">
+      <c r="R41" s="90">
         <f t="shared" si="17"/>
         <v>-1.1184855301486758</v>
       </c>
-      <c r="S41" s="164">
+      <c r="S41" s="91">
         <f t="shared" si="18"/>
         <v>114.11490101625319</v>
       </c>
-      <c r="T41" s="165">
+      <c r="T41" s="92">
         <f t="shared" si="19"/>
         <v>-75.436532403729146</v>
       </c>
-      <c r="V41" s="144">
+      <c r="V41" s="73">
         <v>900</v>
       </c>
-      <c r="W41" s="147">
+      <c r="W41" s="76">
         <f t="shared" si="0"/>
         <v>2.3867950310580737</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B42" s="70">
+      <c r="B42" s="64">
         <v>0.5</v>
       </c>
-      <c r="C42" s="166">
+      <c r="C42" s="93">
         <f t="shared" si="2"/>
         <v>2.7700039117877941</v>
       </c>
-      <c r="D42" s="167">
+      <c r="D42" s="94">
         <f t="shared" si="3"/>
         <v>-115</v>
       </c>
-      <c r="E42" s="168">
+      <c r="E42" s="95">
         <f t="shared" si="4"/>
         <v>75.000000000000014</v>
       </c>
-      <c r="F42" s="166">
+      <c r="F42" s="93">
         <f t="shared" si="5"/>
         <v>3.1415926535897931</v>
       </c>
-      <c r="G42" s="167">
+      <c r="G42" s="94">
         <f t="shared" si="6"/>
         <v>-135</v>
       </c>
-      <c r="H42" s="168">
+      <c r="H42" s="95">
         <f t="shared" si="7"/>
         <v>2.6029463266252034E-14</v>
       </c>
-      <c r="I42" s="166">
+      <c r="I42" s="93">
         <f t="shared" si="8"/>
         <v>-2.7700039117877941</v>
       </c>
-      <c r="J42" s="167">
+      <c r="J42" s="94">
         <f t="shared" si="9"/>
         <v>-115</v>
       </c>
-      <c r="K42" s="168">
+      <c r="K42" s="95">
         <f t="shared" si="10"/>
         <v>-75.000000000000014</v>
       </c>
-      <c r="L42" s="166">
+      <c r="L42" s="93">
         <f t="shared" si="11"/>
         <v>1.1067185908693606</v>
       </c>
-      <c r="M42" s="167">
+      <c r="M42" s="94">
         <f t="shared" si="12"/>
         <v>115</v>
       </c>
-      <c r="N42" s="168">
+      <c r="N42" s="95">
         <f t="shared" si="13"/>
         <v>75</v>
       </c>
-      <c r="O42" s="166">
+      <c r="O42" s="93">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P42" s="167">
+      <c r="P42" s="94">
         <f t="shared" si="15"/>
         <v>135</v>
       </c>
-      <c r="Q42" s="168">
+      <c r="Q42" s="95">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R42" s="166">
+      <c r="R42" s="93">
         <f t="shared" si="17"/>
         <v>-1.1067185908693606</v>
       </c>
-      <c r="S42" s="167">
+      <c r="S42" s="94">
         <f t="shared" si="18"/>
         <v>115</v>
       </c>
-      <c r="T42" s="168">
+      <c r="T42" s="95">
         <f t="shared" si="19"/>
         <v>-75</v>
       </c>
-      <c r="V42" s="144">
+      <c r="V42" s="73">
         <v>950</v>
       </c>
-      <c r="W42" s="147">
+      <c r="W42" s="76">
         <f t="shared" si="0"/>
         <v>1.5449255746015966</v>
       </c>
     </row>
     <row r="43" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="61">
+      <c r="B43" s="57">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C43" s="160">
+      <c r="C43" s="87">
         <f t="shared" si="2"/>
         <v>2.7817708510671095</v>
       </c>
-      <c r="D43" s="161">
+      <c r="D43" s="88">
         <f t="shared" si="3"/>
         <v>-115.86917616857161</v>
       </c>
-      <c r="E43" s="162">
+      <c r="E43" s="89">
         <f t="shared" si="4"/>
         <v>72.73019882404131</v>
       </c>
-      <c r="F43" s="163">
+      <c r="F43" s="90">
         <f t="shared" si="5"/>
         <v>3.1533595928691085</v>
       </c>
-      <c r="G43" s="164">
+      <c r="G43" s="91">
         <f t="shared" si="6"/>
         <v>-134.98529149561472</v>
       </c>
-      <c r="H43" s="165">
+      <c r="H43" s="92">
         <f t="shared" si="7"/>
         <v>-2.4999423083743992</v>
       </c>
-      <c r="I43" s="160">
+      <c r="I43" s="87">
         <f t="shared" si="8"/>
         <v>-2.7582369725084788</v>
       </c>
-      <c r="J43" s="161">
+      <c r="J43" s="88">
         <f t="shared" si="9"/>
         <v>-114.10417600790564</v>
       </c>
-      <c r="K43" s="162">
+      <c r="K43" s="89">
         <f t="shared" si="10"/>
         <v>-77.259416731279231</v>
       </c>
-      <c r="L43" s="163">
+      <c r="L43" s="90">
         <f t="shared" si="11"/>
         <v>1.118485530148676</v>
       </c>
-      <c r="M43" s="164">
+      <c r="M43" s="91">
         <f t="shared" si="12"/>
         <v>114.11490101625319</v>
       </c>
-      <c r="N43" s="165">
+      <c r="N43" s="92">
         <f t="shared" si="13"/>
         <v>75.43653240372916</v>
       </c>
-      <c r="O43" s="160">
+      <c r="O43" s="87">
         <f t="shared" si="14"/>
         <v>1.176693927931528E-2</v>
       </c>
-      <c r="P43" s="161">
+      <c r="P43" s="88">
         <f t="shared" si="15"/>
         <v>134.99601650396224</v>
       </c>
-      <c r="Q43" s="162">
+      <c r="Q43" s="89">
         <f t="shared" si="16"/>
         <v>0.6770579808243451</v>
       </c>
-      <c r="R43" s="163">
+      <c r="R43" s="90">
         <f t="shared" si="17"/>
         <v>-1.0949516515900453</v>
       </c>
-      <c r="S43" s="164">
+      <c r="S43" s="91">
         <f t="shared" si="18"/>
         <v>115.87990117691916</v>
       </c>
-      <c r="T43" s="165">
+      <c r="T43" s="92">
         <f t="shared" si="19"/>
         <v>-74.55308315159138</v>
       </c>
-      <c r="V43" s="145">
+      <c r="V43" s="74">
         <v>1000</v>
       </c>
-      <c r="W43" s="153">
+      <c r="W43" s="80">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B44" s="60">
+      <c r="B44" s="56">
         <v>0.6</v>
       </c>
-      <c r="C44" s="160">
+      <c r="C44" s="87">
         <f t="shared" si="2"/>
         <v>2.7935377903464245</v>
       </c>
-      <c r="D44" s="161">
+      <c r="D44" s="88">
         <f t="shared" si="3"/>
         <v>-116.71158416812932</v>
       </c>
-      <c r="E44" s="162">
+      <c r="E44" s="89">
         <f t="shared" si="4"/>
         <v>70.450327478399828</v>
       </c>
-      <c r="F44" s="163">
+      <c r="F44" s="90">
         <f t="shared" si="5"/>
         <v>3.1651265321484234</v>
       </c>
-      <c r="G44" s="164">
+      <c r="G44" s="91">
         <f t="shared" si="6"/>
         <v>-134.9411680189875</v>
       </c>
-      <c r="H44" s="165">
+      <c r="H44" s="92">
         <f t="shared" si="7"/>
         <v>-4.9995384765806872</v>
       </c>
-      <c r="I44" s="160">
+      <c r="I44" s="87">
         <f t="shared" si="8"/>
         <v>-2.7464700332291638</v>
       </c>
-      <c r="J44" s="161">
+      <c r="J44" s="88">
         <f t="shared" si="9"/>
         <v>-113.18182822741775</v>
       </c>
-      <c r="K44" s="162">
+      <c r="K44" s="89">
         <f t="shared" si="10"/>
         <v>-79.508136180704852</v>
       </c>
-      <c r="L44" s="163">
+      <c r="L44" s="90">
         <f t="shared" si="11"/>
         <v>1.1302524694279912</v>
       </c>
-      <c r="M44" s="164">
+      <c r="M44" s="91">
         <f t="shared" si="12"/>
         <v>113.22472677583113</v>
       </c>
-      <c r="N44" s="165">
+      <c r="N44" s="92">
         <f t="shared" si="13"/>
         <v>75.862619920824187</v>
       </c>
-      <c r="O44" s="160">
+      <c r="O44" s="87">
         <f t="shared" si="14"/>
         <v>2.3533878558630532E-2</v>
       </c>
-      <c r="P44" s="161">
+      <c r="P44" s="88">
         <f t="shared" si="15"/>
         <v>134.98406656740087</v>
       </c>
-      <c r="Q44" s="162">
+      <c r="Q44" s="89">
         <f t="shared" si="16"/>
         <v>1.3540222167000664</v>
       </c>
-      <c r="R44" s="163">
+      <c r="R44" s="90">
         <f t="shared" si="17"/>
         <v>-1.0831847123107301</v>
       </c>
-      <c r="S44" s="164">
+      <c r="S44" s="91">
         <f t="shared" si="18"/>
         <v>116.7544827165427</v>
       </c>
-      <c r="T44" s="165">
+      <c r="T44" s="92">
         <f t="shared" si="19"/>
         <v>-74.095843738280479</v>
       </c>
-      <c r="V44" s="59"/>
-      <c r="W44" s="59"/>
+      <c r="V44" s="55"/>
+      <c r="W44" s="55"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B45" s="61">
+      <c r="B45" s="57">
         <v>0.65</v>
       </c>
-      <c r="C45" s="160">
+      <c r="C45" s="87">
         <f t="shared" si="2"/>
         <v>2.8053047296257398</v>
       </c>
-      <c r="D45" s="161">
+      <c r="D45" s="88">
         <f t="shared" si="3"/>
         <v>-117.5271073594829</v>
       </c>
-      <c r="E45" s="162">
+      <c r="E45" s="89">
         <f t="shared" si="4"/>
         <v>68.160701632380253</v>
       </c>
-      <c r="F45" s="163">
+      <c r="F45" s="90">
         <f t="shared" si="5"/>
         <v>3.1768934714277388</v>
       </c>
-      <c r="G45" s="164">
+      <c r="G45" s="91">
         <f t="shared" si="6"/>
         <v>-134.86763567942245</v>
       </c>
-      <c r="H45" s="165">
+      <c r="H45" s="92">
         <f t="shared" si="7"/>
         <v>-7.4984424123772975</v>
       </c>
-      <c r="I45" s="160">
+      <c r="I45" s="87">
         <f t="shared" si="8"/>
         <v>-2.7347030939498485</v>
       </c>
-      <c r="J45" s="161">
+      <c r="J45" s="88">
         <f t="shared" si="9"/>
         <v>-112.2330843661297</v>
       </c>
-      <c r="K45" s="162">
+      <c r="K45" s="89">
         <f t="shared" si="10"/>
         <v>-81.745846992240729</v>
       </c>
-      <c r="L45" s="163">
+      <c r="L45" s="90">
         <f t="shared" si="11"/>
         <v>1.1420194087073066</v>
       </c>
-      <c r="M45" s="164">
+      <c r="M45" s="91">
         <f t="shared" si="12"/>
         <v>112.32960053160257</v>
       </c>
-      <c r="N45" s="165">
+      <c r="N45" s="92">
         <f t="shared" si="13"/>
         <v>76.278203555521799</v>
       </c>
-      <c r="O45" s="160">
+      <c r="O45" s="87">
         <f t="shared" si="14"/>
         <v>3.5300817837945815E-2</v>
       </c>
-      <c r="P45" s="161">
+      <c r="P45" s="88">
         <f t="shared" si="15"/>
         <v>134.9641518448953</v>
       </c>
-      <c r="Q45" s="162">
+      <c r="Q45" s="89">
         <f t="shared" si="16"/>
         <v>2.0307989756584015</v>
       </c>
-      <c r="R45" s="163">
+      <c r="R45" s="90">
         <f t="shared" si="17"/>
         <v>-1.0714177730314147</v>
       </c>
-      <c r="S45" s="164">
+      <c r="S45" s="91">
         <f t="shared" si="18"/>
         <v>117.62362352495578</v>
       </c>
-      <c r="T45" s="165">
+      <c r="T45" s="92">
         <f t="shared" si="19"/>
         <v>-73.628345069099169</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B46" s="60">
+      <c r="B46" s="56">
         <v>0.7</v>
       </c>
-      <c r="C46" s="160">
+      <c r="C46" s="87">
         <f t="shared" si="2"/>
         <v>2.8170716689050552</v>
       </c>
-      <c r="D46" s="161">
+      <c r="D46" s="88">
         <f t="shared" si="3"/>
         <v>-118.31563282589275</v>
       </c>
-      <c r="E46" s="162">
+      <c r="E46" s="89">
         <f t="shared" si="4"/>
         <v>65.861638305888476</v>
       </c>
-      <c r="F46" s="163">
+      <c r="F46" s="90">
         <f t="shared" si="5"/>
         <v>3.1886604107070542</v>
       </c>
-      <c r="G46" s="164">
+      <c r="G46" s="91">
         <f t="shared" si="6"/>
         <v>-134.76470465815299</v>
       </c>
-      <c r="H46" s="165">
+      <c r="H46" s="92">
         <f t="shared" si="7"/>
         <v>-9.9963081193683934</v>
       </c>
-      <c r="I46" s="160">
+      <c r="I46" s="87">
         <f t="shared" si="8"/>
         <v>-2.7229361546705331</v>
       </c>
-      <c r="J46" s="161">
+      <c r="J46" s="88">
         <f t="shared" si="9"/>
         <v>-111.25807578641667</v>
       </c>
-      <c r="K46" s="162">
+      <c r="K46" s="89">
         <f t="shared" si="10"/>
         <v>-83.972239334098361</v>
       </c>
-      <c r="L46" s="163">
+      <c r="L46" s="90">
         <f t="shared" si="11"/>
         <v>1.1537863479866217</v>
       </c>
-      <c r="M46" s="164">
+      <c r="M46" s="91">
         <f t="shared" si="12"/>
         <v>111.42964622208703</v>
       </c>
-      <c r="N46" s="165">
+      <c r="N46" s="92">
         <f t="shared" si="13"/>
         <v>76.683225766418431</v>
       </c>
-      <c r="O46" s="160">
+      <c r="O46" s="87">
         <f t="shared" si="14"/>
         <v>4.7067757117261064E-2</v>
       </c>
-      <c r="P46" s="161">
+      <c r="P46" s="88">
         <f t="shared" si="15"/>
         <v>134.9362750938233</v>
       </c>
-      <c r="Q46" s="162">
+      <c r="Q46" s="89">
         <f t="shared" si="16"/>
         <v>2.7072945516884963</v>
       </c>
-      <c r="R46" s="163">
+      <c r="R46" s="90">
         <f t="shared" si="17"/>
         <v>-1.0596508337520996</v>
       </c>
-      <c r="S46" s="164">
+      <c r="S46" s="91">
         <f t="shared" si="18"/>
         <v>118.4872032615631</v>
       </c>
-      <c r="T46" s="165">
+      <c r="T46" s="92">
         <f t="shared" si="19"/>
         <v>-73.150651873568393</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B47" s="61">
+      <c r="B47" s="57">
         <v>0.75</v>
       </c>
-      <c r="C47" s="160">
+      <c r="C47" s="87">
         <f t="shared" si="2"/>
         <v>2.8288386081843706</v>
       </c>
-      <c r="D47" s="161">
+      <c r="D47" s="88">
         <f t="shared" si="3"/>
         <v>-119.07705138870446</v>
       </c>
-      <c r="E47" s="162">
+      <c r="E47" s="89">
         <f t="shared" si="4"/>
         <v>63.553455825536872</v>
       </c>
-      <c r="F47" s="163">
+      <c r="F47" s="90">
         <f t="shared" si="5"/>
         <v>3.2004273499863696</v>
       </c>
-      <c r="G47" s="164">
+      <c r="G47" s="91">
         <f t="shared" si="6"/>
         <v>-134.6323892069324</v>
       </c>
-      <c r="H47" s="165">
+      <c r="H47" s="92">
         <f t="shared" si="7"/>
         <v>-12.492789744910629</v>
       </c>
-      <c r="I47" s="160">
+      <c r="I47" s="87">
         <f t="shared" si="8"/>
         <v>-2.7111692153912177</v>
       </c>
-      <c r="J47" s="161">
+      <c r="J47" s="88">
         <f t="shared" si="9"/>
         <v>-110.25693748724748</v>
       </c>
-      <c r="K47" s="162">
+      <c r="K47" s="89">
         <f t="shared" si="10"/>
         <v>-86.187004941636317</v>
       </c>
-      <c r="L47" s="163">
+      <c r="L47" s="90">
         <f t="shared" si="11"/>
         <v>1.1655532872659369</v>
       </c>
-      <c r="M47" s="164">
+      <c r="M47" s="91">
         <f t="shared" si="12"/>
         <v>110.5249884542944</v>
       </c>
-      <c r="N47" s="165">
+      <c r="N47" s="92">
         <f t="shared" si="13"/>
         <v>77.077630474437541</v>
       </c>
-      <c r="O47" s="160">
+      <c r="O47" s="87">
         <f t="shared" si="14"/>
         <v>5.8834696396576347E-2</v>
       </c>
-      <c r="P47" s="161">
+      <c r="P47" s="88">
         <f t="shared" si="15"/>
         <v>134.90044017397929</v>
       </c>
-      <c r="Q47" s="162">
+      <c r="Q47" s="89">
         <f t="shared" si="16"/>
         <v>3.3834152777118858</v>
       </c>
-      <c r="R47" s="163">
+      <c r="R47" s="90">
         <f t="shared" si="17"/>
         <v>-1.0478838944727844</v>
       </c>
-      <c r="S47" s="164">
+      <c r="S47" s="91">
         <f t="shared" si="18"/>
         <v>119.34510235575135</v>
       </c>
-      <c r="T47" s="165">
+      <c r="T47" s="92">
         <f t="shared" si="19"/>
         <v>-72.662830292735634</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B48" s="60">
+      <c r="B48" s="56">
         <v>0.8</v>
       </c>
-      <c r="C48" s="160">
+      <c r="C48" s="87">
         <f t="shared" si="2"/>
         <v>2.840605547463686</v>
       </c>
-      <c r="D48" s="161">
+      <c r="D48" s="88">
         <f t="shared" si="3"/>
         <v>-119.81125762246543</v>
       </c>
-      <c r="E48" s="162">
+      <c r="E48" s="89">
         <f t="shared" si="4"/>
         <v>61.236473780569128</v>
       </c>
-      <c r="F48" s="163">
+      <c r="F48" s="90">
         <f t="shared" si="5"/>
         <v>3.212194289265685</v>
       </c>
-      <c r="G48" s="164">
+      <c r="G48" s="91">
         <f t="shared" si="6"/>
         <v>-134.47070764606053</v>
       </c>
-      <c r="H48" s="165">
+      <c r="H48" s="92">
         <f t="shared" si="7"/>
         <v>-14.987541627999551</v>
       </c>
-      <c r="I48" s="160">
+      <c r="I48" s="87">
         <f t="shared" si="8"/>
         <v>-2.6994022761119023</v>
       </c>
-      <c r="J48" s="161">
+      <c r="J48" s="88">
         <f t="shared" si="9"/>
         <v>-109.22980808549258</v>
       </c>
-      <c r="K48" s="162">
+      <c r="K48" s="89">
         <f t="shared" si="10"/>
         <v>-88.389837160042191</v>
       </c>
-      <c r="L48" s="163">
+      <c r="L48" s="90">
         <f t="shared" si="11"/>
         <v>1.1773202265452523</v>
       </c>
-      <c r="M48" s="164">
+      <c r="M48" s="91">
         <f t="shared" si="12"/>
         <v>109.61575248647191</v>
       </c>
-      <c r="N48" s="165">
+      <c r="N48" s="92">
         <f t="shared" si="13"/>
         <v>77.46136307059416</v>
       </c>
-      <c r="O48" s="160">
+      <c r="O48" s="87">
         <f t="shared" si="14"/>
         <v>7.060163567589163E-2</v>
       </c>
-      <c r="P48" s="161">
+      <c r="P48" s="88">
         <f t="shared" si="15"/>
         <v>134.8566520470398</v>
       </c>
-      <c r="Q48" s="162">
+      <c r="Q48" s="89">
         <f t="shared" si="16"/>
         <v>4.0590675385515542</v>
       </c>
-      <c r="R48" s="163">
+      <c r="R48" s="90">
         <f t="shared" si="17"/>
         <v>-1.036116955193469</v>
       </c>
-      <c r="S48" s="164">
+      <c r="S48" s="91">
         <f t="shared" si="18"/>
         <v>120.19720202344473</v>
       </c>
-      <c r="T48" s="165">
+      <c r="T48" s="92">
         <f t="shared" si="19"/>
         <v>-72.164947870017144</v>
       </c>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B49" s="61">
+      <c r="B49" s="57">
         <v>0.85</v>
       </c>
-      <c r="C49" s="160">
+      <c r="C49" s="87">
         <f t="shared" si="2"/>
         <v>2.8523724867430009</v>
       </c>
-      <c r="D49" s="161">
+      <c r="D49" s="88">
         <f t="shared" si="3"/>
         <v>-120.51814986952206</v>
       </c>
-      <c r="E49" s="162">
+      <c r="E49" s="89">
         <f t="shared" si="4"/>
         <v>58.911012978610273</v>
       </c>
-      <c r="F49" s="163">
+      <c r="F49" s="90">
         <f t="shared" si="5"/>
         <v>3.2239612285449999</v>
       </c>
-      <c r="G49" s="164">
+      <c r="G49" s="91">
         <f t="shared" si="6"/>
         <v>-134.27968236184699</v>
       </c>
-      <c r="H49" s="165">
+      <c r="H49" s="92">
         <f t="shared" si="7"/>
         <v>-17.480218347129487</v>
       </c>
-      <c r="I49" s="160">
+      <c r="I49" s="87">
         <f t="shared" si="8"/>
         <v>-2.6876353368325874</v>
       </c>
-      <c r="J49" s="161">
+      <c r="J49" s="88">
         <f t="shared" si="9"/>
         <v>-108.17682979673131</v>
       </c>
-      <c r="K49" s="162">
+      <c r="K49" s="89">
         <f t="shared" si="10"/>
         <v>-90.580430986791768</v>
       </c>
-      <c r="L49" s="163">
+      <c r="L49" s="90">
         <f t="shared" si="11"/>
         <v>1.1890871658245676</v>
       </c>
-      <c r="M49" s="164">
+      <c r="M49" s="91">
         <f t="shared" si="12"/>
         <v>108.70206421076099</v>
       </c>
-      <c r="N49" s="165">
+      <c r="N49" s="92">
         <f t="shared" si="13"/>
         <v>77.834370423556081</v>
       </c>
-      <c r="O49" s="160">
+      <c r="O49" s="87">
         <f t="shared" si="14"/>
         <v>8.2368574955206886E-2</v>
       </c>
-      <c r="P49" s="161">
+      <c r="P49" s="88">
         <f t="shared" si="15"/>
         <v>134.80491677587665</v>
       </c>
-      <c r="Q49" s="162">
+      <c r="Q49" s="89">
         <f t="shared" si="16"/>
         <v>4.7341577838938296</v>
       </c>
-      <c r="R49" s="163">
+      <c r="R49" s="90">
         <f t="shared" si="17"/>
         <v>-1.0243500159141536</v>
       </c>
-      <c r="S49" s="164">
+      <c r="S49" s="91">
         <f t="shared" si="18"/>
         <v>121.04338428355177</v>
       </c>
-      <c r="T49" s="165">
+      <c r="T49" s="92">
         <f t="shared" si="19"/>
         <v>-71.657073541845946</v>
       </c>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="60">
+      <c r="B50" s="56">
         <v>0.9</v>
       </c>
-      <c r="C50" s="160">
+      <c r="C50" s="87">
         <f t="shared" si="2"/>
         <v>2.8641394260223163</v>
       </c>
-      <c r="D50" s="161">
+      <c r="D50" s="88">
         <f t="shared" si="3"/>
         <v>-121.19763025409532</v>
       </c>
-      <c r="E50" s="162">
+      <c r="E50" s="89">
         <f t="shared" si="4"/>
         <v>56.577395401247486</v>
       </c>
-      <c r="F50" s="163">
+      <c r="F50" s="90">
         <f t="shared" si="5"/>
         <v>3.2357281678243153</v>
       </c>
-      <c r="G50" s="164">
+      <c r="G50" s="91">
         <f t="shared" si="6"/>
         <v>-134.05933980351173</v>
       </c>
-      <c r="H50" s="165">
+      <c r="H50" s="92">
         <f t="shared" si="7"/>
         <v>-19.970474768120699</v>
       </c>
-      <c r="I50" s="160">
+      <c r="I50" s="87">
         <f t="shared" si="8"/>
         <v>-2.675868397553272</v>
       </c>
-      <c r="J50" s="161">
+      <c r="J50" s="88">
         <f t="shared" si="9"/>
         <v>-107.09814841556084</v>
       </c>
-      <c r="K50" s="162">
+      <c r="K50" s="89">
         <f t="shared" si="10"/>
         <v>-92.758483113879748</v>
       </c>
-      <c r="L50" s="163">
+      <c r="L50" s="90">
         <f t="shared" si="11"/>
         <v>1.2008541051038828</v>
       </c>
-      <c r="M50" s="164">
+      <c r="M50" s="91">
         <f t="shared" si="12"/>
         <v>107.78405013576642</v>
       </c>
-      <c r="N50" s="165">
+      <c r="N50" s="92">
         <f t="shared" si="13"/>
         <v>78.196600887000315</v>
       </c>
-      <c r="O50" s="160">
+      <c r="O50" s="87">
         <f t="shared" si="14"/>
         <v>9.4135514234522155E-2</v>
       </c>
-      <c r="P50" s="161">
+      <c r="P50" s="88">
         <f t="shared" si="15"/>
         <v>134.74524152371728</v>
       </c>
-      <c r="Q50" s="162">
+      <c r="Q50" s="89">
         <f t="shared" si="16"/>
         <v>5.4085925412412958</v>
       </c>
-      <c r="R50" s="163">
+      <c r="R50" s="90">
         <f t="shared" si="17"/>
         <v>-1.0125830766348385</v>
       </c>
-      <c r="S50" s="164">
+      <c r="S50" s="91">
         <f t="shared" si="18"/>
         <v>121.88353197430089</v>
       </c>
-      <c r="T50" s="165">
+      <c r="T50" s="92">
         <f t="shared" si="19"/>
         <v>-71.139277628126919</v>
       </c>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="61">
+      <c r="B51" s="57">
         <v>0.95</v>
       </c>
-      <c r="C51" s="160">
+      <c r="C51" s="87">
         <f t="shared" si="2"/>
         <v>2.8759063653016317</v>
       </c>
-      <c r="D51" s="161">
+      <c r="D51" s="88">
         <f t="shared" si="3"/>
         <v>-121.84960469583228</v>
       </c>
-      <c r="E51" s="162">
+      <c r="E51" s="89">
         <f t="shared" si="4"/>
         <v>54.235944159449339</v>
       </c>
-      <c r="F51" s="163">
+      <c r="F51" s="90">
         <f t="shared" si="5"/>
         <v>3.2474951071036307</v>
       </c>
-      <c r="G51" s="164">
+      <c r="G51" s="91">
         <f t="shared" si="6"/>
         <v>-133.80971047952286</v>
       </c>
-      <c r="H51" s="165">
+      <c r="H51" s="92">
         <f t="shared" si="7"/>
         <v>-22.457966091905885</v>
       </c>
-      <c r="I51" s="160">
+      <c r="I51" s="87">
         <f t="shared" si="8"/>
         <v>-2.6641014582739566</v>
       </c>
-      <c r="J51" s="161">
+      <c r="J51" s="88">
         <f t="shared" si="9"/>
         <v>-105.99391329540958</v>
       </c>
-      <c r="K51" s="162">
+      <c r="K51" s="89">
         <f t="shared" si="10"/>
         <v>-94.92369196981511</v>
       </c>
-      <c r="L51" s="163">
+      <c r="L51" s="90">
         <f t="shared" si="11"/>
         <v>1.212621044383198</v>
       </c>
-      <c r="M51" s="164">
+      <c r="M51" s="91">
         <f t="shared" si="12"/>
         <v>106.86183736903985</v>
       </c>
-      <c r="N51" s="165">
+      <c r="N51" s="92">
         <f t="shared" si="13"/>
         <v>78.548004306764113</v>
       </c>
-      <c r="O51" s="160">
+      <c r="O51" s="87">
         <f t="shared" si="14"/>
         <v>0.10590245351383741</v>
       </c>
-      <c r="P51" s="161">
+      <c r="P51" s="88">
         <f t="shared" si="15"/>
         <v>134.6776345531531</v>
       </c>
-      <c r="Q51" s="162">
+      <c r="Q51" s="89">
         <f t="shared" si="16"/>
         <v>6.0822784288549174</v>
       </c>
-      <c r="R51" s="163">
+      <c r="R51" s="90">
         <f t="shared" si="17"/>
         <v>-1.0008161373555233</v>
       </c>
-      <c r="S51" s="164">
+      <c r="S51" s="91">
         <f t="shared" si="18"/>
         <v>122.71752876946249</v>
       </c>
-      <c r="T51" s="165">
+      <c r="T51" s="92">
         <f t="shared" si="19"/>
         <v>-70.611631822500328</v>
       </c>
     </row>
     <row r="52" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="72">
+      <c r="B52" s="66">
         <v>1</v>
       </c>
-      <c r="C52" s="169">
+      <c r="C52" s="96">
         <f t="shared" si="2"/>
         <v>2.8876733045809466</v>
       </c>
-      <c r="D52" s="170">
+      <c r="D52" s="97">
         <f t="shared" si="3"/>
         <v>-122.47398292283262</v>
       </c>
-      <c r="E52" s="171">
+      <c r="E52" s="98">
         <f t="shared" si="4"/>
         <v>51.886983448827763</v>
       </c>
-      <c r="F52" s="172">
+      <c r="F52" s="99">
         <f t="shared" si="5"/>
         <v>3.259262046382946</v>
       </c>
-      <c r="G52" s="173">
+      <c r="G52" s="100">
         <f t="shared" si="6"/>
         <v>-133.53082895337246</v>
       </c>
-      <c r="H52" s="174">
+      <c r="H52" s="101">
         <f t="shared" si="7"/>
         <v>-24.942347902271134</v>
       </c>
-      <c r="I52" s="169">
+      <c r="I52" s="96">
         <f t="shared" si="8"/>
         <v>-2.6523345189946417</v>
       </c>
-      <c r="J52" s="170">
+      <c r="J52" s="97">
         <f t="shared" si="9"/>
         <v>-104.86427732785779</v>
       </c>
-      <c r="K52" s="171">
+      <c r="K52" s="98">
         <f t="shared" si="10"/>
         <v>-97.075757761376607</v>
       </c>
-      <c r="L52" s="172">
+      <c r="L52" s="99">
         <f t="shared" si="11"/>
         <v>1.2243879836625133</v>
       </c>
-      <c r="M52" s="173">
+      <c r="M52" s="100">
         <f t="shared" si="12"/>
         <v>105.93555359948068</v>
       </c>
-      <c r="N52" s="174">
+      <c r="N52" s="101">
         <f t="shared" si="13"/>
         <v>78.88853202778914</v>
       </c>
-      <c r="O52" s="169">
+      <c r="O52" s="96">
         <f t="shared" si="14"/>
         <v>0.11766939279315269</v>
       </c>
-      <c r="P52" s="170">
+      <c r="P52" s="97">
         <f t="shared" si="15"/>
         <v>134.60210522499534</v>
       </c>
-      <c r="Q52" s="171">
+      <c r="Q52" s="98">
         <f t="shared" si="16"/>
         <v>6.755122168683612</v>
       </c>
-      <c r="R52" s="172">
+      <c r="R52" s="99">
         <f t="shared" si="17"/>
         <v>-0.98904919807620795</v>
       </c>
-      <c r="S52" s="173">
+      <c r="S52" s="100">
         <f t="shared" si="18"/>
         <v>123.54525919445554</v>
       </c>
-      <c r="T52" s="174">
+      <c r="T52" s="101">
         <f t="shared" si="19"/>
         <v>-70.074209182415203</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="G13:M18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="G19:M24"/>
@@ -6810,39 +6835,6 @@
     <mergeCell ref="O30:Q30"/>
     <mergeCell ref="R30:T30"/>
     <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="G13:M18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G12:M12"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6870,410 +6862,410 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="49">
         <f>170/2000</f>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D2" s="52"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-85</v>
       </c>
-      <c r="B3" s="73">
+      <c r="B3" s="67">
         <f>A3/$B$2</f>
         <v>-999.99999999999989</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-80</v>
       </c>
-      <c r="B4" s="73">
+      <c r="B4" s="67">
         <f t="shared" ref="B4:B38" si="0">A4/$B$2</f>
         <v>-941.17647058823525</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-75</v>
       </c>
-      <c r="B5" s="73">
+      <c r="B5" s="67">
         <f t="shared" si="0"/>
         <v>-882.35294117647049</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="74"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-70</v>
       </c>
-      <c r="B6" s="73">
+      <c r="B6" s="67">
         <f t="shared" si="0"/>
         <v>-823.52941176470586</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-65</v>
       </c>
-      <c r="B7" s="73">
+      <c r="B7" s="67">
         <f t="shared" si="0"/>
         <v>-764.7058823529411</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="68"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-60</v>
       </c>
-      <c r="B8" s="73">
+      <c r="B8" s="67">
         <f t="shared" si="0"/>
         <v>-705.88235294117646</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-55</v>
       </c>
-      <c r="B9" s="73">
+      <c r="B9" s="67">
         <f t="shared" si="0"/>
         <v>-647.05882352941171</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-50</v>
       </c>
-      <c r="B10" s="73">
+      <c r="B10" s="67">
         <f t="shared" si="0"/>
         <v>-588.23529411764707</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-45</v>
       </c>
-      <c r="B11" s="73">
+      <c r="B11" s="67">
         <f t="shared" si="0"/>
         <v>-529.41176470588232</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-40</v>
       </c>
-      <c r="B12" s="73">
+      <c r="B12" s="67">
         <f t="shared" si="0"/>
         <v>-470.58823529411762</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-35</v>
       </c>
-      <c r="B13" s="73">
+      <c r="B13" s="67">
         <f t="shared" si="0"/>
         <v>-411.76470588235293</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-30</v>
       </c>
-      <c r="B14" s="73">
+      <c r="B14" s="67">
         <f t="shared" si="0"/>
         <v>-352.94117647058823</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-25</v>
       </c>
-      <c r="B15" s="73">
+      <c r="B15" s="67">
         <f t="shared" si="0"/>
         <v>-294.11764705882354</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-20</v>
       </c>
-      <c r="B16" s="73">
+      <c r="B16" s="67">
         <f t="shared" si="0"/>
         <v>-235.29411764705881</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-15</v>
       </c>
-      <c r="B17" s="73">
+      <c r="B17" s="67">
         <f t="shared" si="0"/>
         <v>-176.47058823529412</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-10</v>
       </c>
-      <c r="B18" s="73">
+      <c r="B18" s="67">
         <f t="shared" si="0"/>
         <v>-117.64705882352941</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-5</v>
       </c>
-      <c r="B19" s="73">
+      <c r="B19" s="67">
         <f t="shared" si="0"/>
         <v>-58.823529411764703</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-1</v>
       </c>
-      <c r="B20" s="73">
+      <c r="B20" s="67">
         <f t="shared" si="0"/>
         <v>-11.76470588235294</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="73">
+      <c r="B21" s="67">
         <f t="shared" si="0"/>
         <v>11.76470588235294</v>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="68"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
-      <c r="B22" s="73">
+      <c r="B22" s="67">
         <f t="shared" si="0"/>
         <v>58.823529411764703</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10</v>
       </c>
-      <c r="B23" s="73">
+      <c r="B23" s="67">
         <f t="shared" si="0"/>
         <v>117.64705882352941</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>15</v>
       </c>
-      <c r="B24" s="73">
+      <c r="B24" s="67">
         <f t="shared" si="0"/>
         <v>176.47058823529412</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
-      <c r="B25" s="73">
+      <c r="B25" s="67">
         <f t="shared" si="0"/>
         <v>235.29411764705881</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="73">
+      <c r="B26" s="67">
         <f t="shared" si="0"/>
         <v>294.11764705882354</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="74"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>30</v>
       </c>
-      <c r="B27" s="73">
+      <c r="B27" s="67">
         <f t="shared" si="0"/>
         <v>352.94117647058823</v>
       </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="74"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>35</v>
       </c>
-      <c r="B28" s="73">
+      <c r="B28" s="67">
         <f t="shared" si="0"/>
         <v>411.76470588235293</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>40</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="67">
         <f t="shared" si="0"/>
         <v>470.58823529411762</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="74"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>45</v>
       </c>
-      <c r="B30" s="73">
+      <c r="B30" s="67">
         <f t="shared" si="0"/>
         <v>529.41176470588232</v>
       </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="74"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="68"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>50</v>
       </c>
-      <c r="B31" s="73">
+      <c r="B31" s="67">
         <f t="shared" si="0"/>
         <v>588.23529411764707</v>
       </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="74"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>55</v>
       </c>
-      <c r="B32" s="73">
+      <c r="B32" s="67">
         <f t="shared" si="0"/>
         <v>647.05882352941171</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>60</v>
       </c>
-      <c r="B33" s="73">
+      <c r="B33" s="67">
         <f t="shared" si="0"/>
         <v>705.88235294117646</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="74"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="68"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>65</v>
       </c>
-      <c r="B34" s="73">
+      <c r="B34" s="67">
         <f t="shared" si="0"/>
         <v>764.7058823529411</v>
       </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="74"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="68"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>70</v>
       </c>
-      <c r="B35" s="73">
+      <c r="B35" s="67">
         <f t="shared" si="0"/>
         <v>823.52941176470586</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="74"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="68"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>75</v>
       </c>
-      <c r="B36" s="73">
+      <c r="B36" s="67">
         <f t="shared" si="0"/>
         <v>882.35294117647049</v>
       </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="74"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="68"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>80</v>
       </c>
-      <c r="B37" s="73">
+      <c r="B37" s="67">
         <f t="shared" si="0"/>
         <v>941.17647058823525</v>
       </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="74"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="68"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>85</v>
       </c>
-      <c r="B38" s="73">
+      <c r="B38" s="67">
         <f t="shared" si="0"/>
         <v>999.99999999999989</v>
       </c>
-      <c r="C38" s="73"/>
-      <c r="D38" s="74"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/IK and trajectory algorithms.xlsx
+++ b/docs/IK and trajectory algorithms.xlsx
@@ -1276,6 +1276,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1297,6 +1309,126 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1339,12 +1471,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1363,136 +1489,10 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2667,11 +2667,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217349120"/>
-        <c:axId val="218104576"/>
+        <c:axId val="221010944"/>
+        <c:axId val="221033216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217349120"/>
+        <c:axId val="221010944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -2702,13 +2702,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218104576"/>
+        <c:crossAx val="221033216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218104576"/>
+        <c:axId val="221033216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -2748,7 +2748,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217349120"/>
+        <c:crossAx val="221010944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -3076,11 +3076,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="192384000"/>
-        <c:axId val="218113536"/>
+        <c:axId val="163605504"/>
+        <c:axId val="221779456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192384000"/>
+        <c:axId val="163605504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -3093,13 +3093,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218113536"/>
+        <c:crossAx val="221779456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218113536"/>
+        <c:axId val="221779456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -3112,7 +3112,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192384000"/>
+        <c:crossAx val="163605504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2000"/>
@@ -3285,11 +3285,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="218432640"/>
-        <c:axId val="218434176"/>
+        <c:axId val="222106752"/>
+        <c:axId val="222108288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="218432640"/>
+        <c:axId val="222106752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3298,7 +3298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218434176"/>
+        <c:crossAx val="222108288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3306,7 +3306,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218434176"/>
+        <c:axId val="222108288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3317,7 +3317,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218432640"/>
+        <c:crossAx val="222106752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3741,24 +3741,24 @@
       <c r="C2" s="2">
         <v>45</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="E2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="107" t="s">
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="107"/>
-      <c r="J2" s="108" t="s">
+      <c r="I2" s="111"/>
+      <c r="J2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109" t="s">
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="109"/>
+      <c r="N2" s="113"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -3861,19 +3861,19 @@
       <c r="C6" s="4">
         <v>84</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
@@ -3885,10 +3885,10 @@
       <c r="C7" s="23">
         <v>141</v>
       </c>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="103"/>
+      <c r="F7" s="107"/>
       <c r="G7" s="71" t="s">
         <v>19</v>
       </c>
@@ -3904,14 +3904,14 @@
       <c r="K7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="104" t="s">
+      <c r="L7" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="104"/>
-      <c r="N7" s="105" t="s">
+      <c r="M7" s="108"/>
+      <c r="N7" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="105"/>
+      <c r="O7" s="109"/>
       <c r="P7" s="25"/>
       <c r="Q7" s="25"/>
       <c r="R7" s="25"/>
@@ -4036,7 +4036,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4065,14 +4067,14 @@
       <c r="AB1" s="55"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="149">
+      <c r="C2" s="120"/>
+      <c r="D2" s="123">
         <v>500</v>
       </c>
-      <c r="E2" s="150"/>
+      <c r="E2" s="124"/>
       <c r="G2" s="102"/>
       <c r="H2" s="102"/>
       <c r="I2" s="51"/>
@@ -4084,10 +4086,10 @@
       <c r="S2" s="55"/>
       <c r="T2" s="55"/>
       <c r="U2" s="55"/>
-      <c r="V2" s="110" t="s">
+      <c r="V2" s="154" t="s">
         <v>73</v>
       </c>
-      <c r="W2" s="111"/>
+      <c r="W2" s="155"/>
       <c r="X2" s="78" t="s">
         <v>74</v>
       </c>
@@ -4098,14 +4100,14 @@
       <c r="AB2" s="55"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="151">
+      <c r="C3" s="122"/>
+      <c r="D3" s="125">
         <v>50</v>
       </c>
-      <c r="E3" s="152"/>
+      <c r="E3" s="126"/>
       <c r="G3" s="72"/>
       <c r="H3" s="72"/>
       <c r="O3" s="55"/>
@@ -4155,20 +4157,20 @@
       <c r="AB4" s="55"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="155" t="s">
+      <c r="B5" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="157"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="133"/>
       <c r="N5" s="51"/>
       <c r="O5" s="48"/>
       <c r="P5" s="48"/>
@@ -4191,30 +4193,30 @@
       <c r="AB5" s="55"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B6" s="161" t="s">
+      <c r="B6" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="162"/>
-      <c r="D6" s="161" t="s">
+      <c r="C6" s="138"/>
+      <c r="D6" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="162"/>
-      <c r="F6" s="161" t="s">
+      <c r="E6" s="138"/>
+      <c r="F6" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="162"/>
-      <c r="H6" s="161" t="s">
+      <c r="G6" s="138"/>
+      <c r="H6" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="162"/>
-      <c r="J6" s="161" t="s">
+      <c r="I6" s="138"/>
+      <c r="J6" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="162"/>
-      <c r="L6" s="161" t="s">
+      <c r="K6" s="138"/>
+      <c r="L6" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="162"/>
+      <c r="M6" s="138"/>
       <c r="O6" s="55"/>
       <c r="P6" s="55"/>
       <c r="Q6" s="55"/>
@@ -4429,20 +4431,20 @@
       <c r="AB10" s="55"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="159"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="159"/>
-      <c r="M11" s="160"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="136"/>
       <c r="O11" s="55"/>
       <c r="P11" s="55"/>
       <c r="Q11" s="55"/>
@@ -4464,25 +4466,25 @@
       <c r="AB11" s="55"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B12" s="153" t="s">
+      <c r="B12" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="166">
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="129">
         <f>EXP((1000 - ABS(D2)) / $Y$3) * (D2 / ABS(D2))</f>
         <v>77.459666924148308</v>
       </c>
-      <c r="F12" s="167"/>
-      <c r="G12" s="163" t="s">
+      <c r="F12" s="130"/>
+      <c r="G12" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="165"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="116"/>
       <c r="O12" s="55"/>
       <c r="P12" s="55"/>
       <c r="Q12" s="55"/>
@@ -4504,25 +4506,25 @@
       <c r="AB12" s="55"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="168">
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="150">
         <f>SQRT((E12-C7)^2+C9^2)</f>
         <v>206.55682848202841</v>
       </c>
-      <c r="F13" s="169"/>
-      <c r="G13" s="140" t="s">
+      <c r="F13" s="151"/>
+      <c r="G13" s="147" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="142"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="149"/>
       <c r="O13" s="55"/>
       <c r="P13" s="55"/>
       <c r="Q13" s="55"/>
@@ -4544,23 +4546,23 @@
       <c r="AB13" s="55"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="168">
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="150">
         <f>SQRT((E12-E7)^2+E9^2)</f>
         <v>212.45966692414831</v>
       </c>
-      <c r="F14" s="169"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="142"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="149"/>
       <c r="O14" s="55"/>
       <c r="P14" s="55"/>
       <c r="Q14" s="55"/>
@@ -4582,23 +4584,23 @@
       <c r="AB14" s="55"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B15" s="124" t="s">
+      <c r="B15" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="168">
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="150">
         <f>SQRT((E12-G7)^2+G9^2)</f>
         <v>206.55682848202841</v>
       </c>
-      <c r="F15" s="169"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="142"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="149"/>
       <c r="O15" s="55"/>
       <c r="P15" s="55"/>
       <c r="Q15" s="55"/>
@@ -4620,23 +4622,23 @@
       <c r="AB15" s="55"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="168">
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="150">
         <f>SQRT((E12-I7)^2+I9^2)</f>
         <v>83.870594414525797</v>
       </c>
-      <c r="F16" s="169"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="142"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="149"/>
       <c r="V16" s="73">
         <v>-350</v>
       </c>
@@ -4646,23 +4648,23 @@
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="168">
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="150">
         <f>SQRT((E12-K7)^2+K9^2)</f>
         <v>57.540333075851692</v>
       </c>
-      <c r="F17" s="169"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="142"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="148"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="149"/>
       <c r="V17" s="73">
         <v>-300</v>
       </c>
@@ -4672,23 +4674,23 @@
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="168">
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="150">
         <f>SQRT((E12-M7)^2+M9^2)</f>
         <v>83.870594414525797</v>
       </c>
-      <c r="F18" s="169"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="142"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="149"/>
       <c r="V18" s="73">
         <v>-250</v>
       </c>
@@ -4698,28 +4700,28 @@
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="170">
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="103">
         <f>ATAN2(-(E12-C7), C9)</f>
         <v>2.7700039117877941</v>
       </c>
-      <c r="F19" s="171">
+      <c r="F19" s="104">
         <f t="shared" ref="F19:F24" si="1">DEGREES(E19)</f>
         <v>158.70953338016898</v>
       </c>
-      <c r="G19" s="114" t="s">
+      <c r="G19" s="158" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="116"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="159"/>
+      <c r="M19" s="160"/>
       <c r="V19" s="73">
         <v>-200</v>
       </c>
@@ -4729,26 +4731,26 @@
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="125"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="170">
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="103">
         <f>ATAN2(-(E12-E7), E9)</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="F20" s="171">
+      <c r="F20" s="104">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="119"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="162"/>
+      <c r="L20" s="162"/>
+      <c r="M20" s="163"/>
       <c r="V20" s="73">
         <v>-150</v>
       </c>
@@ -4758,26 +4760,26 @@
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="170">
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="103">
         <f>ATAN2(-(E12-G7), G9)</f>
         <v>-2.7700039117877941</v>
       </c>
-      <c r="F21" s="171">
+      <c r="F21" s="104">
         <f t="shared" si="1"/>
         <v>-158.70953338016898</v>
       </c>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="119"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="163"/>
       <c r="V21" s="73">
         <v>-100</v>
       </c>
@@ -4787,26 +4789,26 @@
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="124" t="s">
+      <c r="B22" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="170">
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="103">
         <f>ATAN2(-(E12-I7), I9)</f>
         <v>1.1067185908693606</v>
       </c>
-      <c r="F22" s="171">
+      <c r="F22" s="104">
         <f t="shared" si="1"/>
         <v>63.410304365480052</v>
       </c>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="119"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="162"/>
+      <c r="M22" s="163"/>
       <c r="V22" s="73">
         <v>-50</v>
       </c>
@@ -4816,52 +4818,52 @@
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="124" t="s">
+      <c r="B23" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="170">
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="103">
         <f>ATAN2(-(E12-K7), K9)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="171">
+      <c r="F23" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="119"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="162"/>
+      <c r="K23" s="162"/>
+      <c r="L23" s="162"/>
+      <c r="M23" s="163"/>
       <c r="V23" s="73">
         <v>0</v>
       </c>
       <c r="W23" s="76"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="124" t="s">
+      <c r="B24" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="170">
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="103">
         <f>ATAN2(-(E12-M7), M9)</f>
         <v>-1.1067185908693606</v>
       </c>
-      <c r="F24" s="171">
+      <c r="F24" s="104">
         <f t="shared" si="1"/>
         <v>-63.410304365480052</v>
       </c>
-      <c r="G24" s="120"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="121"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="122"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="166"/>
       <c r="V24" s="73">
         <v>50</v>
       </c>
@@ -4871,23 +4873,23 @@
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="143" t="s">
+      <c r="B25" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="172">
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="174">
         <f>MAX(E13:F18)</f>
         <v>212.45966692414831</v>
       </c>
-      <c r="F25" s="173"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="133"/>
-      <c r="L25" s="133"/>
-      <c r="M25" s="134"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="140"/>
+      <c r="L25" s="140"/>
+      <c r="M25" s="141"/>
       <c r="V25" s="73">
         <v>100</v>
       </c>
@@ -4897,28 +4899,28 @@
       </c>
     </row>
     <row r="26" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="135" t="s">
+      <c r="B26" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="174">
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="105">
         <f>SIGN(E12) * D3 / E25</f>
         <v>0.23533878558630539</v>
       </c>
-      <c r="F26" s="175">
+      <c r="F26" s="106">
         <f>ABS(E26)</f>
         <v>0.23533878558630539</v>
       </c>
-      <c r="G26" s="137" t="s">
+      <c r="G26" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="139"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="145"/>
+      <c r="L26" s="145"/>
+      <c r="M26" s="146"/>
       <c r="V26" s="73">
         <v>150</v>
       </c>
@@ -4946,27 +4948,27 @@
       </c>
     </row>
     <row r="29" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="167" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="123"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="123"/>
-      <c r="T29" s="123"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="167"/>
+      <c r="L29" s="167"/>
+      <c r="M29" s="167"/>
+      <c r="N29" s="167"/>
+      <c r="O29" s="167"/>
+      <c r="P29" s="167"/>
+      <c r="Q29" s="167"/>
+      <c r="R29" s="167"/>
+      <c r="S29" s="167"/>
+      <c r="T29" s="167"/>
       <c r="V29" s="73">
         <v>300</v>
       </c>
@@ -4976,39 +4978,39 @@
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="112" t="s">
+      <c r="B30" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="129" t="s">
+      <c r="C30" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="130"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="126" t="s">
+      <c r="D30" s="172"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="127"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="129" t="s">
+      <c r="G30" s="169"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="J30" s="130"/>
-      <c r="K30" s="131"/>
-      <c r="L30" s="126" t="s">
+      <c r="J30" s="172"/>
+      <c r="K30" s="173"/>
+      <c r="L30" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="M30" s="127"/>
-      <c r="N30" s="128"/>
-      <c r="O30" s="129" t="s">
+      <c r="M30" s="169"/>
+      <c r="N30" s="170"/>
+      <c r="O30" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="P30" s="130"/>
-      <c r="Q30" s="131"/>
-      <c r="R30" s="126" t="s">
+      <c r="P30" s="172"/>
+      <c r="Q30" s="173"/>
+      <c r="R30" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="S30" s="127"/>
-      <c r="T30" s="128"/>
+      <c r="S30" s="169"/>
+      <c r="T30" s="170"/>
       <c r="V30" s="73">
         <v>350</v>
       </c>
@@ -5018,7 +5020,7 @@
       </c>
     </row>
     <row r="31" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="113"/>
+      <c r="B31" s="157"/>
       <c r="C31" s="58" t="s">
         <v>58</v>
       </c>
@@ -6786,6 +6788,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="G19:M24"/>
+    <mergeCell ref="B29:T29"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="G13:M18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
@@ -6802,39 +6837,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="G13:M18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="G19:M24"/>
-    <mergeCell ref="B29:T29"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="E25:F25"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
